--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F13D998-0A25-42D4-8371-42DFB1719386}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9335D6C8-CE0E-49C5-8AD6-430A96111A0A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2985" windowWidth="28800" windowHeight="9660" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="9660" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Instrument</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>(1994, 1995)</t>
+  </si>
+  <si>
+    <t>H3LM7</t>
+  </si>
+  <si>
+    <t>Are you currently working for pay for at least 10 hours a week?</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>H4LM11</t>
   </si>
 </sst>
 </file>
@@ -554,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +580,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,6 +850,40 @@
       </c>
       <c r="E16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9335D6C8-CE0E-49C5-8AD6-430A96111A0A}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0646E585-03CB-4030-B241-8723583038AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="9660" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="2985" windowWidth="28800" windowHeight="9660" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Instrument</t>
   </si>
@@ -195,6 +195,84 @@
   </si>
   <si>
     <t>H4LM11</t>
+  </si>
+  <si>
+    <t>H4CJ1</t>
+  </si>
+  <si>
+    <t>Have you ever been arrested?</t>
+  </si>
+  <si>
+    <t>Jail</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>What is your current marital status?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5)</t>
+  </si>
+  <si>
+    <t>Divorce</t>
+  </si>
+  <si>
+    <t>H1DS13</t>
+  </si>
+  <si>
+    <t>How often did you steal something worth less than $50?</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,6,8)</t>
+  </si>
+  <si>
+    <t>StealLess</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>H2DS11</t>
+  </si>
+  <si>
+    <t>H4CJ17</t>
+  </si>
+  <si>
+    <t>Have you ever spent time in a jail, prison, juvenile detention center or other correctional facility?</t>
+  </si>
+  <si>
+    <t>H1IR12</t>
+  </si>
+  <si>
+    <t>How would you describe the immediate area or street where the respondent lives?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6)</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variablecollection?VariableCollectionId=1723</t>
+  </si>
+  <si>
+    <t>H2IR12</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>How far did you go in school?</t>
+  </si>
+  <si>
+    <t>(1,10,2,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>SES</t>
   </si>
 </sst>
 </file>
@@ -569,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +659,7 @@
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,7 +931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -869,7 +948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -884,13 +963,157 @@
       </c>
       <c r="E18" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F25" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F26" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0646E585-03CB-4030-B241-8723583038AF}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CEF8E3BF-CBCE-433A-9916-0C64E71FC435}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2985" windowWidth="28800" windowHeight="9660" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="4305" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Instrument</t>
   </si>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>SES</t>
+  </si>
+  <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t>W1,W2</t>
+  </si>
+  <si>
+    <t>Identification Variable</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -647,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,31 +695,31 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -715,53 +730,56 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -769,10 +787,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -783,13 +801,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -800,27 +815,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -831,19 +846,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -865,16 +880,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -885,30 +900,30 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -916,10 +931,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -936,24 +951,24 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -970,16 +985,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,10 +1002,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1001,19 +1016,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,41 +1036,41 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -1069,30 +1084,27 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>71</v>
@@ -1107,11 +1119,31 @@
         <v>74</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F25" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F26" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F6" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F26" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F27" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CEF8E3BF-CBCE-433A-9916-0C64E71FC435}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32C90D62-4E0F-4519-B54F-727056D79343}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4305" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-15345" yWindow="7725" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>Instrument</t>
   </si>
@@ -288,6 +288,75 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>H3CJ5</t>
+  </si>
+  <si>
+    <t>How many time were you arrested before you were 18?</t>
+  </si>
+  <si>
+    <t>(1-30, 96, 97)</t>
+  </si>
+  <si>
+    <t>Jincarceration</t>
+  </si>
+  <si>
+    <t>H4ED2</t>
+  </si>
+  <si>
+    <t>What is the highest level of education that you have achieved to date?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,7,8,9,10,11,12,13)</t>
+  </si>
+  <si>
+    <t>Highgrade15</t>
+  </si>
+  <si>
+    <t>H4CJ20</t>
+  </si>
+  <si>
+    <t>How wold were you the first time you went to jail, prison, juvenile detention or other correctional facility?</t>
+  </si>
+  <si>
+    <t>(7,8,11,12,13,14-30,31,97)</t>
+  </si>
+  <si>
+    <t>FirstIncarcerationAge</t>
+  </si>
+  <si>
+    <t>S2Q15Y</t>
+  </si>
+  <si>
+    <t>In what year did your mother figure die?</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4368</t>
+  </si>
+  <si>
+    <t>H4WP28</t>
+  </si>
+  <si>
+    <t>Is your father figure still alive?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4442</t>
+  </si>
+  <si>
+    <t>H2FV1</t>
+  </si>
+  <si>
+    <t>During the past 12 months, how often did the following happen? You saw someone shoot or stab another person</t>
+  </si>
+  <si>
+    <t>(0,1,2)</t>
+  </si>
+  <si>
+    <t>Gunshot12to18</t>
   </si>
 </sst>
 </file>
@@ -662,18 +731,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1033,70 +1102,70 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,19 +1173,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,28 +1190,138 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F26" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F27" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F31" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F32" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="201" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32C90D62-4E0F-4519-B54F-727056D79343}"/>
   <bookViews>
-    <workbookView xWindow="-15345" yWindow="7725" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32C90D62-4E0F-4519-B54F-727056D79343}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75F937A6-1B01-46FD-9DCB-B39979958AB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="151">
   <si>
     <t>Instrument</t>
   </si>
@@ -357,6 +358,135 @@
   </si>
   <si>
     <t>Gunshot12to18</t>
+  </si>
+  <si>
+    <t>H3DS16</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how many times did you take part in a physical fight in which you were so badly injured that you were treated by a doctor or nurse?</t>
+  </si>
+  <si>
+    <t>(0,1-56,96)</t>
+  </si>
+  <si>
+    <t>Juvenile Attack</t>
+  </si>
+  <si>
+    <t>H1TO53</t>
+  </si>
+  <si>
+    <t>Is a gun easily available to you in your home?</t>
+  </si>
+  <si>
+    <t>Juvenile Gun</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7988</t>
+  </si>
+  <si>
+    <t>H1DS2</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you deliberately damage property that didn't belong to you?</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,6)</t>
+  </si>
+  <si>
+    <t>Juvenile Destroy Property</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7201</t>
+  </si>
+  <si>
+    <t>H1DS9</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you steal something worth more than $50?</t>
+  </si>
+  <si>
+    <t>JuvenileStealMore</t>
+  </si>
+  <si>
+    <t>JuvenileStealLess</t>
+  </si>
+  <si>
+    <t>H4DS2</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you steal something worth less than $50?</t>
+  </si>
+  <si>
+    <t>AdultStealMore</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7216</t>
+  </si>
+  <si>
+    <t>H4DS6</t>
+  </si>
+  <si>
+    <t>AdultStealLess</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7224</t>
+  </si>
+  <si>
+    <t>H1JO11</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you get into a physical fight?</t>
+  </si>
+  <si>
+    <t>(0,1,6,7)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7969</t>
+  </si>
+  <si>
+    <t>H1DS5</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you get into a serious physical fight?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7968</t>
+  </si>
+  <si>
+    <t>H3CJ108A</t>
+  </si>
+  <si>
+    <t>How long did you serve in jail or prison (months)?</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,4,5,6,7,8,9,11,97(</t>
+  </si>
+  <si>
+    <t>TotalIncarceMonths</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7457</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6733</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>H3HR24</t>
+  </si>
+  <si>
+    <t>Have you ever been homeless for a week or longer?</t>
+  </si>
+  <si>
+    <t>H3HR25</t>
+  </si>
+  <si>
+    <t>Have you ever stayed in a homeless shelter?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6734</t>
   </si>
 </sst>
 </file>
@@ -731,16 +861,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
@@ -1105,50 +1235,53 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>142</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,41 +1289,41 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -1199,47 +1332,41 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,16 +1374,19 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>127</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,64 +1394,287 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>105</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" t="s">
         <v>106</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F31" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F32" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F32" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F33" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F35" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F36" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F41" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F42" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F30" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F31" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F39" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F40" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F43" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F44" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75F937A6-1B01-46FD-9DCB-B39979958AB0}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{564CE0E4-B966-4EE3-8E74-94C16BD014C4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="186">
   <si>
     <t>Instrument</t>
   </si>
@@ -459,9 +458,6 @@
     <t>How long did you serve in jail or prison (months)?</t>
   </si>
   <si>
-    <t>(0,1,2,3,4,5,6,7,8,9,11,97(</t>
-  </si>
-  <si>
     <t>TotalIncarceMonths</t>
   </si>
   <si>
@@ -487,6 +483,114 @@
   </si>
   <si>
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6734</t>
+  </si>
+  <si>
+    <t>H1FV3</t>
+  </si>
+  <si>
+    <t>During the past 12 months, how often did the following happen? Someone shot or stabbed you.</t>
+  </si>
+  <si>
+    <t>H4DS19</t>
+  </si>
+  <si>
+    <t>Which of the following things happened in the past 12 months? You pulled a knife or gun on someone.</t>
+  </si>
+  <si>
+    <t>AdultGun</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7237</t>
+  </si>
+  <si>
+    <t>H4DS1</t>
+  </si>
+  <si>
+    <t>(0,1,2,3)</t>
+  </si>
+  <si>
+    <t>AdultDestroyProperty</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7204</t>
+  </si>
+  <si>
+    <t>H4CJ9I</t>
+  </si>
+  <si>
+    <t>The last time you were arrested, what were you charged with: simple assault</t>
+  </si>
+  <si>
+    <t>AdultAttack</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7408</t>
+  </si>
+  <si>
+    <t>H4DS5</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you sell marijuana or other drugs?</t>
+  </si>
+  <si>
+    <t>(0,1,3)</t>
+  </si>
+  <si>
+    <t>AdultSellDrugs</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7819</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,4,5,6,7,8,9,11,97)</t>
+  </si>
+  <si>
+    <t>H4CJ24M</t>
+  </si>
+  <si>
+    <t>Before you 18th birthday, about how much total time did you spend in jail or detention? [months]</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,4,5,6,7,8,9,10,11)</t>
+  </si>
+  <si>
+    <t>TotalMonthsIncarceJuvenile</t>
+  </si>
+  <si>
+    <t>H4CJ25M</t>
+  </si>
+  <si>
+    <t>Since you 18th birthday, about how much total time have you spent in jail or prison? [months]</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,4,5,6,7,8,9,10,11,97)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7460</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7452</t>
+  </si>
+  <si>
+    <t>AdultIncarceMon</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>H1DS12</t>
+  </si>
+  <si>
+    <t>Juvenile Sell Drugs</t>
+  </si>
+  <si>
+    <t>H2DS10</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7817</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7816</t>
   </si>
 </sst>
 </file>
@@ -539,13 +643,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +977,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -892,138 +997,168 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>158</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>179</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>130</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>127</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,33 +1166,27 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,16 +1194,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,16 +1211,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,30 +1228,30 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -1130,10 +1259,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -1147,53 +1276,53 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,16 +1330,16 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,121 +1347,127 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
+      <c r="A22" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>73</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,16 +1475,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,16 +1492,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,113 +1509,107 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>144</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>100</v>
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,36 +1617,33 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,36 +1651,33 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>111</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,19 +1685,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
         <v>111</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,19 +1705,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,62 +1742,235 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="B44" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>150</v>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+    <sortCondition ref="E2:E53"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F32" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F33" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F35" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F36" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F41" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F9" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F26" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F27" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F21" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F43" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
     <hyperlink ref="F42" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
-    <hyperlink ref="F30" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
-    <hyperlink ref="F31" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F39" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F40" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F43" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F44" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F40" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F41" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F50" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F33" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F34" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F4" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
+    <hyperlink ref="F3" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
+    <hyperlink ref="F2" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
+    <hyperlink ref="F6" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
+    <hyperlink ref="F5" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
+    <hyperlink ref="F51" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F44" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F45" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{564CE0E4-B966-4EE3-8E74-94C16BD014C4}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9273C977-E749-402F-9F53-E19089876F80}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-9345" yWindow="3465" windowWidth="28800" windowHeight="8640" activeTab="1" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="243">
   <si>
     <t>Instrument</t>
   </si>
@@ -591,6 +592,177 @@
   </si>
   <si>
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7816</t>
+  </si>
+  <si>
+    <t>Geography97</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Twoparenthome</t>
+  </si>
+  <si>
+    <t>Victim</t>
+  </si>
+  <si>
+    <t>Gunshotless12</t>
+  </si>
+  <si>
+    <t>Poverty</t>
+  </si>
+  <si>
+    <t>Hospitalization</t>
+  </si>
+  <si>
+    <t>Elementary Suspend</t>
+  </si>
+  <si>
+    <t>Middle Suspend</t>
+  </si>
+  <si>
+    <t>High Suspend</t>
+  </si>
+  <si>
+    <t>Element Dropout</t>
+  </si>
+  <si>
+    <t>Middle Dropout</t>
+  </si>
+  <si>
+    <t>High Dropout</t>
+  </si>
+  <si>
+    <t>ElementMiddle Dropout</t>
+  </si>
+  <si>
+    <t>TotalIncarceration</t>
+  </si>
+  <si>
+    <t>TotalIncarceMonth</t>
+  </si>
+  <si>
+    <t>ElementaryIncarceMonths</t>
+  </si>
+  <si>
+    <t>Middle Incarce Months</t>
+  </si>
+  <si>
+    <t>High Incarce Months</t>
+  </si>
+  <si>
+    <t>Adult Incarce Months</t>
+  </si>
+  <si>
+    <t>Aincarceration</t>
+  </si>
+  <si>
+    <t>Juvenile Steal Less</t>
+  </si>
+  <si>
+    <t>Juvenile Steal More</t>
+  </si>
+  <si>
+    <t>Juvenile Other Property</t>
+  </si>
+  <si>
+    <t>Adult Gun</t>
+  </si>
+  <si>
+    <t>Adult Destroy Property</t>
+  </si>
+  <si>
+    <t>Adult Steal Less</t>
+  </si>
+  <si>
+    <t>Adult Steal More</t>
+  </si>
+  <si>
+    <t>Adult Other Property</t>
+  </si>
+  <si>
+    <t>Adult Attack</t>
+  </si>
+  <si>
+    <t>Adult Sell Drugs</t>
+  </si>
+  <si>
+    <t>H1GI21</t>
+  </si>
+  <si>
+    <t>H2GI10</t>
+  </si>
+  <si>
+    <t>Why aren't/weren't you going to school?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,97)</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,7,97)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6951</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6952</t>
+  </si>
+  <si>
+    <t>H3DS8</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you buy, sell, or hold stolen property?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7242</t>
+  </si>
+  <si>
+    <t>H4DS8</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7243</t>
+  </si>
+  <si>
+    <t>GunshotLess12</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7500</t>
+  </si>
+  <si>
+    <t>H3ID32</t>
+  </si>
+  <si>
+    <t>How long was your most recent hospital stay?</t>
+  </si>
+  <si>
+    <t>(0,1-99,997)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=1629</t>
+  </si>
+  <si>
+    <t>H3ID30</t>
+  </si>
+  <si>
+    <t>How long ago was you most recent hospitalization?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=1627</t>
+  </si>
+  <si>
+    <t>H3ID29</t>
+  </si>
+  <si>
+    <t>In the past five years, how many times have you been hospitalized?</t>
+  </si>
+  <si>
+    <t>(0,1-99)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=1626</t>
   </si>
 </sst>
 </file>
@@ -622,12 +794,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -643,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -651,6 +829,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -966,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,50 +1683,56 @@
       <c r="E29" t="s">
         <v>107</v>
       </c>
+      <c r="F29" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>230</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -1557,22 +1743,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1592,41 +1775,44 @@
         <v>144</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,10 +1820,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -1648,19 +1834,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,36 +1854,33 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>111</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,19 +1888,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
         <v>111</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,19 +1908,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
         <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,19 +1928,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,27 +1948,27 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
         <v>165</v>
@@ -1797,24 +1980,27 @@
         <v>182</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>182</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,115 +2008,115 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>173</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -1942,9 +2128,166 @@
         <v>51</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
-    <sortCondition ref="E2:E53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
+    <sortCondition ref="E2:E54"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
@@ -1952,25 +2295,293 @@
     <hyperlink ref="F27" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
     <hyperlink ref="F20" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
     <hyperlink ref="F21" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F43" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F42" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F44" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F43" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
     <hyperlink ref="F8" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
     <hyperlink ref="F7" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F40" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F41" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F50" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F33" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F34" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F41" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F42" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F51" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F34" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F35" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
     <hyperlink ref="F3" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
     <hyperlink ref="F2" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
     <hyperlink ref="F6" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
     <hyperlink ref="F5" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F51" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F44" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F45" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F52" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F45" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F46" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F55" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F56" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F57" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
+    <hyperlink ref="F58" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
+    <hyperlink ref="F30" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F59" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F60" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F61" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9273C977-E749-402F-9F53-E19089876F80}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E736AE24-7FCA-4822-8B1E-A6AC9FF76E9E}"/>
   <bookViews>
-    <workbookView xWindow="-9345" yWindow="3465" windowWidth="28800" windowHeight="8640" activeTab="1" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="245">
   <si>
     <t>Instrument</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=1626</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=5968</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7110</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,22 +1189,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,19 +1212,19 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,19 +1232,19 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,19 +1252,19 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,19 +1272,19 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,19 +1292,19 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,67 +1312,79 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>127</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,13 +1392,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -1391,33 +1406,30 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,30 +1437,30 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
@@ -1459,47 +1471,47 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -1507,56 +1519,53 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,127 +1573,130 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
+      <c r="A24" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>221</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,161 +1704,167 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>84</v>
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>144</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,16 +1872,19 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>144</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,153 +1892,144 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>192</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>120</v>
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,124 +2037,136 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>119</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>182</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,99 +2174,93 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,80 +2268,76 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
-    <sortCondition ref="E2:E54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+    <sortCondition ref="E2:E61"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F26" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F27" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F20" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F21" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F44" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F43" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F41" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F42" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F51" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F34" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F35" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
-    <hyperlink ref="F4" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
-    <hyperlink ref="F3" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
-    <hyperlink ref="F2" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
-    <hyperlink ref="F6" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
-    <hyperlink ref="F5" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F52" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F45" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F46" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F55" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
-    <hyperlink ref="F56" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
-    <hyperlink ref="F57" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
-    <hyperlink ref="F58" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F59" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F60" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F61" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F11" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F31" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F22" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F23" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F51" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F50" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F48" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F49" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F58" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F38" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F39" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F6" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
+    <hyperlink ref="F5" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
+    <hyperlink ref="F59" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F52" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F53" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F2" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
+    <hyperlink ref="F3" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
+    <hyperlink ref="F34" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F33" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F40" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F41" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F42" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F24" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F56" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -2331,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="498" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E736AE24-7FCA-4822-8B1E-A6AC9FF76E9E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E736AE24-7FCA-4822-8B1E-A6AC9FF76E9E}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46A68364-4F24-476A-979F-CCAE57082788}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="3810" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +795,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -827,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -837,6 +850,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1154,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,203 +1204,176 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,13 +1381,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,13 +1398,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,16 +1415,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,33 +1432,36 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>221</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,33 +1469,39 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,16 +1509,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>230</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1522,90 +1529,96 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>111</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
+      <c r="A24" t="s">
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,98 +1626,98 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>221</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -1724,19 +1737,16 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,503 +1754,509 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>182</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>230</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F37" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B38" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C38" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E38" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F38" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B39" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C39" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E39" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F39" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B40" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C40" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D40" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E40" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F40" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B41" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C41" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D41" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E41" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F41" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>56</v>
+      <c r="E45" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>214</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>162</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,36 +2264,36 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>173</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,42 +2315,42 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
-    <sortCondition ref="E2:E61"/>
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F31" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F23" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F51" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F50" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F48" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F49" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F58" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F38" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F39" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
-    <hyperlink ref="F6" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
-    <hyperlink ref="F5" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
-    <hyperlink ref="F8" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
-    <hyperlink ref="F7" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F59" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F52" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F53" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
-    <hyperlink ref="F26" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
-    <hyperlink ref="F2" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
-    <hyperlink ref="F3" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F34" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F33" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F40" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F41" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F42" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
-    <hyperlink ref="F24" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F56" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F4" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F30" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F54" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F55" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F24" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F23" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F53" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F52" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F44" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F37" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F38" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F49" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
+    <hyperlink ref="F48" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
+    <hyperlink ref="F47" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
+    <hyperlink ref="F51" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
+    <hyperlink ref="F50" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
+    <hyperlink ref="F60" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F32" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F16" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F29" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F34" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
+    <hyperlink ref="F46" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F18" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F39" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F40" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F41" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F2" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F3" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
@@ -2346,7 +2362,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46A68364-4F24-476A-979F-CCAE57082788}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB846193-FAEE-444E-8EA7-E935F918D981}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3810" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="293">
   <si>
     <t>Instrument</t>
   </si>
@@ -54,9 +54,6 @@
     <t>BIO_SEX3</t>
   </si>
   <si>
-    <t>(1,2)</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>H3CJ5</t>
   </si>
   <si>
-    <t>How many time were you arrested before you were 18?</t>
-  </si>
-  <si>
     <t>(1-30, 96, 97)</t>
   </si>
   <si>
@@ -769,6 +763,156 @@
   </si>
   <si>
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7110</t>
+  </si>
+  <si>
+    <t>(1=Male,2=Female)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=311</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=328</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7279</t>
+  </si>
+  <si>
+    <t>H4CJ6</t>
+  </si>
+  <si>
+    <t>How many times have you been arrested since your 18th birthday?</t>
+  </si>
+  <si>
+    <t>(1-56, 96,97,98)</t>
+  </si>
+  <si>
+    <t>Adult Incarceration</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7359</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=196</t>
+  </si>
+  <si>
+    <t>H2NF5</t>
+  </si>
+  <si>
+    <t>How old were you when he [biological father] died?</t>
+  </si>
+  <si>
+    <t>(0-19, 97, 98)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4453</t>
+  </si>
+  <si>
+    <t>H2NM5</t>
+  </si>
+  <si>
+    <t>How old were you when she [biological mother] died?</t>
+  </si>
+  <si>
+    <t>(0-19, 96, 97, 98)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4447</t>
+  </si>
+  <si>
+    <t>Before your 18th birthday, about how much total time did you spend in jail or detention? [months]</t>
+  </si>
+  <si>
+    <t>(0-11, 96,97,98)</t>
+  </si>
+  <si>
+    <t>JIncarceMonths</t>
+  </si>
+  <si>
+    <t>H4CJ24Y</t>
+  </si>
+  <si>
+    <t>Before your 18th birthday, about how much total time did you spend in jail or detention? [years]</t>
+  </si>
+  <si>
+    <t>(0-9, 96,97,98)</t>
+  </si>
+  <si>
+    <t>JIncarceYears</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7451</t>
+  </si>
+  <si>
+    <t>H4CJ25Y</t>
+  </si>
+  <si>
+    <t>Since you 18th birthday, about how much total time have you spent in jail or prison? [years]</t>
+  </si>
+  <si>
+    <t>(0-12,96,97,98)</t>
+  </si>
+  <si>
+    <t>AIncarceYears</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7459</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=915</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=312</t>
+  </si>
+  <si>
+    <t>JIncarceration</t>
+  </si>
+  <si>
+    <t>H4CJ5</t>
+  </si>
+  <si>
+    <t>How many times were you arrested before your 18th birthday?</t>
+  </si>
+  <si>
+    <t>How many times were you arrested before you were 18?</t>
+  </si>
+  <si>
+    <t>(1-95,996,997,998)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7280</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>How far did your current (spouse/partner) go in school?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,7,8,9,10,11,12,96,97)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6975</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Do you live with your biological father, stepfather, foster father, or adoptive father?</t>
+  </si>
+  <si>
+    <t>(0,1,9)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4118</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Do you live with your biological mother, stepmother, foster mother, or adoptive mother?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4117</t>
   </si>
 </sst>
 </file>
@@ -840,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -853,6 +997,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1168,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,727 +1342,749 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>244</v>
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>160</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>156</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>152</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>177</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>165</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>128</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>125</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>120</v>
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>97</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
+      <c r="A27" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
         <v>219</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E29" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" t="s">
-        <v>182</v>
+      <c r="A32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>35</v>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>143</v>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38"/>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>235</v>
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>238</v>
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1925,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1945,16 +2112,19 @@
         <v>4</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>88</v>
+        <v>142</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1962,16 +2132,19 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>111</v>
+        <v>190</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1979,19 +2152,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1999,361 +2172,576 @@
         <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>154</v>
+      <c r="A49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" t="s">
-        <v>179</v>
+      <c r="A50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>167</v>
+      <c r="A51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>130</v>
+      <c r="A52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>180</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>180</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="A60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
         <v>50</v>
       </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="B69" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
-    <sortCondition ref="A2:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F68">
+    <sortCondition ref="E2:E68"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F17" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F30" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F54" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F55" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F23" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
-    <hyperlink ref="F53" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
-    <hyperlink ref="F52" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F21" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F44" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F37" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F38" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
-    <hyperlink ref="F49" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
-    <hyperlink ref="F48" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
-    <hyperlink ref="F47" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
-    <hyperlink ref="F51" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
-    <hyperlink ref="F50" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F60" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F25" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F32" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F16" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F12" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F33" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F23" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F24" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F57" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F56" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F53" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F54" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F65" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F41" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F7" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
+    <hyperlink ref="F6" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
+    <hyperlink ref="F5" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
+    <hyperlink ref="F8" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
+    <hyperlink ref="F66" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F58" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F59" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F28" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
     <hyperlink ref="F29" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
-    <hyperlink ref="F34" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
-    <hyperlink ref="F46" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F19" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F18" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F39" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F40" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F41" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
-    <hyperlink ref="F2" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F3" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F3" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
+    <hyperlink ref="F4" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
+    <hyperlink ref="F37" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F35" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F43" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F44" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F45" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F27" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F62" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F39" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
+    <hyperlink ref="F17" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
+    <hyperlink ref="F51" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
+    <hyperlink ref="F2" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
+    <hyperlink ref="F32" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
+    <hyperlink ref="F25" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
+    <hyperlink ref="F26" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
+    <hyperlink ref="F49" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
+    <hyperlink ref="F50" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
+    <hyperlink ref="F69" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
+    <hyperlink ref="F22" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
+    <hyperlink ref="F40" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
+    <hyperlink ref="F52" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
+    <hyperlink ref="F63" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
+    <hyperlink ref="F70" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
+    <hyperlink ref="F71" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -2361,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,242 +2760,242 @@
   <sheetData>
     <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>206</v>
+      <c r="A11" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>144</v>
+      <c r="A27" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB846193-FAEE-444E-8EA7-E935F918D981}"/>
+  <xr:revisionPtr revIDLastSave="594" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{987AA060-5672-45D5-8FC1-770380B6063E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,106 +1614,109 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -1724,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1735,66 +1738,63 @@
       <c r="E22" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,161 +1802,161 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E26" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
         <v>219</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>219</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>243</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
@@ -1973,33 +1973,33 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>104</v>
@@ -2007,75 +2007,75 @@
       <c r="E36" t="s">
         <v>105</v>
       </c>
-      <c r="F36"/>
+      <c r="F36" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F37"/>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38"/>
+        <v>228</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F39"/>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2084,27 +2084,27 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2112,10 +2112,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>20</v>
@@ -2124,7 +2124,7 @@
         <v>142</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2132,19 +2132,19 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2152,19 +2152,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2172,54 +2172,56 @@
         <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
       </c>
       <c r="F47"/>
     </row>
@@ -2228,10 +2230,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -2241,23 +2243,20 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>176</v>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,19 +2264,19 @@
         <v>51</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,23 +2320,23 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
+      <c r="A53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,77 +2344,77 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2423,27 +2422,27 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
         <v>163</v>
@@ -2455,62 +2454,62 @@
         <v>180</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2518,227 +2517,227 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>63</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>51</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>168</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>169</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>170</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>186</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>286</v>
-      </c>
-      <c r="C70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D70" t="s">
-        <v>288</v>
-      </c>
-      <c r="E70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>292</v>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F68">
-    <sortCondition ref="E2:E68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F71">
+    <sortCondition ref="E2:E71"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F33" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F34" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F23" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F24" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F57" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F56" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F34" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F35" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F58" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F57" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
     <hyperlink ref="F10" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F53" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F54" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F65" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F41" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F42" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F54" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F55" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F66" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F42" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F43" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
     <hyperlink ref="F7" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
     <hyperlink ref="F6" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
     <hyperlink ref="F5" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
     <hyperlink ref="F9" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
     <hyperlink ref="F8" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F66" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F58" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F59" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F28" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
-    <hyperlink ref="F29" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F67" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F59" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F60" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F30" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
     <hyperlink ref="F3" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
     <hyperlink ref="F4" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F37" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F35" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F43" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F44" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F45" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
-    <hyperlink ref="F27" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F62" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
-    <hyperlink ref="F39" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
-    <hyperlink ref="F17" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
+    <hyperlink ref="F38" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F36" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F44" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F45" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F46" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F28" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F63" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F40" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
+    <hyperlink ref="F18" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
     <hyperlink ref="F51" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
     <hyperlink ref="F2" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
-    <hyperlink ref="F32" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
-    <hyperlink ref="F25" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
-    <hyperlink ref="F26" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
-    <hyperlink ref="F49" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
-    <hyperlink ref="F50" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
-    <hyperlink ref="F69" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
-    <hyperlink ref="F22" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
-    <hyperlink ref="F40" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
+    <hyperlink ref="F33" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
+    <hyperlink ref="F26" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
+    <hyperlink ref="F27" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
+    <hyperlink ref="F50" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
+    <hyperlink ref="F53" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
+    <hyperlink ref="F16" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
+    <hyperlink ref="F23" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
+    <hyperlink ref="F41" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
     <hyperlink ref="F52" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
-    <hyperlink ref="F63" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
-    <hyperlink ref="F70" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
-    <hyperlink ref="F71" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
+    <hyperlink ref="F64" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
+    <hyperlink ref="F68" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
+    <hyperlink ref="F69" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId50"/>
@@ -2749,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,7 +2983,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>186</v>
       </c>
     </row>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{987AA060-5672-45D5-8FC1-770380B6063E}"/>
+  <xr:revisionPtr revIDLastSave="1317" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F187EBC-33D7-476C-AB56-7FFBB107D5CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="20025" yWindow="1770" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="List" sheetId="2" r:id="rId2"/>
+    <sheet name="VarsNeeded" sheetId="2" r:id="rId2"/>
+    <sheet name="VarDefinitions" sheetId="3" r:id="rId3"/>
+    <sheet name="Testing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="427">
   <si>
     <t>Instrument</t>
   </si>
@@ -913,13 +915,415 @@
   </si>
   <si>
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4117</t>
+  </si>
+  <si>
+    <t>Variable Definitions</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>H1GI1M</t>
+  </si>
+  <si>
+    <t>Vars Used</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>[11.39 - 21.14]</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Bdate = (H1GI1M, 15, H1GI1Y)</t>
+  </si>
+  <si>
+    <t>Creating Age Variable</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Age @ First Incarceration</t>
+  </si>
+  <si>
+    <t>[11-30]</t>
+  </si>
+  <si>
+    <t>If answer = (96,97,98), then NaN</t>
+  </si>
+  <si>
+    <t>Months Incarcerated as a Juvenile</t>
+  </si>
+  <si>
+    <t>[0-36]</t>
+  </si>
+  <si>
+    <t>Months = (12*JIncarceMonths) + JIncarceMonths2</t>
+  </si>
+  <si>
+    <t>Months Incarcerated as an Adult</t>
+  </si>
+  <si>
+    <t>If Missing/Refused/Don't Know, Then NaN</t>
+  </si>
+  <si>
+    <t>Months = (12*AIncarceMonths) + AIncarceMonths2</t>
+  </si>
+  <si>
+    <t>[0-114]</t>
+  </si>
+  <si>
+    <t>(1=Male, 2=Female)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>H1GI6D</t>
+  </si>
+  <si>
+    <t>H1GI6C</t>
+  </si>
+  <si>
+    <t>H1GI6E</t>
+  </si>
+  <si>
+    <t>H1GI6A</t>
+  </si>
+  <si>
+    <t>[Hispanic, Black, Asian, NativeAmerican, White, Other]</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Creating Race Variable</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>U.S. Citizenship</t>
+  </si>
+  <si>
+    <t>If Refused/Don't Know, then NA</t>
+  </si>
+  <si>
+    <t>Parent's Highest Education</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>IF Refused, then NA</t>
+  </si>
+  <si>
+    <t>Parent 1</t>
+  </si>
+  <si>
+    <t>Parent 2</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Two Parent Home</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>If Refused, then NA</t>
+  </si>
+  <si>
+    <t>If Other/Refused/Don't Know/NA, then NA</t>
+  </si>
+  <si>
+    <t>If Urban/Suburban/Mostly Retail/Mostly Industrial, then 1</t>
+  </si>
+  <si>
+    <t>Juvenile Incarceration</t>
+  </si>
+  <si>
+    <t>If Missing, then NA</t>
+  </si>
+  <si>
+    <t>Employed as an Adult</t>
+  </si>
+  <si>
+    <t>H3DA28</t>
+  </si>
+  <si>
+    <t>If Refused/Not Applicable, then NA</t>
+  </si>
+  <si>
+    <t>Do you currently have a job?</t>
+  </si>
+  <si>
+    <t>(0,1,6,8,9)</t>
+  </si>
+  <si>
+    <t>Adult Unemployment</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=8060</t>
+  </si>
+  <si>
+    <t>H1RM4</t>
+  </si>
+  <si>
+    <t>What kind of work does she [resident mother] do?</t>
+  </si>
+  <si>
+    <t>(1-16, 96, 97, 98, 99)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4474</t>
+  </si>
+  <si>
+    <t>H1RF4</t>
+  </si>
+  <si>
+    <t>What kind of work does he [resident father] do?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4501</t>
+  </si>
+  <si>
+    <t>Mother has a Job</t>
+  </si>
+  <si>
+    <t>If NA/Not Applicable/Refused/Don't Know/No Mother, then NaN</t>
+  </si>
+  <si>
+    <t>Father has a Job</t>
+  </si>
+  <si>
+    <t>If NA/Not Applicable/Refused/Don't Know/No Father, then NaN</t>
+  </si>
+  <si>
+    <t>H1RM7</t>
+  </si>
+  <si>
+    <t>Approximately how many hours a week does she [resident mother] work for pay?</t>
+  </si>
+  <si>
+    <t>(1-168, 996, 997, 998, 999)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4481</t>
+  </si>
+  <si>
+    <t>H1RF7</t>
+  </si>
+  <si>
+    <t>Approximately how many hours a week does he [resident father] work for pay?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4508</t>
+  </si>
+  <si>
+    <t>Mother's Hours worked per Week</t>
+  </si>
+  <si>
+    <t>[1-168]</t>
+  </si>
+  <si>
+    <t>If Missing/Refused, then NaN</t>
+  </si>
+  <si>
+    <t>If Don't Know, then 40 hours per week</t>
+  </si>
+  <si>
+    <t>Father's Hours worked per Week</t>
+  </si>
+  <si>
+    <t>[3-120]</t>
+  </si>
+  <si>
+    <t>Mother Regular Overtime</t>
+  </si>
+  <si>
+    <t>Overtime TRUE if Hours worked per week &gt; 40</t>
+  </si>
+  <si>
+    <t>Father Regular Overtime</t>
+  </si>
+  <si>
+    <t>Grade @ Wave 1</t>
+  </si>
+  <si>
+    <t>H1GI20</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>[7,8,9,10,11,12]</t>
+  </si>
+  <si>
+    <t>If Missing/Refused/Don't Know, then NA</t>
+  </si>
+  <si>
+    <t>Legitimate Skip means not in school</t>
+  </si>
+  <si>
+    <t>Grade Level @ Wave 1</t>
+  </si>
+  <si>
+    <t>["Middle", "High"]</t>
+  </si>
+  <si>
+    <t>If 96,98,99 then NA</t>
+  </si>
+  <si>
+    <t>What grade {ARE/WERE} you in?</t>
+  </si>
+  <si>
+    <t>[7-12,96,97,98,99)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6949</t>
+  </si>
+  <si>
+    <t>Did they Dropout of School</t>
+  </si>
+  <si>
+    <t>H2GI9</t>
+  </si>
+  <si>
+    <t>What grade are you in? What grade were you in this past school year?</t>
+  </si>
+  <si>
+    <t>(7-14,97,98)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6950</t>
+  </si>
+  <si>
+    <t>Grade Level @ Wave 2</t>
+  </si>
+  <si>
+    <t>[7,8,9,10,11,12,13]</t>
+  </si>
+  <si>
+    <t>13 = Beyond H.S.</t>
+  </si>
+  <si>
+    <t>Grade @ Wave 2</t>
+  </si>
+  <si>
+    <t>["Middle", "High", "Beyond"]</t>
+  </si>
+  <si>
+    <t>Dropout Wave 2</t>
+  </si>
+  <si>
+    <t>Dropout Wave 1</t>
+  </si>
+  <si>
+    <t>Did he/she dropout at either point in his/her education path?</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>Dropped Out</t>
+  </si>
+  <si>
+    <t>Sick/Leave</t>
+  </si>
+  <si>
+    <t>Graduated</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>Expelled</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Sick/Injured</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1    2    3    4    5    6    7   97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1     0    1    0    0    0    0    0    2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2     0    0    6    0    0    6    0    4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3     0    0    0    0    0    0    0    2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4     0    0    0    0    0    2    0    1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5     0    0    0    0    0    0    1    1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  97    5   16   69    3    3   76   10 3061</t>
+  </si>
+  <si>
+    <t>NA      0    0    3    0    0    0    0    15</t>
+  </si>
+  <si>
+    <t>H1GI10</t>
+  </si>
+  <si>
+    <t>Dropout if Dropped Out/Sick/On Leave/Pregnant</t>
+  </si>
+  <si>
+    <t>Did they Dropout of Middle School</t>
+  </si>
+  <si>
+    <t>W1GradeLevel</t>
+  </si>
+  <si>
+    <t>W2GradeLevel</t>
+  </si>
+  <si>
+    <t>Did they Dropout of High School?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1360,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -971,7 +1397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -979,12 +1405,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,6 +1439,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,22 +1904,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,19 +1927,19 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,19 +1947,19 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,19 +1967,19 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,19 +1987,19 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,19 +2007,19 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,53 +2027,59 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1601,139 +2101,136 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1744,10 +2241,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1755,66 +2252,63 @@
       <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,161 +2316,161 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
         <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>219</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>243</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -1993,33 +2487,33 @@
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -2027,144 +2521,144 @@
       <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="F37"/>
+      <c r="F37" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F38"/>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39"/>
+        <v>228</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F40"/>
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
+      <c r="D42" t="s">
+        <v>392</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2172,19 +2666,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2192,131 +2686,130 @@
         <v>4</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>20</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2324,97 +2817,99 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
+      <c r="A54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
+      <c r="A55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="8"/>
+        <v>267</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2422,325 +2917,470 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="10"/>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>180</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>282</v>
-      </c>
-      <c r="C64" t="s">
-        <v>283</v>
-      </c>
-      <c r="D64" t="s">
-        <v>284</v>
-      </c>
-      <c r="E64" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="A64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>140</v>
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>292</v>
+        <v>139</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="8"/>
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>51</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>52</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C74" t="s">
         <v>49</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D74" t="s">
         <v>20</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E74" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" t="s">
+        <v>351</v>
+      </c>
+      <c r="D75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>354</v>
+      </c>
+      <c r="C76" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" t="s">
+        <v>352</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>365</v>
+      </c>
+      <c r="C78" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F71">
-    <sortCondition ref="E2:E71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
+    <sortCondition ref="E2:E78"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F34" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F35" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F24" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F25" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F58" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F57" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F54" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F55" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F66" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F42" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F43" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
-    <hyperlink ref="F7" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
-    <hyperlink ref="F6" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
-    <hyperlink ref="F5" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
-    <hyperlink ref="F8" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F67" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F59" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F60" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
-    <hyperlink ref="F30" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F13" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F36" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F25" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F61" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F60" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F57" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F58" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F69" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F45" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F46" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
+    <hyperlink ref="F6" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
+    <hyperlink ref="F70" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F62" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F63" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F30" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F31" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
     <hyperlink ref="F3" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
     <hyperlink ref="F4" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F38" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F36" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F44" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F45" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F46" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
-    <hyperlink ref="F28" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F63" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
-    <hyperlink ref="F40" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
-    <hyperlink ref="F18" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
-    <hyperlink ref="F51" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
+    <hyperlink ref="F39" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F37" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F47" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F48" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F49" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F29" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F66" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F43" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
+    <hyperlink ref="F54" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
     <hyperlink ref="F2" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
-    <hyperlink ref="F33" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
-    <hyperlink ref="F26" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
-    <hyperlink ref="F27" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
-    <hyperlink ref="F50" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
-    <hyperlink ref="F53" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
-    <hyperlink ref="F16" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
-    <hyperlink ref="F23" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
-    <hyperlink ref="F41" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
-    <hyperlink ref="F52" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
-    <hyperlink ref="F64" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
-    <hyperlink ref="F68" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
-    <hyperlink ref="F69" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
+    <hyperlink ref="F34" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
+    <hyperlink ref="F27" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
+    <hyperlink ref="F28" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
+    <hyperlink ref="F53" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
+    <hyperlink ref="F56" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
+    <hyperlink ref="F17" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
+    <hyperlink ref="F24" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
+    <hyperlink ref="F44" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
+    <hyperlink ref="F55" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
+    <hyperlink ref="F67" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
+    <hyperlink ref="F71" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
+    <hyperlink ref="F72" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
+    <hyperlink ref="F5" r:id="rId50" xr:uid="{82343614-6126-43E8-A2DF-54A97E93F3D9}"/>
+    <hyperlink ref="F75" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
+    <hyperlink ref="F76" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
+    <hyperlink ref="F77" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
+    <hyperlink ref="F78" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
+    <hyperlink ref="F41" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
+    <hyperlink ref="F42" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -2748,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,4 +3641,2545 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
+  <dimension ref="A1:P239"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="G207" sqref="G207"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>329</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" t="s">
+        <v>300</v>
+      </c>
+      <c r="G94" t="s">
+        <v>303</v>
+      </c>
+      <c r="H94" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" t="s">
+        <v>330</v>
+      </c>
+      <c r="F95" t="s">
+        <v>303</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" t="s">
+        <v>331</v>
+      </c>
+      <c r="F96" t="s">
+        <v>317</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="I96" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>300</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I97" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="G102" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" s="21"/>
+      <c r="G103" t="s">
+        <v>303</v>
+      </c>
+      <c r="H103" t="s">
+        <v>317</v>
+      </c>
+      <c r="I103" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" t="s">
+        <v>327</v>
+      </c>
+      <c r="E104" s="21"/>
+      <c r="F104" t="s">
+        <v>303</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="I105" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>300</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" t="s">
+        <v>323</v>
+      </c>
+      <c r="E111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="19"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>303</v>
+      </c>
+      <c r="B126" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>304</v>
+      </c>
+      <c r="B127" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>296</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" s="24"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>325</v>
+      </c>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" t="s">
+        <v>354</v>
+      </c>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>303</v>
+      </c>
+      <c r="B158" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>297</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C164" s="15"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>303</v>
+      </c>
+      <c r="B166" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>304</v>
+      </c>
+      <c r="B167" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>296</v>
+      </c>
+      <c r="B172" t="s">
+        <v>378</v>
+      </c>
+      <c r="C172" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>303</v>
+      </c>
+      <c r="B174" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>304</v>
+      </c>
+      <c r="B175" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>297</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>296</v>
+      </c>
+      <c r="B180" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>303</v>
+      </c>
+      <c r="B182" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>304</v>
+      </c>
+      <c r="B183" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>297</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>296</v>
+      </c>
+      <c r="B188" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>303</v>
+      </c>
+      <c r="B190" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>304</v>
+      </c>
+      <c r="B191" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>297</v>
+      </c>
+      <c r="B192" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>296</v>
+      </c>
+      <c r="B196" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>303</v>
+      </c>
+      <c r="B198" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>304</v>
+      </c>
+      <c r="B199" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>297</v>
+      </c>
+      <c r="B200" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H202" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+    </row>
+    <row r="203" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
+      <c r="H203" t="s">
+        <v>408</v>
+      </c>
+      <c r="I203" t="s">
+        <v>409</v>
+      </c>
+      <c r="J203" t="s">
+        <v>410</v>
+      </c>
+      <c r="K203" t="s">
+        <v>411</v>
+      </c>
+      <c r="L203" t="s">
+        <v>412</v>
+      </c>
+      <c r="M203" t="s">
+        <v>405</v>
+      </c>
+      <c r="N203" t="s">
+        <v>406</v>
+      </c>
+      <c r="O203" t="s">
+        <v>407</v>
+      </c>
+      <c r="P203" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>296</v>
+      </c>
+      <c r="B204" t="s">
+        <v>215</v>
+      </c>
+      <c r="C204" t="s">
+        <v>421</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G204" t="s">
+        <v>402</v>
+      </c>
+      <c r="H204" t="s">
+        <v>317</v>
+      </c>
+      <c r="I204" t="s">
+        <v>317</v>
+      </c>
+      <c r="J204" t="s">
+        <v>300</v>
+      </c>
+      <c r="K204" t="s">
+        <v>300</v>
+      </c>
+      <c r="L204" t="s">
+        <v>300</v>
+      </c>
+      <c r="M204" t="s">
+        <v>317</v>
+      </c>
+      <c r="N204" t="s">
+        <v>300</v>
+      </c>
+      <c r="O204" t="s">
+        <v>317</v>
+      </c>
+      <c r="P204" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
+        <v>325</v>
+      </c>
+      <c r="F205" s="25"/>
+      <c r="G205" t="s">
+        <v>403</v>
+      </c>
+      <c r="H205" t="s">
+        <v>300</v>
+      </c>
+      <c r="I205" t="s">
+        <v>300</v>
+      </c>
+      <c r="J205" t="s">
+        <v>300</v>
+      </c>
+      <c r="K205" t="s">
+        <v>300</v>
+      </c>
+      <c r="L205" t="s">
+        <v>300</v>
+      </c>
+      <c r="M205" t="s">
+        <v>300</v>
+      </c>
+      <c r="N205" t="s">
+        <v>300</v>
+      </c>
+      <c r="O205" t="s">
+        <v>300</v>
+      </c>
+      <c r="P205" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>303</v>
+      </c>
+      <c r="B206" t="s">
+        <v>300</v>
+      </c>
+      <c r="F206" s="25"/>
+      <c r="G206" t="s">
+        <v>404</v>
+      </c>
+      <c r="H206" t="s">
+        <v>300</v>
+      </c>
+      <c r="I206" t="s">
+        <v>300</v>
+      </c>
+      <c r="J206" t="s">
+        <v>300</v>
+      </c>
+      <c r="K206" t="s">
+        <v>300</v>
+      </c>
+      <c r="L206" t="s">
+        <v>300</v>
+      </c>
+      <c r="M206" t="s">
+        <v>300</v>
+      </c>
+      <c r="N206" t="s">
+        <v>300</v>
+      </c>
+      <c r="O206" t="s">
+        <v>300</v>
+      </c>
+      <c r="P206" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>304</v>
+      </c>
+      <c r="B207" t="s">
+        <v>323</v>
+      </c>
+      <c r="F207" s="25"/>
+      <c r="G207" t="s">
+        <v>405</v>
+      </c>
+      <c r="H207" t="s">
+        <v>317</v>
+      </c>
+      <c r="I207" t="s">
+        <v>317</v>
+      </c>
+      <c r="J207" t="s">
+        <v>317</v>
+      </c>
+      <c r="K207" t="s">
+        <v>317</v>
+      </c>
+      <c r="L207" t="s">
+        <v>317</v>
+      </c>
+      <c r="M207" t="s">
+        <v>317</v>
+      </c>
+      <c r="N207" t="s">
+        <v>317</v>
+      </c>
+      <c r="O207" t="s">
+        <v>317</v>
+      </c>
+      <c r="P207" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>297</v>
+      </c>
+      <c r="B208" t="s">
+        <v>422</v>
+      </c>
+      <c r="F208" s="25"/>
+      <c r="G208" t="s">
+        <v>406</v>
+      </c>
+      <c r="H208" t="s">
+        <v>300</v>
+      </c>
+      <c r="I208" t="s">
+        <v>300</v>
+      </c>
+      <c r="J208" t="s">
+        <v>300</v>
+      </c>
+      <c r="K208" t="s">
+        <v>300</v>
+      </c>
+      <c r="L208" t="s">
+        <v>300</v>
+      </c>
+      <c r="M208" t="s">
+        <v>300</v>
+      </c>
+      <c r="N208" t="s">
+        <v>300</v>
+      </c>
+      <c r="O208" t="s">
+        <v>300</v>
+      </c>
+      <c r="P208" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F209" s="25"/>
+      <c r="G209" t="s">
+        <v>407</v>
+      </c>
+      <c r="H209" t="s">
+        <v>317</v>
+      </c>
+      <c r="I209" t="s">
+        <v>317</v>
+      </c>
+      <c r="J209" t="s">
+        <v>300</v>
+      </c>
+      <c r="K209" t="s">
+        <v>300</v>
+      </c>
+      <c r="L209" t="s">
+        <v>300</v>
+      </c>
+      <c r="M209" t="s">
+        <v>317</v>
+      </c>
+      <c r="N209" t="s">
+        <v>300</v>
+      </c>
+      <c r="O209" t="s">
+        <v>317</v>
+      </c>
+      <c r="P209" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F210" s="25"/>
+      <c r="G210" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H210" t="s">
+        <v>299</v>
+      </c>
+      <c r="I210" t="s">
+        <v>299</v>
+      </c>
+      <c r="J210" t="s">
+        <v>300</v>
+      </c>
+      <c r="K210" t="s">
+        <v>300</v>
+      </c>
+      <c r="L210" t="s">
+        <v>300</v>
+      </c>
+      <c r="M210" t="s">
+        <v>299</v>
+      </c>
+      <c r="N210" t="s">
+        <v>300</v>
+      </c>
+      <c r="O210" t="s">
+        <v>299</v>
+      </c>
+      <c r="P210" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="16"/>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>296</v>
+      </c>
+      <c r="B212" t="s">
+        <v>424</v>
+      </c>
+      <c r="C212" t="s">
+        <v>425</v>
+      </c>
+      <c r="D212" t="s">
+        <v>219</v>
+      </c>
+      <c r="F212" s="29"/>
+      <c r="G212" s="16"/>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>325</v>
+      </c>
+      <c r="F213" s="29"/>
+      <c r="G213" s="16"/>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>303</v>
+      </c>
+      <c r="B214" t="s">
+        <v>317</v>
+      </c>
+      <c r="F214" s="29"/>
+      <c r="G214" s="16"/>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>304</v>
+      </c>
+      <c r="B215" t="s">
+        <v>323</v>
+      </c>
+      <c r="F215" s="29"/>
+      <c r="G215" s="16"/>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>297</v>
+      </c>
+      <c r="F216" s="29"/>
+      <c r="G216" s="16"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F217" s="29"/>
+      <c r="G217" s="16"/>
+    </row>
+    <row r="218" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="29"/>
+      <c r="G218" s="16"/>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>296</v>
+      </c>
+      <c r="B219" t="s">
+        <v>424</v>
+      </c>
+      <c r="C219" t="s">
+        <v>425</v>
+      </c>
+      <c r="D219" t="s">
+        <v>219</v>
+      </c>
+      <c r="F219" s="29"/>
+      <c r="G219" s="16"/>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>325</v>
+      </c>
+      <c r="F220" s="29"/>
+      <c r="G220" s="16"/>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>303</v>
+      </c>
+      <c r="B221" t="s">
+        <v>317</v>
+      </c>
+      <c r="F221" s="29"/>
+      <c r="G221" s="16"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>304</v>
+      </c>
+      <c r="B222" t="s">
+        <v>323</v>
+      </c>
+      <c r="F222" s="29"/>
+      <c r="G222" s="16"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>297</v>
+      </c>
+      <c r="F223" s="29"/>
+      <c r="G223" s="16"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F224" s="29"/>
+      <c r="G224" s="16"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F225" s="29"/>
+      <c r="G225" s="16"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="18"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>296</v>
+      </c>
+      <c r="B227" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>304</v>
+      </c>
+      <c r="B230" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>297</v>
+      </c>
+      <c r="B231" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="18"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>296</v>
+      </c>
+      <c r="B235" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>303</v>
+      </c>
+      <c r="B237" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>304</v>
+      </c>
+      <c r="B238" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>297</v>
+      </c>
+      <c r="B239" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="H202:P202"/>
+    <mergeCell ref="F204:F210"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A187:E187"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>
+    <hyperlink ref="B64" r:id="rId2" location="what-is-best-way-compute-race" xr:uid="{283A4687-DB78-40EE-A813-3629766CD0AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFFBAD8-CEAA-4D88-A3A2-33F51B629540}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="A1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1317" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F187EBC-33D7-476C-AB56-7FFBB107D5CE}"/>
+  <xr:revisionPtr revIDLastSave="1422" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27C8C807-7084-4759-957F-5749354B7956}"/>
   <bookViews>
-    <workbookView xWindow="20025" yWindow="1770" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="20445" yWindow="7440" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="VarsNeeded" sheetId="2" r:id="rId2"/>
     <sheet name="VarDefinitions" sheetId="3" r:id="rId3"/>
-    <sheet name="Testing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="437">
   <si>
     <t>Instrument</t>
   </si>
@@ -1073,9 +1072,6 @@
     <t>H3DA28</t>
   </si>
   <si>
-    <t>If Refused/Not Applicable, then NA</t>
-  </si>
-  <si>
     <t>Do you currently have a job?</t>
   </si>
   <si>
@@ -1277,30 +1273,6 @@
     <t>Leave</t>
   </si>
   <si>
-    <t xml:space="preserve">       1    2    3    4    5    6    7   97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1     0    1    0    0    0    0    0    2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2     0    0    6    0    0    6    0    4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3     0    0    0    0    0    0    0    2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4     0    0    0    0    0    2    0    1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5     0    0    0    0    0    0    1    1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  97    5   16   69    3    3   76   10 3061</t>
-  </si>
-  <si>
-    <t>NA      0    0    3    0    0    0    0    15</t>
-  </si>
-  <si>
     <t>H1GI10</t>
   </si>
   <si>
@@ -1317,13 +1289,70 @@
   </si>
   <si>
     <t>Did they Dropout of High School?</t>
+  </si>
+  <si>
+    <t>If Refused/Don't Know/Not Applicable, then NA</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>How many people live in your household?</t>
+  </si>
+  <si>
+    <t>(1-7, 99)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4095</t>
+  </si>
+  <si>
+    <t>How many people are in your family?</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>1 = Lives byself, 6 = 6 or more</t>
+  </si>
+  <si>
+    <t>H1NM3</t>
+  </si>
+  <si>
+    <t>(1-17, 96, 97, 98)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4446</t>
+  </si>
+  <si>
+    <t>H1NF3</t>
+  </si>
+  <si>
+    <t>(0-18, 97, 98)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4452</t>
+  </si>
+  <si>
+    <t>Did Mother or Father die? Death</t>
+  </si>
+  <si>
+    <t>Mother Alive</t>
+  </si>
+  <si>
+    <t>Father Alive</t>
+  </si>
+  <si>
+    <t>If Missing/Refused, then NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,9 +1407,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1425,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1442,27 +1481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1474,22 +1495,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -1807,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,16 +1961,16 @@
         <v>344</v>
       </c>
       <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
         <v>346</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>347</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,84 +2464,84 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>420</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>421</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>422</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>243</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -2507,33 +2558,33 @@
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
@@ -2541,115 +2592,115 @@
       <c r="E38" t="s">
         <v>105</v>
       </c>
-      <c r="F38"/>
+      <c r="F38" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F39"/>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40"/>
+        <v>228</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>378</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>388</v>
-      </c>
+      <c r="F41"/>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D42" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E42" t="s">
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>244</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
@@ -2658,27 +2709,27 @@
         <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,10 +2737,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>20</v>
@@ -2698,7 +2749,7 @@
         <v>142</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2706,19 +2757,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2726,19 +2777,19 @@
         <v>4</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2746,53 +2797,56 @@
         <v>4</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F49" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,10 +2854,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
@@ -2813,63 +2867,60 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>176</v>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>276</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,39 +2928,39 @@
         <v>51</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,77 +2968,77 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,27 +3046,27 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
         <v>163</v>
@@ -3027,62 +3078,62 @@
         <v>180</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" t="s">
-        <v>121</v>
-      </c>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,171 +3141,171 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
         <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>62</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>63</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E70" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>24</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>286</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>287</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>288</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>186</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E74" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>50</v>
-      </c>
+      <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
         <v>50</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,19 +3313,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E76" t="s">
         <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,19 +3333,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D77" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E77" t="s">
         <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3302,85 +3353,148 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E78" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>427</v>
+      </c>
+      <c r="C80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" t="s">
+        <v>428</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>430</v>
+      </c>
+      <c r="C81" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" t="s">
+        <v>431</v>
+      </c>
+      <c r="E81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
-    <sortCondition ref="E2:E78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F79">
+    <sortCondition ref="E2:E79"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F35" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F36" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F36" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F37" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
     <hyperlink ref="F25" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
     <hyperlink ref="F26" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F61" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F60" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F62" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F61" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
     <hyperlink ref="F12" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F57" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F58" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F69" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F45" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F46" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F58" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F59" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F70" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F46" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F47" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
     <hyperlink ref="F8" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
     <hyperlink ref="F7" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
     <hyperlink ref="F6" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
     <hyperlink ref="F10" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
     <hyperlink ref="F9" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F70" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F62" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F63" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F71" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F63" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F64" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
     <hyperlink ref="F30" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
     <hyperlink ref="F31" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
     <hyperlink ref="F3" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
     <hyperlink ref="F4" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F39" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F37" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F47" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F48" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F49" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F40" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F38" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F48" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F49" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F50" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
     <hyperlink ref="F29" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F66" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
-    <hyperlink ref="F43" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
+    <hyperlink ref="F67" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F44" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
     <hyperlink ref="F19" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
-    <hyperlink ref="F54" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
+    <hyperlink ref="F55" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
     <hyperlink ref="F2" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
-    <hyperlink ref="F34" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
+    <hyperlink ref="F35" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
     <hyperlink ref="F27" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
     <hyperlink ref="F28" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
-    <hyperlink ref="F53" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
-    <hyperlink ref="F56" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
+    <hyperlink ref="F54" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
+    <hyperlink ref="F57" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
     <hyperlink ref="F17" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
     <hyperlink ref="F24" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
-    <hyperlink ref="F44" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
-    <hyperlink ref="F55" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
-    <hyperlink ref="F67" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
-    <hyperlink ref="F71" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
-    <hyperlink ref="F72" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
+    <hyperlink ref="F45" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
+    <hyperlink ref="F56" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
+    <hyperlink ref="F68" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
+    <hyperlink ref="F72" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
+    <hyperlink ref="F73" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
     <hyperlink ref="F5" r:id="rId50" xr:uid="{82343614-6126-43E8-A2DF-54A97E93F3D9}"/>
-    <hyperlink ref="F75" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
-    <hyperlink ref="F76" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
-    <hyperlink ref="F77" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
-    <hyperlink ref="F78" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
-    <hyperlink ref="F41" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
-    <hyperlink ref="F42" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
+    <hyperlink ref="F76" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
+    <hyperlink ref="F77" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
+    <hyperlink ref="F78" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
+    <hyperlink ref="F79" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
+    <hyperlink ref="F42" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
+    <hyperlink ref="F43" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
+    <hyperlink ref="F32" r:id="rId57" xr:uid="{9CEB5978-510D-4B8E-A0F5-DFC59EEBC727}"/>
+    <hyperlink ref="F80" r:id="rId58" xr:uid="{78E8C26A-FBE3-4578-8FEF-66A2AC76FD68}"/>
+    <hyperlink ref="F81" r:id="rId59" xr:uid="{B3311435-ECC3-49CA-AE1B-4F4DDFAAD4F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -3388,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3567,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3463,7 +3577,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3645,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
-  <dimension ref="A1:P239"/>
+  <dimension ref="A1:P255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234:E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,27 +3775,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3728,23 +3842,23 @@
       <c r="A10" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3782,20 +3896,20 @@
       <c r="A18" t="s">
         <v>297</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3804,10 +3918,10 @@
       <c r="B22" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3837,21 +3951,21 @@
       <c r="A26" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3860,10 +3974,10 @@
       <c r="B30" t="s">
         <v>269</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3893,35 +4007,35 @@
       <c r="A34" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="12" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="A37" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3929,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3953,29 +4067,29 @@
         <v>297</v>
       </c>
       <c r="B42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>296</v>
       </c>
       <c r="B45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3983,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -4007,22 +4121,22 @@
         <v>297</v>
       </c>
       <c r="B49" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -4036,10 +4150,10 @@
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -4069,13 +4183,13 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -4098,12 +4212,12 @@
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -4130,13 +4244,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -4176,13 +4290,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4222,13 +4336,13 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -4266,20 +4380,20 @@
       <c r="A88" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -4296,11 +4410,11 @@
       <c r="B93" t="s">
         <v>329</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4329,13 +4443,13 @@
       <c r="F95" t="s">
         <v>303</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H95" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="I95" s="16" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4349,13 +4463,13 @@
       <c r="F96" t="s">
         <v>317</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H96" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I96" s="22" t="s">
+      <c r="I96" s="16" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4363,24 +4477,24 @@
       <c r="F97" t="s">
         <v>300</v>
       </c>
-      <c r="G97" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="H97" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="I97" s="22" t="s">
+      <c r="G97" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I97" s="16" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -4400,7 +4514,7 @@
       <c r="B101" t="s">
         <v>325</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="15" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4411,12 +4525,12 @@
       <c r="B102" t="s">
         <v>300</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="G102" s="12" t="s">
+      <c r="E102" s="15"/>
+      <c r="G102" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -4425,7 +4539,7 @@
       <c r="B103" t="s">
         <v>330</v>
       </c>
-      <c r="E103" s="21"/>
+      <c r="E103" s="15"/>
       <c r="G103" t="s">
         <v>303</v>
       </c>
@@ -4443,17 +4557,17 @@
       <c r="B104" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="21"/>
+      <c r="E104" s="15"/>
       <c r="F104" t="s">
         <v>303</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="G104" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H104" s="22" t="s">
+      <c r="H104" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="I104" s="22" t="s">
+      <c r="I104" s="16" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4461,13 +4575,13 @@
       <c r="F105" t="s">
         <v>317</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I105" s="22" t="s">
+      <c r="I105" s="16" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4475,24 +4589,24 @@
       <c r="F106" t="s">
         <v>300</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I106" s="22" t="s">
+      <c r="I106" s="16" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -4520,7 +4634,7 @@
       <c r="B110" t="s">
         <v>300</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="27" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4531,27 +4645,27 @@
       <c r="B111" t="s">
         <v>323</v>
       </c>
-      <c r="E111" s="19"/>
+      <c r="E111" s="27"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>297</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="19"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="27"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -4599,13 +4713,13 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -4643,110 +4757,110 @@
       <c r="A128" t="s">
         <v>297</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>296</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
+      <c r="B134" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>304</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>297</v>
       </c>
-      <c r="B136" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="B136" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="14"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
+      <c r="A139" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>296</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+        <v>349</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -4755,9 +4869,9 @@
       <c r="B141" t="s">
         <v>325</v>
       </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -4766,9 +4880,9 @@
       <c r="B142" t="s">
         <v>300</v>
       </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -4777,20 +4891,20 @@
       <c r="B143" t="s">
         <v>323</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>297</v>
       </c>
-      <c r="B144" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
+      <c r="B144" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" s="11"/>
@@ -4799,24 +4913,24 @@
       <c r="E145" s="11"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
+      <c r="A147" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>354</v>
-      </c>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
+        <v>353</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -4825,9 +4939,9 @@
       <c r="B149" t="s">
         <v>325</v>
       </c>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -4836,9 +4950,9 @@
       <c r="B150" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -4847,38 +4961,38 @@
       <c r="B151" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>297</v>
       </c>
-      <c r="B152" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
+      <c r="B152" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
+      <c r="A155" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>296</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C156" s="15"/>
+      <c r="B156" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4908,29 +5022,29 @@
       <c r="A160" t="s">
         <v>297</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>296</v>
       </c>
-      <c r="B164" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C164" s="15"/>
+      <c r="B164" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" s="22"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -4960,11 +5074,11 @@
       <c r="A168" t="s">
         <v>297</v>
       </c>
-      <c r="B168" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
+      <c r="B168" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
@@ -4972,23 +5086,23 @@
       <c r="D169" s="11"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
+      <c r="A171" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>296</v>
       </c>
       <c r="B172" t="s">
+        <v>377</v>
+      </c>
+      <c r="C172" t="s">
         <v>378</v>
-      </c>
-      <c r="C172" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4996,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5019,32 +5133,32 @@
       <c r="A176" t="s">
         <v>297</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15" t="s">
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>296</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5052,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5075,27 +5189,27 @@
       <c r="A184" t="s">
         <v>297</v>
       </c>
-      <c r="B184" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
+      <c r="B184" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
+      <c r="A187" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>296</v>
       </c>
       <c r="B188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,24 +5241,24 @@
         <v>297</v>
       </c>
       <c r="B192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
+      <c r="A195" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>296</v>
       </c>
       <c r="B196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
@@ -5152,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -5176,60 +5290,60 @@
         <v>297</v>
       </c>
       <c r="B200" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H202" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
+      <c r="H202" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="24"/>
+      <c r="O202" s="24"/>
+      <c r="P202" s="24"/>
     </row>
     <row r="203" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
+      <c r="A203" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
       <c r="H203" t="s">
+        <v>407</v>
+      </c>
+      <c r="I203" t="s">
         <v>408</v>
       </c>
-      <c r="I203" t="s">
+      <c r="J203" t="s">
         <v>409</v>
       </c>
-      <c r="J203" t="s">
+      <c r="K203" t="s">
         <v>410</v>
       </c>
-      <c r="K203" t="s">
+      <c r="L203" t="s">
         <v>411</v>
       </c>
-      <c r="L203" t="s">
-        <v>412</v>
-      </c>
       <c r="M203" t="s">
+        <v>404</v>
+      </c>
+      <c r="N203" t="s">
         <v>405</v>
       </c>
-      <c r="N203" t="s">
+      <c r="O203" t="s">
         <v>406</v>
       </c>
-      <c r="O203" t="s">
-        <v>407</v>
-      </c>
-      <c r="P203" s="16" t="s">
+      <c r="P203" s="13" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5241,13 +5355,13 @@
         <v>215</v>
       </c>
       <c r="C204" t="s">
-        <v>421</v>
-      </c>
-      <c r="F204" s="25" t="s">
-        <v>400</v>
+        <v>412</v>
+      </c>
+      <c r="F204" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="G204" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H204" t="s">
         <v>317</v>
@@ -5284,9 +5398,9 @@
       <c r="B205" t="s">
         <v>325</v>
       </c>
-      <c r="F205" s="25"/>
+      <c r="F205" s="29"/>
       <c r="G205" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H205" t="s">
         <v>300</v>
@@ -5323,9 +5437,9 @@
       <c r="B206" t="s">
         <v>300</v>
       </c>
-      <c r="F206" s="25"/>
+      <c r="F206" s="29"/>
       <c r="G206" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H206" t="s">
         <v>300</v>
@@ -5362,9 +5476,9 @@
       <c r="B207" t="s">
         <v>323</v>
       </c>
-      <c r="F207" s="25"/>
+      <c r="F207" s="29"/>
       <c r="G207" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H207" t="s">
         <v>317</v>
@@ -5399,44 +5513,44 @@
         <v>297</v>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
-      </c>
-      <c r="F208" s="25"/>
+        <v>413</v>
+      </c>
+      <c r="F208" s="29"/>
       <c r="G208" t="s">
+        <v>405</v>
+      </c>
+      <c r="H208" t="s">
+        <v>300</v>
+      </c>
+      <c r="I208" t="s">
+        <v>300</v>
+      </c>
+      <c r="J208" t="s">
+        <v>300</v>
+      </c>
+      <c r="K208" t="s">
+        <v>300</v>
+      </c>
+      <c r="L208" t="s">
+        <v>300</v>
+      </c>
+      <c r="M208" t="s">
+        <v>300</v>
+      </c>
+      <c r="N208" t="s">
+        <v>300</v>
+      </c>
+      <c r="O208" t="s">
+        <v>300</v>
+      </c>
+      <c r="P208" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F209" s="29"/>
+      <c r="G209" t="s">
         <v>406</v>
-      </c>
-      <c r="H208" t="s">
-        <v>300</v>
-      </c>
-      <c r="I208" t="s">
-        <v>300</v>
-      </c>
-      <c r="J208" t="s">
-        <v>300</v>
-      </c>
-      <c r="K208" t="s">
-        <v>300</v>
-      </c>
-      <c r="L208" t="s">
-        <v>300</v>
-      </c>
-      <c r="M208" t="s">
-        <v>300</v>
-      </c>
-      <c r="N208" t="s">
-        <v>300</v>
-      </c>
-      <c r="O208" t="s">
-        <v>300</v>
-      </c>
-      <c r="P208" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F209" s="25"/>
-      <c r="G209" t="s">
-        <v>407</v>
       </c>
       <c r="H209" t="s">
         <v>317</v>
@@ -5467,8 +5581,8 @@
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F210" s="25"/>
-      <c r="G210" s="16" t="s">
+      <c r="F210" s="29"/>
+      <c r="G210" s="13" t="s">
         <v>299</v>
       </c>
       <c r="H210" t="s">
@@ -5500,31 +5614,31 @@
       </c>
     </row>
     <row r="211" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="16"/>
+      <c r="A211" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" s="23"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>296</v>
       </c>
       <c r="B212" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C212" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D212" t="s">
         <v>219</v>
       </c>
-      <c r="F212" s="29"/>
-      <c r="G212" s="16"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -5533,8 +5647,8 @@
       <c r="B213" t="s">
         <v>325</v>
       </c>
-      <c r="F213" s="29"/>
-      <c r="G213" s="16"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -5543,8 +5657,8 @@
       <c r="B214" t="s">
         <v>317</v>
       </c>
-      <c r="F214" s="29"/>
-      <c r="G214" s="16"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -5553,46 +5667,46 @@
       <c r="B215" t="s">
         <v>323</v>
       </c>
-      <c r="F215" s="29"/>
-      <c r="G215" s="16"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>297</v>
       </c>
-      <c r="F216" s="29"/>
-      <c r="G216" s="16"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F217" s="29"/>
-      <c r="G217" s="16"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="16"/>
+      <c r="A218" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>296</v>
       </c>
       <c r="B219" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C219" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D219" t="s">
         <v>219</v>
       </c>
-      <c r="F219" s="29"/>
-      <c r="G219" s="16"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -5601,8 +5715,8 @@
       <c r="B220" t="s">
         <v>325</v>
       </c>
-      <c r="F220" s="29"/>
-      <c r="G220" s="16"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -5611,8 +5725,8 @@
       <c r="B221" t="s">
         <v>317</v>
       </c>
-      <c r="F221" s="29"/>
-      <c r="G221" s="16"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -5621,125 +5735,345 @@
       <c r="B222" t="s">
         <v>323</v>
       </c>
-      <c r="F222" s="29"/>
-      <c r="G222" s="16"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>297</v>
       </c>
-      <c r="F223" s="29"/>
-      <c r="G223" s="16"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F224" s="29"/>
-      <c r="G224" s="16"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F225" s="29"/>
-      <c r="G225" s="16"/>
-    </row>
-    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="B226" s="18"/>
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F224" s="18"/>
+      <c r="G224" s="13"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F225" s="18"/>
+      <c r="G225" s="13"/>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B226" s="23"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="13"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>296</v>
       </c>
       <c r="B227" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="F227" s="18"/>
+      <c r="G227" s="13"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="F228" s="18"/>
+      <c r="G228" s="13"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>303</v>
       </c>
       <c r="B229" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F229" s="18"/>
+      <c r="G229" s="13"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>304</v>
       </c>
       <c r="B230" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="F230" s="18"/>
+      <c r="G230" s="13"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>297</v>
       </c>
       <c r="B231" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="F231" s="18"/>
+      <c r="G231" s="13"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F232" s="18"/>
+      <c r="G232" s="13"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F233" s="19"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="I233" s="32"/>
+      <c r="J233" s="32"/>
+    </row>
+    <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="21"/>
+      <c r="H234" t="s">
+        <v>299</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="G235" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="H235" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I235" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J235" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C236" s="30"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C237" s="31"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="27">
+        <v>0</v>
+      </c>
+      <c r="H237" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I237" s="27">
+        <v>1</v>
+      </c>
+      <c r="J237" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C238" s="31"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="27"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="27"/>
+      <c r="J238" s="27"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C239" s="31"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="27">
+        <v>1</v>
+      </c>
+      <c r="H239" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I239" s="27">
+        <v>1</v>
+      </c>
+      <c r="J239" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F240" s="33"/>
+      <c r="G240" s="27"/>
+      <c r="H240" s="27"/>
+      <c r="I240" s="27"/>
+      <c r="J240" s="27"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F241" s="18"/>
+      <c r="G241" s="13"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B242" s="23"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>296</v>
+      </c>
+      <c r="B243" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>303</v>
+      </c>
+      <c r="B245" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>304</v>
+      </c>
+      <c r="B246" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>297</v>
+      </c>
+      <c r="B247" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B250" s="23"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>296</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B251" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>3</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B252" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>303</v>
       </c>
-      <c r="B237" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B253" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>304</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B254" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>297</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B255" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A218:E218"/>
+  <mergeCells count="77">
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="I239:I240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="I235:I236"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="F235:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="G235:G236"/>
     <mergeCell ref="H202:P202"/>
     <mergeCell ref="F204:F210"/>
     <mergeCell ref="A171:E171"/>
@@ -5747,22 +6081,20 @@
     <mergeCell ref="E176:G176"/>
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="B184:D184"/>
-    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="A242:E242"/>
     <mergeCell ref="A203:E203"/>
     <mergeCell ref="A187:E187"/>
     <mergeCell ref="A195:E195"/>
     <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="A218:E218"/>
     <mergeCell ref="B168:D168"/>
+    <mergeCell ref="A234:E234"/>
     <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A250:E250"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="A131:E131"/>
-    <mergeCell ref="B136:C136"/>
     <mergeCell ref="A139:E139"/>
     <mergeCell ref="B144:E144"/>
     <mergeCell ref="A147:E147"/>
@@ -5770,6 +6102,11 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="E110:E112"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B160:D160"/>
     <mergeCell ref="G102:I102"/>
     <mergeCell ref="A115:E115"/>
     <mergeCell ref="A123:E123"/>
@@ -5786,11 +6123,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="A51:E51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C42:E42"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="B26:E26"/>
@@ -5800,6 +6132,11 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>
@@ -5808,378 +6145,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFFBAD8-CEAA-4D88-A3A2-33F51B629540}">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="A1:K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I3" t="s">
-        <v>406</v>
-      </c>
-      <c r="J3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" t="s">
-        <v>317</v>
-      </c>
-      <c r="K4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="I7" t="s">
-        <v>317</v>
-      </c>
-      <c r="J7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H9" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" t="s">
-        <v>300</v>
-      </c>
-      <c r="J9" t="s">
-        <v>317</v>
-      </c>
-      <c r="K9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" t="s">
-        <v>299</v>
-      </c>
-      <c r="I10" t="s">
-        <v>300</v>
-      </c>
-      <c r="J10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="G12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B19:F19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1422" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27C8C807-7084-4759-957F-5749354B7956}"/>
+  <xr:revisionPtr revIDLastSave="1574" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C0338ED-7D01-4800-8896-727FE234CC0B}"/>
   <bookViews>
-    <workbookView xWindow="20445" yWindow="7440" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="19380" yWindow="3750" windowWidth="14310" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="437">
-  <si>
-    <t>Instrument</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="473">
   <si>
     <t>Variable</t>
   </si>
@@ -997,15 +994,6 @@
     <t>H1GI6C</t>
   </si>
   <si>
-    <t>H1GI6E</t>
-  </si>
-  <si>
-    <t>H1GI6A</t>
-  </si>
-  <si>
-    <t>[Hispanic, Black, Asian, NativeAmerican, White, Other]</t>
-  </si>
-  <si>
     <t>Nominal</t>
   </si>
   <si>
@@ -1201,9 +1189,6 @@
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6949</t>
   </si>
   <si>
-    <t>Did they Dropout of School</t>
-  </si>
-  <si>
     <t>H2GI9</t>
   </si>
   <si>
@@ -1231,63 +1216,6 @@
     <t>["Middle", "High", "Beyond"]</t>
   </si>
   <si>
-    <t>Dropout Wave 2</t>
-  </si>
-  <si>
-    <t>Dropout Wave 1</t>
-  </si>
-  <si>
-    <t>Did he/she dropout at either point in his/her education path?</t>
-  </si>
-  <si>
-    <t>S/E</t>
-  </si>
-  <si>
-    <t>Dropped Out</t>
-  </si>
-  <si>
-    <t>Sick/Leave</t>
-  </si>
-  <si>
-    <t>Graduated</t>
-  </si>
-  <si>
-    <t>Pregnant</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Suspend</t>
-  </si>
-  <si>
-    <t>Expelled</t>
-  </si>
-  <si>
-    <t>Dropped</t>
-  </si>
-  <si>
-    <t>Sick/Injured</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>H1GI10</t>
-  </si>
-  <si>
-    <t>Dropout if Dropped Out/Sick/On Leave/Pregnant</t>
-  </si>
-  <si>
-    <t>Did they Dropout of Middle School</t>
-  </si>
-  <si>
-    <t>W1GradeLevel</t>
-  </si>
-  <si>
-    <t>W2GradeLevel</t>
-  </si>
-  <si>
     <t>Did they Dropout of High School?</t>
   </si>
   <si>
@@ -1346,13 +1274,193 @@
   </si>
   <si>
     <t>If Missing/Refused, then NA</t>
+  </si>
+  <si>
+    <t>H3ED1</t>
+  </si>
+  <si>
+    <t>What is the highest grade or year of regular school you completed?</t>
+  </si>
+  <si>
+    <t>(1-22, 96, 98, 99)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=6895</t>
+  </si>
+  <si>
+    <t>Highest Grade Completed - Capped</t>
+  </si>
+  <si>
+    <t>Highest Grade Completed - Uncapped</t>
+  </si>
+  <si>
+    <t>[6,7,8,9,10,11,12]</t>
+  </si>
+  <si>
+    <t>[6-22]</t>
+  </si>
+  <si>
+    <t>Can go above the 12th grade</t>
+  </si>
+  <si>
+    <t>Capped at the 12 grade</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>[Hispanic, Black, Asian, White, Other]</t>
+  </si>
+  <si>
+    <t>"White" is the reference category</t>
+  </si>
+  <si>
+    <t>HighGrade15</t>
+  </si>
+  <si>
+    <t>Did they Dropout of Middle School?</t>
+  </si>
+  <si>
+    <t>H1FV7</t>
+  </si>
+  <si>
+    <t>During the past 12 months, how often did the following happen? You pulled a knife or gun on someone.</t>
+  </si>
+  <si>
+    <t>(0,1,2,6,8,9)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7234</t>
+  </si>
+  <si>
+    <t>H1FV8</t>
+  </si>
+  <si>
+    <t>During the past 12 months, how often did the following happen? You shot or stabbed someone.</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7238</t>
+  </si>
+  <si>
+    <t>Delinquency</t>
+  </si>
+  <si>
+    <t>H1DS3</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how often did you lie to your parents or guardians about where you had been or whom you were with?</t>
+  </si>
+  <si>
+    <t>(0,1,2,3,6,8,9)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7190</t>
+  </si>
+  <si>
+    <t>H1DS4</t>
+  </si>
+  <si>
+    <t>How often did you take something from a store without paying for it?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7205</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7213</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7221</t>
+  </si>
+  <si>
+    <t>H1WP13</t>
+  </si>
+  <si>
+    <t>How close do you feel to your {FATHER/ADOPTIVE FATHER/STEPFATHER /FOSTER FATHER/etc.}?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Parental Attachment</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4208</t>
+  </si>
+  <si>
+    <t>H1WP9</t>
+  </si>
+  <si>
+    <t>How close do you feel to your {MOTHER/ADOPTIVE MOTHER/ STEPMOTHER/ FOSTER MOTHER/etc.}?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4214</t>
+  </si>
+  <si>
+    <t>H1WP10</t>
+  </si>
+  <si>
+    <t>H1WP14</t>
+  </si>
+  <si>
+    <t>How much do you think she [resident mother] cares about you?</t>
+  </si>
+  <si>
+    <t>How much do you think he [resident father] cares about you?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4218</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=4212</t>
+  </si>
+  <si>
+    <t>H1ED19</t>
+  </si>
+  <si>
+    <t>H1ED22</t>
+  </si>
+  <si>
+    <t>H1ED23</t>
+  </si>
+  <si>
+    <t>H1ED20</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with the following statements: You feel close to people at your school. Last year, you felt close to people at your school.</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,7,8)</t>
+  </si>
+  <si>
+    <t>School Attachment</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7081</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with the following statements: You are happy to be at your school. Last year, you were happy to be at your school.</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7090</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with the following statements: The teachers at your school treat students fairly. Last year, the teachers at your school treated students fairly.</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7093</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with the following statements: You feel like you are a part of your school. Last year, you felt like you were a part of your school.</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7084</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,8 +1529,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,8 +1549,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1459,12 +1579,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1507,14 +1642,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1523,26 +1676,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1858,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,1626 +2018,1908 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
         <v>158</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>159</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>155</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>151</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
         <v>172</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
         <v>162</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>163</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>98</v>
+      <c r="F25" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
         <v>253</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>254</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
         <v>257</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>258</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" t="s">
-        <v>219</v>
+      <c r="A31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>222</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>419</v>
-      </c>
-      <c r="C32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D32" t="s">
-        <v>421</v>
-      </c>
-      <c r="E32" t="s">
-        <v>422</v>
+      <c r="A32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
+        <v>436</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>437</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>438</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>435</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>440</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>438</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>435</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>229</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F39"/>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="F40"/>
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41"/>
+      <c r="A41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>377</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>385</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>387</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>391</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>392</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" t="s">
+        <v>382</v>
+      </c>
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>413</v>
+      </c>
+      <c r="C49" t="s">
+        <v>414</v>
+      </c>
+      <c r="D49" t="s">
+        <v>415</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E51" t="s">
         <v>16</v>
       </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>83</v>
+      <c r="F51" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>55</v>
+      <c r="A53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>246</v>
+        <v>189</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>281</v>
+        <v>189</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>268</v>
+        <v>189</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" t="s">
-        <v>180</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="A67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>285</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>111</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>140</v>
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>286</v>
-      </c>
-      <c r="C72" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72" t="s">
-        <v>186</v>
+      <c r="A72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>289</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>186</v>
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" t="s">
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" s="8"/>
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C74" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" t="s">
+        <v>447</v>
+      </c>
+      <c r="E74" t="s">
+        <v>448</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" t="s">
-        <v>49</v>
+        <v>450</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>451</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>448</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
-      </c>
-      <c r="C76" t="s">
-        <v>350</v>
+        <v>453</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>455</v>
       </c>
       <c r="D76" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>448</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>352</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C77" t="s">
-        <v>354</v>
+        <v>454</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>456</v>
       </c>
       <c r="D77" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>448</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
-      </c>
-      <c r="C78" t="s">
-        <v>361</v>
+        <v>459</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>463</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>464</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>465</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>363</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
-      </c>
-      <c r="C79" t="s">
-        <v>365</v>
+        <v>460</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>467</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>464</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>465</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
-      </c>
-      <c r="C80" t="s">
-        <v>258</v>
+        <v>461</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>469</v>
       </c>
       <c r="D80" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>430</v>
-      </c>
-      <c r="C81" t="s">
-        <v>254</v>
+        <v>462</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>471</v>
       </c>
       <c r="D81" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>432</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>345</v>
+      </c>
+      <c r="C89" t="s">
+        <v>346</v>
+      </c>
+      <c r="D89" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" t="s">
+        <v>347</v>
+      </c>
+      <c r="E90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>360</v>
+      </c>
+      <c r="C92" t="s">
+        <v>361</v>
+      </c>
+      <c r="D92" t="s">
+        <v>358</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F79">
-    <sortCondition ref="E2:E79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F94">
+    <sortCondition ref="E2:E94"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F36" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F37" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F25" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F62" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F61" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F42" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F43" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F29" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F30" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F69" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F68" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
     <hyperlink ref="F12" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F58" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F59" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F70" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F46" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F47" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F65" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F66" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F85" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F53" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F54" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
     <hyperlink ref="F8" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
     <hyperlink ref="F7" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
     <hyperlink ref="F6" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
     <hyperlink ref="F10" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
     <hyperlink ref="F9" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F71" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F63" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F64" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F30" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
-    <hyperlink ref="F31" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F86" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F70" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F71" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F36" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F37" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
     <hyperlink ref="F3" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
     <hyperlink ref="F4" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F40" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F38" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F48" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F49" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F50" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
-    <hyperlink ref="F29" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F67" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
-    <hyperlink ref="F44" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
+    <hyperlink ref="F46" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F44" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F55" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F56" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F57" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F35" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F82" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F51" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
     <hyperlink ref="F19" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
-    <hyperlink ref="F55" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
+    <hyperlink ref="F62" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
     <hyperlink ref="F2" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
-    <hyperlink ref="F35" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
+    <hyperlink ref="F41" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
     <hyperlink ref="F27" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
     <hyperlink ref="F28" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
-    <hyperlink ref="F54" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
-    <hyperlink ref="F57" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
+    <hyperlink ref="F61" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
+    <hyperlink ref="F64" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
     <hyperlink ref="F17" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
     <hyperlink ref="F24" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
-    <hyperlink ref="F45" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
-    <hyperlink ref="F56" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
-    <hyperlink ref="F68" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
-    <hyperlink ref="F72" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
-    <hyperlink ref="F73" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
+    <hyperlink ref="F52" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
+    <hyperlink ref="F63" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
+    <hyperlink ref="F83" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
+    <hyperlink ref="F87" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
+    <hyperlink ref="F88" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
     <hyperlink ref="F5" r:id="rId50" xr:uid="{82343614-6126-43E8-A2DF-54A97E93F3D9}"/>
-    <hyperlink ref="F76" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
-    <hyperlink ref="F77" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
-    <hyperlink ref="F78" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
-    <hyperlink ref="F79" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
-    <hyperlink ref="F42" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
-    <hyperlink ref="F43" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
-    <hyperlink ref="F32" r:id="rId57" xr:uid="{9CEB5978-510D-4B8E-A0F5-DFC59EEBC727}"/>
-    <hyperlink ref="F80" r:id="rId58" xr:uid="{78E8C26A-FBE3-4578-8FEF-66A2AC76FD68}"/>
-    <hyperlink ref="F81" r:id="rId59" xr:uid="{B3311435-ECC3-49CA-AE1B-4F4DDFAAD4F2}"/>
+    <hyperlink ref="F89" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
+    <hyperlink ref="F90" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
+    <hyperlink ref="F91" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
+    <hyperlink ref="F92" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
+    <hyperlink ref="F47" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
+    <hyperlink ref="F48" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
+    <hyperlink ref="F38" r:id="rId57" xr:uid="{9CEB5978-510D-4B8E-A0F5-DFC59EEBC727}"/>
+    <hyperlink ref="F25" r:id="rId58" xr:uid="{78E8C26A-FBE3-4578-8FEF-66A2AC76FD68}"/>
+    <hyperlink ref="F26" r:id="rId59" xr:uid="{B3311435-ECC3-49CA-AE1B-4F4DDFAAD4F2}"/>
+    <hyperlink ref="F49" r:id="rId60" xr:uid="{C59A81D1-ED4C-4B21-841E-5DF034198525}"/>
+    <hyperlink ref="F31" r:id="rId61" xr:uid="{27F25C32-A208-43ED-B892-0E1082640DAA}"/>
+    <hyperlink ref="F32" r:id="rId62" xr:uid="{4A725D5A-F192-4281-BDC2-88502188294F}"/>
+    <hyperlink ref="F33" r:id="rId63" xr:uid="{F827802E-F530-4283-BA98-82FDD61FC9BF}"/>
+    <hyperlink ref="F34" r:id="rId64" xr:uid="{B7DA6C34-E732-4277-94B0-55BF63F50B16}"/>
+    <hyperlink ref="F73" r:id="rId65" xr:uid="{CCE913F3-1549-415C-B7D6-6823D4D4F0F1}"/>
+    <hyperlink ref="F72" r:id="rId66" xr:uid="{47D66A22-74B7-40D7-BEB6-0AB980E8089A}"/>
+    <hyperlink ref="F74" r:id="rId67" xr:uid="{A150B180-D0A5-4763-BED8-BC404C17293C}"/>
+    <hyperlink ref="F75" r:id="rId68" xr:uid="{09FD6D53-91A4-4AFB-A984-623FF5EC5C40}"/>
+    <hyperlink ref="F76" r:id="rId69" xr:uid="{AF6BCE4E-674B-4DEE-A622-ED962C283757}"/>
+    <hyperlink ref="F77" r:id="rId70" xr:uid="{1E934B76-1E7C-422E-B1A2-46A07F7071C0}"/>
+    <hyperlink ref="F78" r:id="rId71" xr:uid="{E63B76AE-2EB8-440B-8B0E-703303F4D88B}"/>
+    <hyperlink ref="F79" r:id="rId72" xr:uid="{373332E6-24E6-4AE1-9415-7C989F61B19A}"/>
+    <hyperlink ref="F80" r:id="rId73" xr:uid="{D33C390E-D826-46CE-BA3A-EA08D6EC5D46}"/>
+    <hyperlink ref="F81" r:id="rId74" xr:uid="{B10EA419-40C1-4756-BD0E-B5399919DDCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -3503,7 +3928,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,242 +3938,242 @@
   <sheetData>
     <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>97</v>
+      <c r="A12" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>191</v>
+      <c r="A15" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3759,10 +4184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
-  <dimension ref="A1:P255"/>
+  <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234:E234"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,1169 +4200,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" t="s">
         <v>304</v>
-      </c>
-      <c r="B9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="2" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" t="s">
         <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="24"/>
+        <v>263</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" t="s">
         <v>304</v>
-      </c>
-      <c r="B25" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="24"/>
+        <v>268</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" t="s">
         <v>304</v>
-      </c>
-      <c r="B33" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
         <v>304</v>
-      </c>
-      <c r="B41" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+        <v>365</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" t="s">
         <v>304</v>
       </c>
-      <c r="B48" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>296</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B57" t="s">
+        <v>412</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>303</v>
       </c>
-      <c r="B54" t="s">
-        <v>317</v>
-      </c>
-      <c r="F54" t="s">
-        <v>320</v>
-      </c>
-      <c r="G54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B64" t="s">
         <v>304</v>
       </c>
-      <c r="B55" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>296</v>
       </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" t="s">
-        <v>318</v>
-      </c>
-      <c r="E60" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>303</v>
-      </c>
-      <c r="B62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>304</v>
-      </c>
-      <c r="B63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>296</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>303</v>
-      </c>
-      <c r="B70" t="s">
-        <v>300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="29"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>296</v>
       </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>303</v>
-      </c>
-      <c r="B78" t="s">
-        <v>300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>296</v>
       </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>303</v>
       </c>
-      <c r="B86" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>304</v>
-      </c>
-      <c r="B87" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>297</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B88" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>296</v>
       </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>303</v>
       </c>
-      <c r="B94" t="s">
-        <v>300</v>
-      </c>
-      <c r="G94" t="s">
-        <v>303</v>
-      </c>
-      <c r="H94" t="s">
-        <v>317</v>
-      </c>
-      <c r="I94" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>304</v>
-      </c>
-      <c r="B95" t="s">
-        <v>330</v>
-      </c>
-      <c r="F95" t="s">
-        <v>303</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>297</v>
-      </c>
       <c r="B96" t="s">
-        <v>331</v>
-      </c>
-      <c r="F96" t="s">
-        <v>317</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I96" s="16" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F97" t="s">
-        <v>300</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I97" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A97" t="s">
         <v>296</v>
       </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>282</v>
-      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>332</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
-      </c>
-      <c r="E102" s="15"/>
-      <c r="G102" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
+        <v>321</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
-        <v>330</v>
-      </c>
-      <c r="E103" s="15"/>
-      <c r="G103" t="s">
-        <v>303</v>
-      </c>
-      <c r="H103" t="s">
-        <v>317</v>
-      </c>
-      <c r="I103" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
-      </c>
-      <c r="E104" s="15"/>
-      <c r="F104" t="s">
-        <v>303</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F105" t="s">
-        <v>317</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I105" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F106" t="s">
-        <v>300</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A105" t="s">
         <v>296</v>
       </c>
-      <c r="B108" t="s">
-        <v>290</v>
-      </c>
-      <c r="C108" t="s">
-        <v>286</v>
-      </c>
+      <c r="B105" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>337</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
-      </c>
-      <c r="E111" s="27"/>
+        <v>299</v>
+      </c>
+      <c r="G111" t="s">
+        <v>302</v>
+      </c>
+      <c r="H111" t="s">
+        <v>316</v>
+      </c>
+      <c r="I111" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>297</v>
-      </c>
-      <c r="B112" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B112" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" t="s">
+        <v>302</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="27"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="F113" t="s">
+        <v>316</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>299</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>295</v>
+      </c>
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>321</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" t="s">
+        <v>299</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="G119" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" t="s">
+        <v>326</v>
+      </c>
+      <c r="E120" s="15"/>
+      <c r="G120" t="s">
+        <v>302</v>
+      </c>
+      <c r="H120" t="s">
+        <v>316</v>
+      </c>
+      <c r="I120" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>296</v>
       </c>
-      <c r="B116" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B121" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="15"/>
+      <c r="F121" t="s">
+        <v>302</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>316</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>299</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>295</v>
+      </c>
+      <c r="B125" t="s">
+        <v>289</v>
+      </c>
+      <c r="C125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>299</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>303</v>
       </c>
-      <c r="B118" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>304</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="B128" t="s">
+        <v>319</v>
+      </c>
+      <c r="E128" s="24"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>296</v>
+      </c>
+      <c r="B129" s="29" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>297</v>
-      </c>
-      <c r="B120" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F122" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="24"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>296</v>
       </c>
-      <c r="B124" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B137" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>295</v>
+      </c>
+      <c r="B141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>303</v>
       </c>
-      <c r="B126" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>304</v>
-      </c>
-      <c r="B127" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>297</v>
-      </c>
-      <c r="B128" s="22" t="s">
+      <c r="B144" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>296</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>303</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>304</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>297</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="14"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>296</v>
-      </c>
-      <c r="B140" t="s">
-        <v>349</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" t="s">
-        <v>325</v>
-      </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>303</v>
-      </c>
-      <c r="B142" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>304</v>
-      </c>
-      <c r="B143" t="s">
-        <v>323</v>
-      </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>297</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>296</v>
-      </c>
-      <c r="B148" t="s">
-        <v>353</v>
-      </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" t="s">
-        <v>325</v>
+        <v>295</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
@@ -4945,10 +5313,10 @@
     </row>
     <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>303</v>
-      </c>
-      <c r="B150" t="s">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>321</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
@@ -4956,1173 +5324,961 @@
     </row>
     <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>304</v>
-      </c>
-      <c r="B151" t="s">
-        <v>323</v>
+        <v>302</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>299</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>297</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+        <v>303</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" t="s">
+        <v>345</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>321</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>302</v>
+      </c>
+      <c r="B159" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>303</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>296</v>
       </c>
-      <c r="B156" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="C156" s="22"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>3</v>
-      </c>
-      <c r="B157" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B161" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>295</v>
+      </c>
+      <c r="B165" t="s">
+        <v>349</v>
+      </c>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>321</v>
+      </c>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>302</v>
+      </c>
+      <c r="B167" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>303</v>
       </c>
-      <c r="B158" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>304</v>
-      </c>
-      <c r="B159" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>297</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B168" t="s">
+        <v>319</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>296</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="B169" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>295</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C173" s="29"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>302</v>
+      </c>
+      <c r="B175" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>303</v>
+      </c>
+      <c r="B176" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>296</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="C164" s="22"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>3</v>
-      </c>
-      <c r="B165" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>303</v>
-      </c>
-      <c r="B166" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>304</v>
-      </c>
-      <c r="B167" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>297</v>
-      </c>
-      <c r="B168" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>296</v>
-      </c>
-      <c r="B172" t="s">
-        <v>377</v>
-      </c>
-      <c r="C172" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>3</v>
-      </c>
-      <c r="B173" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>303</v>
-      </c>
-      <c r="B174" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>304</v>
-      </c>
-      <c r="B175" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>297</v>
-      </c>
-      <c r="B176" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="B179" s="23"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>296</v>
-      </c>
-      <c r="B180" t="s">
-        <v>376</v>
-      </c>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" t="s">
-        <v>383</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B181" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" s="29"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B183" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>297</v>
-      </c>
-      <c r="B184" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+        <v>303</v>
+      </c>
+      <c r="B184" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>296</v>
       </c>
-      <c r="B188" t="s">
-        <v>389</v>
-      </c>
+      <c r="B185" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B189" t="s">
-        <v>394</v>
+        <v>373</v>
+      </c>
+      <c r="C189" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B191" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>296</v>
       </c>
-      <c r="B196" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B193" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" s="29"/>
+      <c r="G193" s="29"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>302</v>
+      </c>
+      <c r="B199" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>303</v>
       </c>
-      <c r="B198" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>304</v>
-      </c>
-      <c r="B199" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>297</v>
-      </c>
       <c r="B200" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F201" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H202" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="I202" s="24"/>
-      <c r="J202" s="24"/>
-      <c r="K202" s="24"/>
-      <c r="L202" s="24"/>
-      <c r="M202" s="24"/>
-      <c r="N202" s="24"/>
-      <c r="O202" s="24"/>
-      <c r="P202" s="24"/>
-    </row>
-    <row r="203" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>296</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>295</v>
+      </c>
+      <c r="B205" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>302</v>
+      </c>
+      <c r="B207" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>303</v>
+      </c>
+      <c r="B208" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>296</v>
+      </c>
+      <c r="B209" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="23"/>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="H203" t="s">
-        <v>407</v>
-      </c>
-      <c r="I203" t="s">
-        <v>408</v>
-      </c>
-      <c r="J203" t="s">
-        <v>409</v>
-      </c>
-      <c r="K203" t="s">
-        <v>410</v>
-      </c>
-      <c r="L203" t="s">
-        <v>411</v>
-      </c>
-      <c r="M203" t="s">
-        <v>404</v>
-      </c>
-      <c r="N203" t="s">
-        <v>405</v>
-      </c>
-      <c r="O203" t="s">
-        <v>406</v>
-      </c>
-      <c r="P203" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>296</v>
-      </c>
-      <c r="B204" t="s">
-        <v>215</v>
-      </c>
-      <c r="C204" t="s">
-        <v>412</v>
-      </c>
-      <c r="F204" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="G204" t="s">
-        <v>401</v>
-      </c>
-      <c r="H204" t="s">
-        <v>317</v>
-      </c>
-      <c r="I204" t="s">
-        <v>317</v>
-      </c>
-      <c r="J204" t="s">
-        <v>300</v>
-      </c>
-      <c r="K204" t="s">
-        <v>300</v>
-      </c>
-      <c r="L204" t="s">
-        <v>300</v>
-      </c>
-      <c r="M204" t="s">
-        <v>317</v>
-      </c>
-      <c r="N204" t="s">
-        <v>300</v>
-      </c>
-      <c r="O204" t="s">
-        <v>317</v>
-      </c>
-      <c r="P204" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" t="s">
-        <v>325</v>
-      </c>
-      <c r="F205" s="29"/>
-      <c r="G205" t="s">
-        <v>402</v>
-      </c>
-      <c r="H205" t="s">
-        <v>300</v>
-      </c>
-      <c r="I205" t="s">
-        <v>300</v>
-      </c>
-      <c r="J205" t="s">
-        <v>300</v>
-      </c>
-      <c r="K205" t="s">
-        <v>300</v>
-      </c>
-      <c r="L205" t="s">
-        <v>300</v>
-      </c>
-      <c r="M205" t="s">
-        <v>300</v>
-      </c>
-      <c r="N205" t="s">
-        <v>300</v>
-      </c>
-      <c r="O205" t="s">
-        <v>300</v>
-      </c>
-      <c r="P205" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>303</v>
-      </c>
-      <c r="B206" t="s">
-        <v>300</v>
-      </c>
-      <c r="F206" s="29"/>
-      <c r="G206" t="s">
-        <v>403</v>
-      </c>
-      <c r="H206" t="s">
-        <v>300</v>
-      </c>
-      <c r="I206" t="s">
-        <v>300</v>
-      </c>
-      <c r="J206" t="s">
-        <v>300</v>
-      </c>
-      <c r="K206" t="s">
-        <v>300</v>
-      </c>
-      <c r="L206" t="s">
-        <v>300</v>
-      </c>
-      <c r="M206" t="s">
-        <v>300</v>
-      </c>
-      <c r="N206" t="s">
-        <v>300</v>
-      </c>
-      <c r="O206" t="s">
-        <v>300</v>
-      </c>
-      <c r="P206" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>304</v>
-      </c>
-      <c r="B207" t="s">
-        <v>323</v>
-      </c>
-      <c r="F207" s="29"/>
-      <c r="G207" t="s">
-        <v>404</v>
-      </c>
-      <c r="H207" t="s">
-        <v>317</v>
-      </c>
-      <c r="I207" t="s">
-        <v>317</v>
-      </c>
-      <c r="J207" t="s">
-        <v>317</v>
-      </c>
-      <c r="K207" t="s">
-        <v>317</v>
-      </c>
-      <c r="L207" t="s">
-        <v>317</v>
-      </c>
-      <c r="M207" t="s">
-        <v>317</v>
-      </c>
-      <c r="N207" t="s">
-        <v>317</v>
-      </c>
-      <c r="O207" t="s">
-        <v>317</v>
-      </c>
-      <c r="P207" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>297</v>
-      </c>
-      <c r="B208" t="s">
-        <v>413</v>
-      </c>
-      <c r="F208" s="29"/>
-      <c r="G208" t="s">
-        <v>405</v>
-      </c>
-      <c r="H208" t="s">
-        <v>300</v>
-      </c>
-      <c r="I208" t="s">
-        <v>300</v>
-      </c>
-      <c r="J208" t="s">
-        <v>300</v>
-      </c>
-      <c r="K208" t="s">
-        <v>300</v>
-      </c>
-      <c r="L208" t="s">
-        <v>300</v>
-      </c>
-      <c r="M208" t="s">
-        <v>300</v>
-      </c>
-      <c r="N208" t="s">
-        <v>300</v>
-      </c>
-      <c r="O208" t="s">
-        <v>300</v>
-      </c>
-      <c r="P208" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F209" s="29"/>
-      <c r="G209" t="s">
-        <v>406</v>
-      </c>
-      <c r="H209" t="s">
-        <v>317</v>
-      </c>
-      <c r="I209" t="s">
-        <v>317</v>
-      </c>
-      <c r="J209" t="s">
-        <v>300</v>
-      </c>
-      <c r="K209" t="s">
-        <v>300</v>
-      </c>
-      <c r="L209" t="s">
-        <v>300</v>
-      </c>
-      <c r="M209" t="s">
-        <v>317</v>
-      </c>
-      <c r="N209" t="s">
-        <v>300</v>
-      </c>
-      <c r="O209" t="s">
-        <v>317</v>
-      </c>
-      <c r="P209" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F210" s="29"/>
-      <c r="G210" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H210" t="s">
-        <v>299</v>
-      </c>
-      <c r="I210" t="s">
-        <v>299</v>
-      </c>
-      <c r="J210" t="s">
-        <v>300</v>
-      </c>
-      <c r="K210" t="s">
-        <v>300</v>
-      </c>
-      <c r="L210" t="s">
-        <v>300</v>
-      </c>
-      <c r="M210" t="s">
-        <v>299</v>
-      </c>
-      <c r="N210" t="s">
-        <v>300</v>
-      </c>
-      <c r="O210" t="s">
-        <v>299</v>
-      </c>
-      <c r="P210" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="B211" s="23"/>
-      <c r="C211" s="23"/>
-      <c r="D211" s="23"/>
-      <c r="E211" s="23"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="13"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>296</v>
-      </c>
-      <c r="B212" t="s">
-        <v>415</v>
-      </c>
-      <c r="C212" t="s">
-        <v>416</v>
-      </c>
-      <c r="D212" t="s">
-        <v>219</v>
-      </c>
-      <c r="F212" s="18"/>
-      <c r="G212" s="13"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>325</v>
-      </c>
-      <c r="F213" s="18"/>
-      <c r="G213" s="13"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>317</v>
-      </c>
-      <c r="F214" s="18"/>
-      <c r="G214" s="13"/>
+        <v>392</v>
+      </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B215" t="s">
-        <v>323</v>
-      </c>
-      <c r="F215" s="18"/>
-      <c r="G215" s="13"/>
+        <v>299</v>
+      </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>297</v>
-      </c>
-      <c r="F216" s="18"/>
-      <c r="G216" s="13"/>
+        <v>303</v>
+      </c>
+      <c r="B216" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F217" s="18"/>
-      <c r="G217" s="13"/>
-    </row>
-    <row r="218" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="13"/>
+      <c r="A217" t="s">
+        <v>296</v>
+      </c>
+      <c r="B217" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>296</v>
-      </c>
-      <c r="B219" t="s">
-        <v>415</v>
-      </c>
-      <c r="C219" t="s">
-        <v>416</v>
-      </c>
-      <c r="D219" t="s">
-        <v>219</v>
-      </c>
-      <c r="F219" s="18"/>
-      <c r="G219" s="13"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>3</v>
-      </c>
-      <c r="B220" t="s">
-        <v>325</v>
-      </c>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+      <c r="J219" s="27"/>
+      <c r="K219" s="27"/>
+      <c r="L219" s="27"/>
+      <c r="M219" s="27"/>
+      <c r="N219" s="27"/>
+      <c r="O219" s="27"/>
+      <c r="P219" s="27"/>
+    </row>
+    <row r="220" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B220" s="28"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
       <c r="F220" s="18"/>
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B221" t="s">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="F221" s="18"/>
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F222" s="18"/>
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>297</v>
+        <v>302</v>
+      </c>
+      <c r="B223" t="s">
+        <v>299</v>
       </c>
       <c r="F223" s="18"/>
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>303</v>
+      </c>
+      <c r="B224" t="s">
+        <v>319</v>
+      </c>
       <c r="F224" s="18"/>
       <c r="G224" s="13"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>296</v>
+      </c>
       <c r="F225" s="18"/>
       <c r="G225" s="13"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="B226" s="23"/>
-      <c r="C226" s="23"/>
-      <c r="D226" s="23"/>
-      <c r="E226" s="23"/>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F226" s="18"/>
       <c r="G226" s="13"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>296</v>
-      </c>
-      <c r="B227" t="s">
-        <v>419</v>
-      </c>
+    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
       <c r="F227" s="18"/>
       <c r="G227" s="13"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F228" s="18"/>
       <c r="G228" s="13"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F229" s="18"/>
       <c r="G229" s="13"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B230" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B231" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="F231" s="18"/>
       <c r="G231" s="13"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>296</v>
+      </c>
       <c r="F232" s="18"/>
       <c r="G232" s="13"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F233" s="19"/>
-      <c r="G233" s="21"/>
-      <c r="H233" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="I233" s="32"/>
-      <c r="J233" s="32"/>
-    </row>
-    <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B234" s="23"/>
-      <c r="C234" s="23"/>
-      <c r="D234" s="23"/>
-      <c r="E234" s="23"/>
-      <c r="F234" s="19"/>
-      <c r="G234" s="21"/>
-      <c r="H234" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F233" s="18"/>
+      <c r="G233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F234" s="18"/>
+      <c r="G234" s="13"/>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="13"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>295</v>
+      </c>
+      <c r="B236" t="s">
+        <v>395</v>
+      </c>
+      <c r="F236" s="18"/>
+      <c r="G236" s="13"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>401</v>
+      </c>
+      <c r="F237" s="18"/>
+      <c r="G237" s="13"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>302</v>
+      </c>
+      <c r="B238" t="s">
         <v>299</v>
       </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-      <c r="J234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="31" t="s">
+      <c r="F238" s="18"/>
+      <c r="G238" s="13"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>303</v>
+      </c>
+      <c r="B239" t="s">
+        <v>326</v>
+      </c>
+      <c r="F239" s="18"/>
+      <c r="G239" s="13"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>296</v>
       </c>
-      <c r="B235" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="C235" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="D235" s="20"/>
-      <c r="E235" s="20"/>
-      <c r="F235" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="G235" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="H235" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="I235" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="J235" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B236" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="C236" s="30"/>
-      <c r="D236" s="20"/>
-      <c r="E236" s="20"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27"/>
-      <c r="I236" s="27"/>
-      <c r="J236" s="27"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B237" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="C237" s="31"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="27">
-        <v>0</v>
-      </c>
-      <c r="H237" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="I237" s="27">
-        <v>1</v>
-      </c>
-      <c r="J237" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B238" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C238" s="31"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
-      <c r="I238" s="27"/>
-      <c r="J238" s="27"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B239" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="C239" s="31"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="27">
-        <v>1</v>
-      </c>
-      <c r="H239" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="I239" s="27">
-        <v>1</v>
-      </c>
-      <c r="J239" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F240" s="33"/>
-      <c r="G240" s="27"/>
-      <c r="H240" s="27"/>
-      <c r="I240" s="27"/>
-      <c r="J240" s="27"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>402</v>
+      </c>
+      <c r="F240" s="18"/>
+      <c r="G240" s="13"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F241" s="18"/>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="B242" s="23"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="23"/>
-      <c r="E242" s="23"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F242" s="19"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="I242" s="25"/>
+      <c r="J242" s="25"/>
+    </row>
+    <row r="243" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B243" s="28"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="21"/>
+      <c r="H243" t="s">
+        <v>298</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="G244" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="H244" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="I244" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="J244" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C245" s="22"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="26"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
+      <c r="I245" s="24"/>
+      <c r="J245" s="24"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C246" s="23"/>
+      <c r="F246" s="26"/>
+      <c r="G246" s="24">
+        <v>0</v>
+      </c>
+      <c r="H246" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="I246" s="24">
+        <v>1</v>
+      </c>
+      <c r="J246" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B247" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C247" s="23"/>
+      <c r="F247" s="26"/>
+      <c r="G247" s="24"/>
+      <c r="H247" s="24"/>
+      <c r="I247" s="24"/>
+      <c r="J247" s="24"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B243" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>3</v>
-      </c>
-      <c r="B244" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B248" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C248" s="23"/>
+      <c r="F248" s="26"/>
+      <c r="G248" s="24">
+        <v>1</v>
+      </c>
+      <c r="H248" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="I248" s="24">
+        <v>1</v>
+      </c>
+      <c r="J248" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F249" s="26"/>
+      <c r="G249" s="24"/>
+      <c r="H249" s="24"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F250" s="18"/>
+      <c r="G250" s="13"/>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B251" s="28"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>295</v>
+      </c>
+      <c r="B252" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>302</v>
+      </c>
+      <c r="B254" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>303</v>
       </c>
-      <c r="B245" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>304</v>
-      </c>
-      <c r="B246" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>297</v>
-      </c>
-      <c r="B247" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250" s="23"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="23"/>
-      <c r="E250" s="23"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B255" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>296</v>
       </c>
-      <c r="B251" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>3</v>
-      </c>
-      <c r="B252" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B256" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B259" s="28"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>295</v>
+      </c>
+      <c r="B260" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>302</v>
+      </c>
+      <c r="B262" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>303</v>
       </c>
-      <c r="B253" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>304</v>
-      </c>
-      <c r="B254" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>297</v>
-      </c>
-      <c r="B255" t="s">
-        <v>342</v>
+      <c r="B263" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>296</v>
+      </c>
+      <c r="B264" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="I235:I236"/>
-    <mergeCell ref="J235:J236"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="I237:I238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="F235:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="H202:P202"/>
-    <mergeCell ref="F204:F210"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="A242:E242"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A187:E187"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A218:E218"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="A226:E226"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="B88:D88"/>
+  <mergeCells count="79">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="C57:E57"/>
     <mergeCell ref="F34:J34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A68:E68"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="B26:E26"/>
@@ -6132,15 +6288,67 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A227:E227"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="F244:F249"/>
+    <mergeCell ref="G248:G249"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="G244:G245"/>
+    <mergeCell ref="H219:P219"/>
+    <mergeCell ref="H248:H249"/>
+    <mergeCell ref="I248:I249"/>
+    <mergeCell ref="J248:J249"/>
+    <mergeCell ref="H242:J242"/>
+    <mergeCell ref="H244:H245"/>
+    <mergeCell ref="I244:I245"/>
+    <mergeCell ref="J244:J245"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="I246:I247"/>
+    <mergeCell ref="J246:J247"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>
-    <hyperlink ref="B64" r:id="rId2" location="what-is-best-way-compute-race" xr:uid="{283A4687-DB78-40EE-A813-3629766CD0AA}"/>
+    <hyperlink ref="B81" r:id="rId2" location="what-is-best-way-compute-race" xr:uid="{283A4687-DB78-40EE-A813-3629766CD0AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1574" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C0338ED-7D01-4800-8896-727FE234CC0B}"/>
+  <xr:revisionPtr revIDLastSave="1698" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7ECEE184-6C5B-44BA-A80D-8A59A05E7C05}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="3750" windowWidth="14310" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="14490" yWindow="705" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="508">
   <si>
     <t>Variable</t>
   </si>
@@ -1454,6 +1454,111 @@
   </si>
   <si>
     <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7084</t>
+  </si>
+  <si>
+    <t>H1ED11</t>
+  </si>
+  <si>
+    <t>At the most recent grading period/last grading period in the spring, what was your grade in English or language arts?</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6,96,97,98,99)</t>
+  </si>
+  <si>
+    <t>Academic Performance</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7155</t>
+  </si>
+  <si>
+    <t>H1ED12</t>
+  </si>
+  <si>
+    <t>At the most recent grading period/last grading period in the spring, what was your grade in mathematics?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7156</t>
+  </si>
+  <si>
+    <t>H1ED13</t>
+  </si>
+  <si>
+    <t>H1ED14</t>
+  </si>
+  <si>
+    <t>At the most recent grading period/last grading period in the spring, what was your grade in history or social studies?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7157</t>
+  </si>
+  <si>
+    <t>At the most recent grading period/last grading period in the spring, what was your grade in science?</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7158</t>
+  </si>
+  <si>
+    <t>H1ED7</t>
+  </si>
+  <si>
+    <t>Have you ever received an out-of-school suspension?</t>
+  </si>
+  <si>
+    <t>(0,1,6,8)</t>
+  </si>
+  <si>
+    <t>Suspensions</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7143</t>
+  </si>
+  <si>
+    <t>H1ED8</t>
+  </si>
+  <si>
+    <t>What grade were you in the last time you received an out-of-school suspension?</t>
+  </si>
+  <si>
+    <t>(1-12, 96, 97, 98, 99)</t>
+  </si>
+  <si>
+    <t>https://www.cpc.unc.edu/projects/addhealth/documentation/ace/tool/variable?VariableId=7145</t>
+  </si>
+  <si>
+    <t>Have they ever been Suspended?</t>
+  </si>
+  <si>
+    <t>If Missing/Don’t Know, then NA</t>
+  </si>
+  <si>
+    <t>Elementary School Suspension</t>
+  </si>
+  <si>
+    <t>[1-12]</t>
+  </si>
+  <si>
+    <t>If Refused/Skip/Don't Know/NA, then NA</t>
+  </si>
+  <si>
+    <t>Grade of Last Suspension (SuspendGrade)</t>
+  </si>
+  <si>
+    <t>SuspendGrade</t>
+  </si>
+  <si>
+    <t>Middle School Suspension</t>
+  </si>
+  <si>
+    <t>High School Suspension</t>
+  </si>
+  <si>
+    <t>APEnglish APMath APHistory APScience</t>
+  </si>
+  <si>
+    <t>[4-16]</t>
+  </si>
+  <si>
+    <t>Summation of the 4 observed variables</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1639,44 +1744,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1686,6 +1764,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2001,9 +2127,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +2758,7 @@
       <c r="B33" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="25" t="s">
         <v>437</v>
       </c>
       <c r="D33" t="s">
@@ -3453,7 +3579,7 @@
       <c r="B75" t="s">
         <v>450</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="25" t="s">
         <v>451</v>
       </c>
       <c r="D75" t="s">
@@ -3473,7 +3599,7 @@
       <c r="B76" t="s">
         <v>453</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="25" t="s">
         <v>455</v>
       </c>
       <c r="D76" t="s">
@@ -3493,7 +3619,7 @@
       <c r="B77" t="s">
         <v>454</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="25" t="s">
         <v>456</v>
       </c>
       <c r="D77" t="s">
@@ -3513,7 +3639,7 @@
       <c r="B78" t="s">
         <v>459</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="26" t="s">
         <v>463</v>
       </c>
       <c r="D78" t="s">
@@ -3533,7 +3659,7 @@
       <c r="B79" t="s">
         <v>460</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="26" t="s">
         <v>467</v>
       </c>
       <c r="D79" t="s">
@@ -3553,7 +3679,7 @@
       <c r="B80" t="s">
         <v>461</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="26" t="s">
         <v>469</v>
       </c>
       <c r="D80" t="s">
@@ -3573,7 +3699,7 @@
       <c r="B81" t="s">
         <v>462</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="27" t="s">
         <v>471</v>
       </c>
       <c r="D81" t="s">
@@ -3828,7 +3954,7 @@
       <c r="B94" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C94" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D94" t="s">
@@ -3836,6 +3962,126 @@
       </c>
       <c r="E94" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D95" t="s">
+        <v>475</v>
+      </c>
+      <c r="E95" t="s">
+        <v>476</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>478</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="D96" t="s">
+        <v>475</v>
+      </c>
+      <c r="E96" t="s">
+        <v>476</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>481</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D97" t="s">
+        <v>475</v>
+      </c>
+      <c r="E97" t="s">
+        <v>476</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>482</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D98" t="s">
+        <v>475</v>
+      </c>
+      <c r="E98" t="s">
+        <v>476</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="D99" t="s">
+        <v>489</v>
+      </c>
+      <c r="E99" t="s">
+        <v>490</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>492</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="D100" t="s">
+        <v>494</v>
+      </c>
+      <c r="E100" t="s">
+        <v>490</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3917,9 +4163,15 @@
     <hyperlink ref="F79" r:id="rId72" xr:uid="{373332E6-24E6-4AE1-9415-7C989F61B19A}"/>
     <hyperlink ref="F80" r:id="rId73" xr:uid="{D33C390E-D826-46CE-BA3A-EA08D6EC5D46}"/>
     <hyperlink ref="F81" r:id="rId74" xr:uid="{B10EA419-40C1-4756-BD0E-B5399919DDCA}"/>
+    <hyperlink ref="F95" r:id="rId75" xr:uid="{DE7F505E-44A7-49DA-B310-15717B594647}"/>
+    <hyperlink ref="F96" r:id="rId76" xr:uid="{2D919663-4E5E-466D-9FEC-1007B3E30A6F}"/>
+    <hyperlink ref="F97" r:id="rId77" xr:uid="{70F51C82-E912-48F3-B1E7-A9A3238AFEC0}"/>
+    <hyperlink ref="F98" r:id="rId78" xr:uid="{956A0306-C13E-4E61-8F92-EDEF685C0D72}"/>
+    <hyperlink ref="F99" r:id="rId79" xr:uid="{EC6460E0-F770-434B-820B-295BC0CA1454}"/>
+    <hyperlink ref="F100" r:id="rId80" xr:uid="{30F2918E-70D0-4A4A-9F2D-02676F6C3101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -3927,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4259,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4184,10 +4436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
-  <dimension ref="A1:P264"/>
+  <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4200,42 +4452,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4267,29 +4519,29 @@
       <c r="A10" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4321,32 +4573,32 @@
       <c r="A18" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>295</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4376,33 +4628,33 @@
       <c r="A26" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>295</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4432,28 +4684,28 @@
       <c r="A34" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="27" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4494,20 +4746,20 @@
       <c r="B42" t="s">
         <v>365</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -4548,20 +4800,20 @@
       <c r="B49" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -4602,20 +4854,20 @@
       <c r="B57" t="s">
         <v>412</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -4658,37 +4910,38 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="A68" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>295</v>
       </c>
-      <c r="B69" t="s">
-        <v>4</v>
-      </c>
+      <c r="B69" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="29"/>
+      <c r="B70" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>302</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4696,57 +4949,49 @@
         <v>303</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>296</v>
       </c>
+      <c r="B73" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
+      <c r="A76" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" t="s">
-        <v>317</v>
-      </c>
-      <c r="E77" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="B78" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="39"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4761,23 +5006,15 @@
       <c r="A81" t="s">
         <v>296</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
+      <c r="A84" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -4786,14 +5023,26 @@
       <c r="B85" t="s">
         <v>13</v>
       </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" t="s">
-        <v>321</v>
-      </c>
+      <c r="B86" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -4815,22 +5064,30 @@
       <c r="A89" t="s">
         <v>296</v>
       </c>
+      <c r="B89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
+      <c r="A92" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>295</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4857,29 +5114,29 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4887,7 +5144,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>302</v>
       </c>
@@ -4895,7 +5152,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>303</v>
       </c>
@@ -4903,125 +5160,70 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>296</v>
       </c>
-      <c r="B105" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>325</v>
-      </c>
-      <c r="G110" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>302</v>
       </c>
       <c r="B111" t="s">
         <v>299</v>
       </c>
-      <c r="G111" t="s">
-        <v>302</v>
-      </c>
-      <c r="H111" t="s">
-        <v>316</v>
-      </c>
-      <c r="I111" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
-      </c>
-      <c r="F112" t="s">
-        <v>302</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="I112" s="16" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>296</v>
       </c>
-      <c r="B113" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113" t="s">
-        <v>316</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F114" t="s">
-        <v>299</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I114" s="16" t="s">
-        <v>299</v>
-      </c>
+      <c r="B113" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
+      <c r="A116" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5030,20 +5232,19 @@
       <c r="B117" t="s">
         <v>74</v>
       </c>
-      <c r="C117" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>321</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>328</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G118" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5052,12 +5253,15 @@
       <c r="B119" t="s">
         <v>299</v>
       </c>
-      <c r="E119" s="15"/>
-      <c r="G119" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
+      <c r="G119" t="s">
+        <v>302</v>
+      </c>
+      <c r="H119" t="s">
+        <v>316</v>
+      </c>
+      <c r="I119" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -5066,14 +5270,16 @@
       <c r="B120" t="s">
         <v>326</v>
       </c>
-      <c r="E120" s="15"/>
-      <c r="G120" t="s">
+      <c r="F120" t="s">
         <v>302</v>
       </c>
-      <c r="H120" t="s">
-        <v>316</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="G120" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="I120" s="16" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5082,68 +5288,53 @@
         <v>296</v>
       </c>
       <c r="B121" t="s">
-        <v>323</v>
-      </c>
-      <c r="E121" s="15"/>
+        <v>327</v>
+      </c>
       <c r="F121" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F123" t="s">
         <v>299</v>
       </c>
-      <c r="G123" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H123" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="I123" s="16" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
+      <c r="A124" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5153,6 +5344,9 @@
       <c r="B126" t="s">
         <v>321</v>
       </c>
+      <c r="E126" s="15" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -5161,48 +5355,101 @@
       <c r="B127" t="s">
         <v>299</v>
       </c>
-      <c r="E127" s="24" t="s">
-        <v>333</v>
-      </c>
+      <c r="E127" s="15"/>
+      <c r="G127" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>319</v>
-      </c>
-      <c r="E128" s="24"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E128" s="15"/>
+      <c r="G128" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128" t="s">
+        <v>316</v>
+      </c>
+      <c r="I128" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>296</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="B129" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="24"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="15"/>
+      <c r="F129" t="s">
+        <v>302</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>299</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>295</v>
       </c>
       <c r="B133" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="C133" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5210,53 +5457,55 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>302</v>
       </c>
       <c r="B135" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>303</v>
       </c>
       <c r="B136" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="38"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>296</v>
       </c>
-      <c r="B137" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F139" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="38"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>295</v>
       </c>
       <c r="B141" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -5264,7 +5513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -5272,7 +5521,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>303</v>
       </c>
@@ -5280,180 +5529,164 @@
         <v>319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>296</v>
       </c>
-      <c r="B145" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="40"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>302</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" t="s">
         <v>299</v>
       </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>303</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" t="s">
         <v>319</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="14"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>295</v>
       </c>
-      <c r="B157" t="s">
-        <v>345</v>
+      <c r="B157" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
     </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="17" t="s">
         <v>321</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
     </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>302</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="17" t="s">
         <v>299</v>
       </c>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>303</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
+      <c r="B161" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="14"/>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
+      <c r="A164" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="40"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>295</v>
       </c>
       <c r="B165" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
@@ -5496,82 +5729,100 @@
       <c r="A169" t="s">
         <v>296</v>
       </c>
-      <c r="B169" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
+      <c r="B169" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>295</v>
       </c>
-      <c r="B173" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="C173" s="29"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
       <c r="B174" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>302</v>
       </c>
       <c r="B175" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>303</v>
       </c>
       <c r="B176" t="s">
-        <v>326</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
+      <c r="B177" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="39"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
+      <c r="A180" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="40"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>295</v>
       </c>
-      <c r="B181" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="C181" s="29"/>
+      <c r="B181" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" s="39"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -5601,43 +5852,36 @@
       <c r="A185" t="s">
         <v>296</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
+      <c r="A188" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="40"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>295</v>
       </c>
-      <c r="B189" t="s">
-        <v>373</v>
-      </c>
-      <c r="C189" t="s">
-        <v>374</v>
-      </c>
+      <c r="B189" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C189" s="39"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5660,32 +5904,35 @@
       <c r="A193" t="s">
         <v>296</v>
       </c>
-      <c r="B193" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
+      <c r="B193" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C193" s="42"/>
+      <c r="D193" s="42"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
+      <c r="A196" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>295</v>
       </c>
       <c r="B197" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="C197" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5693,7 +5940,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5716,27 +5963,32 @@
       <c r="A201" t="s">
         <v>296</v>
       </c>
-      <c r="B201" s="29" t="s">
+      <c r="B201" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C201" s="39"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
+      <c r="F201" s="39"/>
+      <c r="G201" s="39"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
+      <c r="A204" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B204" s="40"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>295</v>
       </c>
       <c r="B205" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5763,40 +6015,42 @@
         <v>326</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>296</v>
       </c>
-      <c r="B209" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="B212" s="28"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B209" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C209" s="39"/>
+      <c r="D209" s="39"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>302</v>
       </c>
@@ -5804,7 +6058,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>303</v>
       </c>
@@ -5812,185 +6066,168 @@
         <v>326</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
-      <c r="J219" s="27"/>
-      <c r="K219" s="27"/>
-      <c r="L219" s="27"/>
-      <c r="M219" s="27"/>
-      <c r="N219" s="27"/>
-      <c r="O219" s="27"/>
-      <c r="P219" s="27"/>
-    </row>
-    <row r="220" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="B220" s="28"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="28"/>
-      <c r="E220" s="28"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="13"/>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="B220" s="40"/>
+      <c r="C220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="40"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>295</v>
       </c>
       <c r="B221" t="s">
-        <v>426</v>
-      </c>
-      <c r="F221" s="18"/>
-      <c r="G221" s="13"/>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>321</v>
-      </c>
-      <c r="F222" s="18"/>
-      <c r="G222" s="13"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>302</v>
       </c>
       <c r="B223" t="s">
         <v>299</v>
       </c>
-      <c r="F223" s="18"/>
-      <c r="G223" s="13"/>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>319</v>
-      </c>
-      <c r="F224" s="18"/>
-      <c r="G224" s="13"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>296</v>
       </c>
-      <c r="F225" s="18"/>
-      <c r="G225" s="13"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F226" s="18"/>
-      <c r="G226" s="13"/>
-    </row>
-    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B227" s="28"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
-      <c r="E227" s="28"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="13"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>295</v>
-      </c>
-      <c r="B228" t="s">
-        <v>426</v>
-      </c>
+      <c r="B225" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H227" s="42"/>
+      <c r="I227" s="42"/>
+      <c r="J227" s="42"/>
+      <c r="K227" s="42"/>
+      <c r="L227" s="42"/>
+      <c r="M227" s="42"/>
+      <c r="N227" s="42"/>
+      <c r="O227" s="42"/>
+      <c r="P227" s="42"/>
+    </row>
+    <row r="228" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B228" s="40"/>
+      <c r="C228" s="40"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="40"/>
       <c r="F228" s="18"/>
       <c r="G228" s="13"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="B229" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="F229" s="18"/>
       <c r="G229" s="13"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="B230" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="F231" s="18"/>
       <c r="G231" s="13"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>296</v>
+        <v>303</v>
+      </c>
+      <c r="B232" t="s">
+        <v>319</v>
       </c>
       <c r="F232" s="18"/>
       <c r="G232" s="13"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>296</v>
+      </c>
       <c r="F233" s="18"/>
       <c r="G233" s="13"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F234" s="18"/>
       <c r="G234" s="13"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="B235" s="28"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="28"/>
-      <c r="E235" s="28"/>
+    <row r="235" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="40"/>
       <c r="F235" s="18"/>
       <c r="G235" s="13"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>295</v>
       </c>
       <c r="B236" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="13"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="13"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>302</v>
       </c>
@@ -6000,273 +6237,721 @@
       <c r="F238" s="18"/>
       <c r="G238" s="13"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>303</v>
       </c>
       <c r="B239" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F239" s="18"/>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>296</v>
       </c>
-      <c r="B240" t="s">
-        <v>402</v>
-      </c>
       <c r="F240" s="18"/>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F241" s="18"/>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F242" s="19"/>
-      <c r="G242" s="21"/>
-      <c r="H242" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="I242" s="25"/>
-      <c r="J242" s="25"/>
-    </row>
-    <row r="243" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="B243" s="28"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="28"/>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F242" s="18"/>
+      <c r="G242" s="13"/>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B243" s="40"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="40"/>
+      <c r="E243" s="40"/>
       <c r="F243" s="19"/>
-      <c r="G243" s="21"/>
-      <c r="H243" t="s">
-        <v>298</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-      <c r="J243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="23" t="s">
+      <c r="G243" s="24"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>295</v>
       </c>
-      <c r="B244" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C244" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D244" s="20"/>
-      <c r="E244" s="20"/>
-      <c r="F244" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="G244" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H244" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="I244" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J244" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="23" t="s">
+      <c r="B244" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="24"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>2</v>
       </c>
-      <c r="B245" s="22" t="s">
+      <c r="B245" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C245" s="22"/>
-      <c r="D245" s="20"/>
-      <c r="E245" s="20"/>
-      <c r="F245" s="26"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="19"/>
       <c r="G245" s="24"/>
-      <c r="H245" s="24"/>
-      <c r="I245" s="24"/>
-      <c r="J245" s="24"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="23" t="s">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>302</v>
       </c>
-      <c r="B246" s="23" t="s">
+      <c r="B246" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C246" s="23"/>
-      <c r="F246" s="26"/>
-      <c r="G246" s="24">
-        <v>0</v>
-      </c>
-      <c r="H246" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="I246" s="24">
-        <v>1</v>
-      </c>
-      <c r="J246" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="23" t="s">
+      <c r="F246" s="19"/>
+      <c r="G246" s="24"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>303</v>
       </c>
-      <c r="B247" s="23" t="s">
+      <c r="B247" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C247" s="23"/>
-      <c r="F247" s="26"/>
+      <c r="F247" s="19"/>
       <c r="G247" s="24"/>
-      <c r="H247" s="24"/>
-      <c r="I247" s="24"/>
-      <c r="J247" s="24"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="23" t="s">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>296</v>
       </c>
-      <c r="B248" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C248" s="23"/>
-      <c r="F248" s="26"/>
-      <c r="G248" s="24">
-        <v>1</v>
-      </c>
-      <c r="H248" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="I248" s="24">
-        <v>1</v>
-      </c>
-      <c r="J248" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F249" s="26"/>
+      <c r="B248" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="C248" s="41"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="24"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F249" s="19"/>
       <c r="G249" s="24"/>
-      <c r="H249" s="24"/>
-      <c r="I249" s="24"/>
-      <c r="J249" s="24"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F250" s="18"/>
-      <c r="G250" s="13"/>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B251" s="28"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="28"/>
-      <c r="E251" s="28"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F250" s="19"/>
+      <c r="G250" s="24"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="B251" s="40"/>
+      <c r="C251" s="40"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="24"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>295</v>
       </c>
       <c r="B252" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="F252" s="19"/>
+      <c r="G252" s="24"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="F253" s="19"/>
+      <c r="G253" s="24"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>302</v>
       </c>
       <c r="B254" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F254" s="19"/>
+      <c r="G254" s="24"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>303</v>
       </c>
       <c r="B255" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="F255" s="19"/>
+      <c r="G255" s="24"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>296</v>
       </c>
-      <c r="B256" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
-      <c r="E259" s="28"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C256" s="39"/>
+      <c r="D256" s="39"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="24"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F257" s="19"/>
+      <c r="G257" s="24"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F258" s="19"/>
+      <c r="G258" s="24"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="B259" s="40"/>
+      <c r="C259" s="40"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="19"/>
+      <c r="G259" s="24"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>295</v>
       </c>
-      <c r="B260" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B260" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="23"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="24"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2</v>
       </c>
       <c r="B261" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="19"/>
+      <c r="G261" s="24"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>302</v>
       </c>
       <c r="B262" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="19"/>
+      <c r="G262" s="24"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>303</v>
       </c>
       <c r="B263" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="19"/>
+      <c r="G263" s="24"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>296</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C264" s="39"/>
+      <c r="D264" s="39"/>
+      <c r="F264" s="19"/>
+      <c r="G264" s="24"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F265" s="19"/>
+      <c r="G265" s="24"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="B266" s="40"/>
+      <c r="C266" s="40"/>
+      <c r="D266" s="40"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="19"/>
+      <c r="G266" s="24"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>295</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="13"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
+        <v>321</v>
+      </c>
+      <c r="F268" s="18"/>
+      <c r="G268" s="13"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>302</v>
+      </c>
+      <c r="B269" t="s">
+        <v>299</v>
+      </c>
+      <c r="F269" s="18"/>
+      <c r="G269" s="13"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>303</v>
+      </c>
+      <c r="B270" t="s">
+        <v>319</v>
+      </c>
+      <c r="F270" s="18"/>
+      <c r="G270" s="13"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>296</v>
+      </c>
+      <c r="B271" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C271" s="39"/>
+      <c r="D271" s="39"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="13"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F272" s="18"/>
+      <c r="G272" s="13"/>
+    </row>
+    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="B273" s="40"/>
+      <c r="C273" s="40"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="13"/>
+    </row>
+    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>295</v>
+      </c>
+      <c r="B274" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="34"/>
+      <c r="I274" s="34"/>
+      <c r="J274" s="34"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>321</v>
+      </c>
+      <c r="F275" s="19"/>
+      <c r="G275" s="24"/>
+    </row>
+    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>302</v>
+      </c>
+      <c r="B276" t="s">
+        <v>299</v>
+      </c>
+      <c r="F276" s="35"/>
+      <c r="G276" s="15"/>
+      <c r="H276" s="15"/>
+      <c r="I276" s="15"/>
+      <c r="J276" s="15"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>303</v>
+      </c>
+      <c r="B277" t="s">
+        <v>319</v>
+      </c>
+      <c r="F277" s="35"/>
+      <c r="G277" s="15"/>
+      <c r="H277" s="15"/>
+      <c r="I277" s="15"/>
+      <c r="J277" s="15"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>296</v>
+      </c>
+      <c r="B278" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C278" s="39"/>
+      <c r="D278" s="39"/>
+      <c r="F278" s="35"/>
+      <c r="G278" s="15"/>
+      <c r="H278" s="15"/>
+      <c r="I278" s="15"/>
+      <c r="J278" s="15"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B279" s="24"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
+      <c r="F279" s="35"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="15"/>
+      <c r="I279" s="15"/>
+      <c r="J279" s="15"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B280" s="24"/>
+      <c r="C280" s="24"/>
+      <c r="D280" s="24"/>
+      <c r="F280" s="35"/>
+      <c r="G280" s="15"/>
+      <c r="H280" s="15"/>
+      <c r="I280" s="15"/>
+      <c r="J280" s="15"/>
+    </row>
+    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B281" s="40"/>
+      <c r="C281" s="40"/>
+      <c r="D281" s="40"/>
+      <c r="E281" s="40"/>
+      <c r="F281" s="35"/>
+      <c r="G281" s="15"/>
+      <c r="H281" s="15"/>
+      <c r="I281" s="15"/>
+      <c r="J281" s="15"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>295</v>
+      </c>
+      <c r="B282" t="s">
+        <v>395</v>
+      </c>
+      <c r="F282" s="35"/>
+      <c r="G282" s="15"/>
+      <c r="H282" s="15"/>
+      <c r="I282" s="15"/>
+      <c r="J282" s="15"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
+        <v>401</v>
+      </c>
+      <c r="F283" s="35"/>
+      <c r="G283" s="15"/>
+      <c r="H283" s="15"/>
+      <c r="I283" s="15"/>
+      <c r="J283" s="15"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>302</v>
+      </c>
+      <c r="B284" t="s">
+        <v>299</v>
+      </c>
+      <c r="F284" s="18"/>
+      <c r="G284" s="13"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>303</v>
+      </c>
+      <c r="B285" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>296</v>
+      </c>
+      <c r="B286" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B289" s="40"/>
+      <c r="C289" s="40"/>
+      <c r="D289" s="40"/>
+      <c r="E289" s="40"/>
+      <c r="F289" s="19"/>
+      <c r="G289" s="24"/>
+      <c r="H289" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="I289" s="36"/>
+      <c r="J289" s="36"/>
+    </row>
+    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C290" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="19"/>
+      <c r="G290" s="24"/>
+      <c r="H290" t="s">
+        <v>298</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="21"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="G291" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="H291" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="I291" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J291" s="38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C292" s="22"/>
+      <c r="F292" s="37"/>
+      <c r="G292" s="38"/>
+      <c r="H292" s="38"/>
+      <c r="I292" s="38"/>
+      <c r="J292" s="38"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B293" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C293" s="22"/>
+      <c r="F293" s="37"/>
+      <c r="G293" s="38">
+        <v>0</v>
+      </c>
+      <c r="H293" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="I293" s="38">
+        <v>1</v>
+      </c>
+      <c r="J293" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C294" s="22"/>
+      <c r="F294" s="37"/>
+      <c r="G294" s="38"/>
+      <c r="H294" s="38"/>
+      <c r="I294" s="38"/>
+      <c r="J294" s="38"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F295" s="37"/>
+      <c r="G295" s="38">
+        <v>1</v>
+      </c>
+      <c r="H295" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="I295" s="38">
+        <v>1</v>
+      </c>
+      <c r="J295" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F296" s="37"/>
+      <c r="G296" s="38"/>
+      <c r="H296" s="38"/>
+      <c r="I296" s="38"/>
+      <c r="J296" s="38"/>
+    </row>
+    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B297" s="40"/>
+      <c r="C297" s="40"/>
+      <c r="D297" s="40"/>
+      <c r="E297" s="40"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>295</v>
+      </c>
+      <c r="B298" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>296</v>
+      </c>
+      <c r="B302" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B305" s="40"/>
+      <c r="C305" s="40"/>
+      <c r="D305" s="40"/>
+      <c r="E305" s="40"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>295</v>
+      </c>
+      <c r="B306" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>302</v>
+      </c>
+      <c r="B308" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>303</v>
+      </c>
+      <c r="B309" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>296</v>
+      </c>
+      <c r="B310" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="B70:C70"/>
+  <mergeCells count="91">
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="C49:E49"/>
@@ -6274,81 +6959,93 @@
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A60:E60"/>
     <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A76:E76"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B34:E34"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A100:E100"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="G127:I127"/>
     <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A148:E148"/>
     <mergeCell ref="A116:E116"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A259:E259"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="A305:E305"/>
+    <mergeCell ref="B86:E86"/>
     <mergeCell ref="A156:E156"/>
-    <mergeCell ref="B161:E161"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="B169:E169"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="A235:E235"/>
     <mergeCell ref="A172:E172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="A281:E281"/>
     <mergeCell ref="A180:E180"/>
     <mergeCell ref="B181:C181"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="H227:P227"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A297:E297"/>
     <mergeCell ref="A212:E212"/>
     <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A227:E227"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="A235:E235"/>
     <mergeCell ref="B193:D193"/>
-    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="A289:E289"/>
     <mergeCell ref="A196:E196"/>
     <mergeCell ref="B201:D201"/>
-    <mergeCell ref="F244:F249"/>
-    <mergeCell ref="G248:G249"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="G244:G245"/>
-    <mergeCell ref="H219:P219"/>
-    <mergeCell ref="H248:H249"/>
-    <mergeCell ref="I248:I249"/>
-    <mergeCell ref="J248:J249"/>
-    <mergeCell ref="H242:J242"/>
-    <mergeCell ref="H244:H245"/>
-    <mergeCell ref="I244:I245"/>
-    <mergeCell ref="J244:J245"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="I246:I247"/>
-    <mergeCell ref="J246:J247"/>
+    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="F291:F296"/>
+    <mergeCell ref="G291:G292"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="I291:I292"/>
+    <mergeCell ref="J291:J292"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="I293:I294"/>
+    <mergeCell ref="J293:J294"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="H295:H296"/>
+    <mergeCell ref="I295:I296"/>
+    <mergeCell ref="J295:J296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>
-    <hyperlink ref="B81" r:id="rId2" location="what-is-best-way-compute-race" xr:uid="{283A4687-DB78-40EE-A813-3629766CD0AA}"/>
+    <hyperlink ref="B89" r:id="rId2" location="what-is-best-way-compute-race" xr:uid="{283A4687-DB78-40EE-A813-3629766CD0AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1698" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7ECEE184-6C5B-44BA-A80D-8A59A05E7C05}"/>
+  <xr:revisionPtr revIDLastSave="1706" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{949BBFEC-9F79-402A-AD5D-8A45B539AFC9}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="705" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="509">
   <si>
     <t>Variable</t>
   </si>
@@ -1559,6 +1559,9 @@
   </si>
   <si>
     <t>Summation of the 4 observed variables</t>
+  </si>
+  <si>
+    <t>Gunshot12to18, Victim</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1764,9 +1767,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1779,20 +1779,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2129,14 +2134,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="89.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
@@ -2163,123 +2168,123 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>249</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>476</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>250</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>224</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>223</v>
+        <v>481</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>483</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>476</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>156</v>
+      <c r="B7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,39 +2292,39 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,19 +2332,19 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,19 +2352,19 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,104 +2372,119 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>164</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>127</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
       </c>
       <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,36 +2492,27 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,68 +2520,73 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,648 +2594,636 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>407</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C29" t="s">
         <v>257</v>
       </c>
-      <c r="D28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>97</v>
+      <c r="F29" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>435</v>
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>435</v>
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>434</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>436</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D33" t="s">
-        <v>438</v>
-      </c>
-      <c r="E33" t="s">
-        <v>435</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>439</v>
+      <c r="A33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
-        <v>440</v>
-      </c>
-      <c r="C34" t="s">
-        <v>441</v>
-      </c>
-      <c r="D34" t="s">
-        <v>438</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B35" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" t="s">
-        <v>59</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>240</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" t="s">
-        <v>218</v>
+      <c r="B36" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>220</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" t="s">
-        <v>216</v>
+        <v>436</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>437</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>435</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="C38" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="D38" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="E38" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
+      <c r="A39" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39"/>
+        <v>59</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40"/>
+        <v>218</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>6</v>
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>397</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F43"/>
     </row>
     <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F44"/>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45"/>
+      <c r="A45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>383</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>385</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>508</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>387</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>416</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>227</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>243</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" t="s">
+        <v>415</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E56" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3227,229 +3231,230 @@
         <v>3</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" t="s">
-        <v>54</v>
+      <c r="F59" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s">
-        <v>54</v>
+      <c r="A60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" t="s">
-        <v>108</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" t="s">
-        <v>116</v>
+      <c r="A68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,19 +3462,19 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,59 +3482,57 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" t="s">
-        <v>179</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="A71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>121</v>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" t="s">
+        <v>116</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>444</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,19 +3540,19 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>443</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,59 +3560,59 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>446</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>447</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>448</v>
+        <v>179</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>449</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" t="s">
+        <v>179</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B75" t="s">
-        <v>450</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D75" t="s">
-        <v>447</v>
-      </c>
-      <c r="E75" t="s">
-        <v>448</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>453</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D76" t="s">
-        <v>447</v>
-      </c>
-      <c r="E76" t="s">
-        <v>448</v>
+      <c r="B76" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3617,19 +3620,19 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>454</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>456</v>
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,19 +3640,19 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>459</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>463</v>
+        <v>445</v>
+      </c>
+      <c r="C78" t="s">
+        <v>446</v>
       </c>
       <c r="D78" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E78" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3657,19 +3660,19 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>467</v>
+        <v>450</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>451</v>
       </c>
       <c r="D79" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E79" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3677,19 +3680,19 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>461</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>469</v>
+        <v>453</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>455</v>
       </c>
       <c r="D80" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E80" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,156 +3700,156 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>462</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>471</v>
+        <v>454</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>456</v>
       </c>
       <c r="D81" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E81" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
+        <v>459</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>463</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>241</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
-      </c>
-      <c r="C83" t="s">
-        <v>282</v>
+        <v>460</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>467</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>284</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" t="s">
-        <v>61</v>
+        <v>461</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>469</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>464</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>465</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>139</v>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>462</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D85" t="s">
+        <v>464</v>
+      </c>
+      <c r="E85" t="s">
+        <v>465</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>291</v>
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,19 +3857,19 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" t="s">
-        <v>346</v>
+        <v>487</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>488</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>489</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>490</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>348</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,94 +3877,99 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
-      </c>
-      <c r="C90" t="s">
-        <v>350</v>
+        <v>492</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>493</v>
       </c>
       <c r="D90" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>490</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>351</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>356</v>
-      </c>
-      <c r="C91" t="s">
-        <v>357</v>
-      </c>
-      <c r="D91" t="s">
-        <v>358</v>
-      </c>
-      <c r="E91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>359</v>
+      <c r="A91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>362</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F93" s="8"/>
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" t="s">
+        <v>287</v>
+      </c>
+      <c r="E93" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" t="s">
-        <v>49</v>
+      <c r="A94" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,19 +3977,19 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>474</v>
+        <v>345</v>
+      </c>
+      <c r="C95" t="s">
+        <v>346</v>
       </c>
       <c r="D95" t="s">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="E95" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3989,19 +3997,19 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>478</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>479</v>
+        <v>349</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="E96" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>480</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,19 +4017,19 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>481</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>483</v>
+        <v>356</v>
+      </c>
+      <c r="C97" t="s">
+        <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>475</v>
+        <v>358</v>
       </c>
       <c r="E97" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>484</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,146 +4037,141 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>482</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>485</v>
+        <v>360</v>
+      </c>
+      <c r="C98" t="s">
+        <v>361</v>
       </c>
       <c r="D98" t="s">
-        <v>475</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>486</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" t="s">
-        <v>487</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D99" t="s">
-        <v>489</v>
-      </c>
-      <c r="E99" t="s">
-        <v>490</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>491</v>
-      </c>
+      <c r="A99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>492</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>493</v>
+        <v>51</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="D100" t="s">
-        <v>494</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>490</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>495</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F94">
-    <sortCondition ref="E2:E94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
+    <sortCondition ref="E2:E100"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
-    <hyperlink ref="F42" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
-    <hyperlink ref="F43" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
-    <hyperlink ref="F29" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
-    <hyperlink ref="F30" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
-    <hyperlink ref="F69" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
-    <hyperlink ref="F68" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
-    <hyperlink ref="F65" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
-    <hyperlink ref="F66" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
-    <hyperlink ref="F85" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
-    <hyperlink ref="F53" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
-    <hyperlink ref="F54" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
-    <hyperlink ref="F8" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
-    <hyperlink ref="F7" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
-    <hyperlink ref="F6" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
-    <hyperlink ref="F9" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
-    <hyperlink ref="F86" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
-    <hyperlink ref="F70" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
-    <hyperlink ref="F71" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
-    <hyperlink ref="F36" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
-    <hyperlink ref="F37" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
-    <hyperlink ref="F3" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
-    <hyperlink ref="F4" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
-    <hyperlink ref="F46" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F44" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
-    <hyperlink ref="F55" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
-    <hyperlink ref="F56" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
-    <hyperlink ref="F57" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
-    <hyperlink ref="F35" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
-    <hyperlink ref="F82" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
-    <hyperlink ref="F51" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
-    <hyperlink ref="F19" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
-    <hyperlink ref="F62" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
-    <hyperlink ref="F2" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
-    <hyperlink ref="F41" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
-    <hyperlink ref="F27" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
-    <hyperlink ref="F28" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
-    <hyperlink ref="F61" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
-    <hyperlink ref="F64" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
-    <hyperlink ref="F17" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
-    <hyperlink ref="F24" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
-    <hyperlink ref="F52" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
-    <hyperlink ref="F63" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
-    <hyperlink ref="F83" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
-    <hyperlink ref="F87" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
-    <hyperlink ref="F88" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
-    <hyperlink ref="F5" r:id="rId50" xr:uid="{82343614-6126-43E8-A2DF-54A97E93F3D9}"/>
-    <hyperlink ref="F89" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
-    <hyperlink ref="F90" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
-    <hyperlink ref="F91" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
-    <hyperlink ref="F92" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
-    <hyperlink ref="F47" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
-    <hyperlink ref="F48" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
-    <hyperlink ref="F38" r:id="rId57" xr:uid="{9CEB5978-510D-4B8E-A0F5-DFC59EEBC727}"/>
-    <hyperlink ref="F25" r:id="rId58" xr:uid="{78E8C26A-FBE3-4578-8FEF-66A2AC76FD68}"/>
-    <hyperlink ref="F26" r:id="rId59" xr:uid="{B3311435-ECC3-49CA-AE1B-4F4DDFAAD4F2}"/>
-    <hyperlink ref="F49" r:id="rId60" xr:uid="{C59A81D1-ED4C-4B21-841E-5DF034198525}"/>
-    <hyperlink ref="F31" r:id="rId61" xr:uid="{27F25C32-A208-43ED-B892-0E1082640DAA}"/>
-    <hyperlink ref="F32" r:id="rId62" xr:uid="{4A725D5A-F192-4281-BDC2-88502188294F}"/>
-    <hyperlink ref="F33" r:id="rId63" xr:uid="{F827802E-F530-4283-BA98-82FDD61FC9BF}"/>
-    <hyperlink ref="F34" r:id="rId64" xr:uid="{B7DA6C34-E732-4277-94B0-55BF63F50B16}"/>
-    <hyperlink ref="F73" r:id="rId65" xr:uid="{CCE913F3-1549-415C-B7D6-6823D4D4F0F1}"/>
-    <hyperlink ref="F72" r:id="rId66" xr:uid="{47D66A22-74B7-40D7-BEB6-0AB980E8089A}"/>
-    <hyperlink ref="F74" r:id="rId67" xr:uid="{A150B180-D0A5-4763-BED8-BC404C17293C}"/>
-    <hyperlink ref="F75" r:id="rId68" xr:uid="{09FD6D53-91A4-4AFB-A984-623FF5EC5C40}"/>
-    <hyperlink ref="F76" r:id="rId69" xr:uid="{AF6BCE4E-674B-4DEE-A622-ED962C283757}"/>
-    <hyperlink ref="F77" r:id="rId70" xr:uid="{1E934B76-1E7C-422E-B1A2-46A07F7071C0}"/>
-    <hyperlink ref="F78" r:id="rId71" xr:uid="{E63B76AE-2EB8-440B-8B0E-703303F4D88B}"/>
-    <hyperlink ref="F79" r:id="rId72" xr:uid="{373332E6-24E6-4AE1-9415-7C989F61B19A}"/>
-    <hyperlink ref="F80" r:id="rId73" xr:uid="{D33C390E-D826-46CE-BA3A-EA08D6EC5D46}"/>
-    <hyperlink ref="F81" r:id="rId74" xr:uid="{B10EA419-40C1-4756-BD0E-B5399919DDCA}"/>
-    <hyperlink ref="F95" r:id="rId75" xr:uid="{DE7F505E-44A7-49DA-B310-15717B594647}"/>
-    <hyperlink ref="F96" r:id="rId76" xr:uid="{2D919663-4E5E-466D-9FEC-1007B3E30A6F}"/>
-    <hyperlink ref="F97" r:id="rId77" xr:uid="{70F51C82-E912-48F3-B1E7-A9A3238AFEC0}"/>
-    <hyperlink ref="F98" r:id="rId78" xr:uid="{956A0306-C13E-4E61-8F92-EDEF685C0D72}"/>
-    <hyperlink ref="F99" r:id="rId79" xr:uid="{EC6460E0-F770-434B-820B-295BC0CA1454}"/>
-    <hyperlink ref="F100" r:id="rId80" xr:uid="{30F2918E-70D0-4A4A-9F2D-02676F6C3101}"/>
+    <hyperlink ref="F17" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
+    <hyperlink ref="F46" r:id="rId2" xr:uid="{E55F8D09-91AB-49F6-BDF1-59EA0A329B08}"/>
+    <hyperlink ref="F47" r:id="rId3" xr:uid="{590DEA01-3FC9-4213-8333-2F9E53883857}"/>
+    <hyperlink ref="F33" r:id="rId4" xr:uid="{356B36B9-99A0-4D8A-B652-5B1CC7664C7F}"/>
+    <hyperlink ref="F34" r:id="rId5" xr:uid="{2BE48016-4F18-42DD-A95C-EBA58193BB31}"/>
+    <hyperlink ref="F73" r:id="rId6" xr:uid="{70FB318A-EC4F-4380-963C-7EAB188FD5B2}"/>
+    <hyperlink ref="F72" r:id="rId7" xr:uid="{BA942AB3-70AB-42CD-8B23-56A8A1D646F0}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{E27C58AE-908D-4046-9459-FF758D4D7E92}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{3BA21BA2-5113-4447-9806-C34D455CA0E3}"/>
+    <hyperlink ref="F69" r:id="rId10" xr:uid="{37DBB895-9E53-4ABF-B333-F630E7C222A2}"/>
+    <hyperlink ref="F70" r:id="rId11" xr:uid="{55B0687B-23BF-4BC1-AF82-455C61CD688A}"/>
+    <hyperlink ref="F91" r:id="rId12" xr:uid="{8F2F7255-823C-4AAF-8DA2-74D6C2C3B012}"/>
+    <hyperlink ref="F57" r:id="rId13" xr:uid="{E2DD065C-578A-4C99-BDEF-5A345A73C061}"/>
+    <hyperlink ref="F58" r:id="rId14" xr:uid="{06FF0153-CE1D-41A2-87A7-BD2E05B0D65B}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{6424E3E9-1F9A-4907-84A9-D2A6DD717E27}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{0121EE01-97E7-4DC0-98A1-DDA2EE970114}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{E23965CB-CC8F-409E-A2D5-384DA3D73A6B}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{F12F832B-6FAC-4575-BB8B-04C75AAB8640}"/>
+    <hyperlink ref="F13" r:id="rId19" xr:uid="{D639AF81-0AC2-4FA4-89DE-B5C535BC496A}"/>
+    <hyperlink ref="F92" r:id="rId20" xr:uid="{33F1C24F-8C1E-4949-AB66-A5810CD45203}"/>
+    <hyperlink ref="F74" r:id="rId21" xr:uid="{3ED62737-378F-4896-ACA0-051880AA242B}"/>
+    <hyperlink ref="F75" r:id="rId22" xr:uid="{A9CF8FF8-9FBC-4E05-A9C4-F60409CF77CA}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{F39C32CB-1DBB-40DE-B09D-FE642271933D}"/>
+    <hyperlink ref="F41" r:id="rId24" xr:uid="{76AFFF5F-34DF-4413-877C-34CCD5646AE2}"/>
+    <hyperlink ref="F7" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
+    <hyperlink ref="F8" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
+    <hyperlink ref="F50" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
+    <hyperlink ref="F48" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F59" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
+    <hyperlink ref="F60" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
+    <hyperlink ref="F61" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
+    <hyperlink ref="F39" r:id="rId32" xr:uid="{46D30E99-9D73-4FDE-86CF-BD47F0E3A850}"/>
+    <hyperlink ref="F86" r:id="rId33" xr:uid="{733483A3-AC69-4225-B2FC-EE02CC21987E}"/>
+    <hyperlink ref="F55" r:id="rId34" xr:uid="{E992DCDA-D9C9-44D4-9EDE-5A3B7D3E52B7}"/>
+    <hyperlink ref="F23" r:id="rId35" xr:uid="{9062E3D4-F2A9-4A91-BADA-C7A346A30CC5}"/>
+    <hyperlink ref="F66" r:id="rId36" xr:uid="{604AA242-10D2-45C1-A0BF-F9C01FF4FE26}"/>
+    <hyperlink ref="F6" r:id="rId37" xr:uid="{4762433A-E2A6-42E2-9B45-84BBAB62073B}"/>
+    <hyperlink ref="F45" r:id="rId38" xr:uid="{2A6F0912-46F0-4874-B8E9-75A60A4C0D60}"/>
+    <hyperlink ref="F31" r:id="rId39" xr:uid="{52F596E4-CCB6-427A-B988-EC76A08EA553}"/>
+    <hyperlink ref="F32" r:id="rId40" xr:uid="{9F2C8FC6-96D5-4231-B096-F1AFFD3EE3CB}"/>
+    <hyperlink ref="F65" r:id="rId41" xr:uid="{976F5058-8EAB-4060-8AAB-10A7E5F868F4}"/>
+    <hyperlink ref="F68" r:id="rId42" xr:uid="{A942BC26-FD23-4A03-AF96-02990F6128E3}"/>
+    <hyperlink ref="F21" r:id="rId43" xr:uid="{849748C1-EB31-4A04-A14D-C7F03413CD02}"/>
+    <hyperlink ref="F28" r:id="rId44" xr:uid="{8CA95CE0-BDEF-4DD4-8F78-8A53EA120E71}"/>
+    <hyperlink ref="F56" r:id="rId45" xr:uid="{B5E39CC7-1BED-4F43-8E10-437E9FA79A88}"/>
+    <hyperlink ref="F67" r:id="rId46" xr:uid="{DD4411FE-F95F-4751-AD39-DA640874D345}"/>
+    <hyperlink ref="F87" r:id="rId47" xr:uid="{150E963B-BF03-4078-93B2-9DDE5910D328}"/>
+    <hyperlink ref="F93" r:id="rId48" xr:uid="{A24DA693-9D38-4062-849A-E6FB2AC0CF57}"/>
+    <hyperlink ref="F94" r:id="rId49" xr:uid="{65B6DCDA-6850-4492-943F-5581F662759B}"/>
+    <hyperlink ref="F9" r:id="rId50" xr:uid="{82343614-6126-43E8-A2DF-54A97E93F3D9}"/>
+    <hyperlink ref="F95" r:id="rId51" xr:uid="{32AC493A-493E-4EA0-999E-F964CC4B81C6}"/>
+    <hyperlink ref="F96" r:id="rId52" xr:uid="{FB72B2D4-02CE-4BAD-A523-E716B55ED0D5}"/>
+    <hyperlink ref="F97" r:id="rId53" xr:uid="{90C6054E-63CA-4F69-8392-1F3EF1CA5015}"/>
+    <hyperlink ref="F98" r:id="rId54" xr:uid="{C1CE72FD-D517-457F-8E04-A328AE1008BC}"/>
+    <hyperlink ref="F51" r:id="rId55" xr:uid="{7A024115-AAB8-4275-9CA0-21B1A0A2AABA}"/>
+    <hyperlink ref="F52" r:id="rId56" xr:uid="{A4F43286-8778-4812-8524-D0904C59CB78}"/>
+    <hyperlink ref="F42" r:id="rId57" xr:uid="{9CEB5978-510D-4B8E-A0F5-DFC59EEBC727}"/>
+    <hyperlink ref="F29" r:id="rId58" xr:uid="{78E8C26A-FBE3-4578-8FEF-66A2AC76FD68}"/>
+    <hyperlink ref="F30" r:id="rId59" xr:uid="{B3311435-ECC3-49CA-AE1B-4F4DDFAAD4F2}"/>
+    <hyperlink ref="F53" r:id="rId60" xr:uid="{C59A81D1-ED4C-4B21-841E-5DF034198525}"/>
+    <hyperlink ref="F35" r:id="rId61" xr:uid="{27F25C32-A208-43ED-B892-0E1082640DAA}"/>
+    <hyperlink ref="F36" r:id="rId62" xr:uid="{4A725D5A-F192-4281-BDC2-88502188294F}"/>
+    <hyperlink ref="F37" r:id="rId63" xr:uid="{F827802E-F530-4283-BA98-82FDD61FC9BF}"/>
+    <hyperlink ref="F38" r:id="rId64" xr:uid="{B7DA6C34-E732-4277-94B0-55BF63F50B16}"/>
+    <hyperlink ref="F77" r:id="rId65" xr:uid="{CCE913F3-1549-415C-B7D6-6823D4D4F0F1}"/>
+    <hyperlink ref="F76" r:id="rId66" xr:uid="{47D66A22-74B7-40D7-BEB6-0AB980E8089A}"/>
+    <hyperlink ref="F78" r:id="rId67" xr:uid="{A150B180-D0A5-4763-BED8-BC404C17293C}"/>
+    <hyperlink ref="F79" r:id="rId68" xr:uid="{09FD6D53-91A4-4AFB-A984-623FF5EC5C40}"/>
+    <hyperlink ref="F80" r:id="rId69" xr:uid="{AF6BCE4E-674B-4DEE-A622-ED962C283757}"/>
+    <hyperlink ref="F81" r:id="rId70" xr:uid="{1E934B76-1E7C-422E-B1A2-46A07F7071C0}"/>
+    <hyperlink ref="F82" r:id="rId71" xr:uid="{E63B76AE-2EB8-440B-8B0E-703303F4D88B}"/>
+    <hyperlink ref="F83" r:id="rId72" xr:uid="{373332E6-24E6-4AE1-9415-7C989F61B19A}"/>
+    <hyperlink ref="F84" r:id="rId73" xr:uid="{D33C390E-D826-46CE-BA3A-EA08D6EC5D46}"/>
+    <hyperlink ref="F85" r:id="rId74" xr:uid="{B10EA419-40C1-4756-BD0E-B5399919DDCA}"/>
+    <hyperlink ref="F2" r:id="rId75" xr:uid="{DE7F505E-44A7-49DA-B310-15717B594647}"/>
+    <hyperlink ref="F3" r:id="rId76" xr:uid="{2D919663-4E5E-466D-9FEC-1007B3E30A6F}"/>
+    <hyperlink ref="F4" r:id="rId77" xr:uid="{70F51C82-E912-48F3-B1E7-A9A3238AFEC0}"/>
+    <hyperlink ref="F5" r:id="rId78" xr:uid="{956A0306-C13E-4E61-8F92-EDEF685C0D72}"/>
+    <hyperlink ref="F89" r:id="rId79" xr:uid="{EC6460E0-F770-434B-820B-295BC0CA1454}"/>
+    <hyperlink ref="F90" r:id="rId80" xr:uid="{30F2918E-70D0-4A4A-9F2D-02676F6C3101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId81"/>
@@ -4179,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4427,7 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4438,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
   <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:E76"/>
     </sheetView>
   </sheetViews>
@@ -4452,27 +4455,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4519,11 +4522,11 @@
       <c r="A10" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="2" t="s">
         <v>301</v>
       </c>
@@ -4573,11 +4576,11 @@
       <c r="A18" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
@@ -4595,10 +4598,10 @@
       <c r="B22" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4628,12 +4631,12 @@
       <c r="A26" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
@@ -4651,10 +4654,10 @@
       <c r="B30" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4684,17 +4687,17 @@
       <c r="A34" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="39" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
@@ -4746,11 +4749,11 @@
       <c r="B42" t="s">
         <v>365</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
@@ -4800,11 +4803,11 @@
       <c r="B49" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
@@ -4854,11 +4857,11 @@
       <c r="B57" t="s">
         <v>412</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
@@ -4922,11 +4925,11 @@
       <c r="A69" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -4981,10 +4984,10 @@
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="39"/>
+      <c r="C78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5037,12 +5040,12 @@
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -5067,11 +5070,11 @@
       <c r="B89" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
@@ -5210,11 +5213,11 @@
       <c r="A113" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="39" t="s">
+      <c r="B113" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
@@ -5240,11 +5243,11 @@
       <c r="B118" t="s">
         <v>325</v>
       </c>
-      <c r="G118" s="42" t="s">
+      <c r="G118" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5356,11 +5359,11 @@
         <v>299</v>
       </c>
       <c r="E127" s="15"/>
-      <c r="G127" s="42" t="s">
+      <c r="G127" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -5464,7 +5467,7 @@
       <c r="B135" t="s">
         <v>299</v>
       </c>
-      <c r="E135" s="38" t="s">
+      <c r="E135" s="39" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5475,18 +5478,18 @@
       <c r="B136" t="s">
         <v>319</v>
       </c>
-      <c r="E136" s="38"/>
+      <c r="E136" s="39"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>296</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="38"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="39"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
@@ -5587,12 +5590,12 @@
       <c r="A153" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
@@ -5651,11 +5654,11 @@
       <c r="A161" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="43" t="s">
+      <c r="B161" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="C161" s="43"/>
-      <c r="D161" s="43"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
       <c r="E161" s="14"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5729,12 +5732,12 @@
       <c r="A169" t="s">
         <v>296</v>
       </c>
-      <c r="B169" s="39" t="s">
+      <c r="B169" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="41"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
@@ -5799,12 +5802,12 @@
       <c r="A177" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="39" t="s">
+      <c r="B177" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="41"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
@@ -5819,10 +5822,10 @@
       <c r="A181" t="s">
         <v>295</v>
       </c>
-      <c r="B181" s="39" t="s">
+      <c r="B181" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="C181" s="39"/>
+      <c r="C181" s="41"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -5852,11 +5855,11 @@
       <c r="A185" t="s">
         <v>296</v>
       </c>
-      <c r="B185" s="42" t="s">
+      <c r="B185" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="42"/>
-      <c r="D185" s="42"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="40" t="s">
@@ -5871,10 +5874,10 @@
       <c r="A189" t="s">
         <v>295</v>
       </c>
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="C189" s="39"/>
+      <c r="C189" s="41"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -5904,11 +5907,11 @@
       <c r="A193" t="s">
         <v>296</v>
       </c>
-      <c r="B193" s="42" t="s">
+      <c r="B193" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="C193" s="42"/>
-      <c r="D193" s="42"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="11"/>
@@ -5963,16 +5966,16 @@
       <c r="A201" t="s">
         <v>296</v>
       </c>
-      <c r="B201" s="39" t="s">
+      <c r="B201" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39" t="s">
+      <c r="C201" s="41"/>
+      <c r="D201" s="41"/>
+      <c r="E201" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F201" s="39"/>
-      <c r="G201" s="39"/>
+      <c r="F201" s="41"/>
+      <c r="G201" s="41"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
@@ -6019,11 +6022,11 @@
       <c r="A209" t="s">
         <v>296</v>
       </c>
-      <c r="B209" s="39" t="s">
+      <c r="B209" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="41"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
@@ -6124,15 +6127,15 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H227" s="42"/>
-      <c r="I227" s="42"/>
-      <c r="J227" s="42"/>
-      <c r="K227" s="42"/>
-      <c r="L227" s="42"/>
-      <c r="M227" s="42"/>
-      <c r="N227" s="42"/>
-      <c r="O227" s="42"/>
-      <c r="P227" s="42"/>
+      <c r="H227" s="44"/>
+      <c r="I227" s="44"/>
+      <c r="J227" s="44"/>
+      <c r="K227" s="44"/>
+      <c r="L227" s="44"/>
+      <c r="M227" s="44"/>
+      <c r="N227" s="44"/>
+      <c r="O227" s="44"/>
+      <c r="P227" s="44"/>
     </row>
     <row r="228" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="40" t="s">
@@ -6277,7 +6280,7 @@
       <c r="A244" t="s">
         <v>295</v>
       </c>
-      <c r="B244" s="31" t="s">
+      <c r="B244" s="30" t="s">
         <v>487</v>
       </c>
       <c r="C244" s="23"/>
@@ -6290,7 +6293,7 @@
       <c r="A245" t="s">
         <v>2</v>
       </c>
-      <c r="B245" s="32" t="s">
+      <c r="B245" s="31" t="s">
         <v>321</v>
       </c>
       <c r="C245" s="23"/>
@@ -6303,7 +6306,7 @@
       <c r="A246" t="s">
         <v>302</v>
       </c>
-      <c r="B246" s="33" t="s">
+      <c r="B246" s="32" t="s">
         <v>299</v>
       </c>
       <c r="F246" s="19"/>
@@ -6313,7 +6316,7 @@
       <c r="A247" t="s">
         <v>303</v>
       </c>
-      <c r="B247" s="33" t="s">
+      <c r="B247" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F247" s="19"/>
@@ -6323,10 +6326,10 @@
       <c r="A248" t="s">
         <v>296</v>
       </c>
-      <c r="B248" s="41" t="s">
+      <c r="B248" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="C248" s="41"/>
+      <c r="C248" s="43"/>
       <c r="F248" s="19"/>
       <c r="G248" s="24"/>
     </row>
@@ -6393,11 +6396,11 @@
       <c r="A256" t="s">
         <v>296</v>
       </c>
-      <c r="B256" s="39" t="s">
+      <c r="B256" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C256" s="39"/>
-      <c r="D256" s="39"/>
+      <c r="C256" s="41"/>
+      <c r="D256" s="41"/>
       <c r="F256" s="19"/>
       <c r="G256" s="24"/>
     </row>
@@ -6467,11 +6470,11 @@
       <c r="A264" t="s">
         <v>296</v>
       </c>
-      <c r="B264" s="39" t="s">
+      <c r="B264" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C264" s="39"/>
-      <c r="D264" s="39"/>
+      <c r="C264" s="41"/>
+      <c r="D264" s="41"/>
       <c r="F264" s="19"/>
       <c r="G264" s="24"/>
     </row>
@@ -6537,11 +6540,11 @@
       <c r="A271" t="s">
         <v>296</v>
       </c>
-      <c r="B271" s="39" t="s">
+      <c r="B271" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C271" s="39"/>
-      <c r="D271" s="39"/>
+      <c r="C271" s="41"/>
+      <c r="D271" s="41"/>
       <c r="F271" s="18"/>
       <c r="G271" s="13"/>
     </row>
@@ -6572,9 +6575,9 @@
       <c r="E274" s="23"/>
       <c r="F274" s="19"/>
       <c r="G274" s="24"/>
-      <c r="H274" s="34"/>
-      <c r="I274" s="34"/>
-      <c r="J274" s="34"/>
+      <c r="H274" s="33"/>
+      <c r="I274" s="33"/>
+      <c r="J274" s="33"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -6593,7 +6596,7 @@
       <c r="B276" t="s">
         <v>299</v>
       </c>
-      <c r="F276" s="35"/>
+      <c r="F276" s="34"/>
       <c r="G276" s="15"/>
       <c r="H276" s="15"/>
       <c r="I276" s="15"/>
@@ -6606,7 +6609,7 @@
       <c r="B277" t="s">
         <v>319</v>
       </c>
-      <c r="F277" s="35"/>
+      <c r="F277" s="34"/>
       <c r="G277" s="15"/>
       <c r="H277" s="15"/>
       <c r="I277" s="15"/>
@@ -6616,12 +6619,12 @@
       <c r="A278" t="s">
         <v>296</v>
       </c>
-      <c r="B278" s="39" t="s">
+      <c r="B278" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C278" s="39"/>
-      <c r="D278" s="39"/>
-      <c r="F278" s="35"/>
+      <c r="C278" s="41"/>
+      <c r="D278" s="41"/>
+      <c r="F278" s="34"/>
       <c r="G278" s="15"/>
       <c r="H278" s="15"/>
       <c r="I278" s="15"/>
@@ -6631,7 +6634,7 @@
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
       <c r="D279" s="24"/>
-      <c r="F279" s="35"/>
+      <c r="F279" s="34"/>
       <c r="G279" s="15"/>
       <c r="H279" s="15"/>
       <c r="I279" s="15"/>
@@ -6641,7 +6644,7 @@
       <c r="B280" s="24"/>
       <c r="C280" s="24"/>
       <c r="D280" s="24"/>
-      <c r="F280" s="35"/>
+      <c r="F280" s="34"/>
       <c r="G280" s="15"/>
       <c r="H280" s="15"/>
       <c r="I280" s="15"/>
@@ -6655,7 +6658,7 @@
       <c r="C281" s="40"/>
       <c r="D281" s="40"/>
       <c r="E281" s="40"/>
-      <c r="F281" s="35"/>
+      <c r="F281" s="34"/>
       <c r="G281" s="15"/>
       <c r="H281" s="15"/>
       <c r="I281" s="15"/>
@@ -6668,7 +6671,7 @@
       <c r="B282" t="s">
         <v>395</v>
       </c>
-      <c r="F282" s="35"/>
+      <c r="F282" s="34"/>
       <c r="G282" s="15"/>
       <c r="H282" s="15"/>
       <c r="I282" s="15"/>
@@ -6681,7 +6684,7 @@
       <c r="B283" t="s">
         <v>401</v>
       </c>
-      <c r="F283" s="35"/>
+      <c r="F283" s="34"/>
       <c r="G283" s="15"/>
       <c r="H283" s="15"/>
       <c r="I283" s="15"/>
@@ -6723,11 +6726,11 @@
       <c r="E289" s="40"/>
       <c r="F289" s="19"/>
       <c r="G289" s="24"/>
-      <c r="H289" s="36" t="s">
+      <c r="H289" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="I289" s="36"/>
-      <c r="J289" s="36"/>
+      <c r="I289" s="42"/>
+      <c r="J289" s="42"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="22" t="s">
@@ -6763,19 +6766,19 @@
       <c r="C291" s="21"/>
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
-      <c r="F291" s="37" t="s">
+      <c r="F291" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="G291" s="38" t="s">
+      <c r="G291" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="H291" s="38" t="s">
+      <c r="H291" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="I291" s="38" t="s">
+      <c r="I291" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="J291" s="38" t="s">
+      <c r="J291" s="39" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6787,11 +6790,11 @@
         <v>299</v>
       </c>
       <c r="C292" s="22"/>
-      <c r="F292" s="37"/>
-      <c r="G292" s="38"/>
-      <c r="H292" s="38"/>
-      <c r="I292" s="38"/>
-      <c r="J292" s="38"/>
+      <c r="F292" s="38"/>
+      <c r="G292" s="39"/>
+      <c r="H292" s="39"/>
+      <c r="I292" s="39"/>
+      <c r="J292" s="39"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="22" t="s">
@@ -6801,17 +6804,17 @@
         <v>319</v>
       </c>
       <c r="C293" s="22"/>
-      <c r="F293" s="37"/>
-      <c r="G293" s="38">
+      <c r="F293" s="38"/>
+      <c r="G293" s="39">
         <v>0</v>
       </c>
-      <c r="H293" s="38" t="s">
+      <c r="H293" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="I293" s="38">
+      <c r="I293" s="39">
         <v>1</v>
       </c>
-      <c r="J293" s="38">
+      <c r="J293" s="39">
         <v>1</v>
       </c>
     </row>
@@ -6823,33 +6826,33 @@
         <v>412</v>
       </c>
       <c r="C294" s="22"/>
-      <c r="F294" s="37"/>
-      <c r="G294" s="38"/>
-      <c r="H294" s="38"/>
-      <c r="I294" s="38"/>
-      <c r="J294" s="38"/>
+      <c r="F294" s="38"/>
+      <c r="G294" s="39"/>
+      <c r="H294" s="39"/>
+      <c r="I294" s="39"/>
+      <c r="J294" s="39"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F295" s="37"/>
-      <c r="G295" s="38">
+      <c r="F295" s="38"/>
+      <c r="G295" s="39">
         <v>1</v>
       </c>
-      <c r="H295" s="38" t="s">
+      <c r="H295" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="I295" s="38">
+      <c r="I295" s="39">
         <v>1</v>
       </c>
-      <c r="J295" s="38">
+      <c r="J295" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F296" s="37"/>
-      <c r="G296" s="38"/>
-      <c r="H296" s="38"/>
-      <c r="I296" s="38"/>
-      <c r="J296" s="38"/>
+      <c r="F296" s="38"/>
+      <c r="G296" s="39"/>
+      <c r="H296" s="39"/>
+      <c r="I296" s="39"/>
+      <c r="J296" s="39"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="40" t="s">

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1706" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{949BBFEC-9F79-402A-AD5D-8A45B539AFC9}"/>
+  <xr:revisionPtr revIDLastSave="1904" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C221EB23-A75D-4484-B855-3910BA350B65}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="544">
   <si>
     <t>Variable</t>
   </si>
@@ -1562,13 +1562,118 @@
   </si>
   <si>
     <t>Gunshot12to18, Victim</t>
+  </si>
+  <si>
+    <t>H1FV4</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did the following happen? If so, how often? Someone shot or stabbed you.</t>
+  </si>
+  <si>
+    <t>H2FV3</t>
+  </si>
+  <si>
+    <t>(0,1,2,6,8)</t>
+  </si>
+  <si>
+    <t>H2FV4</t>
+  </si>
+  <si>
+    <t>H3DS18D</t>
+  </si>
+  <si>
+    <t>H3DS18E</t>
+  </si>
+  <si>
+    <t>H4DS16</t>
+  </si>
+  <si>
+    <t>H1FV6</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did the following happen? If so, how often? You were jumped or beaten up.</t>
+  </si>
+  <si>
+    <t>H2FV5</t>
+  </si>
+  <si>
+    <t>H3DS18F</t>
+  </si>
+  <si>
+    <t>H3DS18G</t>
+  </si>
+  <si>
+    <t>H4DS18</t>
+  </si>
+  <si>
+    <t>H1FV2</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did the following happen? If so, how often? Someone pulled a knife or gun on you.</t>
+  </si>
+  <si>
+    <t>H2FV2</t>
+  </si>
+  <si>
+    <t>H3DS18B</t>
+  </si>
+  <si>
+    <t>H3DS18C</t>
+  </si>
+  <si>
+    <t>H4DS15</t>
+  </si>
+  <si>
+    <t>H1FV1</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did the following happen? If so, how often? You saw someone shoot or stab another person.</t>
+  </si>
+  <si>
+    <t>H3DS18A</t>
+  </si>
+  <si>
+    <t>H4DS14</t>
+  </si>
+  <si>
+    <t>Victim of Crime as Juvenile?</t>
+  </si>
+  <si>
+    <t>H1NM3 H1NF3</t>
+  </si>
+  <si>
+    <t>Victim of Crime as an Adult?</t>
+  </si>
+  <si>
+    <t>Victim of Crime?</t>
+  </si>
+  <si>
+    <t>JH1FV3 JH1FV4 JH2FV3 JH2FV4 JH1FV6 JH2FV5 JH1FV2 JH2FV2 JH1FV1 JH2FV1</t>
+  </si>
+  <si>
+    <t>If any of above variables are == 1, then Jvictim == 1</t>
+  </si>
+  <si>
+    <t>AH3DS18D AH3DS18E AH3DS16 AH3DS18F AH3DS18G AH4DS18 AH3DS18B AH3DS18C AH4DS15 AH3DS18A AH4DS14</t>
+  </si>
+  <si>
+    <t>If any of above variables are == 1, then Avictim == 1</t>
+  </si>
+  <si>
+    <t>Jvictim Avictim</t>
+  </si>
+  <si>
+    <t>If Jvictim or Avictim == 1, then Victim == 1</t>
+  </si>
+  <si>
+    <t>1 = Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,10 +1743,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1664,7 +1777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1702,12 +1815,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1759,15 +1887,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1779,22 +1898,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2132,16 +2303,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5703125" customWidth="1"/>
+    <col min="3" max="3" width="89.5703125" style="32" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
@@ -2154,7 +2325,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2174,7 +2345,7 @@
       <c r="B2" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="38" t="s">
         <v>474</v>
       </c>
       <c r="D2" t="s">
@@ -2194,7 +2365,7 @@
       <c r="B3" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>479</v>
       </c>
       <c r="D3" t="s">
@@ -2214,7 +2385,7 @@
       <c r="B4" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="38" t="s">
         <v>483</v>
       </c>
       <c r="D4" t="s">
@@ -2234,7 +2405,7 @@
       <c r="B5" t="s">
         <v>482</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="38" t="s">
         <v>485</v>
       </c>
       <c r="D5" t="s">
@@ -2254,7 +2425,7 @@
       <c r="B6" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="40" t="s">
         <v>247</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2274,7 +2445,7 @@
       <c r="B7" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="40" t="s">
         <v>223</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2294,7 +2465,7 @@
       <c r="B8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="32" t="s">
         <v>223</v>
       </c>
       <c r="D8" t="s">
@@ -2314,7 +2485,7 @@
       <c r="B9" t="s">
         <v>340</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="32" t="s">
         <v>341</v>
       </c>
       <c r="D9" t="s">
@@ -2334,7 +2505,7 @@
       <c r="B10" t="s">
         <v>157</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="32" t="s">
         <v>158</v>
       </c>
       <c r="D10" t="s">
@@ -2354,7 +2525,7 @@
       <c r="B11" t="s">
         <v>153</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D11" t="s">
@@ -2374,7 +2545,7 @@
       <c r="B12" t="s">
         <v>149</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D12" t="s">
@@ -2394,7 +2565,7 @@
       <c r="B13" t="s">
         <v>171</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="32" t="s">
         <v>172</v>
       </c>
       <c r="D13" t="s">
@@ -2414,7 +2585,7 @@
       <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="32" t="s">
         <v>162</v>
       </c>
       <c r="D14" t="s">
@@ -2434,7 +2605,7 @@
       <c r="B15" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="32" t="s">
         <v>123</v>
       </c>
       <c r="D15" t="s">
@@ -2454,7 +2625,7 @@
       <c r="B16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D16" t="s">
@@ -2474,7 +2645,7 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
@@ -2494,7 +2665,7 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="32" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
@@ -2508,7 +2679,7 @@
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
@@ -2522,7 +2693,7 @@
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2539,7 +2710,7 @@
       <c r="B21" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="40" t="s">
         <v>269</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2559,7 +2730,7 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
@@ -2576,7 +2747,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
@@ -2596,7 +2767,7 @@
       <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
@@ -2613,7 +2784,7 @@
       <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2631,7 +2802,7 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
@@ -2648,7 +2819,7 @@
       <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
@@ -2665,7 +2836,7 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
@@ -2685,7 +2856,7 @@
       <c r="B29" t="s">
         <v>403</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="32" t="s">
         <v>257</v>
       </c>
       <c r="D29" t="s">
@@ -2705,7 +2876,7 @@
       <c r="B30" t="s">
         <v>406</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="32" t="s">
         <v>253</v>
       </c>
       <c r="D30" t="s">
@@ -2725,7 +2896,7 @@
       <c r="B31" t="s">
         <v>252</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="32" t="s">
         <v>253</v>
       </c>
       <c r="D31" t="s">
@@ -2745,7 +2916,7 @@
       <c r="B32" t="s">
         <v>256</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="32" t="s">
         <v>257</v>
       </c>
       <c r="D32" t="s">
@@ -2765,7 +2936,7 @@
       <c r="B33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="41" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="5"/>
@@ -2783,7 +2954,7 @@
       <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="32" t="s">
         <v>99</v>
       </c>
       <c r="D34" t="s">
@@ -2803,7 +2974,7 @@
       <c r="B35" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="40" t="s">
         <v>429</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -2823,7 +2994,7 @@
       <c r="B36" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="40" t="s">
         <v>433</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -2843,7 +3014,7 @@
       <c r="B37" t="s">
         <v>436</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="38" t="s">
         <v>437</v>
       </c>
       <c r="D37" t="s">
@@ -2863,7 +3034,7 @@
       <c r="B38" t="s">
         <v>440</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="32" t="s">
         <v>441</v>
       </c>
       <c r="D38" t="s">
@@ -2883,7 +3054,7 @@
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D39" t="s">
@@ -2903,7 +3074,7 @@
       <c r="B40" t="s">
         <v>214</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="32" t="s">
         <v>216</v>
       </c>
       <c r="D40" t="s">
@@ -2923,7 +3094,7 @@
       <c r="B41" t="s">
         <v>215</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="32" t="s">
         <v>216</v>
       </c>
       <c r="D41" t="s">
@@ -2943,7 +3114,7 @@
       <c r="B42" t="s">
         <v>395</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="32" t="s">
         <v>396</v>
       </c>
       <c r="D42" t="s">
@@ -2963,7 +3134,7 @@
       <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="32" t="s">
         <v>91</v>
       </c>
       <c r="D43" t="s">
@@ -2981,7 +3152,7 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
@@ -2999,7 +3170,7 @@
       <c r="B45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -3019,7 +3190,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D46" t="s">
@@ -3039,7 +3210,7 @@
       <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D47" t="s">
@@ -3054,39 +3225,39 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
+        <v>101</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D48" t="s">
         <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>508</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
+        <v>147</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>148</v>
       </c>
       <c r="D49" t="s">
         <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>508</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3096,7 +3267,7 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="32" t="s">
         <v>148</v>
       </c>
       <c r="D50" t="s">
@@ -3116,7 +3287,7 @@
       <c r="B51" t="s">
         <v>373</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="32" t="s">
         <v>381</v>
       </c>
       <c r="D51" t="s">
@@ -3136,7 +3307,7 @@
       <c r="B52" t="s">
         <v>384</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="32" t="s">
         <v>385</v>
       </c>
       <c r="D52" t="s">
@@ -3156,7 +3327,7 @@
       <c r="B53" t="s">
         <v>413</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="32" t="s">
         <v>414</v>
       </c>
       <c r="D53" t="s">
@@ -3176,7 +3347,7 @@
       <c r="B54" t="s">
         <v>86</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="32" t="s">
         <v>87</v>
       </c>
       <c r="D54" t="s">
@@ -3193,7 +3364,7 @@
       <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D55" t="s">
@@ -3213,7 +3384,7 @@
       <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
@@ -3233,7 +3404,7 @@
       <c r="B57" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="40" t="s">
         <v>143</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -3253,7 +3424,7 @@
       <c r="B58" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="40" t="s">
         <v>145</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -3273,7 +3444,7 @@
       <c r="B59" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="40" t="s">
         <v>230</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -3293,7 +3464,7 @@
       <c r="B60" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="40" t="s">
         <v>234</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -3313,7 +3484,7 @@
       <c r="B61" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="40" t="s">
         <v>237</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -3333,7 +3504,7 @@
       <c r="B62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="37" t="s">
         <v>80</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3350,7 +3521,7 @@
       <c r="B63" t="s">
         <v>52</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D63" t="s">
@@ -3367,7 +3538,7 @@
       <c r="B64" t="s">
         <v>66</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D64" t="s">
@@ -3384,7 +3555,7 @@
       <c r="B65" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="40" t="s">
         <v>260</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -3404,7 +3575,7 @@
       <c r="B66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="40" t="s">
         <v>278</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -3424,7 +3595,7 @@
       <c r="B67" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="40" t="s">
         <v>277</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -3444,7 +3615,7 @@
       <c r="B68" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="40" t="s">
         <v>264</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -3464,7 +3635,7 @@
       <c r="B69" t="s">
         <v>129</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="32" t="s">
         <v>130</v>
       </c>
       <c r="D69" t="s">
@@ -3484,7 +3655,7 @@
       <c r="B70" t="s">
         <v>133</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="32" t="s">
         <v>134</v>
       </c>
       <c r="D70" t="s">
@@ -3504,7 +3675,7 @@
       <c r="B71" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="40" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -3522,7 +3693,7 @@
       <c r="B72" t="s">
         <v>113</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D72" t="s">
@@ -3542,7 +3713,7 @@
       <c r="B73" t="s">
         <v>109</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D73" t="s">
@@ -3562,7 +3733,7 @@
       <c r="B74" t="s">
         <v>178</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="32" t="s">
         <v>162</v>
       </c>
       <c r="D74" t="s">
@@ -3582,7 +3753,7 @@
       <c r="B75" t="s">
         <v>180</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="32" t="s">
         <v>162</v>
       </c>
       <c r="D75" t="s">
@@ -3602,7 +3773,7 @@
       <c r="B76" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D76" s="10" t="s">
@@ -3622,7 +3793,7 @@
       <c r="B77" t="s">
         <v>118</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D77" t="s">
@@ -3642,7 +3813,7 @@
       <c r="B78" t="s">
         <v>445</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="32" t="s">
         <v>446</v>
       </c>
       <c r="D78" t="s">
@@ -3662,7 +3833,7 @@
       <c r="B79" t="s">
         <v>450</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="38" t="s">
         <v>451</v>
       </c>
       <c r="D79" t="s">
@@ -3682,7 +3853,7 @@
       <c r="B80" t="s">
         <v>453</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="38" t="s">
         <v>455</v>
       </c>
       <c r="D80" t="s">
@@ -3702,7 +3873,7 @@
       <c r="B81" t="s">
         <v>454</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="38" t="s">
         <v>456</v>
       </c>
       <c r="D81" t="s">
@@ -3722,7 +3893,7 @@
       <c r="B82" t="s">
         <v>459</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="35" t="s">
         <v>463</v>
       </c>
       <c r="D82" t="s">
@@ -3742,7 +3913,7 @@
       <c r="B83" t="s">
         <v>460</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="35" t="s">
         <v>467</v>
       </c>
       <c r="D83" t="s">
@@ -3762,7 +3933,7 @@
       <c r="B84" t="s">
         <v>461</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="35" t="s">
         <v>469</v>
       </c>
       <c r="D84" t="s">
@@ -3782,7 +3953,7 @@
       <c r="B85" t="s">
         <v>462</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="36" t="s">
         <v>471</v>
       </c>
       <c r="D85" t="s">
@@ -3802,7 +3973,7 @@
       <c r="B86" t="s">
         <v>74</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D86" t="s">
@@ -3822,7 +3993,7 @@
       <c r="B87" t="s">
         <v>281</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="32" t="s">
         <v>282</v>
       </c>
       <c r="D87" t="s">
@@ -3842,7 +4013,7 @@
       <c r="B88" t="s">
         <v>65</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D88" t="s">
@@ -3859,7 +4030,7 @@
       <c r="B89" t="s">
         <v>487</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="43" t="s">
         <v>488</v>
       </c>
       <c r="D89" t="s">
@@ -3879,7 +4050,7 @@
       <c r="B90" t="s">
         <v>492</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="43" t="s">
         <v>493</v>
       </c>
       <c r="D90" t="s">
@@ -3899,7 +4070,7 @@
       <c r="B91" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -3919,7 +4090,7 @@
       <c r="B92" t="s">
         <v>167</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="32" t="s">
         <v>168</v>
       </c>
       <c r="D92" t="s">
@@ -3939,7 +4110,7 @@
       <c r="B93" t="s">
         <v>285</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="32" t="s">
         <v>286</v>
       </c>
       <c r="D93" t="s">
@@ -3959,7 +4130,7 @@
       <c r="B94" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C94" s="44" t="s">
         <v>290</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -3979,7 +4150,7 @@
       <c r="B95" t="s">
         <v>345</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="32" t="s">
         <v>346</v>
       </c>
       <c r="D95" t="s">
@@ -3999,7 +4170,7 @@
       <c r="B96" t="s">
         <v>349</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="45" t="s">
         <v>350</v>
       </c>
       <c r="D96" t="s">
@@ -4019,7 +4190,7 @@
       <c r="B97" t="s">
         <v>356</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="32" t="s">
         <v>357</v>
       </c>
       <c r="D97" t="s">
@@ -4039,7 +4210,7 @@
       <c r="B98" t="s">
         <v>360</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="32" t="s">
         <v>361</v>
       </c>
       <c r="D98" t="s">
@@ -4059,7 +4230,7 @@
       <c r="B99" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -4077,7 +4248,7 @@
       <c r="B100" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="46" t="s">
         <v>48</v>
       </c>
       <c r="D100" t="s">
@@ -4087,9 +4258,366 @@
         <v>49</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D101" t="s">
+        <v>430</v>
+      </c>
+      <c r="E101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>509</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D102" t="s">
+        <v>430</v>
+      </c>
+      <c r="E102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>511</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D103" t="s">
+        <v>512</v>
+      </c>
+      <c r="E103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>513</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D104" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>514</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D105" t="s">
+        <v>342</v>
+      </c>
+      <c r="E105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>515</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D106" t="s">
+        <v>342</v>
+      </c>
+      <c r="E106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" t="s">
+        <v>516</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D107" t="s">
+        <v>489</v>
+      </c>
+      <c r="E107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>517</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="D108" t="s">
+        <v>430</v>
+      </c>
+      <c r="E108" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>519</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D109" t="s">
+        <v>512</v>
+      </c>
+      <c r="E109" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>520</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" t="s">
+        <v>342</v>
+      </c>
+      <c r="E110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>521</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D111" t="s">
+        <v>342</v>
+      </c>
+      <c r="E111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>522</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D112" t="s">
+        <v>489</v>
+      </c>
+      <c r="E112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>523</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="D113" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" t="s">
+        <v>525</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D114" t="s">
+        <v>512</v>
+      </c>
+      <c r="E114" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>526</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D115" t="s">
+        <v>342</v>
+      </c>
+      <c r="E115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>527</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D116" t="s">
+        <v>342</v>
+      </c>
+      <c r="E116" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" t="s">
+        <v>528</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D117" t="s">
+        <v>489</v>
+      </c>
+      <c r="E117" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>529</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D118" t="s">
+        <v>430</v>
+      </c>
+      <c r="E118" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="D119" t="s">
+        <v>512</v>
+      </c>
+      <c r="E119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>531</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="D120" t="s">
+        <v>342</v>
+      </c>
+      <c r="E120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" t="s">
+        <v>532</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="D121" t="s">
+        <v>489</v>
+      </c>
+      <c r="E121" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
-    <sortCondition ref="E2:E100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F121">
+    <sortCondition ref="E2:E121"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F17" r:id="rId1" location="what-is-the-best" display="https://www.cpc.unc.edu/projects/addhealth/faqs/aboutdata/index.html - what-is-the-best" xr:uid="{0BC5AEC4-C9F8-4DC0-97A7-2FBD06C9CCB5}"/>
@@ -4119,7 +4647,7 @@
     <hyperlink ref="F7" r:id="rId25" xr:uid="{C7714ED2-11A6-4E6B-8A32-EDC127166A72}"/>
     <hyperlink ref="F8" r:id="rId26" xr:uid="{1A554DF9-849A-470F-BA27-C0F718641ED3}"/>
     <hyperlink ref="F50" r:id="rId27" xr:uid="{DA988D2E-FB3E-4975-83D2-7E0ADA227CD4}"/>
-    <hyperlink ref="F48" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
+    <hyperlink ref="F49" r:id="rId28" xr:uid="{7348ABC8-EF20-4483-ABEC-BBB636CDA230}"/>
     <hyperlink ref="F59" r:id="rId29" xr:uid="{38D74174-9804-4A1B-94B8-F1252FBB9C97}"/>
     <hyperlink ref="F60" r:id="rId30" xr:uid="{01631AC1-2BED-474C-8C29-0DCB8F48E0FE}"/>
     <hyperlink ref="F61" r:id="rId31" xr:uid="{3140A2EC-E4E2-460B-AAE8-33AD5BE654DE}"/>
@@ -4182,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,10 +4967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
-  <dimension ref="A1:P310"/>
+  <dimension ref="A1:P334"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:E76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,27 +4983,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4522,23 +5050,23 @@
       <c r="A10" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4576,20 +5104,20 @@
       <c r="A18" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4598,10 +5126,10 @@
       <c r="B22" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4631,21 +5159,21 @@
       <c r="A26" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4654,10 +5182,10 @@
       <c r="B30" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4687,28 +5215,28 @@
       <c r="A34" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="41" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4749,20 +5277,20 @@
       <c r="B42" t="s">
         <v>365</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -4803,20 +5331,20 @@
       <c r="B49" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -4857,20 +5385,20 @@
       <c r="B57" t="s">
         <v>412</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -4913,23 +5441,23 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -4964,13 +5492,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -4984,10 +5512,10 @@
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="41"/>
+      <c r="C78" s="49"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5009,15 +5537,18 @@
       <c r="A81" t="s">
         <v>296</v>
       </c>
+      <c r="B81" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5040,12 +5571,12 @@
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -5070,20 +5601,20 @@
       <c r="B89" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C89" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5123,13 +5654,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -5169,13 +5700,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="40"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -5213,20 +5744,20 @@
       <c r="A113" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5243,11 +5774,11 @@
       <c r="B118" t="s">
         <v>325</v>
       </c>
-      <c r="G118" s="44" t="s">
+      <c r="G118" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5321,13 +5852,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -5359,11 +5890,11 @@
         <v>299</v>
       </c>
       <c r="E127" s="15"/>
-      <c r="G127" s="44" t="s">
+      <c r="G127" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="H127" s="44"/>
-      <c r="I127" s="44"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -5433,13 +5964,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="40" t="s">
+      <c r="A132" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="40"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -5467,7 +5998,7 @@
       <c r="B135" t="s">
         <v>299</v>
       </c>
-      <c r="E135" s="39" t="s">
+      <c r="E135" s="52" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5478,27 +6009,27 @@
       <c r="B136" t="s">
         <v>319</v>
       </c>
-      <c r="E136" s="39"/>
+      <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>296</v>
       </c>
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="39"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="52"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="40" t="s">
+      <c r="A140" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="40"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -5546,13 +6077,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="40" t="s">
+      <c r="A148" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -5590,21 +6121,21 @@
       <c r="A153" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="41" t="s">
+      <c r="B153" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
+      <c r="C153" s="49"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="49"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="40" t="s">
+      <c r="A156" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="40"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -5654,11 +6185,11 @@
       <c r="A161" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="45" t="s">
+      <c r="B161" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45"/>
+      <c r="C161" s="56"/>
+      <c r="D161" s="56"/>
       <c r="E161" s="14"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5676,13 +6207,13 @@
       <c r="E163" s="14"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
+      <c r="A164" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="B164" s="40"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="40"/>
-      <c r="E164" s="40"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -5732,12 +6263,12 @@
       <c r="A169" t="s">
         <v>296</v>
       </c>
-      <c r="B169" s="41" t="s">
+      <c r="B169" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="C169" s="41"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="41"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
@@ -5746,13 +6277,13 @@
       <c r="E170" s="11"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -5802,30 +6333,30 @@
       <c r="A177" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="41" t="s">
+      <c r="B177" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C177" s="41"/>
-      <c r="D177" s="41"/>
-      <c r="E177" s="41"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="40" t="s">
+      <c r="A180" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="40"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>295</v>
       </c>
-      <c r="B181" s="41" t="s">
+      <c r="B181" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="C181" s="41"/>
+      <c r="C181" s="49"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -5855,29 +6386,29 @@
       <c r="A185" t="s">
         <v>296</v>
       </c>
-      <c r="B185" s="44" t="s">
+      <c r="B185" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="44"/>
-      <c r="D185" s="44"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="55"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="40" t="s">
+      <c r="A188" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="40"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>295</v>
       </c>
-      <c r="B189" s="41" t="s">
+      <c r="B189" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="C189" s="41"/>
+      <c r="C189" s="49"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -5907,11 +6438,11 @@
       <c r="A193" t="s">
         <v>296</v>
       </c>
-      <c r="B193" s="44" t="s">
+      <c r="B193" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="C193" s="44"/>
-      <c r="D193" s="44"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="11"/>
@@ -5919,13 +6450,13 @@
       <c r="D194" s="11"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="40" t="s">
+      <c r="A196" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="40"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -5966,25 +6497,25 @@
       <c r="A201" t="s">
         <v>296</v>
       </c>
-      <c r="B201" s="41" t="s">
+      <c r="B201" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="C201" s="41"/>
-      <c r="D201" s="41"/>
-      <c r="E201" s="41" t="s">
+      <c r="C201" s="49"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="F201" s="41"/>
-      <c r="G201" s="41"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="40" t="s">
+      <c r="A204" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="B204" s="40"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
+      <c r="B204" s="50"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -6022,20 +6553,20 @@
       <c r="A209" t="s">
         <v>296</v>
       </c>
-      <c r="B209" s="41" t="s">
+      <c r="B209" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="C209" s="41"/>
-      <c r="D209" s="41"/>
+      <c r="C209" s="49"/>
+      <c r="D209" s="49"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="40" t="s">
+      <c r="A212" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="40"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="50"/>
+      <c r="D212" s="50"/>
+      <c r="E212" s="50"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -6078,13 +6609,13 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="40" t="s">
+      <c r="A220" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="B220" s="40"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="40"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="50"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -6127,24 +6658,24 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H227" s="44"/>
-      <c r="I227" s="44"/>
-      <c r="J227" s="44"/>
-      <c r="K227" s="44"/>
-      <c r="L227" s="44"/>
-      <c r="M227" s="44"/>
-      <c r="N227" s="44"/>
-      <c r="O227" s="44"/>
-      <c r="P227" s="44"/>
+      <c r="H227" s="55"/>
+      <c r="I227" s="55"/>
+      <c r="J227" s="55"/>
+      <c r="K227" s="55"/>
+      <c r="L227" s="55"/>
+      <c r="M227" s="55"/>
+      <c r="N227" s="55"/>
+      <c r="O227" s="55"/>
+      <c r="P227" s="55"/>
     </row>
     <row r="228" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="40" t="s">
+      <c r="A228" s="50" t="s">
         <v>427</v>
       </c>
-      <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="40"/>
-      <c r="E228" s="40"/>
+      <c r="B228" s="50"/>
+      <c r="C228" s="50"/>
+      <c r="D228" s="50"/>
+      <c r="E228" s="50"/>
       <c r="F228" s="18"/>
       <c r="G228" s="13"/>
     </row>
@@ -6200,13 +6731,13 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="40" t="s">
+      <c r="A235" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="40"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="50"/>
+      <c r="D235" s="50"/>
+      <c r="E235" s="50"/>
       <c r="F235" s="18"/>
       <c r="G235" s="13"/>
     </row>
@@ -6266,13 +6797,13 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="40" t="s">
+      <c r="A243" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="B243" s="40"/>
-      <c r="C243" s="40"/>
-      <c r="D243" s="40"/>
-      <c r="E243" s="40"/>
+      <c r="B243" s="50"/>
+      <c r="C243" s="50"/>
+      <c r="D243" s="50"/>
+      <c r="E243" s="50"/>
       <c r="F243" s="19"/>
       <c r="G243" s="24"/>
     </row>
@@ -6280,7 +6811,7 @@
       <c r="A244" t="s">
         <v>295</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="25" t="s">
         <v>487</v>
       </c>
       <c r="C244" s="23"/>
@@ -6293,7 +6824,7 @@
       <c r="A245" t="s">
         <v>2</v>
       </c>
-      <c r="B245" s="31" t="s">
+      <c r="B245" s="26" t="s">
         <v>321</v>
       </c>
       <c r="C245" s="23"/>
@@ -6306,7 +6837,7 @@
       <c r="A246" t="s">
         <v>302</v>
       </c>
-      <c r="B246" s="32" t="s">
+      <c r="B246" s="27" t="s">
         <v>299</v>
       </c>
       <c r="F246" s="19"/>
@@ -6316,7 +6847,7 @@
       <c r="A247" t="s">
         <v>303</v>
       </c>
-      <c r="B247" s="32" t="s">
+      <c r="B247" s="27" t="s">
         <v>319</v>
       </c>
       <c r="F247" s="19"/>
@@ -6326,10 +6857,10 @@
       <c r="A248" t="s">
         <v>296</v>
       </c>
-      <c r="B248" s="43" t="s">
+      <c r="B248" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="C248" s="43"/>
+      <c r="C248" s="54"/>
       <c r="F248" s="19"/>
       <c r="G248" s="24"/>
     </row>
@@ -6342,13 +6873,13 @@
       <c r="G250" s="24"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="40" t="s">
+      <c r="A251" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="B251" s="40"/>
-      <c r="C251" s="40"/>
-      <c r="D251" s="40"/>
-      <c r="E251" s="40"/>
+      <c r="B251" s="50"/>
+      <c r="C251" s="50"/>
+      <c r="D251" s="50"/>
+      <c r="E251" s="50"/>
       <c r="F251" s="19"/>
       <c r="G251" s="24"/>
     </row>
@@ -6396,11 +6927,11 @@
       <c r="A256" t="s">
         <v>296</v>
       </c>
-      <c r="B256" s="41" t="s">
+      <c r="B256" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="C256" s="41"/>
-      <c r="D256" s="41"/>
+      <c r="C256" s="49"/>
+      <c r="D256" s="49"/>
       <c r="F256" s="19"/>
       <c r="G256" s="24"/>
     </row>
@@ -6413,13 +6944,13 @@
       <c r="G258" s="24"/>
     </row>
     <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="40" t="s">
+      <c r="A259" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="B259" s="40"/>
-      <c r="C259" s="40"/>
-      <c r="D259" s="40"/>
-      <c r="E259" s="40"/>
+      <c r="B259" s="50"/>
+      <c r="C259" s="50"/>
+      <c r="D259" s="50"/>
+      <c r="E259" s="50"/>
       <c r="F259" s="19"/>
       <c r="G259" s="24"/>
     </row>
@@ -6470,11 +7001,11 @@
       <c r="A264" t="s">
         <v>296</v>
       </c>
-      <c r="B264" s="41" t="s">
+      <c r="B264" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="C264" s="41"/>
-      <c r="D264" s="41"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="49"/>
       <c r="F264" s="19"/>
       <c r="G264" s="24"/>
     </row>
@@ -6483,13 +7014,13 @@
       <c r="G265" s="24"/>
     </row>
     <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="40" t="s">
+      <c r="A266" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="B266" s="40"/>
-      <c r="C266" s="40"/>
-      <c r="D266" s="40"/>
-      <c r="E266" s="40"/>
+      <c r="B266" s="50"/>
+      <c r="C266" s="50"/>
+      <c r="D266" s="50"/>
+      <c r="E266" s="50"/>
       <c r="F266" s="19"/>
       <c r="G266" s="24"/>
     </row>
@@ -6540,11 +7071,11 @@
       <c r="A271" t="s">
         <v>296</v>
       </c>
-      <c r="B271" s="41" t="s">
+      <c r="B271" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="C271" s="41"/>
-      <c r="D271" s="41"/>
+      <c r="C271" s="49"/>
+      <c r="D271" s="49"/>
       <c r="F271" s="18"/>
       <c r="G271" s="13"/>
     </row>
@@ -6553,13 +7084,13 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="40" t="s">
+      <c r="A273" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="40"/>
-      <c r="E273" s="40"/>
+      <c r="B273" s="50"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="50"/>
+      <c r="E273" s="50"/>
       <c r="F273" s="18"/>
       <c r="G273" s="13"/>
     </row>
@@ -6575,9 +7106,9 @@
       <c r="E274" s="23"/>
       <c r="F274" s="19"/>
       <c r="G274" s="24"/>
-      <c r="H274" s="33"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="33"/>
+      <c r="H274" s="28"/>
+      <c r="I274" s="28"/>
+      <c r="J274" s="28"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -6596,7 +7127,7 @@
       <c r="B276" t="s">
         <v>299</v>
       </c>
-      <c r="F276" s="34"/>
+      <c r="F276" s="29"/>
       <c r="G276" s="15"/>
       <c r="H276" s="15"/>
       <c r="I276" s="15"/>
@@ -6609,7 +7140,7 @@
       <c r="B277" t="s">
         <v>319</v>
       </c>
-      <c r="F277" s="34"/>
+      <c r="F277" s="29"/>
       <c r="G277" s="15"/>
       <c r="H277" s="15"/>
       <c r="I277" s="15"/>
@@ -6619,12 +7150,12 @@
       <c r="A278" t="s">
         <v>296</v>
       </c>
-      <c r="B278" s="41" t="s">
+      <c r="B278" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="C278" s="41"/>
-      <c r="D278" s="41"/>
-      <c r="F278" s="34"/>
+      <c r="C278" s="49"/>
+      <c r="D278" s="49"/>
+      <c r="F278" s="29"/>
       <c r="G278" s="15"/>
       <c r="H278" s="15"/>
       <c r="I278" s="15"/>
@@ -6634,7 +7165,7 @@
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
       <c r="D279" s="24"/>
-      <c r="F279" s="34"/>
+      <c r="F279" s="29"/>
       <c r="G279" s="15"/>
       <c r="H279" s="15"/>
       <c r="I279" s="15"/>
@@ -6644,21 +7175,21 @@
       <c r="B280" s="24"/>
       <c r="C280" s="24"/>
       <c r="D280" s="24"/>
-      <c r="F280" s="34"/>
+      <c r="F280" s="29"/>
       <c r="G280" s="15"/>
       <c r="H280" s="15"/>
       <c r="I280" s="15"/>
       <c r="J280" s="15"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="40" t="s">
+      <c r="A281" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B281" s="40"/>
-      <c r="C281" s="40"/>
-      <c r="D281" s="40"/>
-      <c r="E281" s="40"/>
-      <c r="F281" s="34"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="50"/>
+      <c r="D281" s="50"/>
+      <c r="E281" s="50"/>
+      <c r="F281" s="29"/>
       <c r="G281" s="15"/>
       <c r="H281" s="15"/>
       <c r="I281" s="15"/>
@@ -6671,7 +7202,7 @@
       <c r="B282" t="s">
         <v>395</v>
       </c>
-      <c r="F282" s="34"/>
+      <c r="F282" s="29"/>
       <c r="G282" s="15"/>
       <c r="H282" s="15"/>
       <c r="I282" s="15"/>
@@ -6684,7 +7215,7 @@
       <c r="B283" t="s">
         <v>401</v>
       </c>
-      <c r="F283" s="34"/>
+      <c r="F283" s="29"/>
       <c r="G283" s="15"/>
       <c r="H283" s="15"/>
       <c r="I283" s="15"/>
@@ -6717,31 +7248,29 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="40" t="s">
+      <c r="A289" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="B289" s="40"/>
-      <c r="C289" s="40"/>
-      <c r="D289" s="40"/>
-      <c r="E289" s="40"/>
+      <c r="B289" s="50"/>
+      <c r="C289" s="50"/>
+      <c r="D289" s="50"/>
+      <c r="E289" s="50"/>
       <c r="F289" s="19"/>
       <c r="G289" s="24"/>
-      <c r="H289" s="42" t="s">
+      <c r="H289" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="I289" s="42"/>
-      <c r="J289" s="42"/>
+      <c r="I289" s="53"/>
+      <c r="J289" s="53"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="22" t="s">
         <v>295</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="C290" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C290" s="21"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="19"/>
@@ -6766,19 +7295,19 @@
       <c r="C291" s="21"/>
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
-      <c r="F291" s="38" t="s">
+      <c r="F291" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="G291" s="39" t="s">
+      <c r="G291" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="H291" s="39" t="s">
+      <c r="H291" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="I291" s="39" t="s">
+      <c r="I291" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="J291" s="39" t="s">
+      <c r="J291" s="52" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6790,11 +7319,11 @@
         <v>299</v>
       </c>
       <c r="C292" s="22"/>
-      <c r="F292" s="38"/>
-      <c r="G292" s="39"/>
-      <c r="H292" s="39"/>
-      <c r="I292" s="39"/>
-      <c r="J292" s="39"/>
+      <c r="F292" s="51"/>
+      <c r="G292" s="52"/>
+      <c r="H292" s="52"/>
+      <c r="I292" s="52"/>
+      <c r="J292" s="52"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="22" t="s">
@@ -6804,17 +7333,17 @@
         <v>319</v>
       </c>
       <c r="C293" s="22"/>
-      <c r="F293" s="38"/>
-      <c r="G293" s="39">
+      <c r="F293" s="51"/>
+      <c r="G293" s="52">
         <v>0</v>
       </c>
-      <c r="H293" s="39" t="s">
+      <c r="H293" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="I293" s="39">
+      <c r="I293" s="52">
         <v>1</v>
       </c>
-      <c r="J293" s="39">
+      <c r="J293" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6826,134 +7355,432 @@
         <v>412</v>
       </c>
       <c r="C294" s="22"/>
-      <c r="F294" s="38"/>
-      <c r="G294" s="39"/>
-      <c r="H294" s="39"/>
-      <c r="I294" s="39"/>
-      <c r="J294" s="39"/>
+      <c r="F294" s="51"/>
+      <c r="G294" s="52"/>
+      <c r="H294" s="52"/>
+      <c r="I294" s="52"/>
+      <c r="J294" s="52"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F295" s="38"/>
-      <c r="G295" s="39">
+      <c r="F295" s="51"/>
+      <c r="G295" s="52">
         <v>1</v>
       </c>
-      <c r="H295" s="39" t="s">
+      <c r="H295" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="I295" s="39">
+      <c r="I295" s="52">
         <v>1</v>
       </c>
-      <c r="J295" s="39">
+      <c r="J295" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F296" s="38"/>
-      <c r="G296" s="39"/>
-      <c r="H296" s="39"/>
-      <c r="I296" s="39"/>
-      <c r="J296" s="39"/>
+      <c r="F296" s="51"/>
+      <c r="G296" s="52"/>
+      <c r="H296" s="52"/>
+      <c r="I296" s="52"/>
+      <c r="J296" s="52"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="B297" s="40"/>
-      <c r="C297" s="40"/>
-      <c r="D297" s="40"/>
-      <c r="E297" s="40"/>
+      <c r="A297" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="B297" s="50"/>
+      <c r="C297" s="50"/>
+      <c r="D297" s="50"/>
+      <c r="E297" s="50"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="31"/>
+      <c r="H297" s="31"/>
+      <c r="I297" s="31"/>
+      <c r="J297" s="31"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B298" t="s">
-        <v>83</v>
-      </c>
+      <c r="B298" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="C298" s="49"/>
+      <c r="D298" s="49"/>
+      <c r="E298" s="49"/>
+      <c r="F298" s="49"/>
+      <c r="G298" s="31"/>
+      <c r="H298" s="31"/>
+      <c r="I298" s="31"/>
+      <c r="J298" s="31"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B299" t="s">
         <v>321</v>
       </c>
+      <c r="F299" s="30"/>
+      <c r="G299" s="31"/>
+      <c r="H299" s="31"/>
+      <c r="I299" s="31"/>
+      <c r="J299" s="31"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="22" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
         <v>299</v>
       </c>
+      <c r="F300" s="30"/>
+      <c r="G300" s="31"/>
+      <c r="H300" s="31"/>
+      <c r="I300" s="31"/>
+      <c r="J300" s="31"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="22" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
         <v>319</v>
       </c>
+      <c r="F301" s="30"/>
+      <c r="G301" s="31"/>
+      <c r="H301" s="31"/>
+      <c r="I301" s="31"/>
+      <c r="J301" s="31"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B302" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B305" s="40"/>
-      <c r="C305" s="40"/>
-      <c r="D305" s="40"/>
-      <c r="E305" s="40"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B302" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="C302" s="49"/>
+      <c r="D302" s="49"/>
+      <c r="E302" s="49"/>
+      <c r="F302" s="30"/>
+      <c r="G302" s="31"/>
+      <c r="H302" s="31"/>
+      <c r="I302" s="31"/>
+      <c r="J302" s="31"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="22"/>
+      <c r="F303" s="30"/>
+      <c r="G303" s="31"/>
+      <c r="H303" s="31"/>
+      <c r="I303" s="31"/>
+      <c r="J303" s="31"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F304" s="30"/>
+      <c r="G304" s="31"/>
+      <c r="H304" s="31"/>
+      <c r="I304" s="31"/>
+      <c r="J304" s="31"/>
+    </row>
+    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="B305" s="50"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="50"/>
+      <c r="E305" s="50"/>
+      <c r="F305" s="30"/>
+      <c r="G305" s="31"/>
+      <c r="H305" s="31"/>
+      <c r="I305" s="31"/>
+      <c r="J305" s="31"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B306" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B306" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="C306" s="49"/>
+      <c r="D306" s="49"/>
+      <c r="E306" s="49"/>
+      <c r="F306" s="49"/>
+      <c r="G306" s="49"/>
+      <c r="H306" s="49"/>
+      <c r="I306" s="49"/>
+      <c r="J306" s="31"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B307" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="F307" s="30"/>
+      <c r="G307" s="31"/>
+      <c r="H307" s="31"/>
+      <c r="I307" s="31"/>
+      <c r="J307" s="31"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="22" t="s">
         <v>302</v>
       </c>
       <c r="B308" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="F308" s="30"/>
+      <c r="G308" s="31"/>
+      <c r="H308" s="31"/>
+      <c r="I308" s="31"/>
+      <c r="J308" s="31"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="22" t="s">
         <v>303</v>
       </c>
       <c r="B309" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="F309" s="30"/>
+      <c r="G309" s="31"/>
+      <c r="H309" s="31"/>
+      <c r="I309" s="31"/>
+      <c r="J309" s="31"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="C310" s="49"/>
+      <c r="D310" s="49"/>
+      <c r="E310" s="49"/>
+      <c r="F310" s="33"/>
+      <c r="G310" s="31"/>
+      <c r="H310" s="31"/>
+      <c r="I310" s="31"/>
+      <c r="J310" s="31"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="22"/>
+      <c r="F311" s="30"/>
+      <c r="G311" s="31"/>
+      <c r="H311" s="31"/>
+      <c r="I311" s="31"/>
+      <c r="J311" s="31"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="22"/>
+      <c r="F312" s="30"/>
+      <c r="G312" s="31"/>
+      <c r="H312" s="31"/>
+      <c r="I312" s="31"/>
+      <c r="J312" s="31"/>
+    </row>
+    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="B313" s="50"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="50"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="30"/>
+      <c r="G313" s="31"/>
+      <c r="H313" s="31"/>
+      <c r="I313" s="31"/>
+      <c r="J313" s="31"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B314" t="s">
+        <v>541</v>
+      </c>
+      <c r="F314" s="30"/>
+      <c r="G314" s="31"/>
+      <c r="H314" s="31"/>
+      <c r="I314" s="31"/>
+      <c r="J314" s="31"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B315" t="s">
+        <v>321</v>
+      </c>
+      <c r="F315" s="30"/>
+      <c r="G315" s="31"/>
+      <c r="H315" s="31"/>
+      <c r="I315" s="31"/>
+      <c r="J315" s="31"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B316" t="s">
+        <v>299</v>
+      </c>
+      <c r="F316" s="30"/>
+      <c r="G316" s="31"/>
+      <c r="H316" s="31"/>
+      <c r="I316" s="31"/>
+      <c r="J316" s="31"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B317" t="s">
+        <v>319</v>
+      </c>
+      <c r="F317" s="30"/>
+      <c r="G317" s="31"/>
+      <c r="H317" s="31"/>
+      <c r="I317" s="31"/>
+      <c r="J317" s="31"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B318" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="C318" s="49"/>
+      <c r="D318" s="49"/>
+      <c r="F318" s="30"/>
+      <c r="G318" s="31"/>
+      <c r="H318" s="31"/>
+      <c r="I318" s="31"/>
+      <c r="J318" s="31"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="22"/>
+      <c r="F319" s="30"/>
+      <c r="G319" s="31"/>
+      <c r="H319" s="31"/>
+      <c r="I319" s="31"/>
+      <c r="J319" s="31"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="22"/>
+      <c r="F320" s="30"/>
+      <c r="G320" s="31"/>
+      <c r="H320" s="31"/>
+      <c r="I320" s="31"/>
+      <c r="J320" s="31"/>
+    </row>
+    <row r="321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B321" s="50"/>
+      <c r="C321" s="50"/>
+      <c r="D321" s="50"/>
+      <c r="E321" s="50"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>295</v>
+      </c>
+      <c r="B322" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>2</v>
+      </c>
+      <c r="B323" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>302</v>
+      </c>
+      <c r="B324" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>303</v>
+      </c>
+      <c r="B325" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>296</v>
+      </c>
+      <c r="B326" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B329" s="50"/>
+      <c r="C329" s="50"/>
+      <c r="D329" s="50"/>
+      <c r="E329" s="50"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>295</v>
+      </c>
+      <c r="B330" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>2</v>
+      </c>
+      <c r="B331" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>302</v>
+      </c>
+      <c r="B332" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>303</v>
+      </c>
+      <c r="B333" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>296</v>
+      </c>
+      <c r="B334" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="99">
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A44:E44"/>
@@ -6991,7 +7818,7 @@
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="G118:I118"/>
     <mergeCell ref="B153:E153"/>
-    <mergeCell ref="A305:E305"/>
+    <mergeCell ref="A329:E329"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="A156:E156"/>
     <mergeCell ref="A164:E164"/>
@@ -7009,7 +7836,7 @@
     <mergeCell ref="H227:P227"/>
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="A321:E321"/>
     <mergeCell ref="A212:E212"/>
     <mergeCell ref="A220:E220"/>
     <mergeCell ref="A228:E228"/>
@@ -7045,6 +7872,14 @@
     <mergeCell ref="H295:H296"/>
     <mergeCell ref="I295:I296"/>
     <mergeCell ref="J295:J296"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="A305:E305"/>
+    <mergeCell ref="A313:E313"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B302:E302"/>
+    <mergeCell ref="B306:I306"/>
+    <mergeCell ref="B310:E310"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1904" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C221EB23-A75D-4484-B855-3910BA350B65}"/>
+  <xr:revisionPtr revIDLastSave="1922" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7361050-B671-48EA-BD27-AC16531924DC}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="11010" yWindow="4020" windowWidth="14310" windowHeight="8640" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="548">
   <si>
     <t>Variable</t>
   </si>
@@ -1667,6 +1667,18 @@
   </si>
   <si>
     <t>1 = Female</t>
+  </si>
+  <si>
+    <t>Was your family Impoverished?</t>
+  </si>
+  <si>
+    <t>PA56</t>
+  </si>
+  <si>
+    <t>Based on Childhood traumatic experiences paper</t>
+  </si>
+  <si>
+    <t>Do you have enough money to pay your bills?</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1954,6 +1966,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2303,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,6 +4631,23 @@
       </c>
       <c r="E121" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>545</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4746,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,7 +4955,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4967,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
-  <dimension ref="A1:P334"/>
+  <dimension ref="A1:P342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,27 +5018,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5050,23 +5085,23 @@
       <c r="A10" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5104,20 +5139,20 @@
       <c r="A18" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5126,10 +5161,10 @@
       <c r="B22" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5159,21 +5194,21 @@
       <c r="A26" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5182,10 +5217,10 @@
       <c r="B30" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5215,28 +5250,28 @@
       <c r="A34" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="49" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5277,20 +5312,20 @@
       <c r="B42" t="s">
         <v>365</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5331,20 +5366,20 @@
       <c r="B49" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -5385,20 +5420,20 @@
       <c r="B57" t="s">
         <v>412</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5441,23 +5476,23 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="51" t="s">
         <v>505</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -5492,13 +5527,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -5512,10 +5547,10 @@
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="49"/>
+      <c r="C78" s="51"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5542,13 +5577,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5571,12 +5606,12 @@
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -5601,20 +5636,20 @@
       <c r="B89" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="50" t="s">
+      <c r="A92" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5654,13 +5689,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="50" t="s">
+      <c r="A100" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -5700,13 +5735,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -5744,20 +5779,20 @@
       <c r="A113" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="49" t="s">
+      <c r="B113" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5774,11 +5809,11 @@
       <c r="B118" t="s">
         <v>325</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G118" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="57"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5852,13 +5887,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="50" t="s">
+      <c r="A124" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -5890,11 +5925,11 @@
         <v>299</v>
       </c>
       <c r="E127" s="15"/>
-      <c r="G127" s="55" t="s">
+      <c r="G127" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="57"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -5964,13 +5999,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="50" t="s">
+      <c r="A132" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -5998,7 +6033,7 @@
       <c r="B135" t="s">
         <v>299</v>
       </c>
-      <c r="E135" s="52" t="s">
+      <c r="E135" s="54" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6009,27 +6044,27 @@
       <c r="B136" t="s">
         <v>319</v>
       </c>
-      <c r="E136" s="52"/>
+      <c r="E136" s="54"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>296</v>
       </c>
-      <c r="B137" s="49" t="s">
+      <c r="B137" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="52"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="54"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="50" t="s">
+      <c r="A140" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -6077,13 +6112,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="50" t="s">
+      <c r="A148" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B148" s="50"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -6121,21 +6156,21 @@
       <c r="A153" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="49" t="s">
+      <c r="B153" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C153" s="49"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="50" t="s">
+      <c r="A156" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
-      <c r="E156" s="50"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -6185,11 +6220,11 @@
       <c r="A161" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="56" t="s">
+      <c r="B161" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="C161" s="56"/>
-      <c r="D161" s="56"/>
+      <c r="C161" s="58"/>
+      <c r="D161" s="58"/>
       <c r="E161" s="14"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -6207,13 +6242,13 @@
       <c r="E163" s="14"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="50" t="s">
+      <c r="A164" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -6263,12 +6298,12 @@
       <c r="A169" t="s">
         <v>296</v>
       </c>
-      <c r="B169" s="49" t="s">
+      <c r="B169" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="C169" s="49"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="51"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
@@ -6277,13 +6312,13 @@
       <c r="E170" s="11"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="50" t="s">
+      <c r="A172" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B172" s="50"/>
-      <c r="C172" s="50"/>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="52"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -6333,30 +6368,30 @@
       <c r="A177" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="49" t="s">
+      <c r="B177" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C177" s="49"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="50" t="s">
+      <c r="A180" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="52"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="52"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>295</v>
       </c>
-      <c r="B181" s="49" t="s">
+      <c r="B181" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C181" s="49"/>
+      <c r="C181" s="51"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -6386,29 +6421,29 @@
       <c r="A185" t="s">
         <v>296</v>
       </c>
-      <c r="B185" s="55" t="s">
+      <c r="B185" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="55"/>
-      <c r="D185" s="55"/>
+      <c r="C185" s="57"/>
+      <c r="D185" s="57"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="50" t="s">
+      <c r="A188" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="B188" s="50"/>
-      <c r="C188" s="50"/>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="52"/>
+      <c r="D188" s="52"/>
+      <c r="E188" s="52"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>295</v>
       </c>
-      <c r="B189" s="49" t="s">
+      <c r="B189" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="C189" s="49"/>
+      <c r="C189" s="51"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -6438,11 +6473,11 @@
       <c r="A193" t="s">
         <v>296</v>
       </c>
-      <c r="B193" s="55" t="s">
+      <c r="B193" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="C193" s="55"/>
-      <c r="D193" s="55"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="57"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="11"/>
@@ -6450,13 +6485,13 @@
       <c r="D194" s="11"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="50" t="s">
+      <c r="A196" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="B196" s="50"/>
-      <c r="C196" s="50"/>
-      <c r="D196" s="50"/>
-      <c r="E196" s="50"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -6497,25 +6532,25 @@
       <c r="A201" t="s">
         <v>296</v>
       </c>
-      <c r="B201" s="49" t="s">
+      <c r="B201" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="C201" s="49"/>
-      <c r="D201" s="49"/>
-      <c r="E201" s="49" t="s">
+      <c r="C201" s="51"/>
+      <c r="D201" s="51"/>
+      <c r="E201" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="F201" s="49"/>
-      <c r="G201" s="49"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="51"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="50" t="s">
+      <c r="A204" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="B204" s="50"/>
-      <c r="C204" s="50"/>
-      <c r="D204" s="50"/>
-      <c r="E204" s="50"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="52"/>
+      <c r="D204" s="52"/>
+      <c r="E204" s="52"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -6553,20 +6588,20 @@
       <c r="A209" t="s">
         <v>296</v>
       </c>
-      <c r="B209" s="49" t="s">
+      <c r="B209" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="C209" s="49"/>
-      <c r="D209" s="49"/>
+      <c r="C209" s="51"/>
+      <c r="D209" s="51"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="50" t="s">
+      <c r="A212" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="50"/>
-      <c r="D212" s="50"/>
-      <c r="E212" s="50"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="52"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -6609,13 +6644,13 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="50" t="s">
+      <c r="A220" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="B220" s="50"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="50"/>
-      <c r="E220" s="50"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="52"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -6658,24 +6693,24 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H227" s="55"/>
-      <c r="I227" s="55"/>
-      <c r="J227" s="55"/>
-      <c r="K227" s="55"/>
-      <c r="L227" s="55"/>
-      <c r="M227" s="55"/>
-      <c r="N227" s="55"/>
-      <c r="O227" s="55"/>
-      <c r="P227" s="55"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="57"/>
+      <c r="J227" s="57"/>
+      <c r="K227" s="57"/>
+      <c r="L227" s="57"/>
+      <c r="M227" s="57"/>
+      <c r="N227" s="57"/>
+      <c r="O227" s="57"/>
+      <c r="P227" s="57"/>
     </row>
     <row r="228" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B228" s="50"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="52"/>
+      <c r="D228" s="52"/>
+      <c r="E228" s="52"/>
       <c r="F228" s="18"/>
       <c r="G228" s="13"/>
     </row>
@@ -6731,13 +6766,13 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="50" t="s">
+      <c r="A235" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B235" s="50"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
-      <c r="E235" s="50"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="52"/>
+      <c r="D235" s="52"/>
+      <c r="E235" s="52"/>
       <c r="F235" s="18"/>
       <c r="G235" s="13"/>
     </row>
@@ -6797,13 +6832,13 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="50" t="s">
+      <c r="A243" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="B243" s="50"/>
-      <c r="C243" s="50"/>
-      <c r="D243" s="50"/>
-      <c r="E243" s="50"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="52"/>
+      <c r="D243" s="52"/>
+      <c r="E243" s="52"/>
       <c r="F243" s="19"/>
       <c r="G243" s="24"/>
     </row>
@@ -6857,10 +6892,10 @@
       <c r="A248" t="s">
         <v>296</v>
       </c>
-      <c r="B248" s="54" t="s">
+      <c r="B248" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="C248" s="54"/>
+      <c r="C248" s="56"/>
       <c r="F248" s="19"/>
       <c r="G248" s="24"/>
     </row>
@@ -6873,13 +6908,13 @@
       <c r="G250" s="24"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="50" t="s">
+      <c r="A251" s="52" t="s">
         <v>501</v>
       </c>
-      <c r="B251" s="50"/>
-      <c r="C251" s="50"/>
-      <c r="D251" s="50"/>
-      <c r="E251" s="50"/>
+      <c r="B251" s="52"/>
+      <c r="C251" s="52"/>
+      <c r="D251" s="52"/>
+      <c r="E251" s="52"/>
       <c r="F251" s="19"/>
       <c r="G251" s="24"/>
     </row>
@@ -6927,11 +6962,11 @@
       <c r="A256" t="s">
         <v>296</v>
       </c>
-      <c r="B256" s="49" t="s">
+      <c r="B256" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="C256" s="49"/>
-      <c r="D256" s="49"/>
+      <c r="C256" s="51"/>
+      <c r="D256" s="51"/>
       <c r="F256" s="19"/>
       <c r="G256" s="24"/>
     </row>
@@ -6944,13 +6979,13 @@
       <c r="G258" s="24"/>
     </row>
     <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="50" t="s">
+      <c r="A259" s="52" t="s">
         <v>498</v>
       </c>
-      <c r="B259" s="50"/>
-      <c r="C259" s="50"/>
-      <c r="D259" s="50"/>
-      <c r="E259" s="50"/>
+      <c r="B259" s="52"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="52"/>
+      <c r="E259" s="52"/>
       <c r="F259" s="19"/>
       <c r="G259" s="24"/>
     </row>
@@ -7001,11 +7036,11 @@
       <c r="A264" t="s">
         <v>296</v>
       </c>
-      <c r="B264" s="49" t="s">
+      <c r="B264" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="C264" s="49"/>
-      <c r="D264" s="49"/>
+      <c r="C264" s="51"/>
+      <c r="D264" s="51"/>
       <c r="F264" s="19"/>
       <c r="G264" s="24"/>
     </row>
@@ -7014,13 +7049,13 @@
       <c r="G265" s="24"/>
     </row>
     <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="50" t="s">
+      <c r="A266" s="52" t="s">
         <v>503</v>
       </c>
-      <c r="B266" s="50"/>
-      <c r="C266" s="50"/>
-      <c r="D266" s="50"/>
-      <c r="E266" s="50"/>
+      <c r="B266" s="52"/>
+      <c r="C266" s="52"/>
+      <c r="D266" s="52"/>
+      <c r="E266" s="52"/>
       <c r="F266" s="19"/>
       <c r="G266" s="24"/>
     </row>
@@ -7071,11 +7106,11 @@
       <c r="A271" t="s">
         <v>296</v>
       </c>
-      <c r="B271" s="49" t="s">
+      <c r="B271" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="C271" s="49"/>
-      <c r="D271" s="49"/>
+      <c r="C271" s="51"/>
+      <c r="D271" s="51"/>
       <c r="F271" s="18"/>
       <c r="G271" s="13"/>
     </row>
@@ -7084,13 +7119,13 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="50" t="s">
+      <c r="A273" s="52" t="s">
         <v>504</v>
       </c>
-      <c r="B273" s="50"/>
-      <c r="C273" s="50"/>
-      <c r="D273" s="50"/>
-      <c r="E273" s="50"/>
+      <c r="B273" s="52"/>
+      <c r="C273" s="52"/>
+      <c r="D273" s="52"/>
+      <c r="E273" s="52"/>
       <c r="F273" s="18"/>
       <c r="G273" s="13"/>
     </row>
@@ -7150,11 +7185,11 @@
       <c r="A278" t="s">
         <v>296</v>
       </c>
-      <c r="B278" s="49" t="s">
+      <c r="B278" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="C278" s="49"/>
-      <c r="D278" s="49"/>
+      <c r="C278" s="51"/>
+      <c r="D278" s="51"/>
       <c r="F278" s="29"/>
       <c r="G278" s="15"/>
       <c r="H278" s="15"/>
@@ -7182,13 +7217,13 @@
       <c r="J280" s="15"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="50" t="s">
+      <c r="A281" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="B281" s="50"/>
-      <c r="C281" s="50"/>
-      <c r="D281" s="50"/>
-      <c r="E281" s="50"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
       <c r="F281" s="29"/>
       <c r="G281" s="15"/>
       <c r="H281" s="15"/>
@@ -7248,20 +7283,20 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="50" t="s">
+      <c r="A289" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="B289" s="50"/>
-      <c r="C289" s="50"/>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
+      <c r="B289" s="52"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="52"/>
       <c r="F289" s="19"/>
       <c r="G289" s="24"/>
-      <c r="H289" s="53" t="s">
+      <c r="H289" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="I289" s="53"/>
-      <c r="J289" s="53"/>
+      <c r="I289" s="55"/>
+      <c r="J289" s="55"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="22" t="s">
@@ -7295,19 +7330,19 @@
       <c r="C291" s="21"/>
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
-      <c r="F291" s="51" t="s">
+      <c r="F291" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="G291" s="52" t="s">
+      <c r="G291" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="H291" s="52" t="s">
+      <c r="H291" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="I291" s="52" t="s">
+      <c r="I291" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="J291" s="52" t="s">
+      <c r="J291" s="54" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7319,11 +7354,11 @@
         <v>299</v>
       </c>
       <c r="C292" s="22"/>
-      <c r="F292" s="51"/>
-      <c r="G292" s="52"/>
-      <c r="H292" s="52"/>
-      <c r="I292" s="52"/>
-      <c r="J292" s="52"/>
+      <c r="F292" s="53"/>
+      <c r="G292" s="54"/>
+      <c r="H292" s="54"/>
+      <c r="I292" s="54"/>
+      <c r="J292" s="54"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="22" t="s">
@@ -7333,17 +7368,17 @@
         <v>319</v>
       </c>
       <c r="C293" s="22"/>
-      <c r="F293" s="51"/>
-      <c r="G293" s="52">
+      <c r="F293" s="53"/>
+      <c r="G293" s="54">
         <v>0</v>
       </c>
-      <c r="H293" s="52" t="s">
+      <c r="H293" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="I293" s="52">
+      <c r="I293" s="54">
         <v>1</v>
       </c>
-      <c r="J293" s="52">
+      <c r="J293" s="54">
         <v>1</v>
       </c>
     </row>
@@ -7355,42 +7390,42 @@
         <v>412</v>
       </c>
       <c r="C294" s="22"/>
-      <c r="F294" s="51"/>
-      <c r="G294" s="52"/>
-      <c r="H294" s="52"/>
-      <c r="I294" s="52"/>
-      <c r="J294" s="52"/>
+      <c r="F294" s="53"/>
+      <c r="G294" s="54"/>
+      <c r="H294" s="54"/>
+      <c r="I294" s="54"/>
+      <c r="J294" s="54"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F295" s="51"/>
-      <c r="G295" s="52">
+      <c r="F295" s="53"/>
+      <c r="G295" s="54">
         <v>1</v>
       </c>
-      <c r="H295" s="52" t="s">
+      <c r="H295" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="I295" s="52">
+      <c r="I295" s="54">
         <v>1</v>
       </c>
-      <c r="J295" s="52">
+      <c r="J295" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F296" s="51"/>
-      <c r="G296" s="52"/>
-      <c r="H296" s="52"/>
-      <c r="I296" s="52"/>
-      <c r="J296" s="52"/>
+      <c r="F296" s="53"/>
+      <c r="G296" s="54"/>
+      <c r="H296" s="54"/>
+      <c r="I296" s="54"/>
+      <c r="J296" s="54"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="50" t="s">
+      <c r="A297" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="B297" s="50"/>
-      <c r="C297" s="50"/>
-      <c r="D297" s="50"/>
-      <c r="E297" s="50"/>
+      <c r="B297" s="52"/>
+      <c r="C297" s="52"/>
+      <c r="D297" s="52"/>
+      <c r="E297" s="52"/>
       <c r="F297" s="30"/>
       <c r="G297" s="31"/>
       <c r="H297" s="31"/>
@@ -7401,13 +7436,13 @@
       <c r="A298" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B298" s="49" t="s">
+      <c r="B298" s="51" t="s">
         <v>537</v>
       </c>
-      <c r="C298" s="49"/>
-      <c r="D298" s="49"/>
-      <c r="E298" s="49"/>
-      <c r="F298" s="49"/>
+      <c r="C298" s="51"/>
+      <c r="D298" s="51"/>
+      <c r="E298" s="51"/>
+      <c r="F298" s="51"/>
       <c r="G298" s="31"/>
       <c r="H298" s="31"/>
       <c r="I298" s="31"/>
@@ -7456,12 +7491,12 @@
       <c r="A302" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B302" s="49" t="s">
+      <c r="B302" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="C302" s="49"/>
-      <c r="D302" s="49"/>
-      <c r="E302" s="49"/>
+      <c r="C302" s="51"/>
+      <c r="D302" s="51"/>
+      <c r="E302" s="51"/>
       <c r="F302" s="30"/>
       <c r="G302" s="31"/>
       <c r="H302" s="31"/>
@@ -7484,13 +7519,13 @@
       <c r="J304" s="31"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="50" t="s">
+      <c r="A305" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B305" s="50"/>
-      <c r="C305" s="50"/>
-      <c r="D305" s="50"/>
-      <c r="E305" s="50"/>
+      <c r="B305" s="52"/>
+      <c r="C305" s="52"/>
+      <c r="D305" s="52"/>
+      <c r="E305" s="52"/>
       <c r="F305" s="30"/>
       <c r="G305" s="31"/>
       <c r="H305" s="31"/>
@@ -7501,16 +7536,16 @@
       <c r="A306" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B306" s="49" t="s">
+      <c r="B306" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="C306" s="49"/>
-      <c r="D306" s="49"/>
-      <c r="E306" s="49"/>
-      <c r="F306" s="49"/>
-      <c r="G306" s="49"/>
-      <c r="H306" s="49"/>
-      <c r="I306" s="49"/>
+      <c r="C306" s="51"/>
+      <c r="D306" s="51"/>
+      <c r="E306" s="51"/>
+      <c r="F306" s="51"/>
+      <c r="G306" s="51"/>
+      <c r="H306" s="51"/>
+      <c r="I306" s="51"/>
       <c r="J306" s="31"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -7556,12 +7591,12 @@
       <c r="A310" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B310" s="49" t="s">
+      <c r="B310" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="C310" s="49"/>
-      <c r="D310" s="49"/>
-      <c r="E310" s="49"/>
+      <c r="C310" s="51"/>
+      <c r="D310" s="51"/>
+      <c r="E310" s="51"/>
       <c r="F310" s="33"/>
       <c r="G310" s="31"/>
       <c r="H310" s="31"/>
@@ -7585,13 +7620,13 @@
       <c r="J312" s="31"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="50" t="s">
+      <c r="A313" s="52" t="s">
         <v>536</v>
       </c>
-      <c r="B313" s="50"/>
-      <c r="C313" s="50"/>
-      <c r="D313" s="50"/>
-      <c r="E313" s="50"/>
+      <c r="B313" s="52"/>
+      <c r="C313" s="52"/>
+      <c r="D313" s="52"/>
+      <c r="E313" s="52"/>
       <c r="F313" s="30"/>
       <c r="G313" s="31"/>
       <c r="H313" s="31"/>
@@ -7654,11 +7689,11 @@
       <c r="A318" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B318" s="49" t="s">
+      <c r="B318" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="C318" s="49"/>
-      <c r="D318" s="49"/>
+      <c r="C318" s="51"/>
+      <c r="D318" s="51"/>
       <c r="F318" s="30"/>
       <c r="G318" s="31"/>
       <c r="H318" s="31"/>
@@ -7681,73 +7716,122 @@
       <c r="I320" s="31"/>
       <c r="J320" s="31"/>
     </row>
-    <row r="321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="B321" s="50"/>
-      <c r="C321" s="50"/>
-      <c r="D321" s="50"/>
-      <c r="E321" s="50"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B321" s="52"/>
+      <c r="C321" s="52"/>
+      <c r="D321" s="52"/>
+      <c r="E321" s="52"/>
+      <c r="F321" s="50"/>
+      <c r="G321" s="49"/>
+      <c r="H321" s="49"/>
+      <c r="I321" s="49"/>
+      <c r="J321" s="49"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="22" t="s">
         <v>295</v>
       </c>
       <c r="B322" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+        <v>545</v>
+      </c>
+      <c r="F322" s="50"/>
+      <c r="G322" s="49"/>
+      <c r="H322" s="49"/>
+      <c r="I322" s="49"/>
+      <c r="J322" s="49"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B323" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="F323" s="50"/>
+      <c r="G323" s="49"/>
+      <c r="H323" s="49"/>
+      <c r="I323" s="49"/>
+      <c r="J323" s="49"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="22" t="s">
         <v>302</v>
       </c>
       <c r="B324" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="F324" s="50"/>
+      <c r="G324" s="49"/>
+      <c r="H324" s="49"/>
+      <c r="I324" s="49"/>
+      <c r="J324" s="49"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="22" t="s">
         <v>303</v>
       </c>
       <c r="B325" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="F325" s="50"/>
+      <c r="G325" s="49"/>
+      <c r="H325" s="49"/>
+      <c r="I325" s="49"/>
+      <c r="J325" s="49"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B326" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="B329" s="50"/>
-      <c r="C329" s="50"/>
-      <c r="D329" s="50"/>
-      <c r="E329" s="50"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B326" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="C326" s="51"/>
+      <c r="D326" s="51"/>
+      <c r="E326" s="51"/>
+      <c r="F326" s="50"/>
+      <c r="G326" s="49"/>
+      <c r="H326" s="49"/>
+      <c r="I326" s="49"/>
+      <c r="J326" s="49"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="22"/>
+      <c r="F327" s="50"/>
+      <c r="G327" s="49"/>
+      <c r="H327" s="49"/>
+      <c r="I327" s="49"/>
+      <c r="J327" s="49"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="22"/>
+      <c r="F328" s="50"/>
+      <c r="G328" s="49"/>
+      <c r="H328" s="49"/>
+      <c r="I328" s="49"/>
+      <c r="J328" s="49"/>
+    </row>
+    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="B329" s="52"/>
+      <c r="C329" s="52"/>
+      <c r="D329" s="52"/>
+      <c r="E329" s="52"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>295</v>
       </c>
       <c r="B330" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>2</v>
       </c>
@@ -7755,7 +7839,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>302</v>
       </c>
@@ -7763,7 +7847,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>303</v>
       </c>
@@ -7771,16 +7855,67 @@
         <v>319</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>296</v>
       </c>
       <c r="B334" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B337" s="52"/>
+      <c r="C337" s="52"/>
+      <c r="D337" s="52"/>
+      <c r="E337" s="52"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>295</v>
+      </c>
+      <c r="B338" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>2</v>
+      </c>
+      <c r="B339" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>302</v>
+      </c>
+      <c r="B340" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>303</v>
+      </c>
+      <c r="B341" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>296</v>
+      </c>
+      <c r="B342" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="101">
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="B326:E326"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A44:E44"/>
@@ -7818,7 +7953,7 @@
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="G118:I118"/>
     <mergeCell ref="B153:E153"/>
-    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A337:E337"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="A156:E156"/>
     <mergeCell ref="A164:E164"/>
@@ -7836,7 +7971,7 @@
     <mergeCell ref="H227:P227"/>
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="A329:E329"/>
     <mergeCell ref="A212:E212"/>
     <mergeCell ref="A220:E220"/>
     <mergeCell ref="A228:E228"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2095" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{220D62B5-9CCD-4013-9190-8198389BEF4B}"/>
+  <xr:revisionPtr revIDLastSave="2122" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8588D76-B053-4F38-90E3-122B87BB7CB9}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="2985" windowWidth="14310" windowHeight="8640" activeTab="1" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="21435" yWindow="3495" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="513">
   <si>
     <t>Variable</t>
   </si>
@@ -1553,6 +1553,27 @@
   </si>
   <si>
     <t>H4Wp16</t>
+  </si>
+  <si>
+    <t>Have you ever been homeless for a week of longer?</t>
+  </si>
+  <si>
+    <t>If Skipped/Don't Know/NA then NA</t>
+  </si>
+  <si>
+    <t>H4DS20</t>
+  </si>
+  <si>
+    <t>Which of the following things happened in the past 12 months? You shot or stabbed someone.</t>
+  </si>
+  <si>
+    <t>Adult Shoot/Stab</t>
+  </si>
+  <si>
+    <t>H4DS11</t>
+  </si>
+  <si>
+    <t>Adult Phyiscal Attack</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1817,9 +1838,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1828,9 +1846,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,14 +1862,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1868,26 +1907,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2204,16 +2246,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="129.85546875" style="30" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2356,19 +2398,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>511</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,33 +2418,33 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>508</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>143</v>
+        <v>509</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,16 +2452,16 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,16 +2469,16 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,16 +2486,16 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,16 +2503,16 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,58 +2520,64 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>38</v>
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -2540,33 +2588,27 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>231</v>
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,33 +2616,33 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,81 +2650,81 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
+      <c r="A27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -2693,16 +2735,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,30 +2752,30 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>348</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
         <v>94</v>
@@ -2741,136 +2783,136 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C37" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C38" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>376</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C39" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>378</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>379</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D38" t="s">
-        <v>378</v>
-      </c>
-      <c r="E38" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2878,67 +2920,67 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>63</v>
+      <c r="A41" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>192</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2946,118 +2988,118 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>6</v>
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
+      <c r="A47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>430</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3065,47 +3107,47 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>134</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>333</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="E53" t="s">
         <v>87</v>
@@ -3113,16 +3155,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>331</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>85</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
       <c r="E54" t="s">
         <v>87</v>
@@ -3130,70 +3172,70 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>356</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,16 +3243,16 @@
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,16 +3260,16 @@
         <v>3</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3235,101 +3277,101 @@
         <v>3</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C64" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>49</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C65" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>19</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>49</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C66" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,83 +3379,83 @@
         <v>49</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B69" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C70" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C71" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>123</v>
       </c>
-      <c r="E69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3422,33 +3464,33 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
         <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" t="s">
-        <v>107</v>
+      <c r="A73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3456,84 +3498,84 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>140</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="B78" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>381</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="D78" t="s">
-        <v>383</v>
-      </c>
-      <c r="E78" t="s">
-        <v>384</v>
+      <c r="E78" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3541,16 +3583,16 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>386</v>
+        <v>112</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>384</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,10 +3600,10 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>387</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>382</v>
       </c>
       <c r="D80" t="s">
         <v>383</v>
@@ -3575,10 +3617,10 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D81" t="s">
         <v>383</v>
@@ -3592,16 +3634,16 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>391</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>395</v>
+        <v>387</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>389</v>
       </c>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E82" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,101 +3651,101 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>392</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>398</v>
+        <v>388</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>390</v>
       </c>
       <c r="D83" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E83" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>399</v>
+        <v>475</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>486</v>
       </c>
       <c r="D84" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="E84" t="s">
-        <v>397</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>394</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>400</v>
+        <v>488</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>489</v>
       </c>
       <c r="D85" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="E85" t="s">
-        <v>397</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>73</v>
+        <v>476</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="E86" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>238</v>
+        <v>477</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>492</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>493</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>60</v>
+        <v>469</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3711,16 +3753,16 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>411</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>412</v>
+        <v>391</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>395</v>
       </c>
       <c r="D89" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="E89" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,101 +3770,101 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>415</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>416</v>
+        <v>392</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>398</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E90" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>128</v>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>151</v>
+        <v>394</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>243</v>
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>163</v>
+        <v>238</v>
+      </c>
+      <c r="D94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,16 +3872,16 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
-      </c>
-      <c r="C96" s="43" t="s">
-        <v>301</v>
+        <v>411</v>
+      </c>
+      <c r="C96" s="68" t="s">
+        <v>412</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>413</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,186 +3889,186 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>307</v>
+        <v>415</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>416</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" t="s">
-        <v>308</v>
-      </c>
-      <c r="E98" t="s">
-        <v>48</v>
+      <c r="A98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>48</v>
+      <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>47</v>
+        <v>470</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>481</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
-      </c>
-      <c r="C101" s="45" t="s">
-        <v>432</v>
+        <v>471</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>478</v>
       </c>
       <c r="D101" t="s">
-        <v>372</v>
+        <v>479</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>431</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>432</v>
+        <v>472</v>
+      </c>
+      <c r="C102" s="52" t="s">
+        <v>482</v>
       </c>
       <c r="D102" t="s">
-        <v>372</v>
+        <v>479</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>433</v>
-      </c>
-      <c r="C103" s="45" t="s">
-        <v>432</v>
+        <v>473</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>483</v>
       </c>
       <c r="D103" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
-      </c>
-      <c r="C104" s="45" t="s">
-        <v>432</v>
+        <v>474</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>484</v>
       </c>
       <c r="D104" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>432</v>
+        <v>240</v>
+      </c>
+      <c r="C105" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" t="s">
-        <v>437</v>
-      </c>
-      <c r="C106" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="D106" t="s">
-        <v>295</v>
-      </c>
-      <c r="E106" t="s">
-        <v>164</v>
+      <c r="A106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>438</v>
-      </c>
-      <c r="C107" s="45" t="s">
-        <v>432</v>
+        <v>297</v>
+      </c>
+      <c r="C107" s="53" t="s">
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4034,67 +4076,67 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>439</v>
-      </c>
-      <c r="C108" s="46" t="s">
-        <v>440</v>
+        <v>300</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="E108" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>441</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>440</v>
+        <v>306</v>
+      </c>
+      <c r="C109" s="66" t="s">
+        <v>307</v>
       </c>
       <c r="D109" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110" t="s">
+        <v>308</v>
+      </c>
+      <c r="E110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B110" t="s">
-        <v>442</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="D110" t="s">
-        <v>295</v>
-      </c>
-      <c r="E110" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" t="s">
-        <v>443</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="D111" t="s">
-        <v>295</v>
-      </c>
-      <c r="E111" t="s">
-        <v>164</v>
+      <c r="B111" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4102,16 +4144,16 @@
         <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>444</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>440</v>
+        <v>50</v>
+      </c>
+      <c r="C112" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="D112" t="s">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4119,10 +4161,10 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>445</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>446</v>
+        <v>134</v>
+      </c>
+      <c r="C113" s="69" t="s">
+        <v>432</v>
       </c>
       <c r="D113" t="s">
         <v>372</v>
@@ -4133,16 +4175,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>447</v>
-      </c>
-      <c r="C114" s="45" t="s">
-        <v>446</v>
+        <v>431</v>
+      </c>
+      <c r="C114" s="44" t="s">
+        <v>432</v>
       </c>
       <c r="D114" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="E114" t="s">
         <v>164</v>
@@ -4150,16 +4192,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>448</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>446</v>
+        <v>433</v>
+      </c>
+      <c r="C115" s="44" t="s">
+        <v>432</v>
       </c>
       <c r="D115" t="s">
-        <v>295</v>
+        <v>434</v>
       </c>
       <c r="E115" t="s">
         <v>164</v>
@@ -4167,16 +4209,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>449</v>
-      </c>
-      <c r="C116" s="45" t="s">
-        <v>446</v>
+        <v>435</v>
+      </c>
+      <c r="C116" s="44" t="s">
+        <v>432</v>
       </c>
       <c r="D116" t="s">
-        <v>295</v>
+        <v>434</v>
       </c>
       <c r="E116" t="s">
         <v>164</v>
@@ -4184,16 +4226,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>450</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="C117" s="65" t="s">
+        <v>432</v>
       </c>
       <c r="D117" t="s">
-        <v>413</v>
+        <v>295</v>
       </c>
       <c r="E117" t="s">
         <v>164</v>
@@ -4201,16 +4243,16 @@
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>451</v>
-      </c>
-      <c r="C118" s="45" t="s">
-        <v>452</v>
+        <v>437</v>
+      </c>
+      <c r="C118" s="44" t="s">
+        <v>432</v>
       </c>
       <c r="D118" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="E118" t="s">
         <v>164</v>
@@ -4218,16 +4260,16 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>452</v>
+        <v>438</v>
+      </c>
+      <c r="C119" s="69" t="s">
+        <v>432</v>
       </c>
       <c r="D119" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="E119" t="s">
         <v>164</v>
@@ -4235,16 +4277,16 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>453</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>452</v>
+        <v>439</v>
+      </c>
+      <c r="C120" s="67" t="s">
+        <v>440</v>
       </c>
       <c r="D120" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="E120" t="s">
         <v>164</v>
@@ -4252,16 +4294,16 @@
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D121" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E121" t="s">
         <v>164</v>
@@ -4269,19 +4311,19 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>467</v>
-      </c>
-      <c r="C122" s="52" t="s">
-        <v>469</v>
+        <v>442</v>
+      </c>
+      <c r="C122" s="65" t="s">
+        <v>440</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="E122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4289,101 +4331,101 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>470</v>
-      </c>
-      <c r="C123" s="64" t="s">
-        <v>481</v>
+        <v>443</v>
+      </c>
+      <c r="C123" s="65" t="s">
+        <v>440</v>
       </c>
       <c r="D123" t="s">
-        <v>479</v>
+        <v>295</v>
       </c>
       <c r="E123" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>471</v>
-      </c>
-      <c r="C124" s="64" t="s">
-        <v>478</v>
+        <v>444</v>
+      </c>
+      <c r="C124" s="65" t="s">
+        <v>440</v>
       </c>
       <c r="D124" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="E124" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>472</v>
-      </c>
-      <c r="C125" s="64" t="s">
-        <v>482</v>
+        <v>445</v>
+      </c>
+      <c r="C125" s="65" t="s">
+        <v>446</v>
       </c>
       <c r="D125" t="s">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="E125" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>473</v>
-      </c>
-      <c r="C126" s="64" t="s">
-        <v>483</v>
+        <v>447</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>446</v>
       </c>
       <c r="D126" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="E126" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>474</v>
-      </c>
-      <c r="C127" s="64" t="s">
-        <v>484</v>
+        <v>448</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>446</v>
       </c>
       <c r="D127" t="s">
-        <v>485</v>
+        <v>295</v>
       </c>
       <c r="E127" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>475</v>
-      </c>
-      <c r="C128" s="64" t="s">
-        <v>486</v>
+        <v>449</v>
+      </c>
+      <c r="C128" s="44" t="s">
+        <v>446</v>
       </c>
       <c r="D128" t="s">
-        <v>413</v>
+        <v>295</v>
       </c>
       <c r="E128" t="s">
-        <v>487</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4391,55 +4433,89 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>488</v>
-      </c>
-      <c r="C129" s="64" t="s">
-        <v>489</v>
+        <v>450</v>
+      </c>
+      <c r="C129" s="44" t="s">
+        <v>446</v>
       </c>
       <c r="D129" t="s">
         <v>413</v>
       </c>
       <c r="E129" t="s">
-        <v>487</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>476</v>
-      </c>
-      <c r="C130" s="65" t="s">
-        <v>490</v>
+        <v>451</v>
+      </c>
+      <c r="C130" s="69" t="s">
+        <v>452</v>
       </c>
       <c r="D130" t="s">
-        <v>491</v>
+        <v>372</v>
       </c>
       <c r="E130" t="s">
-        <v>487</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="D131" t="s">
+        <v>434</v>
+      </c>
+      <c r="E131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>453</v>
+      </c>
+      <c r="C132" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="D132" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>49</v>
       </c>
-      <c r="B131" t="s">
-        <v>477</v>
-      </c>
-      <c r="C131" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="D131" t="s">
-        <v>493</v>
-      </c>
-      <c r="E131" t="s">
-        <v>487</v>
+      <c r="B133" t="s">
+        <v>454</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="D133" t="s">
+        <v>413</v>
+      </c>
+      <c r="E133" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
-    <sortCondition ref="E2:E121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E133">
+    <sortCondition ref="E2:E133"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4450,7 +4526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B652D307-109F-49E0-809C-7C8E81796B8F}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4707,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
-  <dimension ref="A1:P414"/>
+  <dimension ref="A1:P422"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398:C398"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,27 +4799,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4800,13 +4876,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4851,13 +4927,13 @@
       <c r="D18" s="54"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4907,13 +4983,13 @@
       <c r="E26" s="54"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4955,11 +5031,11 @@
       <c r="A34" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="54" t="s">
         <v>266</v>
       </c>
@@ -4970,13 +5046,13 @@
       <c r="J34" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5017,20 +5093,20 @@
       <c r="B42" t="s">
         <v>313</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5071,20 +5147,20 @@
       <c r="B49" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -5132,13 +5208,13 @@
       <c r="E57" s="54"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5181,13 +5257,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="55" t="s">
         <v>404</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -5232,13 +5308,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -5282,13 +5358,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5341,20 +5417,20 @@
       <c r="B89" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="53" t="s">
+      <c r="A92" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5394,13 +5470,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -5440,13 +5516,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -5491,13 +5567,13 @@
       <c r="D113" s="54"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5514,11 +5590,11 @@
       <c r="B118" t="s">
         <v>278</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G118" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5592,13 +5668,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="53"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -5630,11 +5706,11 @@
         <v>252</v>
       </c>
       <c r="E127" s="13"/>
-      <c r="G127" s="55" t="s">
+      <c r="G127" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -5704,13 +5780,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -5738,7 +5814,7 @@
       <c r="B135" t="s">
         <v>252</v>
       </c>
-      <c r="E135" s="59" t="s">
+      <c r="E135" s="58" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5749,7 +5825,7 @@
       <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="E136" s="59"/>
+      <c r="E136" s="58"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -5760,16 +5836,16 @@
       </c>
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
-      <c r="E137" s="59"/>
+      <c r="E137" s="58"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="53" t="s">
+      <c r="A140" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B140" s="53"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -5817,13 +5893,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="53" t="s">
+      <c r="A148" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="53"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="53"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -5869,13 +5945,13 @@
       <c r="E153" s="54"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="53" t="s">
+      <c r="A156" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="B156" s="53"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="53"/>
-      <c r="E156" s="53"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -5947,13 +6023,13 @@
       <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="53" t="s">
+      <c r="A164" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="B164" s="53"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="53"/>
-      <c r="E164" s="53"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -6017,13 +6093,13 @@
       <c r="E170" s="9"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="53" t="s">
+      <c r="A172" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="53"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -6081,13 +6157,13 @@
       <c r="E177" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="53" t="s">
+      <c r="A180" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -6126,20 +6202,20 @@
       <c r="A185" t="s">
         <v>249</v>
       </c>
-      <c r="B185" s="55" t="s">
+      <c r="B185" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="55"/>
-      <c r="D185" s="55"/>
+      <c r="C185" s="61"/>
+      <c r="D185" s="61"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="53" t="s">
+      <c r="A188" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="B188" s="53"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="53"/>
-      <c r="E188" s="53"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -6178,11 +6254,11 @@
       <c r="A193" t="s">
         <v>249</v>
       </c>
-      <c r="B193" s="55" t="s">
+      <c r="B193" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="C193" s="55"/>
-      <c r="D193" s="55"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="61"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
@@ -6190,13 +6266,13 @@
       <c r="D194" s="9"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="53" t="s">
+      <c r="A196" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -6249,13 +6325,13 @@
       <c r="G201" s="54"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="53" t="s">
+      <c r="A204" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -6300,13 +6376,13 @@
       <c r="D209" s="54"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="53" t="s">
+      <c r="A212" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="B212" s="53"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="53"/>
-      <c r="E212" s="53"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="55"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="55"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -6349,13 +6425,13 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="53" t="s">
+      <c r="A220" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="53"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="55"/>
+      <c r="D220" s="55"/>
+      <c r="E220" s="55"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -6398,24 +6474,24 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H227" s="55"/>
-      <c r="I227" s="55"/>
-      <c r="J227" s="55"/>
-      <c r="K227" s="55"/>
-      <c r="L227" s="55"/>
-      <c r="M227" s="55"/>
-      <c r="N227" s="55"/>
-      <c r="O227" s="55"/>
-      <c r="P227" s="55"/>
+      <c r="H227" s="61"/>
+      <c r="I227" s="61"/>
+      <c r="J227" s="61"/>
+      <c r="K227" s="61"/>
+      <c r="L227" s="61"/>
+      <c r="M227" s="61"/>
+      <c r="N227" s="61"/>
+      <c r="O227" s="61"/>
+      <c r="P227" s="61"/>
     </row>
     <row r="228" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="53" t="s">
+      <c r="A228" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="B228" s="53"/>
-      <c r="C228" s="53"/>
-      <c r="D228" s="53"/>
-      <c r="E228" s="53"/>
+      <c r="B228" s="55"/>
+      <c r="C228" s="55"/>
+      <c r="D228" s="55"/>
+      <c r="E228" s="55"/>
       <c r="F228" s="16"/>
       <c r="G228" s="11"/>
     </row>
@@ -6471,13 +6547,13 @@
       <c r="G234" s="11"/>
     </row>
     <row r="235" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="53" t="s">
+      <c r="A235" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="B235" s="53"/>
-      <c r="C235" s="53"/>
-      <c r="D235" s="53"/>
-      <c r="E235" s="53"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="55"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
       <c r="F235" s="16"/>
       <c r="G235" s="11"/>
     </row>
@@ -6537,13 +6613,13 @@
       <c r="G242" s="11"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="53" t="s">
+      <c r="A243" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="B243" s="53"/>
-      <c r="C243" s="53"/>
-      <c r="D243" s="53"/>
-      <c r="E243" s="53"/>
+      <c r="B243" s="55"/>
+      <c r="C243" s="55"/>
+      <c r="D243" s="55"/>
+      <c r="E243" s="55"/>
       <c r="F243" s="17"/>
       <c r="G243" s="22"/>
     </row>
@@ -6597,10 +6673,10 @@
       <c r="A248" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="61" t="s">
+      <c r="B248" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="C248" s="61"/>
+      <c r="C248" s="59"/>
       <c r="F248" s="17"/>
       <c r="G248" s="22"/>
     </row>
@@ -6613,13 +6689,13 @@
       <c r="G250" s="22"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="53" t="s">
+      <c r="A251" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="B251" s="53"/>
-      <c r="C251" s="53"/>
-      <c r="D251" s="53"/>
-      <c r="E251" s="53"/>
+      <c r="B251" s="55"/>
+      <c r="C251" s="55"/>
+      <c r="D251" s="55"/>
+      <c r="E251" s="55"/>
       <c r="F251" s="17"/>
       <c r="G251" s="22"/>
     </row>
@@ -6684,13 +6760,13 @@
       <c r="G258" s="22"/>
     </row>
     <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="53" t="s">
+      <c r="A259" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B259" s="53"/>
-      <c r="C259" s="53"/>
-      <c r="D259" s="53"/>
-      <c r="E259" s="53"/>
+      <c r="B259" s="55"/>
+      <c r="C259" s="55"/>
+      <c r="D259" s="55"/>
+      <c r="E259" s="55"/>
       <c r="F259" s="17"/>
       <c r="G259" s="22"/>
     </row>
@@ -6754,13 +6830,13 @@
       <c r="G265" s="22"/>
     </row>
     <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="53" t="s">
+      <c r="A266" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="B266" s="53"/>
-      <c r="C266" s="53"/>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
+      <c r="B266" s="55"/>
+      <c r="C266" s="55"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
       <c r="F266" s="17"/>
       <c r="G266" s="22"/>
     </row>
@@ -6824,13 +6900,13 @@
       <c r="G272" s="11"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="53" t="s">
+      <c r="A273" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="B273" s="53"/>
-      <c r="C273" s="53"/>
-      <c r="D273" s="53"/>
-      <c r="E273" s="53"/>
+      <c r="B273" s="55"/>
+      <c r="C273" s="55"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
       <c r="F273" s="16"/>
       <c r="G273" s="11"/>
     </row>
@@ -6922,13 +6998,13 @@
       <c r="J280" s="13"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="53" t="s">
+      <c r="A281" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="B281" s="53"/>
-      <c r="C281" s="53"/>
-      <c r="D281" s="53"/>
-      <c r="E281" s="53"/>
+      <c r="B281" s="55"/>
+      <c r="C281" s="55"/>
+      <c r="D281" s="55"/>
+      <c r="E281" s="55"/>
       <c r="F281" s="27"/>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
@@ -6988,20 +7064,20 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="53" t="s">
+      <c r="A289" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="B289" s="53"/>
-      <c r="C289" s="53"/>
-      <c r="D289" s="53"/>
-      <c r="E289" s="53"/>
+      <c r="B289" s="55"/>
+      <c r="C289" s="55"/>
+      <c r="D289" s="55"/>
+      <c r="E289" s="55"/>
       <c r="F289" s="17"/>
       <c r="G289" s="22"/>
-      <c r="H289" s="62" t="s">
+      <c r="H289" s="56" t="s">
         <v>354</v>
       </c>
-      <c r="I289" s="62"/>
-      <c r="J289" s="62"/>
+      <c r="I289" s="56"/>
+      <c r="J289" s="56"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="20" t="s">
@@ -7035,19 +7111,19 @@
       <c r="C291" s="19"/>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
-      <c r="F291" s="63" t="s">
+      <c r="F291" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="G291" s="59" t="s">
+      <c r="G291" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="H291" s="59" t="s">
+      <c r="H291" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="I291" s="59" t="s">
+      <c r="I291" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="J291" s="59" t="s">
+      <c r="J291" s="58" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7059,11 +7135,11 @@
         <v>252</v>
       </c>
       <c r="C292" s="20"/>
-      <c r="F292" s="63"/>
-      <c r="G292" s="59"/>
-      <c r="H292" s="59"/>
-      <c r="I292" s="59"/>
-      <c r="J292" s="59"/>
+      <c r="F292" s="57"/>
+      <c r="G292" s="58"/>
+      <c r="H292" s="58"/>
+      <c r="I292" s="58"/>
+      <c r="J292" s="58"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="20" t="s">
@@ -7073,17 +7149,17 @@
         <v>272</v>
       </c>
       <c r="C293" s="20"/>
-      <c r="F293" s="63"/>
-      <c r="G293" s="59">
+      <c r="F293" s="57"/>
+      <c r="G293" s="58">
         <v>0</v>
       </c>
-      <c r="H293" s="59" t="s">
+      <c r="H293" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="I293" s="59">
+      <c r="I293" s="58">
         <v>1</v>
       </c>
-      <c r="J293" s="59">
+      <c r="J293" s="58">
         <v>1</v>
       </c>
     </row>
@@ -7095,42 +7171,42 @@
         <v>355</v>
       </c>
       <c r="C294" s="20"/>
-      <c r="F294" s="63"/>
-      <c r="G294" s="59"/>
-      <c r="H294" s="59"/>
-      <c r="I294" s="59"/>
-      <c r="J294" s="59"/>
+      <c r="F294" s="57"/>
+      <c r="G294" s="58"/>
+      <c r="H294" s="58"/>
+      <c r="I294" s="58"/>
+      <c r="J294" s="58"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F295" s="63"/>
-      <c r="G295" s="59">
+      <c r="F295" s="57"/>
+      <c r="G295" s="58">
         <v>1</v>
       </c>
-      <c r="H295" s="59" t="s">
+      <c r="H295" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="I295" s="59">
+      <c r="I295" s="58">
         <v>1</v>
       </c>
-      <c r="J295" s="59">
+      <c r="J295" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F296" s="63"/>
-      <c r="G296" s="59"/>
-      <c r="H296" s="59"/>
-      <c r="I296" s="59"/>
-      <c r="J296" s="59"/>
+      <c r="F296" s="57"/>
+      <c r="G296" s="58"/>
+      <c r="H296" s="58"/>
+      <c r="I296" s="58"/>
+      <c r="J296" s="58"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="53" t="s">
+      <c r="A297" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="B297" s="53"/>
-      <c r="C297" s="53"/>
-      <c r="D297" s="53"/>
-      <c r="E297" s="53"/>
+      <c r="B297" s="55"/>
+      <c r="C297" s="55"/>
+      <c r="D297" s="55"/>
+      <c r="E297" s="55"/>
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
@@ -7224,13 +7300,13 @@
       <c r="J304" s="29"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="53" t="s">
+      <c r="A305" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="B305" s="53"/>
-      <c r="C305" s="53"/>
-      <c r="D305" s="53"/>
-      <c r="E305" s="53"/>
+      <c r="B305" s="55"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="55"/>
+      <c r="E305" s="55"/>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
@@ -7325,13 +7401,13 @@
       <c r="J312" s="29"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="53" t="s">
+      <c r="A313" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="B313" s="53"/>
-      <c r="C313" s="53"/>
-      <c r="D313" s="53"/>
-      <c r="E313" s="53"/>
+      <c r="B313" s="55"/>
+      <c r="C313" s="55"/>
+      <c r="D313" s="55"/>
+      <c r="E313" s="55"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
       <c r="H313" s="29"/>
@@ -7422,18 +7498,18 @@
       <c r="J320" s="29"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="53" t="s">
+      <c r="A321" s="55" t="s">
         <v>466</v>
       </c>
-      <c r="B321" s="53"/>
-      <c r="C321" s="53"/>
-      <c r="D321" s="53"/>
-      <c r="E321" s="53"/>
-      <c r="F321" s="48"/>
-      <c r="G321" s="47"/>
-      <c r="H321" s="47"/>
-      <c r="I321" s="47"/>
-      <c r="J321" s="47"/>
+      <c r="B321" s="55"/>
+      <c r="C321" s="55"/>
+      <c r="D321" s="55"/>
+      <c r="E321" s="55"/>
+      <c r="F321" s="46"/>
+      <c r="G321" s="45"/>
+      <c r="H321" s="45"/>
+      <c r="I321" s="45"/>
+      <c r="J321" s="45"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="20" t="s">
@@ -7442,11 +7518,11 @@
       <c r="B322" t="s">
         <v>467</v>
       </c>
-      <c r="F322" s="48"/>
-      <c r="G322" s="47"/>
-      <c r="H322" s="47"/>
-      <c r="I322" s="47"/>
-      <c r="J322" s="47"/>
+      <c r="F322" s="46"/>
+      <c r="G322" s="45"/>
+      <c r="H322" s="45"/>
+      <c r="I322" s="45"/>
+      <c r="J322" s="45"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="20" t="s">
@@ -7455,11 +7531,11 @@
       <c r="B323" t="s">
         <v>274</v>
       </c>
-      <c r="F323" s="48"/>
-      <c r="G323" s="47"/>
-      <c r="H323" s="47"/>
-      <c r="I323" s="47"/>
-      <c r="J323" s="47"/>
+      <c r="F323" s="46"/>
+      <c r="G323" s="45"/>
+      <c r="H323" s="45"/>
+      <c r="I323" s="45"/>
+      <c r="J323" s="45"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="20" t="s">
@@ -7468,11 +7544,11 @@
       <c r="B324" t="s">
         <v>252</v>
       </c>
-      <c r="F324" s="48"/>
-      <c r="G324" s="47"/>
-      <c r="H324" s="47"/>
-      <c r="I324" s="47"/>
-      <c r="J324" s="47"/>
+      <c r="F324" s="46"/>
+      <c r="G324" s="45"/>
+      <c r="H324" s="45"/>
+      <c r="I324" s="45"/>
+      <c r="J324" s="45"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="20" t="s">
@@ -7481,11 +7557,11 @@
       <c r="B325" t="s">
         <v>272</v>
       </c>
-      <c r="F325" s="48"/>
-      <c r="G325" s="47"/>
-      <c r="H325" s="47"/>
-      <c r="I325" s="47"/>
-      <c r="J325" s="47"/>
+      <c r="F325" s="46"/>
+      <c r="G325" s="45"/>
+      <c r="H325" s="45"/>
+      <c r="I325" s="45"/>
+      <c r="J325" s="45"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="20" t="s">
@@ -7497,41 +7573,41 @@
       <c r="C326" s="54"/>
       <c r="D326" s="54"/>
       <c r="E326" s="54"/>
-      <c r="F326" s="48"/>
-      <c r="G326" s="47"/>
-      <c r="H326" s="47"/>
-      <c r="I326" s="47"/>
-      <c r="J326" s="47"/>
+      <c r="F326" s="46"/>
+      <c r="G326" s="45"/>
+      <c r="H326" s="45"/>
+      <c r="I326" s="45"/>
+      <c r="J326" s="45"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
-      <c r="F327" s="48"/>
-      <c r="G327" s="47"/>
-      <c r="H327" s="47"/>
-      <c r="I327" s="47"/>
-      <c r="J327" s="47"/>
+      <c r="F327" s="46"/>
+      <c r="G327" s="45"/>
+      <c r="H327" s="45"/>
+      <c r="I327" s="45"/>
+      <c r="J327" s="45"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
-      <c r="F328" s="48"/>
-      <c r="G328" s="47"/>
-      <c r="H328" s="47"/>
-      <c r="I328" s="47"/>
-      <c r="J328" s="47"/>
+      <c r="F328" s="46"/>
+      <c r="G328" s="45"/>
+      <c r="H328" s="45"/>
+      <c r="I328" s="45"/>
+      <c r="J328" s="45"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="53" t="s">
+      <c r="A329" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="B329" s="53"/>
-      <c r="C329" s="53"/>
-      <c r="D329" s="53"/>
-      <c r="E329" s="53"/>
-      <c r="F329" s="50"/>
-      <c r="G329" s="51"/>
-      <c r="H329" s="51"/>
-      <c r="I329" s="51"/>
-      <c r="J329" s="51"/>
+      <c r="B329" s="55"/>
+      <c r="C329" s="55"/>
+      <c r="D329" s="55"/>
+      <c r="E329" s="55"/>
+      <c r="F329" s="48"/>
+      <c r="G329" s="49"/>
+      <c r="H329" s="49"/>
+      <c r="I329" s="49"/>
+      <c r="J329" s="49"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="20" t="s">
@@ -7540,11 +7616,11 @@
       <c r="B330" t="s">
         <v>470</v>
       </c>
-      <c r="F330" s="50"/>
-      <c r="G330" s="51"/>
-      <c r="H330" s="51"/>
-      <c r="I330" s="51"/>
-      <c r="J330" s="51"/>
+      <c r="F330" s="48"/>
+      <c r="G330" s="49"/>
+      <c r="H330" s="49"/>
+      <c r="I330" s="49"/>
+      <c r="J330" s="49"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="20" t="s">
@@ -7553,11 +7629,11 @@
       <c r="B331" t="s">
         <v>499</v>
       </c>
-      <c r="F331" s="50"/>
-      <c r="G331" s="51"/>
-      <c r="H331" s="51"/>
-      <c r="I331" s="51"/>
-      <c r="J331" s="51"/>
+      <c r="F331" s="48"/>
+      <c r="G331" s="49"/>
+      <c r="H331" s="49"/>
+      <c r="I331" s="49"/>
+      <c r="J331" s="49"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="20" t="s">
@@ -7566,11 +7642,11 @@
       <c r="B332" t="s">
         <v>252</v>
       </c>
-      <c r="F332" s="50"/>
-      <c r="G332" s="51"/>
-      <c r="H332" s="51"/>
-      <c r="I332" s="51"/>
-      <c r="J332" s="51"/>
+      <c r="F332" s="48"/>
+      <c r="G332" s="49"/>
+      <c r="H332" s="49"/>
+      <c r="I332" s="49"/>
+      <c r="J332" s="49"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="20" t="s">
@@ -7579,11 +7655,11 @@
       <c r="B333" t="s">
         <v>272</v>
       </c>
-      <c r="F333" s="50"/>
-      <c r="G333" s="51"/>
-      <c r="H333" s="51"/>
-      <c r="I333" s="51"/>
-      <c r="J333" s="51"/>
+      <c r="F333" s="48"/>
+      <c r="G333" s="49"/>
+      <c r="H333" s="49"/>
+      <c r="I333" s="49"/>
+      <c r="J333" s="49"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="20" t="s">
@@ -7594,41 +7670,41 @@
       </c>
       <c r="C334" s="54"/>
       <c r="D334" s="10"/>
-      <c r="F334" s="50"/>
-      <c r="G334" s="51"/>
-      <c r="H334" s="51"/>
-      <c r="I334" s="51"/>
-      <c r="J334" s="51"/>
+      <c r="F334" s="48"/>
+      <c r="G334" s="49"/>
+      <c r="H334" s="49"/>
+      <c r="I334" s="49"/>
+      <c r="J334" s="49"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="20"/>
-      <c r="F335" s="50"/>
-      <c r="G335" s="51"/>
-      <c r="H335" s="51"/>
-      <c r="I335" s="51"/>
-      <c r="J335" s="51"/>
+      <c r="F335" s="48"/>
+      <c r="G335" s="49"/>
+      <c r="H335" s="49"/>
+      <c r="I335" s="49"/>
+      <c r="J335" s="49"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="20"/>
-      <c r="F336" s="50"/>
-      <c r="G336" s="51"/>
-      <c r="H336" s="51"/>
-      <c r="I336" s="51"/>
-      <c r="J336" s="51"/>
+      <c r="F336" s="48"/>
+      <c r="G336" s="49"/>
+      <c r="H336" s="49"/>
+      <c r="I336" s="49"/>
+      <c r="J336" s="49"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="53" t="s">
+      <c r="A337" s="55" t="s">
         <v>495</v>
       </c>
-      <c r="B337" s="53"/>
-      <c r="C337" s="53"/>
-      <c r="D337" s="53"/>
-      <c r="E337" s="53"/>
-      <c r="F337" s="50"/>
-      <c r="G337" s="51"/>
-      <c r="H337" s="51"/>
-      <c r="I337" s="51"/>
-      <c r="J337" s="51"/>
+      <c r="B337" s="55"/>
+      <c r="C337" s="55"/>
+      <c r="D337" s="55"/>
+      <c r="E337" s="55"/>
+      <c r="F337" s="48"/>
+      <c r="G337" s="49"/>
+      <c r="H337" s="49"/>
+      <c r="I337" s="49"/>
+      <c r="J337" s="49"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="20" t="s">
@@ -7637,11 +7713,11 @@
       <c r="B338" t="s">
         <v>471</v>
       </c>
-      <c r="F338" s="50"/>
-      <c r="G338" s="51"/>
-      <c r="H338" s="51"/>
-      <c r="I338" s="51"/>
-      <c r="J338" s="51"/>
+      <c r="F338" s="48"/>
+      <c r="G338" s="49"/>
+      <c r="H338" s="49"/>
+      <c r="I338" s="49"/>
+      <c r="J338" s="49"/>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="20" t="s">
@@ -7650,11 +7726,11 @@
       <c r="B339" t="s">
         <v>499</v>
       </c>
-      <c r="F339" s="50"/>
-      <c r="G339" s="51"/>
-      <c r="H339" s="51"/>
-      <c r="I339" s="51"/>
-      <c r="J339" s="51"/>
+      <c r="F339" s="48"/>
+      <c r="G339" s="49"/>
+      <c r="H339" s="49"/>
+      <c r="I339" s="49"/>
+      <c r="J339" s="49"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="20" t="s">
@@ -7663,11 +7739,11 @@
       <c r="B340" t="s">
         <v>252</v>
       </c>
-      <c r="F340" s="50"/>
-      <c r="G340" s="51"/>
-      <c r="H340" s="51"/>
-      <c r="I340" s="51"/>
-      <c r="J340" s="51"/>
+      <c r="F340" s="48"/>
+      <c r="G340" s="49"/>
+      <c r="H340" s="49"/>
+      <c r="I340" s="49"/>
+      <c r="J340" s="49"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="20" t="s">
@@ -7676,11 +7752,11 @@
       <c r="B341" t="s">
         <v>272</v>
       </c>
-      <c r="F341" s="50"/>
-      <c r="G341" s="51"/>
-      <c r="H341" s="51"/>
-      <c r="I341" s="51"/>
-      <c r="J341" s="51"/>
+      <c r="F341" s="48"/>
+      <c r="G341" s="49"/>
+      <c r="H341" s="49"/>
+      <c r="I341" s="49"/>
+      <c r="J341" s="49"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="20" t="s">
@@ -7691,41 +7767,41 @@
       </c>
       <c r="C342" s="54"/>
       <c r="D342" s="10"/>
-      <c r="F342" s="50"/>
-      <c r="G342" s="51"/>
-      <c r="H342" s="51"/>
-      <c r="I342" s="51"/>
-      <c r="J342" s="51"/>
+      <c r="F342" s="48"/>
+      <c r="G342" s="49"/>
+      <c r="H342" s="49"/>
+      <c r="I342" s="49"/>
+      <c r="J342" s="49"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="20"/>
-      <c r="F343" s="50"/>
-      <c r="G343" s="51"/>
-      <c r="H343" s="51"/>
-      <c r="I343" s="51"/>
-      <c r="J343" s="51"/>
+      <c r="F343" s="48"/>
+      <c r="G343" s="49"/>
+      <c r="H343" s="49"/>
+      <c r="I343" s="49"/>
+      <c r="J343" s="49"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="20"/>
-      <c r="F344" s="50"/>
-      <c r="G344" s="51"/>
-      <c r="H344" s="51"/>
-      <c r="I344" s="51"/>
-      <c r="J344" s="51"/>
+      <c r="F344" s="48"/>
+      <c r="G344" s="49"/>
+      <c r="H344" s="49"/>
+      <c r="I344" s="49"/>
+      <c r="J344" s="49"/>
     </row>
     <row r="345" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A345" s="53" t="s">
+      <c r="A345" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="B345" s="53"/>
-      <c r="C345" s="53"/>
-      <c r="D345" s="53"/>
-      <c r="E345" s="53"/>
-      <c r="F345" s="50"/>
-      <c r="G345" s="51"/>
-      <c r="H345" s="51"/>
-      <c r="I345" s="51"/>
-      <c r="J345" s="51"/>
+      <c r="B345" s="55"/>
+      <c r="C345" s="55"/>
+      <c r="D345" s="55"/>
+      <c r="E345" s="55"/>
+      <c r="F345" s="48"/>
+      <c r="G345" s="49"/>
+      <c r="H345" s="49"/>
+      <c r="I345" s="49"/>
+      <c r="J345" s="49"/>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="20" t="s">
@@ -7734,11 +7810,11 @@
       <c r="B346" t="s">
         <v>472</v>
       </c>
-      <c r="F346" s="50"/>
-      <c r="G346" s="51"/>
-      <c r="H346" s="51"/>
-      <c r="I346" s="51"/>
-      <c r="J346" s="51"/>
+      <c r="F346" s="48"/>
+      <c r="G346" s="49"/>
+      <c r="H346" s="49"/>
+      <c r="I346" s="49"/>
+      <c r="J346" s="49"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="20" t="s">
@@ -7747,11 +7823,11 @@
       <c r="B347" t="s">
         <v>499</v>
       </c>
-      <c r="F347" s="50"/>
-      <c r="G347" s="51"/>
-      <c r="H347" s="51"/>
-      <c r="I347" s="51"/>
-      <c r="J347" s="51"/>
+      <c r="F347" s="48"/>
+      <c r="G347" s="49"/>
+      <c r="H347" s="49"/>
+      <c r="I347" s="49"/>
+      <c r="J347" s="49"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="20" t="s">
@@ -7760,11 +7836,11 @@
       <c r="B348" t="s">
         <v>252</v>
       </c>
-      <c r="F348" s="50"/>
-      <c r="G348" s="51"/>
-      <c r="H348" s="51"/>
-      <c r="I348" s="51"/>
-      <c r="J348" s="51"/>
+      <c r="F348" s="48"/>
+      <c r="G348" s="49"/>
+      <c r="H348" s="49"/>
+      <c r="I348" s="49"/>
+      <c r="J348" s="49"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="20" t="s">
@@ -7773,11 +7849,11 @@
       <c r="B349" t="s">
         <v>272</v>
       </c>
-      <c r="F349" s="50"/>
-      <c r="G349" s="51"/>
-      <c r="H349" s="51"/>
-      <c r="I349" s="51"/>
-      <c r="J349" s="51"/>
+      <c r="F349" s="48"/>
+      <c r="G349" s="49"/>
+      <c r="H349" s="49"/>
+      <c r="I349" s="49"/>
+      <c r="J349" s="49"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="20" t="s">
@@ -7787,101 +7863,101 @@
         <v>276</v>
       </c>
       <c r="C350" s="54"/>
-      <c r="F350" s="50"/>
-      <c r="G350" s="51"/>
-      <c r="H350" s="51"/>
-      <c r="I350" s="51"/>
-      <c r="J350" s="51"/>
+      <c r="F350" s="48"/>
+      <c r="G350" s="49"/>
+      <c r="H350" s="49"/>
+      <c r="I350" s="49"/>
+      <c r="J350" s="49"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="20"/>
-      <c r="B351" s="49"/>
-      <c r="C351" s="49"/>
-      <c r="F351" s="50"/>
-      <c r="G351" s="51"/>
-      <c r="H351" s="51"/>
-      <c r="I351" s="51"/>
-      <c r="J351" s="51"/>
+      <c r="B351" s="47"/>
+      <c r="C351" s="47"/>
+      <c r="F351" s="48"/>
+      <c r="G351" s="49"/>
+      <c r="H351" s="49"/>
+      <c r="I351" s="49"/>
+      <c r="J351" s="49"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
-      <c r="B352" s="49"/>
-      <c r="C352" s="49"/>
-      <c r="F352" s="50"/>
-      <c r="G352" s="51"/>
-      <c r="H352" s="51"/>
-      <c r="I352" s="51"/>
-      <c r="J352" s="51"/>
+      <c r="B352" s="47"/>
+      <c r="C352" s="47"/>
+      <c r="F352" s="48"/>
+      <c r="G352" s="49"/>
+      <c r="H352" s="49"/>
+      <c r="I352" s="49"/>
+      <c r="J352" s="49"/>
     </row>
     <row r="353" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="53" t="s">
+      <c r="A353" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="B353" s="53"/>
-      <c r="C353" s="53"/>
-      <c r="D353" s="53"/>
-      <c r="E353" s="53"/>
-      <c r="F353" s="50"/>
-      <c r="G353" s="51"/>
-      <c r="H353" s="51"/>
-      <c r="I353" s="51"/>
-      <c r="J353" s="51"/>
+      <c r="B353" s="55"/>
+      <c r="C353" s="55"/>
+      <c r="D353" s="55"/>
+      <c r="E353" s="55"/>
+      <c r="F353" s="48"/>
+      <c r="G353" s="49"/>
+      <c r="H353" s="49"/>
+      <c r="I353" s="49"/>
+      <c r="J353" s="49"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B354" s="49" t="s">
+      <c r="B354" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="C354" s="49"/>
-      <c r="F354" s="50"/>
-      <c r="G354" s="51"/>
-      <c r="H354" s="51"/>
-      <c r="I354" s="51"/>
-      <c r="J354" s="51"/>
+      <c r="C354" s="47"/>
+      <c r="F354" s="48"/>
+      <c r="G354" s="49"/>
+      <c r="H354" s="49"/>
+      <c r="I354" s="49"/>
+      <c r="J354" s="49"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B355" s="49" t="s">
+      <c r="B355" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="C355" s="49"/>
-      <c r="F355" s="50"/>
-      <c r="G355" s="51"/>
-      <c r="H355" s="51"/>
-      <c r="I355" s="51"/>
-      <c r="J355" s="51"/>
+      <c r="C355" s="47"/>
+      <c r="F355" s="48"/>
+      <c r="G355" s="49"/>
+      <c r="H355" s="49"/>
+      <c r="I355" s="49"/>
+      <c r="J355" s="49"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B356" s="49" t="s">
+      <c r="B356" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="C356" s="49"/>
-      <c r="F356" s="50"/>
-      <c r="G356" s="51"/>
-      <c r="H356" s="51"/>
-      <c r="I356" s="51"/>
-      <c r="J356" s="51"/>
+      <c r="C356" s="47"/>
+      <c r="F356" s="48"/>
+      <c r="G356" s="49"/>
+      <c r="H356" s="49"/>
+      <c r="I356" s="49"/>
+      <c r="J356" s="49"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B357" s="49" t="s">
+      <c r="B357" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="C357" s="49"/>
-      <c r="F357" s="50"/>
-      <c r="G357" s="51"/>
-      <c r="H357" s="51"/>
-      <c r="I357" s="51"/>
-      <c r="J357" s="51"/>
+      <c r="C357" s="47"/>
+      <c r="F357" s="48"/>
+      <c r="G357" s="49"/>
+      <c r="H357" s="49"/>
+      <c r="I357" s="49"/>
+      <c r="J357" s="49"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
@@ -7891,45 +7967,45 @@
         <v>276</v>
       </c>
       <c r="C358" s="54"/>
-      <c r="F358" s="50"/>
-      <c r="G358" s="51"/>
-      <c r="H358" s="51"/>
-      <c r="I358" s="51"/>
-      <c r="J358" s="51"/>
+      <c r="F358" s="48"/>
+      <c r="G358" s="49"/>
+      <c r="H358" s="49"/>
+      <c r="I358" s="49"/>
+      <c r="J358" s="49"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="20"/>
-      <c r="B359" s="49"/>
-      <c r="C359" s="49"/>
-      <c r="F359" s="50"/>
-      <c r="G359" s="51"/>
-      <c r="H359" s="51"/>
-      <c r="I359" s="51"/>
-      <c r="J359" s="51"/>
+      <c r="B359" s="47"/>
+      <c r="C359" s="47"/>
+      <c r="F359" s="48"/>
+      <c r="G359" s="49"/>
+      <c r="H359" s="49"/>
+      <c r="I359" s="49"/>
+      <c r="J359" s="49"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="20"/>
-      <c r="B360" s="49"/>
-      <c r="C360" s="49"/>
-      <c r="F360" s="50"/>
-      <c r="G360" s="51"/>
-      <c r="H360" s="51"/>
-      <c r="I360" s="51"/>
-      <c r="J360" s="51"/>
+      <c r="B360" s="47"/>
+      <c r="C360" s="47"/>
+      <c r="F360" s="48"/>
+      <c r="G360" s="49"/>
+      <c r="H360" s="49"/>
+      <c r="I360" s="49"/>
+      <c r="J360" s="49"/>
     </row>
     <row r="361" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A361" s="53" t="s">
+      <c r="A361" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="B361" s="53"/>
-      <c r="C361" s="53"/>
-      <c r="D361" s="53"/>
-      <c r="E361" s="53"/>
-      <c r="F361" s="50"/>
-      <c r="G361" s="51"/>
-      <c r="H361" s="51"/>
-      <c r="I361" s="51"/>
-      <c r="J361" s="51"/>
+      <c r="B361" s="55"/>
+      <c r="C361" s="55"/>
+      <c r="D361" s="55"/>
+      <c r="E361" s="55"/>
+      <c r="F361" s="48"/>
+      <c r="G361" s="49"/>
+      <c r="H361" s="49"/>
+      <c r="I361" s="49"/>
+      <c r="J361" s="49"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="20" t="s">
@@ -7938,11 +8014,11 @@
       <c r="B362" t="s">
         <v>474</v>
       </c>
-      <c r="F362" s="50"/>
-      <c r="G362" s="51"/>
-      <c r="H362" s="51"/>
-      <c r="I362" s="51"/>
-      <c r="J362" s="51"/>
+      <c r="F362" s="48"/>
+      <c r="G362" s="49"/>
+      <c r="H362" s="49"/>
+      <c r="I362" s="49"/>
+      <c r="J362" s="49"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="20" t="s">
@@ -7951,11 +8027,11 @@
       <c r="B363" t="s">
         <v>499</v>
       </c>
-      <c r="F363" s="50"/>
-      <c r="G363" s="51"/>
-      <c r="H363" s="51"/>
-      <c r="I363" s="51"/>
-      <c r="J363" s="51"/>
+      <c r="F363" s="48"/>
+      <c r="G363" s="49"/>
+      <c r="H363" s="49"/>
+      <c r="I363" s="49"/>
+      <c r="J363" s="49"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="20" t="s">
@@ -7964,11 +8040,11 @@
       <c r="B364" t="s">
         <v>252</v>
       </c>
-      <c r="F364" s="50"/>
-      <c r="G364" s="51"/>
-      <c r="H364" s="51"/>
-      <c r="I364" s="51"/>
-      <c r="J364" s="51"/>
+      <c r="F364" s="48"/>
+      <c r="G364" s="49"/>
+      <c r="H364" s="49"/>
+      <c r="I364" s="49"/>
+      <c r="J364" s="49"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="20" t="s">
@@ -7977,11 +8053,11 @@
       <c r="B365" t="s">
         <v>272</v>
       </c>
-      <c r="F365" s="50"/>
-      <c r="G365" s="51"/>
-      <c r="H365" s="51"/>
-      <c r="I365" s="51"/>
-      <c r="J365" s="51"/>
+      <c r="F365" s="48"/>
+      <c r="G365" s="49"/>
+      <c r="H365" s="49"/>
+      <c r="I365" s="49"/>
+      <c r="J365" s="49"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="20" t="s">
@@ -7991,41 +8067,41 @@
         <v>276</v>
       </c>
       <c r="C366" s="54"/>
-      <c r="F366" s="50"/>
-      <c r="G366" s="51"/>
-      <c r="H366" s="51"/>
-      <c r="I366" s="51"/>
-      <c r="J366" s="51"/>
+      <c r="F366" s="48"/>
+      <c r="G366" s="49"/>
+      <c r="H366" s="49"/>
+      <c r="I366" s="49"/>
+      <c r="J366" s="49"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
-      <c r="F367" s="50"/>
-      <c r="G367" s="51"/>
-      <c r="H367" s="51"/>
-      <c r="I367" s="51"/>
-      <c r="J367" s="51"/>
+      <c r="F367" s="48"/>
+      <c r="G367" s="49"/>
+      <c r="H367" s="49"/>
+      <c r="I367" s="49"/>
+      <c r="J367" s="49"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
-      <c r="F368" s="50"/>
-      <c r="G368" s="51"/>
-      <c r="H368" s="51"/>
-      <c r="I368" s="51"/>
-      <c r="J368" s="51"/>
+      <c r="F368" s="48"/>
+      <c r="G368" s="49"/>
+      <c r="H368" s="49"/>
+      <c r="I368" s="49"/>
+      <c r="J368" s="49"/>
     </row>
     <row r="369" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="53" t="s">
+      <c r="A369" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="B369" s="53"/>
-      <c r="C369" s="53"/>
-      <c r="D369" s="53"/>
-      <c r="E369" s="53"/>
-      <c r="F369" s="50"/>
-      <c r="G369" s="51"/>
-      <c r="H369" s="51"/>
-      <c r="I369" s="51"/>
-      <c r="J369" s="51"/>
+      <c r="B369" s="55"/>
+      <c r="C369" s="55"/>
+      <c r="D369" s="55"/>
+      <c r="E369" s="55"/>
+      <c r="F369" s="48"/>
+      <c r="G369" s="49"/>
+      <c r="H369" s="49"/>
+      <c r="I369" s="49"/>
+      <c r="J369" s="49"/>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="20" t="s">
@@ -8034,11 +8110,11 @@
       <c r="B370" t="s">
         <v>475</v>
       </c>
-      <c r="F370" s="50"/>
-      <c r="G370" s="51"/>
-      <c r="H370" s="51"/>
-      <c r="I370" s="51"/>
-      <c r="J370" s="51"/>
+      <c r="F370" s="48"/>
+      <c r="G370" s="49"/>
+      <c r="H370" s="49"/>
+      <c r="I370" s="49"/>
+      <c r="J370" s="49"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="20" t="s">
@@ -8047,11 +8123,11 @@
       <c r="B371" t="s">
         <v>499</v>
       </c>
-      <c r="F371" s="50"/>
-      <c r="G371" s="51"/>
-      <c r="H371" s="51"/>
-      <c r="I371" s="51"/>
-      <c r="J371" s="51"/>
+      <c r="F371" s="48"/>
+      <c r="G371" s="49"/>
+      <c r="H371" s="49"/>
+      <c r="I371" s="49"/>
+      <c r="J371" s="49"/>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="20" t="s">
@@ -8060,11 +8136,11 @@
       <c r="B372" t="s">
         <v>252</v>
       </c>
-      <c r="F372" s="50"/>
-      <c r="G372" s="51"/>
-      <c r="H372" s="51"/>
-      <c r="I372" s="51"/>
-      <c r="J372" s="51"/>
+      <c r="F372" s="48"/>
+      <c r="G372" s="49"/>
+      <c r="H372" s="49"/>
+      <c r="I372" s="49"/>
+      <c r="J372" s="49"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
@@ -8073,11 +8149,11 @@
       <c r="B373" t="s">
         <v>272</v>
       </c>
-      <c r="F373" s="50"/>
-      <c r="G373" s="51"/>
-      <c r="H373" s="51"/>
-      <c r="I373" s="51"/>
-      <c r="J373" s="51"/>
+      <c r="F373" s="48"/>
+      <c r="G373" s="49"/>
+      <c r="H373" s="49"/>
+      <c r="I373" s="49"/>
+      <c r="J373" s="49"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="20" t="s">
@@ -8087,41 +8163,41 @@
         <v>276</v>
       </c>
       <c r="C374" s="54"/>
-      <c r="F374" s="50"/>
-      <c r="G374" s="51"/>
-      <c r="H374" s="51"/>
-      <c r="I374" s="51"/>
-      <c r="J374" s="51"/>
+      <c r="F374" s="48"/>
+      <c r="G374" s="49"/>
+      <c r="H374" s="49"/>
+      <c r="I374" s="49"/>
+      <c r="J374" s="49"/>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="20"/>
-      <c r="F375" s="50"/>
-      <c r="G375" s="51"/>
-      <c r="H375" s="51"/>
-      <c r="I375" s="51"/>
-      <c r="J375" s="51"/>
+      <c r="F375" s="48"/>
+      <c r="G375" s="49"/>
+      <c r="H375" s="49"/>
+      <c r="I375" s="49"/>
+      <c r="J375" s="49"/>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="20"/>
-      <c r="F376" s="50"/>
-      <c r="G376" s="51"/>
-      <c r="H376" s="51"/>
-      <c r="I376" s="51"/>
-      <c r="J376" s="51"/>
+      <c r="F376" s="48"/>
+      <c r="G376" s="49"/>
+      <c r="H376" s="49"/>
+      <c r="I376" s="49"/>
+      <c r="J376" s="49"/>
     </row>
     <row r="377" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A377" s="53" t="s">
+      <c r="A377" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="B377" s="53"/>
-      <c r="C377" s="53"/>
-      <c r="D377" s="53"/>
-      <c r="E377" s="53"/>
-      <c r="F377" s="50"/>
-      <c r="G377" s="51"/>
-      <c r="H377" s="51"/>
-      <c r="I377" s="51"/>
-      <c r="J377" s="51"/>
+      <c r="B377" s="55"/>
+      <c r="C377" s="55"/>
+      <c r="D377" s="55"/>
+      <c r="E377" s="55"/>
+      <c r="F377" s="48"/>
+      <c r="G377" s="49"/>
+      <c r="H377" s="49"/>
+      <c r="I377" s="49"/>
+      <c r="J377" s="49"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
@@ -8130,11 +8206,11 @@
       <c r="B378" t="s">
         <v>488</v>
       </c>
-      <c r="F378" s="50"/>
-      <c r="G378" s="51"/>
-      <c r="H378" s="51"/>
-      <c r="I378" s="51"/>
-      <c r="J378" s="51"/>
+      <c r="F378" s="48"/>
+      <c r="G378" s="49"/>
+      <c r="H378" s="49"/>
+      <c r="I378" s="49"/>
+      <c r="J378" s="49"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="20" t="s">
@@ -8143,11 +8219,11 @@
       <c r="B379" t="s">
         <v>499</v>
       </c>
-      <c r="F379" s="50"/>
-      <c r="G379" s="51"/>
-      <c r="H379" s="51"/>
-      <c r="I379" s="51"/>
-      <c r="J379" s="51"/>
+      <c r="F379" s="48"/>
+      <c r="G379" s="49"/>
+      <c r="H379" s="49"/>
+      <c r="I379" s="49"/>
+      <c r="J379" s="49"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="20" t="s">
@@ -8156,11 +8232,11 @@
       <c r="B380" t="s">
         <v>252</v>
       </c>
-      <c r="F380" s="50"/>
-      <c r="G380" s="51"/>
-      <c r="H380" s="51"/>
-      <c r="I380" s="51"/>
-      <c r="J380" s="51"/>
+      <c r="F380" s="48"/>
+      <c r="G380" s="49"/>
+      <c r="H380" s="49"/>
+      <c r="I380" s="49"/>
+      <c r="J380" s="49"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="20" t="s">
@@ -8169,11 +8245,11 @@
       <c r="B381" t="s">
         <v>272</v>
       </c>
-      <c r="F381" s="50"/>
-      <c r="G381" s="51"/>
-      <c r="H381" s="51"/>
-      <c r="I381" s="51"/>
-      <c r="J381" s="51"/>
+      <c r="F381" s="48"/>
+      <c r="G381" s="49"/>
+      <c r="H381" s="49"/>
+      <c r="I381" s="49"/>
+      <c r="J381" s="49"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="20" t="s">
@@ -8183,41 +8259,41 @@
         <v>276</v>
       </c>
       <c r="C382" s="54"/>
-      <c r="F382" s="50"/>
-      <c r="G382" s="51"/>
-      <c r="H382" s="51"/>
-      <c r="I382" s="51"/>
-      <c r="J382" s="51"/>
+      <c r="F382" s="48"/>
+      <c r="G382" s="49"/>
+      <c r="H382" s="49"/>
+      <c r="I382" s="49"/>
+      <c r="J382" s="49"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="20"/>
-      <c r="F383" s="50"/>
-      <c r="G383" s="51"/>
-      <c r="H383" s="51"/>
-      <c r="I383" s="51"/>
-      <c r="J383" s="51"/>
+      <c r="F383" s="48"/>
+      <c r="G383" s="49"/>
+      <c r="H383" s="49"/>
+      <c r="I383" s="49"/>
+      <c r="J383" s="49"/>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="20"/>
-      <c r="F384" s="50"/>
-      <c r="G384" s="51"/>
-      <c r="H384" s="51"/>
-      <c r="I384" s="51"/>
-      <c r="J384" s="51"/>
+      <c r="F384" s="48"/>
+      <c r="G384" s="49"/>
+      <c r="H384" s="49"/>
+      <c r="I384" s="49"/>
+      <c r="J384" s="49"/>
     </row>
     <row r="385" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="53" t="s">
+      <c r="A385" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="B385" s="53"/>
-      <c r="C385" s="53"/>
-      <c r="D385" s="53"/>
-      <c r="E385" s="53"/>
-      <c r="F385" s="50"/>
-      <c r="G385" s="51"/>
-      <c r="H385" s="51"/>
-      <c r="I385" s="51"/>
-      <c r="J385" s="51"/>
+      <c r="B385" s="55"/>
+      <c r="C385" s="55"/>
+      <c r="D385" s="55"/>
+      <c r="E385" s="55"/>
+      <c r="F385" s="48"/>
+      <c r="G385" s="49"/>
+      <c r="H385" s="49"/>
+      <c r="I385" s="49"/>
+      <c r="J385" s="49"/>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="20" t="s">
@@ -8226,11 +8302,11 @@
       <c r="B386" t="s">
         <v>476</v>
       </c>
-      <c r="F386" s="50"/>
-      <c r="G386" s="51"/>
-      <c r="H386" s="51"/>
-      <c r="I386" s="51"/>
-      <c r="J386" s="51"/>
+      <c r="F386" s="48"/>
+      <c r="G386" s="49"/>
+      <c r="H386" s="49"/>
+      <c r="I386" s="49"/>
+      <c r="J386" s="49"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
@@ -8239,11 +8315,11 @@
       <c r="B387" t="s">
         <v>499</v>
       </c>
-      <c r="F387" s="50"/>
-      <c r="G387" s="51"/>
-      <c r="H387" s="51"/>
-      <c r="I387" s="51"/>
-      <c r="J387" s="51"/>
+      <c r="F387" s="48"/>
+      <c r="G387" s="49"/>
+      <c r="H387" s="49"/>
+      <c r="I387" s="49"/>
+      <c r="J387" s="49"/>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="20" t="s">
@@ -8252,11 +8328,11 @@
       <c r="B388" t="s">
         <v>252</v>
       </c>
-      <c r="F388" s="50"/>
-      <c r="G388" s="51"/>
-      <c r="H388" s="51"/>
-      <c r="I388" s="51"/>
-      <c r="J388" s="51"/>
+      <c r="F388" s="48"/>
+      <c r="G388" s="49"/>
+      <c r="H388" s="49"/>
+      <c r="I388" s="49"/>
+      <c r="J388" s="49"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="20" t="s">
@@ -8265,11 +8341,11 @@
       <c r="B389" t="s">
         <v>272</v>
       </c>
-      <c r="F389" s="50"/>
-      <c r="G389" s="51"/>
-      <c r="H389" s="51"/>
-      <c r="I389" s="51"/>
-      <c r="J389" s="51"/>
+      <c r="F389" s="48"/>
+      <c r="G389" s="49"/>
+      <c r="H389" s="49"/>
+      <c r="I389" s="49"/>
+      <c r="J389" s="49"/>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="20" t="s">
@@ -8279,41 +8355,41 @@
         <v>503</v>
       </c>
       <c r="C390" s="54"/>
-      <c r="F390" s="50"/>
-      <c r="G390" s="51"/>
-      <c r="H390" s="51"/>
-      <c r="I390" s="51"/>
-      <c r="J390" s="51"/>
+      <c r="F390" s="48"/>
+      <c r="G390" s="49"/>
+      <c r="H390" s="49"/>
+      <c r="I390" s="49"/>
+      <c r="J390" s="49"/>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="20"/>
-      <c r="F391" s="50"/>
-      <c r="G391" s="51"/>
-      <c r="H391" s="51"/>
-      <c r="I391" s="51"/>
-      <c r="J391" s="51"/>
+      <c r="F391" s="48"/>
+      <c r="G391" s="49"/>
+      <c r="H391" s="49"/>
+      <c r="I391" s="49"/>
+      <c r="J391" s="49"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="20"/>
-      <c r="F392" s="50"/>
-      <c r="G392" s="51"/>
-      <c r="H392" s="51"/>
-      <c r="I392" s="51"/>
-      <c r="J392" s="51"/>
+      <c r="F392" s="48"/>
+      <c r="G392" s="49"/>
+      <c r="H392" s="49"/>
+      <c r="I392" s="49"/>
+      <c r="J392" s="49"/>
     </row>
     <row r="393" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="53" t="s">
+      <c r="A393" s="55" t="s">
         <v>504</v>
       </c>
-      <c r="B393" s="53"/>
-      <c r="C393" s="53"/>
-      <c r="D393" s="53"/>
-      <c r="E393" s="53"/>
-      <c r="F393" s="50"/>
-      <c r="G393" s="51"/>
-      <c r="H393" s="51"/>
-      <c r="I393" s="51"/>
-      <c r="J393" s="51"/>
+      <c r="B393" s="55"/>
+      <c r="C393" s="55"/>
+      <c r="D393" s="55"/>
+      <c r="E393" s="55"/>
+      <c r="F393" s="48"/>
+      <c r="G393" s="49"/>
+      <c r="H393" s="49"/>
+      <c r="I393" s="49"/>
+      <c r="J393" s="49"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="20" t="s">
@@ -8322,11 +8398,11 @@
       <c r="B394" t="s">
         <v>505</v>
       </c>
-      <c r="F394" s="50"/>
-      <c r="G394" s="51"/>
-      <c r="H394" s="51"/>
-      <c r="I394" s="51"/>
-      <c r="J394" s="51"/>
+      <c r="F394" s="48"/>
+      <c r="G394" s="49"/>
+      <c r="H394" s="49"/>
+      <c r="I394" s="49"/>
+      <c r="J394" s="49"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="20" t="s">
@@ -8335,11 +8411,11 @@
       <c r="B395" t="s">
         <v>499</v>
       </c>
-      <c r="F395" s="50"/>
-      <c r="G395" s="51"/>
-      <c r="H395" s="51"/>
-      <c r="I395" s="51"/>
-      <c r="J395" s="51"/>
+      <c r="F395" s="48"/>
+      <c r="G395" s="49"/>
+      <c r="H395" s="49"/>
+      <c r="I395" s="49"/>
+      <c r="J395" s="49"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="20" t="s">
@@ -8348,11 +8424,11 @@
       <c r="B396" t="s">
         <v>252</v>
       </c>
-      <c r="F396" s="50"/>
-      <c r="G396" s="51"/>
-      <c r="H396" s="51"/>
-      <c r="I396" s="51"/>
-      <c r="J396" s="51"/>
+      <c r="F396" s="48"/>
+      <c r="G396" s="49"/>
+      <c r="H396" s="49"/>
+      <c r="I396" s="49"/>
+      <c r="J396" s="49"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="20" t="s">
@@ -8361,11 +8437,11 @@
       <c r="B397" t="s">
         <v>272</v>
       </c>
-      <c r="F397" s="50"/>
-      <c r="G397" s="51"/>
-      <c r="H397" s="51"/>
-      <c r="I397" s="51"/>
-      <c r="J397" s="51"/>
+      <c r="F397" s="48"/>
+      <c r="G397" s="49"/>
+      <c r="H397" s="49"/>
+      <c r="I397" s="49"/>
+      <c r="J397" s="49"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="20" t="s">
@@ -8375,95 +8451,142 @@
         <v>503</v>
       </c>
       <c r="C398" s="54"/>
-      <c r="F398" s="50"/>
-      <c r="G398" s="51"/>
-      <c r="H398" s="51"/>
-      <c r="I398" s="51"/>
-      <c r="J398" s="51"/>
+      <c r="F398" s="48"/>
+      <c r="G398" s="49"/>
+      <c r="H398" s="49"/>
+      <c r="I398" s="49"/>
+      <c r="J398" s="49"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="20"/>
-      <c r="F399" s="50"/>
-      <c r="G399" s="51"/>
-      <c r="H399" s="51"/>
-      <c r="I399" s="51"/>
-      <c r="J399" s="51"/>
+      <c r="F399" s="48"/>
+      <c r="G399" s="49"/>
+      <c r="H399" s="49"/>
+      <c r="I399" s="49"/>
+      <c r="J399" s="49"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="20"/>
-      <c r="F400" s="50"/>
-      <c r="G400" s="51"/>
-      <c r="H400" s="51"/>
-      <c r="I400" s="51"/>
-      <c r="J400" s="51"/>
-    </row>
-    <row r="401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="B401" s="53"/>
-      <c r="C401" s="53"/>
-      <c r="D401" s="53"/>
-      <c r="E401" s="53"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="F400" s="48"/>
+      <c r="G400" s="49"/>
+      <c r="H400" s="49"/>
+      <c r="I400" s="49"/>
+      <c r="J400" s="49"/>
+    </row>
+    <row r="401" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="B401" s="55"/>
+      <c r="C401" s="55"/>
+      <c r="D401" s="55"/>
+      <c r="E401" s="55"/>
+      <c r="F401" s="51"/>
+      <c r="G401" s="50"/>
+      <c r="H401" s="50"/>
+      <c r="I401" s="50"/>
+      <c r="J401" s="50"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B402" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+        <v>130</v>
+      </c>
+      <c r="F402" s="51"/>
+      <c r="G402" s="50"/>
+      <c r="H402" s="50"/>
+      <c r="I402" s="50"/>
+      <c r="J402" s="50"/>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B403" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="F403" s="51"/>
+      <c r="G403" s="50"/>
+      <c r="H403" s="50"/>
+      <c r="I403" s="50"/>
+      <c r="J403" s="50"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="20" t="s">
         <v>255</v>
       </c>
       <c r="B404" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="F404" s="51"/>
+      <c r="G404" s="50"/>
+      <c r="H404" s="50"/>
+      <c r="I404" s="50"/>
+      <c r="J404" s="50"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="20" t="s">
         <v>256</v>
       </c>
       <c r="B405" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="F405" s="51"/>
+      <c r="G405" s="50"/>
+      <c r="H405" s="50"/>
+      <c r="I405" s="50"/>
+      <c r="J405" s="50"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B406" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A409" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B409" s="53"/>
-      <c r="C409" s="53"/>
-      <c r="D409" s="53"/>
-      <c r="E409" s="53"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B406" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="C406" s="54"/>
+      <c r="F406" s="51"/>
+      <c r="G406" s="50"/>
+      <c r="H406" s="50"/>
+      <c r="I406" s="50"/>
+      <c r="J406" s="50"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="20"/>
+      <c r="F407" s="51"/>
+      <c r="G407" s="50"/>
+      <c r="H407" s="50"/>
+      <c r="I407" s="50"/>
+      <c r="J407" s="50"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="20"/>
+      <c r="F408" s="51"/>
+      <c r="G408" s="50"/>
+      <c r="H408" s="50"/>
+      <c r="I408" s="50"/>
+      <c r="J408" s="50"/>
+    </row>
+    <row r="409" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A409" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B409" s="55"/>
+      <c r="C409" s="55"/>
+      <c r="D409" s="55"/>
+      <c r="E409" s="55"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>248</v>
       </c>
       <c r="B410" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2</v>
       </c>
@@ -8471,7 +8594,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>255</v>
       </c>
@@ -8479,7 +8602,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>256</v>
       </c>
@@ -8487,28 +8610,151 @@
         <v>272</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>249</v>
       </c>
       <c r="B414" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B417" s="55"/>
+      <c r="C417" s="55"/>
+      <c r="D417" s="55"/>
+      <c r="E417" s="55"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>248</v>
+      </c>
+      <c r="B418" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>2</v>
+      </c>
+      <c r="B419" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>255</v>
+      </c>
+      <c r="B420" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>256</v>
+      </c>
+      <c r="B421" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>249</v>
+      </c>
+      <c r="B422" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="A361:E361"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="A369:E369"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="A385:E385"/>
+  <mergeCells count="121">
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A305:E305"/>
+    <mergeCell ref="A313:E313"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B302:E302"/>
+    <mergeCell ref="B306:I306"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="H227:P227"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A417:E417"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="A281:E281"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="A289:E289"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="A297:E297"/>
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="A329:E329"/>
     <mergeCell ref="A337:E337"/>
@@ -8530,92 +8776,20 @@
     <mergeCell ref="H295:H296"/>
     <mergeCell ref="I295:I296"/>
     <mergeCell ref="J295:J296"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A228:E228"/>
-    <mergeCell ref="A235:E235"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="A289:E289"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="E201:G201"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="A259:E259"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="A281:E281"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="H227:P227"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A321:E321"/>
     <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A305:E305"/>
-    <mergeCell ref="A313:E313"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B306:I306"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="A361:E361"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="A369:E369"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="A385:E385"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2122" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8588D76-B053-4F38-90E3-122B87BB7CB9}"/>
+  <xr:revisionPtr revIDLastSave="2132" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7BC81CE-27C1-4CFA-A58C-9809E2480C52}"/>
   <bookViews>
-    <workbookView xWindow="21435" yWindow="3495" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="517">
   <si>
     <t>Variable</t>
   </si>
@@ -1574,6 +1574,18 @@
   </si>
   <si>
     <t>Adult Phyiscal Attack</t>
+  </si>
+  <si>
+    <t>H3SE13</t>
+  </si>
+  <si>
+    <t>Please choose the description that best fits how you think about yourself [sexuality]</t>
+  </si>
+  <si>
+    <t>(1-6,96, 98, 99)</t>
+  </si>
+  <si>
+    <t>Sexuality</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1874,39 +1886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1930,6 +1909,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2246,21 +2261,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="129.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.88671875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -2277,7 +2292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2309,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2343,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2464,7 +2479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2481,7 +2496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2532,7 +2547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2566,7 +2581,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2597,7 +2612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +2626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
@@ -2645,7 +2660,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2679,7 +2694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +2711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>3</v>
       </c>
@@ -2713,7 +2728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2798,7 +2813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2815,7 +2830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2832,7 +2847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2881,7 +2896,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2913,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2930,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2947,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2983,7 +2998,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3085,7 +3100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3102,7 +3117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3134,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3151,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3170,7 +3185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3187,7 +3202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3204,7 +3219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
@@ -3272,7 +3287,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
@@ -3289,7 +3304,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
@@ -3306,7 +3321,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>3</v>
       </c>
@@ -3323,7 +3338,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -3340,7 +3355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -3357,7 +3372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -3374,7 +3389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>49</v>
       </c>
@@ -3391,7 +3406,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>3</v>
       </c>
@@ -3408,7 +3423,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>49</v>
       </c>
@@ -3425,7 +3440,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>49</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3459,7 +3474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
@@ -3493,7 +3508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3527,7 +3542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3544,7 +3559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -3561,7 +3576,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +3593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3610,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3612,7 +3627,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +3644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3661,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3678,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -3680,7 +3695,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -3697,14 +3712,14 @@
         <v>487</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>49</v>
       </c>
       <c r="B86" t="s">
         <v>476</v>
       </c>
-      <c r="C86" s="71" t="s">
+      <c r="C86" s="60" t="s">
         <v>490</v>
       </c>
       <c r="D86" t="s">
@@ -3714,7 +3729,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -3731,7 +3746,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -3748,7 +3763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3780,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3797,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3799,7 +3814,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -3833,7 +3848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -3850,7 +3865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>63</v>
       </c>
@@ -3867,14 +3882,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>411</v>
       </c>
-      <c r="C96" s="68" t="s">
+      <c r="C96" s="57" t="s">
         <v>412</v>
       </c>
       <c r="D96" t="s">
@@ -3884,7 +3899,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>3</v>
       </c>
@@ -3918,7 +3933,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3952,7 +3967,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3984,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3986,7 +4001,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -4003,7 +4018,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -4020,14 +4035,14 @@
         <v>480</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>23</v>
       </c>
       <c r="B105" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="66" t="s">
+      <c r="C105" s="55" t="s">
         <v>241</v>
       </c>
       <c r="D105" t="s">
@@ -4037,14 +4052,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="72" t="s">
+      <c r="C106" s="61" t="s">
         <v>244</v>
       </c>
       <c r="D106" s="7" t="s">
@@ -4054,7 +4069,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4088,14 +4103,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109" t="s">
         <v>306</v>
       </c>
-      <c r="C109" s="66" t="s">
+      <c r="C109" s="55" t="s">
         <v>307</v>
       </c>
       <c r="D109" t="s">
@@ -4105,14 +4120,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>309</v>
       </c>
-      <c r="C110" s="66" t="s">
+      <c r="C110" s="55" t="s">
         <v>310</v>
       </c>
       <c r="D110" t="s">
@@ -4122,14 +4137,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="70" t="s">
+      <c r="C111" s="59" t="s">
         <v>47</v>
       </c>
       <c r="D111" s="7" t="s">
@@ -4139,14 +4154,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>49</v>
       </c>
       <c r="B112" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="66" t="s">
+      <c r="C112" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D112" t="s">
@@ -4156,14 +4171,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="69" t="s">
+      <c r="C113" s="58" t="s">
         <v>432</v>
       </c>
       <c r="D113" t="s">
@@ -4173,7 +4188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4190,7 +4205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -4207,7 +4222,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>63</v>
       </c>
@@ -4224,14 +4239,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117" t="s">
         <v>436</v>
       </c>
-      <c r="C117" s="65" t="s">
+      <c r="C117" s="54" t="s">
         <v>432</v>
       </c>
       <c r="D117" t="s">
@@ -4241,7 +4256,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -4258,14 +4273,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>49</v>
       </c>
       <c r="B119" t="s">
         <v>438</v>
       </c>
-      <c r="C119" s="69" t="s">
+      <c r="C119" s="58" t="s">
         <v>432</v>
       </c>
       <c r="D119" t="s">
@@ -4275,14 +4290,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>439</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="56" t="s">
         <v>440</v>
       </c>
       <c r="D120" t="s">
@@ -4292,7 +4307,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>63</v>
       </c>
@@ -4309,14 +4324,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" t="s">
         <v>442</v>
       </c>
-      <c r="C122" s="65" t="s">
+      <c r="C122" s="54" t="s">
         <v>440</v>
       </c>
       <c r="D122" t="s">
@@ -4326,14 +4341,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" t="s">
         <v>443</v>
       </c>
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="54" t="s">
         <v>440</v>
       </c>
       <c r="D123" t="s">
@@ -4343,14 +4358,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>49</v>
       </c>
       <c r="B124" t="s">
         <v>444</v>
       </c>
-      <c r="C124" s="65" t="s">
+      <c r="C124" s="54" t="s">
         <v>440</v>
       </c>
       <c r="D124" t="s">
@@ -4360,14 +4375,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125" t="s">
         <v>445</v>
       </c>
-      <c r="C125" s="65" t="s">
+      <c r="C125" s="54" t="s">
         <v>446</v>
       </c>
       <c r="D125" t="s">
@@ -4377,7 +4392,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -4394,7 +4409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -4411,7 +4426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -4428,7 +4443,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>49</v>
       </c>
@@ -4445,14 +4460,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130" t="s">
         <v>451</v>
       </c>
-      <c r="C130" s="69" t="s">
+      <c r="C130" s="58" t="s">
         <v>452</v>
       </c>
       <c r="D130" t="s">
@@ -4462,14 +4477,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>63</v>
       </c>
       <c r="B131" t="s">
         <v>97</v>
       </c>
-      <c r="C131" s="65" t="s">
+      <c r="C131" s="54" t="s">
         <v>452</v>
       </c>
       <c r="D131" t="s">
@@ -4479,14 +4494,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3</v>
       </c>
       <c r="B132" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="65" t="s">
+      <c r="C132" s="54" t="s">
         <v>452</v>
       </c>
       <c r="D132" t="s">
@@ -4496,14 +4511,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>49</v>
       </c>
       <c r="B133" t="s">
         <v>454</v>
       </c>
-      <c r="C133" s="65" t="s">
+      <c r="C133" s="54" t="s">
         <v>452</v>
       </c>
       <c r="D133" t="s">
@@ -4511,6 +4526,23 @@
       </c>
       <c r="E133" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>513</v>
+      </c>
+      <c r="C134" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="D134" t="s">
+        <v>515</v>
+      </c>
+      <c r="E134" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4530,247 +4562,247 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>164</v>
       </c>
@@ -4785,43 +4817,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
   <dimension ref="A1:P422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -4838,7 +4870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4846,7 +4878,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -4854,7 +4886,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>256</v>
       </c>
@@ -4862,29 +4894,29 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -4892,7 +4924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4900,7 +4932,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -4908,7 +4940,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -4916,38 +4948,38 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -4955,7 +4987,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>255</v>
       </c>
@@ -4963,7 +4995,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>256</v>
       </c>
@@ -4971,39 +5003,39 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="63"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -5011,7 +5043,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>255</v>
       </c>
@@ -5019,7 +5051,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -5027,34 +5059,34 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -5062,7 +5094,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -5070,7 +5102,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -5078,7 +5110,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -5086,29 +5118,29 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>249</v>
       </c>
       <c r="B42" t="s">
         <v>313</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>248</v>
       </c>
@@ -5116,7 +5148,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -5124,7 +5156,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>255</v>
       </c>
@@ -5132,7 +5164,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -5140,29 +5172,29 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>249</v>
       </c>
       <c r="B49" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -5170,7 +5202,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -5178,7 +5210,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -5186,7 +5218,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>256</v>
       </c>
@@ -5194,29 +5226,29 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>249</v>
       </c>
       <c r="B57" t="s">
         <v>355</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -5224,7 +5256,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -5232,7 +5264,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>255</v>
       </c>
@@ -5240,7 +5272,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>256</v>
       </c>
@@ -5248,7 +5280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>249</v>
       </c>
@@ -5256,26 +5288,26 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>248</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -5283,7 +5315,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -5291,7 +5323,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>256</v>
       </c>
@@ -5299,7 +5331,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -5307,16 +5339,16 @@
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
+    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>248</v>
       </c>
@@ -5324,16 +5356,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="54"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="63"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>255</v>
       </c>
@@ -5341,7 +5373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>256</v>
       </c>
@@ -5349,7 +5381,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -5357,16 +5389,16 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>248</v>
       </c>
@@ -5383,18 +5415,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -5402,7 +5434,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -5410,7 +5442,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>249</v>
       </c>
@@ -5423,16 +5455,16 @@
       <c r="D89" s="64"/>
       <c r="E89" s="64"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="55" t="s">
+    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -5440,7 +5472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -5448,7 +5480,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -5456,7 +5488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -5464,21 +5496,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="55" t="s">
+    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>248</v>
       </c>
@@ -5486,7 +5518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -5494,7 +5526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>255</v>
       </c>
@@ -5502,7 +5534,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>256</v>
       </c>
@@ -5510,21 +5542,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
+    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>248</v>
       </c>
@@ -5532,7 +5564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -5540,7 +5572,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -5548,7 +5580,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>256</v>
       </c>
@@ -5556,26 +5588,26 @@
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-    </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="55" t="s">
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>248</v>
       </c>
@@ -5583,20 +5615,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>2</v>
       </c>
       <c r="B118" t="s">
         <v>278</v>
       </c>
-      <c r="G118" s="61" t="s">
+      <c r="G118" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="65"/>
+      <c r="I118" s="65"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>255</v>
       </c>
@@ -5613,7 +5645,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -5633,7 +5665,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -5653,7 +5685,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
         <v>252</v>
       </c>
@@ -5667,16 +5699,16 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="55" t="s">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="62"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -5687,7 +5719,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -5698,7 +5730,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>255</v>
       </c>
@@ -5706,13 +5738,13 @@
         <v>252</v>
       </c>
       <c r="E127" s="13"/>
-      <c r="G127" s="61" t="s">
+      <c r="G127" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="61"/>
-      <c r="I127" s="61"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>256</v>
       </c>
@@ -5730,7 +5762,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -5751,7 +5783,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
         <v>269</v>
       </c>
@@ -5765,7 +5797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F131" t="s">
         <v>252</v>
       </c>
@@ -5779,16 +5811,16 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="55" t="s">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="62"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>248</v>
       </c>
@@ -5799,7 +5831,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5807,47 +5839,47 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>255</v>
       </c>
       <c r="B135" t="s">
         <v>252</v>
       </c>
-      <c r="E135" s="58" t="s">
+      <c r="E135" s="68" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>256</v>
       </c>
       <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="E136" s="58"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E136" s="68"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>249</v>
       </c>
-      <c r="B137" s="54" t="s">
+      <c r="B137" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C137" s="54"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="58"/>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="55" t="s">
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="68"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B140" s="55"/>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="62"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>248</v>
       </c>
@@ -5855,7 +5887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -5863,7 +5895,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>255</v>
       </c>
@@ -5871,7 +5903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>256</v>
       </c>
@@ -5879,7 +5911,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>249</v>
       </c>
@@ -5887,21 +5919,21 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F147" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="55" t="s">
+    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="55"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="55"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="62"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>248</v>
       </c>
@@ -5909,7 +5941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -5917,7 +5949,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>255</v>
       </c>
@@ -5925,7 +5957,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>256</v>
       </c>
@@ -5933,27 +5965,27 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>249</v>
       </c>
-      <c r="B153" s="54" t="s">
+      <c r="B153" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="C153" s="54"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="55" t="s">
+      <c r="C153" s="63"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="63"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="55"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="62"/>
+      <c r="C156" s="62"/>
+      <c r="D156" s="62"/>
+      <c r="E156" s="62"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>248</v>
       </c>
@@ -5964,7 +5996,7 @@
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -5975,7 +6007,7 @@
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>255</v>
       </c>
@@ -5986,7 +6018,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>256</v>
       </c>
@@ -5997,41 +6029,41 @@
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
     </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>249</v>
       </c>
-      <c r="B161" s="60" t="s">
+      <c r="B161" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
       <c r="E161" s="12"/>
     </row>
-    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
     </row>
-    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
     </row>
-    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="55" t="s">
+    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="55"/>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" s="62"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="62"/>
+      <c r="E164" s="62"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>248</v>
       </c>
@@ -6042,7 +6074,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -6053,7 +6085,7 @@
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>255</v>
       </c>
@@ -6064,7 +6096,7 @@
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>256</v>
       </c>
@@ -6075,33 +6107,33 @@
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>249</v>
       </c>
-      <c r="B169" s="54" t="s">
+      <c r="B169" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C169" s="63"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="63"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
     </row>
-    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="55" t="s">
+    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="B172" s="55"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="62"/>
+      <c r="E172" s="62"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>248</v>
       </c>
@@ -6112,7 +6144,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
     </row>
-    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -6123,7 +6155,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
     </row>
-    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -6134,7 +6166,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
     </row>
-    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>256</v>
       </c>
@@ -6145,36 +6177,36 @@
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>249</v>
       </c>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="C177" s="54"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="54"/>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="55" t="s">
+      <c r="C177" s="63"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="63"/>
+    </row>
+    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="B180" s="55"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="54" t="s">
+      <c r="B181" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="C181" s="54"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="63"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -6182,7 +6214,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>255</v>
       </c>
@@ -6190,7 +6222,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>256</v>
       </c>
@@ -6198,35 +6230,35 @@
         <v>279</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>249</v>
       </c>
-      <c r="B185" s="61" t="s">
+      <c r="B185" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="61"/>
-      <c r="D185" s="61"/>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="55" t="s">
+      <c r="C185" s="65"/>
+      <c r="D185" s="65"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="B188" s="55"/>
-      <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="55"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="62"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="62"/>
+      <c r="E188" s="62"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>248</v>
       </c>
-      <c r="B189" s="54" t="s">
+      <c r="B189" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="C189" s="54"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="63"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -6234,7 +6266,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>255</v>
       </c>
@@ -6242,7 +6274,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>256</v>
       </c>
@@ -6250,31 +6282,31 @@
         <v>279</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>249</v>
       </c>
-      <c r="B193" s="61" t="s">
+      <c r="B193" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="C193" s="61"/>
-      <c r="D193" s="61"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C193" s="65"/>
+      <c r="D193" s="65"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="55" t="s">
+    <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="B196" s="55"/>
-      <c r="C196" s="55"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="55"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="62"/>
+      <c r="C196" s="62"/>
+      <c r="D196" s="62"/>
+      <c r="E196" s="62"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>248</v>
       </c>
@@ -6285,7 +6317,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>255</v>
       </c>
@@ -6301,7 +6333,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>256</v>
       </c>
@@ -6309,31 +6341,31 @@
         <v>279</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>249</v>
       </c>
-      <c r="B201" s="54" t="s">
+      <c r="B201" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="C201" s="54"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54" t="s">
+      <c r="C201" s="63"/>
+      <c r="D201" s="63"/>
+      <c r="E201" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="F201" s="54"/>
-      <c r="G201" s="54"/>
-    </row>
-    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="55" t="s">
+      <c r="F201" s="63"/>
+      <c r="G201" s="63"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="B204" s="55"/>
-      <c r="C204" s="55"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="55"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="62"/>
+      <c r="C204" s="62"/>
+      <c r="D204" s="62"/>
+      <c r="E204" s="62"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>248</v>
       </c>
@@ -6341,7 +6373,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -6349,7 +6381,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>255</v>
       </c>
@@ -6357,7 +6389,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>256</v>
       </c>
@@ -6365,26 +6397,26 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>249</v>
       </c>
-      <c r="B209" s="54" t="s">
+      <c r="B209" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="C209" s="54"/>
-      <c r="D209" s="54"/>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="55" t="s">
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="B212" s="55"/>
-      <c r="C212" s="55"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="55"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="62"/>
+      <c r="C212" s="62"/>
+      <c r="D212" s="62"/>
+      <c r="E212" s="62"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>248</v>
       </c>
@@ -6392,7 +6424,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -6400,7 +6432,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>255</v>
       </c>
@@ -6408,7 +6440,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>256</v>
       </c>
@@ -6416,7 +6448,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>249</v>
       </c>
@@ -6424,16 +6456,16 @@
         <v>336</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="55" t="s">
+    <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="B220" s="55"/>
-      <c r="C220" s="55"/>
-      <c r="D220" s="55"/>
-      <c r="E220" s="55"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="62"/>
+      <c r="C220" s="62"/>
+      <c r="D220" s="62"/>
+      <c r="E220" s="62"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>248</v>
       </c>
@@ -6441,7 +6473,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -6449,7 +6481,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>255</v>
       </c>
@@ -6457,7 +6489,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>256</v>
       </c>
@@ -6465,7 +6497,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>249</v>
       </c>
@@ -6473,29 +6505,29 @@
         <v>325</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H227" s="61"/>
-      <c r="I227" s="61"/>
-      <c r="J227" s="61"/>
-      <c r="K227" s="61"/>
-      <c r="L227" s="61"/>
-      <c r="M227" s="61"/>
-      <c r="N227" s="61"/>
-      <c r="O227" s="61"/>
-      <c r="P227" s="61"/>
-    </row>
-    <row r="228" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="55" t="s">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="65"/>
+      <c r="L227" s="65"/>
+      <c r="M227" s="65"/>
+      <c r="N227" s="65"/>
+      <c r="O227" s="65"/>
+      <c r="P227" s="65"/>
+    </row>
+    <row r="228" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B228" s="55"/>
-      <c r="C228" s="55"/>
-      <c r="D228" s="55"/>
-      <c r="E228" s="55"/>
+      <c r="B228" s="62"/>
+      <c r="C228" s="62"/>
+      <c r="D228" s="62"/>
+      <c r="E228" s="62"/>
       <c r="F228" s="16"/>
       <c r="G228" s="11"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -6505,7 +6537,7 @@
       <c r="F229" s="16"/>
       <c r="G229" s="11"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -6515,7 +6547,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="11"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>255</v>
       </c>
@@ -6525,7 +6557,7 @@
       <c r="F231" s="16"/>
       <c r="G231" s="11"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>256</v>
       </c>
@@ -6535,29 +6567,29 @@
       <c r="F232" s="16"/>
       <c r="G232" s="11"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>249</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="11"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F234" s="16"/>
       <c r="G234" s="11"/>
     </row>
-    <row r="235" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="55" t="s">
+    <row r="235" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="B235" s="55"/>
-      <c r="C235" s="55"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="62"/>
+      <c r="D235" s="62"/>
+      <c r="E235" s="62"/>
       <c r="F235" s="16"/>
       <c r="G235" s="11"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -6567,7 +6599,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="11"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -6577,7 +6609,7 @@
       <c r="F237" s="16"/>
       <c r="G237" s="11"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>255</v>
       </c>
@@ -6587,7 +6619,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="11"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>256</v>
       </c>
@@ -6597,33 +6629,33 @@
       <c r="F239" s="16"/>
       <c r="G239" s="11"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>249</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="11"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F241" s="16"/>
       <c r="G241" s="11"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F242" s="16"/>
       <c r="G242" s="11"/>
     </row>
-    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="55" t="s">
+    <row r="243" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="62" t="s">
         <v>418</v>
       </c>
-      <c r="B243" s="55"/>
-      <c r="C243" s="55"/>
-      <c r="D243" s="55"/>
-      <c r="E243" s="55"/>
+      <c r="B243" s="62"/>
+      <c r="C243" s="62"/>
+      <c r="D243" s="62"/>
+      <c r="E243" s="62"/>
       <c r="F243" s="17"/>
       <c r="G243" s="22"/>
     </row>
-    <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>248</v>
       </c>
@@ -6636,7 +6668,7 @@
       <c r="F244" s="17"/>
       <c r="G244" s="22"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -6649,7 +6681,7 @@
       <c r="F245" s="17"/>
       <c r="G245" s="22"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -6659,7 +6691,7 @@
       <c r="F246" s="17"/>
       <c r="G246" s="22"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -6669,37 +6701,37 @@
       <c r="F247" s="17"/>
       <c r="G247" s="22"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="59" t="s">
+      <c r="B248" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="C248" s="59"/>
+      <c r="C248" s="70"/>
       <c r="F248" s="17"/>
       <c r="G248" s="22"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F249" s="17"/>
       <c r="G249" s="22"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F250" s="17"/>
       <c r="G250" s="22"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="55" t="s">
+    <row r="251" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="62" t="s">
         <v>423</v>
       </c>
-      <c r="B251" s="55"/>
-      <c r="C251" s="55"/>
-      <c r="D251" s="55"/>
-      <c r="E251" s="55"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="62"/>
+      <c r="D251" s="62"/>
+      <c r="E251" s="62"/>
       <c r="F251" s="17"/>
       <c r="G251" s="22"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>248</v>
       </c>
@@ -6709,7 +6741,7 @@
       <c r="F252" s="17"/>
       <c r="G252" s="22"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6719,7 +6751,7 @@
       <c r="F253" s="17"/>
       <c r="G253" s="22"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -6729,7 +6761,7 @@
       <c r="F254" s="17"/>
       <c r="G254" s="22"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -6739,38 +6771,38 @@
       <c r="F255" s="17"/>
       <c r="G255" s="22"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>249</v>
       </c>
-      <c r="B256" s="54" t="s">
+      <c r="B256" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="C256" s="54"/>
-      <c r="D256" s="54"/>
+      <c r="C256" s="63"/>
+      <c r="D256" s="63"/>
       <c r="F256" s="17"/>
       <c r="G256" s="22"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F257" s="17"/>
       <c r="G257" s="22"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F258" s="17"/>
       <c r="G258" s="22"/>
     </row>
-    <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="55" t="s">
+    <row r="259" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="B259" s="55"/>
-      <c r="C259" s="55"/>
-      <c r="D259" s="55"/>
-      <c r="E259" s="55"/>
+      <c r="B259" s="62"/>
+      <c r="C259" s="62"/>
+      <c r="D259" s="62"/>
+      <c r="E259" s="62"/>
       <c r="F259" s="17"/>
       <c r="G259" s="22"/>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>248</v>
       </c>
@@ -6783,7 +6815,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="22"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -6793,7 +6825,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="22"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>255</v>
       </c>
@@ -6803,7 +6835,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="22"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>256</v>
       </c>
@@ -6813,34 +6845,34 @@
       <c r="F263" s="17"/>
       <c r="G263" s="22"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>249</v>
       </c>
-      <c r="B264" s="54" t="s">
+      <c r="B264" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="C264" s="54"/>
-      <c r="D264" s="54"/>
+      <c r="C264" s="63"/>
+      <c r="D264" s="63"/>
       <c r="F264" s="17"/>
       <c r="G264" s="22"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F265" s="17"/>
       <c r="G265" s="22"/>
     </row>
-    <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="55" t="s">
+    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="62" t="s">
         <v>425</v>
       </c>
-      <c r="B266" s="55"/>
-      <c r="C266" s="55"/>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="62"/>
+      <c r="D266" s="62"/>
+      <c r="E266" s="62"/>
       <c r="F266" s="17"/>
       <c r="G266" s="22"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>248</v>
       </c>
@@ -6853,7 +6885,7 @@
       <c r="F267" s="16"/>
       <c r="G267" s="11"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -6863,7 +6895,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="11"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>255</v>
       </c>
@@ -6873,7 +6905,7 @@
       <c r="F269" s="16"/>
       <c r="G269" s="11"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>256</v>
       </c>
@@ -6883,34 +6915,34 @@
       <c r="F270" s="16"/>
       <c r="G270" s="11"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>249</v>
       </c>
-      <c r="B271" s="54" t="s">
+      <c r="B271" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="C271" s="54"/>
-      <c r="D271" s="54"/>
+      <c r="C271" s="63"/>
+      <c r="D271" s="63"/>
       <c r="F271" s="16"/>
       <c r="G271" s="11"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F272" s="16"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="55" t="s">
+    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="62" t="s">
         <v>426</v>
       </c>
-      <c r="B273" s="55"/>
-      <c r="C273" s="55"/>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
+      <c r="B273" s="62"/>
+      <c r="C273" s="62"/>
+      <c r="D273" s="62"/>
+      <c r="E273" s="62"/>
       <c r="F273" s="16"/>
       <c r="G273" s="11"/>
     </row>
-    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>248</v>
       </c>
@@ -6926,7 +6958,7 @@
       <c r="I274" s="26"/>
       <c r="J274" s="26"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>2</v>
       </c>
@@ -6936,7 +6968,7 @@
       <c r="F275" s="17"/>
       <c r="G275" s="22"/>
     </row>
-    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>255</v>
       </c>
@@ -6949,7 +6981,7 @@
       <c r="I276" s="13"/>
       <c r="J276" s="13"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>256</v>
       </c>
@@ -6962,22 +6994,22 @@
       <c r="I277" s="13"/>
       <c r="J277" s="13"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>249</v>
       </c>
-      <c r="B278" s="54" t="s">
+      <c r="B278" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="C278" s="54"/>
-      <c r="D278" s="54"/>
+      <c r="C278" s="63"/>
+      <c r="D278" s="63"/>
       <c r="F278" s="27"/>
       <c r="G278" s="13"/>
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
       <c r="J278" s="13"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="22"/>
       <c r="C279" s="22"/>
       <c r="D279" s="22"/>
@@ -6987,7 +7019,7 @@
       <c r="I279" s="13"/>
       <c r="J279" s="13"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B280" s="22"/>
       <c r="C280" s="22"/>
       <c r="D280" s="22"/>
@@ -6997,21 +7029,21 @@
       <c r="I280" s="13"/>
       <c r="J280" s="13"/>
     </row>
-    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="55" t="s">
+    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="B281" s="55"/>
-      <c r="C281" s="55"/>
-      <c r="D281" s="55"/>
-      <c r="E281" s="55"/>
+      <c r="B281" s="62"/>
+      <c r="C281" s="62"/>
+      <c r="D281" s="62"/>
+      <c r="E281" s="62"/>
       <c r="F281" s="27"/>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
       <c r="J281" s="13"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>248</v>
       </c>
@@ -7024,7 +7056,7 @@
       <c r="I282" s="13"/>
       <c r="J282" s="13"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -7037,7 +7069,7 @@
       <c r="I283" s="13"/>
       <c r="J283" s="13"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>255</v>
       </c>
@@ -7047,7 +7079,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>256</v>
       </c>
@@ -7055,7 +7087,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>249</v>
       </c>
@@ -7063,23 +7095,23 @@
         <v>347</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="55" t="s">
+    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="B289" s="55"/>
-      <c r="C289" s="55"/>
-      <c r="D289" s="55"/>
-      <c r="E289" s="55"/>
+      <c r="B289" s="62"/>
+      <c r="C289" s="62"/>
+      <c r="D289" s="62"/>
+      <c r="E289" s="62"/>
       <c r="F289" s="17"/>
       <c r="G289" s="22"/>
-      <c r="H289" s="56" t="s">
+      <c r="H289" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="I289" s="56"/>
-      <c r="J289" s="56"/>
-    </row>
-    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I289" s="71"/>
+      <c r="J289" s="71"/>
+    </row>
+    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="s">
         <v>248</v>
       </c>
@@ -7101,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20" t="s">
         <v>2</v>
       </c>
@@ -7111,23 +7143,23 @@
       <c r="C291" s="19"/>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
-      <c r="F291" s="57" t="s">
+      <c r="F291" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="G291" s="58" t="s">
+      <c r="G291" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="H291" s="58" t="s">
+      <c r="H291" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="I291" s="58" t="s">
+      <c r="I291" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="J291" s="58" t="s">
+      <c r="J291" s="68" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="s">
         <v>255</v>
       </c>
@@ -7135,13 +7167,13 @@
         <v>252</v>
       </c>
       <c r="C292" s="20"/>
-      <c r="F292" s="57"/>
-      <c r="G292" s="58"/>
-      <c r="H292" s="58"/>
-      <c r="I292" s="58"/>
-      <c r="J292" s="58"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F292" s="72"/>
+      <c r="G292" s="68"/>
+      <c r="H292" s="68"/>
+      <c r="I292" s="68"/>
+      <c r="J292" s="68"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="20" t="s">
         <v>256</v>
       </c>
@@ -7149,21 +7181,21 @@
         <v>272</v>
       </c>
       <c r="C293" s="20"/>
-      <c r="F293" s="57"/>
-      <c r="G293" s="58">
+      <c r="F293" s="72"/>
+      <c r="G293" s="68">
         <v>0</v>
       </c>
-      <c r="H293" s="58" t="s">
+      <c r="H293" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="I293" s="58">
+      <c r="I293" s="68">
         <v>1</v>
       </c>
-      <c r="J293" s="58">
+      <c r="J293" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="s">
         <v>249</v>
       </c>
@@ -7171,65 +7203,65 @@
         <v>355</v>
       </c>
       <c r="C294" s="20"/>
-      <c r="F294" s="57"/>
-      <c r="G294" s="58"/>
-      <c r="H294" s="58"/>
-      <c r="I294" s="58"/>
-      <c r="J294" s="58"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F295" s="57"/>
-      <c r="G295" s="58">
+      <c r="F294" s="72"/>
+      <c r="G294" s="68"/>
+      <c r="H294" s="68"/>
+      <c r="I294" s="68"/>
+      <c r="J294" s="68"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F295" s="72"/>
+      <c r="G295" s="68">
         <v>1</v>
       </c>
-      <c r="H295" s="58" t="s">
+      <c r="H295" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="I295" s="58">
+      <c r="I295" s="68">
         <v>1</v>
       </c>
-      <c r="J295" s="58">
+      <c r="J295" s="68">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F296" s="57"/>
-      <c r="G296" s="58"/>
-      <c r="H296" s="58"/>
-      <c r="I296" s="58"/>
-      <c r="J296" s="58"/>
-    </row>
-    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="55" t="s">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F296" s="72"/>
+      <c r="G296" s="68"/>
+      <c r="H296" s="68"/>
+      <c r="I296" s="68"/>
+      <c r="J296" s="68"/>
+    </row>
+    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="62" t="s">
         <v>455</v>
       </c>
-      <c r="B297" s="55"/>
-      <c r="C297" s="55"/>
-      <c r="D297" s="55"/>
-      <c r="E297" s="55"/>
+      <c r="B297" s="62"/>
+      <c r="C297" s="62"/>
+      <c r="D297" s="62"/>
+      <c r="E297" s="62"/>
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
       <c r="I297" s="29"/>
       <c r="J297" s="29"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B298" s="54" t="s">
+      <c r="B298" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="C298" s="54"/>
-      <c r="D298" s="54"/>
-      <c r="E298" s="54"/>
-      <c r="F298" s="54"/>
+      <c r="C298" s="63"/>
+      <c r="D298" s="63"/>
+      <c r="E298" s="63"/>
+      <c r="F298" s="63"/>
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
       <c r="I298" s="29"/>
       <c r="J298" s="29"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="20" t="s">
         <v>2</v>
       </c>
@@ -7242,7 +7274,7 @@
       <c r="I299" s="29"/>
       <c r="J299" s="29"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="20" t="s">
         <v>255</v>
       </c>
@@ -7255,7 +7287,7 @@
       <c r="I300" s="29"/>
       <c r="J300" s="29"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="20" t="s">
         <v>256</v>
       </c>
@@ -7268,23 +7300,23 @@
       <c r="I301" s="29"/>
       <c r="J301" s="29"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B302" s="54" t="s">
+      <c r="B302" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="C302" s="54"/>
-      <c r="D302" s="54"/>
-      <c r="E302" s="54"/>
+      <c r="C302" s="63"/>
+      <c r="D302" s="63"/>
+      <c r="E302" s="63"/>
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
       <c r="H302" s="29"/>
       <c r="I302" s="29"/>
       <c r="J302" s="29"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="F303" s="28"/>
       <c r="G303" s="29"/>
@@ -7292,44 +7324,44 @@
       <c r="I303" s="29"/>
       <c r="J303" s="29"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F304" s="28"/>
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
       <c r="I304" s="29"/>
       <c r="J304" s="29"/>
     </row>
-    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="55" t="s">
+    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A305" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="B305" s="55"/>
-      <c r="C305" s="55"/>
-      <c r="D305" s="55"/>
-      <c r="E305" s="55"/>
+      <c r="B305" s="62"/>
+      <c r="C305" s="62"/>
+      <c r="D305" s="62"/>
+      <c r="E305" s="62"/>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
       <c r="I305" s="29"/>
       <c r="J305" s="29"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B306" s="54" t="s">
+      <c r="B306" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="C306" s="54"/>
-      <c r="D306" s="54"/>
-      <c r="E306" s="54"/>
-      <c r="F306" s="54"/>
-      <c r="G306" s="54"/>
-      <c r="H306" s="54"/>
-      <c r="I306" s="54"/>
+      <c r="C306" s="63"/>
+      <c r="D306" s="63"/>
+      <c r="E306" s="63"/>
+      <c r="F306" s="63"/>
+      <c r="G306" s="63"/>
+      <c r="H306" s="63"/>
+      <c r="I306" s="63"/>
       <c r="J306" s="29"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="20" t="s">
         <v>2</v>
       </c>
@@ -7342,7 +7374,7 @@
       <c r="I307" s="29"/>
       <c r="J307" s="29"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="s">
         <v>255</v>
       </c>
@@ -7355,7 +7387,7 @@
       <c r="I308" s="29"/>
       <c r="J308" s="29"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="20" t="s">
         <v>256</v>
       </c>
@@ -7368,23 +7400,23 @@
       <c r="I309" s="29"/>
       <c r="J309" s="29"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B310" s="54" t="s">
+      <c r="B310" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="C310" s="54"/>
-      <c r="D310" s="54"/>
-      <c r="E310" s="54"/>
+      <c r="C310" s="63"/>
+      <c r="D310" s="63"/>
+      <c r="E310" s="63"/>
       <c r="F310" s="31"/>
       <c r="G310" s="29"/>
       <c r="H310" s="29"/>
       <c r="I310" s="29"/>
       <c r="J310" s="29"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
@@ -7392,7 +7424,7 @@
       <c r="I311" s="29"/>
       <c r="J311" s="29"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
@@ -7400,21 +7432,21 @@
       <c r="I312" s="29"/>
       <c r="J312" s="29"/>
     </row>
-    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="55" t="s">
+    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="B313" s="55"/>
-      <c r="C313" s="55"/>
-      <c r="D313" s="55"/>
-      <c r="E313" s="55"/>
+      <c r="B313" s="62"/>
+      <c r="C313" s="62"/>
+      <c r="D313" s="62"/>
+      <c r="E313" s="62"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
       <c r="H313" s="29"/>
       <c r="I313" s="29"/>
       <c r="J313" s="29"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="20" t="s">
         <v>248</v>
       </c>
@@ -7427,7 +7459,7 @@
       <c r="I314" s="29"/>
       <c r="J314" s="29"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="20" t="s">
         <v>2</v>
       </c>
@@ -7440,7 +7472,7 @@
       <c r="I315" s="29"/>
       <c r="J315" s="29"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="20" t="s">
         <v>255</v>
       </c>
@@ -7453,7 +7485,7 @@
       <c r="I316" s="29"/>
       <c r="J316" s="29"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="s">
         <v>256</v>
       </c>
@@ -7466,22 +7498,22 @@
       <c r="I317" s="29"/>
       <c r="J317" s="29"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B318" s="54" t="s">
+      <c r="B318" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="C318" s="54"/>
-      <c r="D318" s="54"/>
+      <c r="C318" s="63"/>
+      <c r="D318" s="63"/>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
       <c r="H318" s="29"/>
       <c r="I318" s="29"/>
       <c r="J318" s="29"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="F319" s="28"/>
       <c r="G319" s="29"/>
@@ -7489,7 +7521,7 @@
       <c r="I319" s="29"/>
       <c r="J319" s="29"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="F320" s="28"/>
       <c r="G320" s="29"/>
@@ -7497,21 +7529,21 @@
       <c r="I320" s="29"/>
       <c r="J320" s="29"/>
     </row>
-    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="55" t="s">
+    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="62" t="s">
         <v>466</v>
       </c>
-      <c r="B321" s="55"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="55"/>
-      <c r="E321" s="55"/>
+      <c r="B321" s="62"/>
+      <c r="C321" s="62"/>
+      <c r="D321" s="62"/>
+      <c r="E321" s="62"/>
       <c r="F321" s="46"/>
       <c r="G321" s="45"/>
       <c r="H321" s="45"/>
       <c r="I321" s="45"/>
       <c r="J321" s="45"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="20" t="s">
         <v>248</v>
       </c>
@@ -7524,7 +7556,7 @@
       <c r="I322" s="45"/>
       <c r="J322" s="45"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="20" t="s">
         <v>2</v>
       </c>
@@ -7537,7 +7569,7 @@
       <c r="I323" s="45"/>
       <c r="J323" s="45"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="s">
         <v>255</v>
       </c>
@@ -7550,7 +7582,7 @@
       <c r="I324" s="45"/>
       <c r="J324" s="45"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="s">
         <v>256</v>
       </c>
@@ -7563,23 +7595,23 @@
       <c r="I325" s="45"/>
       <c r="J325" s="45"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B326" s="54" t="s">
+      <c r="B326" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="C326" s="54"/>
-      <c r="D326" s="54"/>
-      <c r="E326" s="54"/>
+      <c r="C326" s="63"/>
+      <c r="D326" s="63"/>
+      <c r="E326" s="63"/>
       <c r="F326" s="46"/>
       <c r="G326" s="45"/>
       <c r="H326" s="45"/>
       <c r="I326" s="45"/>
       <c r="J326" s="45"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="F327" s="46"/>
       <c r="G327" s="45"/>
@@ -7587,7 +7619,7 @@
       <c r="I327" s="45"/>
       <c r="J327" s="45"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="20"/>
       <c r="F328" s="46"/>
       <c r="G328" s="45"/>
@@ -7595,21 +7627,21 @@
       <c r="I328" s="45"/>
       <c r="J328" s="45"/>
     </row>
-    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="55" t="s">
+    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="B329" s="55"/>
-      <c r="C329" s="55"/>
-      <c r="D329" s="55"/>
-      <c r="E329" s="55"/>
+      <c r="B329" s="62"/>
+      <c r="C329" s="62"/>
+      <c r="D329" s="62"/>
+      <c r="E329" s="62"/>
       <c r="F329" s="48"/>
       <c r="G329" s="49"/>
       <c r="H329" s="49"/>
       <c r="I329" s="49"/>
       <c r="J329" s="49"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="20" t="s">
         <v>248</v>
       </c>
@@ -7622,7 +7654,7 @@
       <c r="I330" s="49"/>
       <c r="J330" s="49"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="20" t="s">
         <v>2</v>
       </c>
@@ -7635,7 +7667,7 @@
       <c r="I331" s="49"/>
       <c r="J331" s="49"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="20" t="s">
         <v>255</v>
       </c>
@@ -7648,7 +7680,7 @@
       <c r="I332" s="49"/>
       <c r="J332" s="49"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="20" t="s">
         <v>256</v>
       </c>
@@ -7661,14 +7693,14 @@
       <c r="I333" s="49"/>
       <c r="J333" s="49"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B334" s="54" t="s">
+      <c r="B334" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C334" s="54"/>
+      <c r="C334" s="63"/>
       <c r="D334" s="10"/>
       <c r="F334" s="48"/>
       <c r="G334" s="49"/>
@@ -7676,7 +7708,7 @@
       <c r="I334" s="49"/>
       <c r="J334" s="49"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="20"/>
       <c r="F335" s="48"/>
       <c r="G335" s="49"/>
@@ -7684,7 +7716,7 @@
       <c r="I335" s="49"/>
       <c r="J335" s="49"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="20"/>
       <c r="F336" s="48"/>
       <c r="G336" s="49"/>
@@ -7692,21 +7724,21 @@
       <c r="I336" s="49"/>
       <c r="J336" s="49"/>
     </row>
-    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="55" t="s">
+    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="62" t="s">
         <v>495</v>
       </c>
-      <c r="B337" s="55"/>
-      <c r="C337" s="55"/>
-      <c r="D337" s="55"/>
-      <c r="E337" s="55"/>
+      <c r="B337" s="62"/>
+      <c r="C337" s="62"/>
+      <c r="D337" s="62"/>
+      <c r="E337" s="62"/>
       <c r="F337" s="48"/>
       <c r="G337" s="49"/>
       <c r="H337" s="49"/>
       <c r="I337" s="49"/>
       <c r="J337" s="49"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="20" t="s">
         <v>248</v>
       </c>
@@ -7719,7 +7751,7 @@
       <c r="I338" s="49"/>
       <c r="J338" s="49"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="20" t="s">
         <v>2</v>
       </c>
@@ -7732,7 +7764,7 @@
       <c r="I339" s="49"/>
       <c r="J339" s="49"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="20" t="s">
         <v>255</v>
       </c>
@@ -7745,7 +7777,7 @@
       <c r="I340" s="49"/>
       <c r="J340" s="49"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="20" t="s">
         <v>256</v>
       </c>
@@ -7758,14 +7790,14 @@
       <c r="I341" s="49"/>
       <c r="J341" s="49"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B342" s="54" t="s">
+      <c r="B342" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C342" s="54"/>
+      <c r="C342" s="63"/>
       <c r="D342" s="10"/>
       <c r="F342" s="48"/>
       <c r="G342" s="49"/>
@@ -7773,7 +7805,7 @@
       <c r="I342" s="49"/>
       <c r="J342" s="49"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="20"/>
       <c r="F343" s="48"/>
       <c r="G343" s="49"/>
@@ -7781,7 +7813,7 @@
       <c r="I343" s="49"/>
       <c r="J343" s="49"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="F344" s="48"/>
       <c r="G344" s="49"/>
@@ -7789,21 +7821,21 @@
       <c r="I344" s="49"/>
       <c r="J344" s="49"/>
     </row>
-    <row r="345" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A345" s="55" t="s">
+    <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="B345" s="55"/>
-      <c r="C345" s="55"/>
-      <c r="D345" s="55"/>
-      <c r="E345" s="55"/>
+      <c r="B345" s="62"/>
+      <c r="C345" s="62"/>
+      <c r="D345" s="62"/>
+      <c r="E345" s="62"/>
       <c r="F345" s="48"/>
       <c r="G345" s="49"/>
       <c r="H345" s="49"/>
       <c r="I345" s="49"/>
       <c r="J345" s="49"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="20" t="s">
         <v>248</v>
       </c>
@@ -7816,7 +7848,7 @@
       <c r="I346" s="49"/>
       <c r="J346" s="49"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="20" t="s">
         <v>2</v>
       </c>
@@ -7829,7 +7861,7 @@
       <c r="I347" s="49"/>
       <c r="J347" s="49"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="20" t="s">
         <v>255</v>
       </c>
@@ -7842,7 +7874,7 @@
       <c r="I348" s="49"/>
       <c r="J348" s="49"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="20" t="s">
         <v>256</v>
       </c>
@@ -7855,21 +7887,21 @@
       <c r="I349" s="49"/>
       <c r="J349" s="49"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B350" s="54" t="s">
+      <c r="B350" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C350" s="54"/>
+      <c r="C350" s="63"/>
       <c r="F350" s="48"/>
       <c r="G350" s="49"/>
       <c r="H350" s="49"/>
       <c r="I350" s="49"/>
       <c r="J350" s="49"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="47"/>
       <c r="C351" s="47"/>
@@ -7879,7 +7911,7 @@
       <c r="I351" s="49"/>
       <c r="J351" s="49"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="20"/>
       <c r="B352" s="47"/>
       <c r="C352" s="47"/>
@@ -7889,21 +7921,21 @@
       <c r="I352" s="49"/>
       <c r="J352" s="49"/>
     </row>
-    <row r="353" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="55" t="s">
+    <row r="353" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A353" s="62" t="s">
         <v>497</v>
       </c>
-      <c r="B353" s="55"/>
-      <c r="C353" s="55"/>
-      <c r="D353" s="55"/>
-      <c r="E353" s="55"/>
+      <c r="B353" s="62"/>
+      <c r="C353" s="62"/>
+      <c r="D353" s="62"/>
+      <c r="E353" s="62"/>
       <c r="F353" s="48"/>
       <c r="G353" s="49"/>
       <c r="H353" s="49"/>
       <c r="I353" s="49"/>
       <c r="J353" s="49"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="20" t="s">
         <v>248</v>
       </c>
@@ -7917,7 +7949,7 @@
       <c r="I354" s="49"/>
       <c r="J354" s="49"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="20" t="s">
         <v>2</v>
       </c>
@@ -7931,7 +7963,7 @@
       <c r="I355" s="49"/>
       <c r="J355" s="49"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="20" t="s">
         <v>255</v>
       </c>
@@ -7945,7 +7977,7 @@
       <c r="I356" s="49"/>
       <c r="J356" s="49"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="20" t="s">
         <v>256</v>
       </c>
@@ -7959,21 +7991,21 @@
       <c r="I357" s="49"/>
       <c r="J357" s="49"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B358" s="54" t="s">
+      <c r="B358" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C358" s="54"/>
+      <c r="C358" s="63"/>
       <c r="F358" s="48"/>
       <c r="G358" s="49"/>
       <c r="H358" s="49"/>
       <c r="I358" s="49"/>
       <c r="J358" s="49"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="20"/>
       <c r="B359" s="47"/>
       <c r="C359" s="47"/>
@@ -7983,7 +8015,7 @@
       <c r="I359" s="49"/>
       <c r="J359" s="49"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
       <c r="B360" s="47"/>
       <c r="C360" s="47"/>
@@ -7993,21 +8025,21 @@
       <c r="I360" s="49"/>
       <c r="J360" s="49"/>
     </row>
-    <row r="361" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A361" s="55" t="s">
+    <row r="361" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A361" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="B361" s="55"/>
-      <c r="C361" s="55"/>
-      <c r="D361" s="55"/>
-      <c r="E361" s="55"/>
+      <c r="B361" s="62"/>
+      <c r="C361" s="62"/>
+      <c r="D361" s="62"/>
+      <c r="E361" s="62"/>
       <c r="F361" s="48"/>
       <c r="G361" s="49"/>
       <c r="H361" s="49"/>
       <c r="I361" s="49"/>
       <c r="J361" s="49"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="20" t="s">
         <v>248</v>
       </c>
@@ -8020,7 +8052,7 @@
       <c r="I362" s="49"/>
       <c r="J362" s="49"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="20" t="s">
         <v>2</v>
       </c>
@@ -8033,7 +8065,7 @@
       <c r="I363" s="49"/>
       <c r="J363" s="49"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="20" t="s">
         <v>255</v>
       </c>
@@ -8046,7 +8078,7 @@
       <c r="I364" s="49"/>
       <c r="J364" s="49"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="20" t="s">
         <v>256</v>
       </c>
@@ -8059,21 +8091,21 @@
       <c r="I365" s="49"/>
       <c r="J365" s="49"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B366" s="54" t="s">
+      <c r="B366" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C366" s="54"/>
+      <c r="C366" s="63"/>
       <c r="F366" s="48"/>
       <c r="G366" s="49"/>
       <c r="H366" s="49"/>
       <c r="I366" s="49"/>
       <c r="J366" s="49"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
       <c r="F367" s="48"/>
       <c r="G367" s="49"/>
@@ -8081,7 +8113,7 @@
       <c r="I367" s="49"/>
       <c r="J367" s="49"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
       <c r="F368" s="48"/>
       <c r="G368" s="49"/>
@@ -8089,21 +8121,21 @@
       <c r="I368" s="49"/>
       <c r="J368" s="49"/>
     </row>
-    <row r="369" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="55" t="s">
+    <row r="369" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="B369" s="55"/>
-      <c r="C369" s="55"/>
-      <c r="D369" s="55"/>
-      <c r="E369" s="55"/>
+      <c r="B369" s="62"/>
+      <c r="C369" s="62"/>
+      <c r="D369" s="62"/>
+      <c r="E369" s="62"/>
       <c r="F369" s="48"/>
       <c r="G369" s="49"/>
       <c r="H369" s="49"/>
       <c r="I369" s="49"/>
       <c r="J369" s="49"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="20" t="s">
         <v>248</v>
       </c>
@@ -8116,7 +8148,7 @@
       <c r="I370" s="49"/>
       <c r="J370" s="49"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="20" t="s">
         <v>2</v>
       </c>
@@ -8129,7 +8161,7 @@
       <c r="I371" s="49"/>
       <c r="J371" s="49"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="20" t="s">
         <v>255</v>
       </c>
@@ -8142,7 +8174,7 @@
       <c r="I372" s="49"/>
       <c r="J372" s="49"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="20" t="s">
         <v>256</v>
       </c>
@@ -8155,21 +8187,21 @@
       <c r="I373" s="49"/>
       <c r="J373" s="49"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B374" s="54" t="s">
+      <c r="B374" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C374" s="54"/>
+      <c r="C374" s="63"/>
       <c r="F374" s="48"/>
       <c r="G374" s="49"/>
       <c r="H374" s="49"/>
       <c r="I374" s="49"/>
       <c r="J374" s="49"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="20"/>
       <c r="F375" s="48"/>
       <c r="G375" s="49"/>
@@ -8177,7 +8209,7 @@
       <c r="I375" s="49"/>
       <c r="J375" s="49"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="20"/>
       <c r="F376" s="48"/>
       <c r="G376" s="49"/>
@@ -8185,21 +8217,21 @@
       <c r="I376" s="49"/>
       <c r="J376" s="49"/>
     </row>
-    <row r="377" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A377" s="55" t="s">
+    <row r="377" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A377" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="B377" s="55"/>
-      <c r="C377" s="55"/>
-      <c r="D377" s="55"/>
-      <c r="E377" s="55"/>
+      <c r="B377" s="62"/>
+      <c r="C377" s="62"/>
+      <c r="D377" s="62"/>
+      <c r="E377" s="62"/>
       <c r="F377" s="48"/>
       <c r="G377" s="49"/>
       <c r="H377" s="49"/>
       <c r="I377" s="49"/>
       <c r="J377" s="49"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="20" t="s">
         <v>248</v>
       </c>
@@ -8212,7 +8244,7 @@
       <c r="I378" s="49"/>
       <c r="J378" s="49"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="20" t="s">
         <v>2</v>
       </c>
@@ -8225,7 +8257,7 @@
       <c r="I379" s="49"/>
       <c r="J379" s="49"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="20" t="s">
         <v>255</v>
       </c>
@@ -8238,7 +8270,7 @@
       <c r="I380" s="49"/>
       <c r="J380" s="49"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="20" t="s">
         <v>256</v>
       </c>
@@ -8251,21 +8283,21 @@
       <c r="I381" s="49"/>
       <c r="J381" s="49"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B382" s="54" t="s">
+      <c r="B382" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C382" s="54"/>
+      <c r="C382" s="63"/>
       <c r="F382" s="48"/>
       <c r="G382" s="49"/>
       <c r="H382" s="49"/>
       <c r="I382" s="49"/>
       <c r="J382" s="49"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
       <c r="F383" s="48"/>
       <c r="G383" s="49"/>
@@ -8273,7 +8305,7 @@
       <c r="I383" s="49"/>
       <c r="J383" s="49"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="20"/>
       <c r="F384" s="48"/>
       <c r="G384" s="49"/>
@@ -8281,21 +8313,21 @@
       <c r="I384" s="49"/>
       <c r="J384" s="49"/>
     </row>
-    <row r="385" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="55" t="s">
+    <row r="385" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A385" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="B385" s="55"/>
-      <c r="C385" s="55"/>
-      <c r="D385" s="55"/>
-      <c r="E385" s="55"/>
+      <c r="B385" s="62"/>
+      <c r="C385" s="62"/>
+      <c r="D385" s="62"/>
+      <c r="E385" s="62"/>
       <c r="F385" s="48"/>
       <c r="G385" s="49"/>
       <c r="H385" s="49"/>
       <c r="I385" s="49"/>
       <c r="J385" s="49"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="20" t="s">
         <v>248</v>
       </c>
@@ -8308,7 +8340,7 @@
       <c r="I386" s="49"/>
       <c r="J386" s="49"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="20" t="s">
         <v>2</v>
       </c>
@@ -8321,7 +8353,7 @@
       <c r="I387" s="49"/>
       <c r="J387" s="49"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="20" t="s">
         <v>255</v>
       </c>
@@ -8334,7 +8366,7 @@
       <c r="I388" s="49"/>
       <c r="J388" s="49"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="20" t="s">
         <v>256</v>
       </c>
@@ -8347,21 +8379,21 @@
       <c r="I389" s="49"/>
       <c r="J389" s="49"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B390" s="54" t="s">
+      <c r="B390" s="63" t="s">
         <v>503</v>
       </c>
-      <c r="C390" s="54"/>
+      <c r="C390" s="63"/>
       <c r="F390" s="48"/>
       <c r="G390" s="49"/>
       <c r="H390" s="49"/>
       <c r="I390" s="49"/>
       <c r="J390" s="49"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="20"/>
       <c r="F391" s="48"/>
       <c r="G391" s="49"/>
@@ -8369,7 +8401,7 @@
       <c r="I391" s="49"/>
       <c r="J391" s="49"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="20"/>
       <c r="F392" s="48"/>
       <c r="G392" s="49"/>
@@ -8377,21 +8409,21 @@
       <c r="I392" s="49"/>
       <c r="J392" s="49"/>
     </row>
-    <row r="393" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="55" t="s">
+    <row r="393" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A393" s="62" t="s">
         <v>504</v>
       </c>
-      <c r="B393" s="55"/>
-      <c r="C393" s="55"/>
-      <c r="D393" s="55"/>
-      <c r="E393" s="55"/>
+      <c r="B393" s="62"/>
+      <c r="C393" s="62"/>
+      <c r="D393" s="62"/>
+      <c r="E393" s="62"/>
       <c r="F393" s="48"/>
       <c r="G393" s="49"/>
       <c r="H393" s="49"/>
       <c r="I393" s="49"/>
       <c r="J393" s="49"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="20" t="s">
         <v>248</v>
       </c>
@@ -8404,7 +8436,7 @@
       <c r="I394" s="49"/>
       <c r="J394" s="49"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="20" t="s">
         <v>2</v>
       </c>
@@ -8417,7 +8449,7 @@
       <c r="I395" s="49"/>
       <c r="J395" s="49"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="20" t="s">
         <v>255</v>
       </c>
@@ -8430,7 +8462,7 @@
       <c r="I396" s="49"/>
       <c r="J396" s="49"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="20" t="s">
         <v>256</v>
       </c>
@@ -8443,21 +8475,21 @@
       <c r="I397" s="49"/>
       <c r="J397" s="49"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B398" s="54" t="s">
+      <c r="B398" s="63" t="s">
         <v>503</v>
       </c>
-      <c r="C398" s="54"/>
+      <c r="C398" s="63"/>
       <c r="F398" s="48"/>
       <c r="G398" s="49"/>
       <c r="H398" s="49"/>
       <c r="I398" s="49"/>
       <c r="J398" s="49"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="20"/>
       <c r="F399" s="48"/>
       <c r="G399" s="49"/>
@@ -8465,7 +8497,7 @@
       <c r="I399" s="49"/>
       <c r="J399" s="49"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="20"/>
       <c r="F400" s="48"/>
       <c r="G400" s="49"/>
@@ -8473,21 +8505,21 @@
       <c r="I400" s="49"/>
       <c r="J400" s="49"/>
     </row>
-    <row r="401" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="55" t="s">
+    <row r="401" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="B401" s="55"/>
-      <c r="C401" s="55"/>
-      <c r="D401" s="55"/>
-      <c r="E401" s="55"/>
+      <c r="B401" s="62"/>
+      <c r="C401" s="62"/>
+      <c r="D401" s="62"/>
+      <c r="E401" s="62"/>
       <c r="F401" s="51"/>
       <c r="G401" s="50"/>
       <c r="H401" s="50"/>
       <c r="I401" s="50"/>
       <c r="J401" s="50"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="20" t="s">
         <v>248</v>
       </c>
@@ -8500,7 +8532,7 @@
       <c r="I402" s="50"/>
       <c r="J402" s="50"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="20" t="s">
         <v>2</v>
       </c>
@@ -8513,7 +8545,7 @@
       <c r="I403" s="50"/>
       <c r="J403" s="50"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="20" t="s">
         <v>255</v>
       </c>
@@ -8526,7 +8558,7 @@
       <c r="I404" s="50"/>
       <c r="J404" s="50"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="20" t="s">
         <v>256</v>
       </c>
@@ -8539,21 +8571,21 @@
       <c r="I405" s="50"/>
       <c r="J405" s="50"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B406" s="54" t="s">
+      <c r="B406" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="C406" s="54"/>
+      <c r="C406" s="63"/>
       <c r="F406" s="51"/>
       <c r="G406" s="50"/>
       <c r="H406" s="50"/>
       <c r="I406" s="50"/>
       <c r="J406" s="50"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="20"/>
       <c r="F407" s="51"/>
       <c r="G407" s="50"/>
@@ -8561,7 +8593,7 @@
       <c r="I407" s="50"/>
       <c r="J407" s="50"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="20"/>
       <c r="F408" s="51"/>
       <c r="G408" s="50"/>
@@ -8569,16 +8601,16 @@
       <c r="I408" s="50"/>
       <c r="J408" s="50"/>
     </row>
-    <row r="409" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A409" s="55" t="s">
+    <row r="409" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A409" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="B409" s="55"/>
-      <c r="C409" s="55"/>
-      <c r="D409" s="55"/>
-      <c r="E409" s="55"/>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B409" s="62"/>
+      <c r="C409" s="62"/>
+      <c r="D409" s="62"/>
+      <c r="E409" s="62"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>248</v>
       </c>
@@ -8586,7 +8618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>2</v>
       </c>
@@ -8594,7 +8626,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>255</v>
       </c>
@@ -8602,7 +8634,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>256</v>
       </c>
@@ -8610,7 +8642,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>249</v>
       </c>
@@ -8618,16 +8650,16 @@
         <v>328</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="55" t="s">
+    <row r="417" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="B417" s="55"/>
-      <c r="C417" s="55"/>
-      <c r="D417" s="55"/>
-      <c r="E417" s="55"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B417" s="62"/>
+      <c r="C417" s="62"/>
+      <c r="D417" s="62"/>
+      <c r="E417" s="62"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>248</v>
       </c>
@@ -8635,7 +8667,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>2</v>
       </c>
@@ -8643,7 +8675,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>255</v>
       </c>
@@ -8651,7 +8683,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>256</v>
       </c>
@@ -8659,7 +8691,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>249</v>
       </c>
@@ -8669,6 +8701,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="A361:E361"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="A369:E369"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="A385:E385"/>
+    <mergeCell ref="A345:E345"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="F291:F296"/>
+    <mergeCell ref="G291:G292"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="I291:I292"/>
+    <mergeCell ref="J291:J292"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="I293:I294"/>
+    <mergeCell ref="J293:J294"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="H295:H296"/>
+    <mergeCell ref="I295:I296"/>
+    <mergeCell ref="J295:J296"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A337:E337"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A417:E417"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="A281:E281"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="A289:E289"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="A401:E401"/>
     <mergeCell ref="B406:C406"/>
     <mergeCell ref="A84:E84"/>
@@ -8693,103 +8822,6 @@
     <mergeCell ref="H227:P227"/>
     <mergeCell ref="B201:D201"/>
     <mergeCell ref="E201:G201"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A417:E417"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="A281:E281"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A228:E228"/>
-    <mergeCell ref="A235:E235"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="A289:E289"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="A259:E259"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A337:E337"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="A345:E345"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="F291:F296"/>
-    <mergeCell ref="G291:G292"/>
-    <mergeCell ref="H291:H292"/>
-    <mergeCell ref="I291:I292"/>
-    <mergeCell ref="J291:J292"/>
-    <mergeCell ref="G293:G294"/>
-    <mergeCell ref="H293:H294"/>
-    <mergeCell ref="I293:I294"/>
-    <mergeCell ref="J293:J294"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="H295:H296"/>
-    <mergeCell ref="I295:I296"/>
-    <mergeCell ref="J295:J296"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="A361:E361"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="A369:E369"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="A385:E385"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2132" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7BC81CE-27C1-4CFA-A58C-9809E2480C52}"/>
+  <xr:revisionPtr revIDLastSave="2137" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F854B125-8E10-43CF-99B3-1E118AA20AC6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="20652" yWindow="2508" windowWidth="2388" windowHeight="564" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="520">
   <si>
     <t>Variable</t>
   </si>
@@ -1586,6 +1586,15 @@
   </si>
   <si>
     <t>Sexuality</t>
+  </si>
+  <si>
+    <t>H3EC39</t>
+  </si>
+  <si>
+    <t>At any time during 2001 [2000, 1999, 1998, 1997, 1996, 1995] even for one month, {DID YOU RECEIVE/HAVE YOU RECEIVED} any public assistance or welfare payments from a state or local welfare office other than food stamps?</t>
+  </si>
+  <si>
+    <t>Public Assistance</t>
   </si>
 </sst>
 </file>
@@ -1910,14 +1919,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1929,22 +1953,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2261,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4535,7 +4544,7 @@
       <c r="B134" t="s">
         <v>513</v>
       </c>
-      <c r="C134" s="73" t="s">
+      <c r="C134" s="62" t="s">
         <v>514</v>
       </c>
       <c r="D134" t="s">
@@ -4543,6 +4552,23 @@
       </c>
       <c r="E134" t="s">
         <v>516</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>517</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D135" t="s">
+        <v>493</v>
+      </c>
+      <c r="E135" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4831,27 +4857,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4908,13 +4934,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4959,13 +4985,13 @@
       <c r="D18" s="63"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5015,13 +5041,13 @@
       <c r="E26" s="63"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5078,13 +5104,13 @@
       <c r="J34" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -5125,20 +5151,20 @@
       <c r="B42" t="s">
         <v>313</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -5179,20 +5205,20 @@
       <c r="B49" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -5240,13 +5266,13 @@
       <c r="E57" s="63"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -5289,13 +5315,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -5340,13 +5366,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -5390,13 +5416,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -5449,20 +5475,20 @@
       <c r="B89" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -5502,13 +5528,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="62" t="s">
+      <c r="A100" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="62"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -5548,13 +5574,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -5599,13 +5625,13 @@
       <c r="D113" s="63"/>
     </row>
     <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="62" t="s">
+      <c r="A116" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -5622,11 +5648,11 @@
       <c r="B118" t="s">
         <v>278</v>
       </c>
-      <c r="G118" s="65" t="s">
+      <c r="G118" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="H118" s="65"/>
-      <c r="I118" s="65"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -5700,13 +5726,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="62" t="s">
+      <c r="A124" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -5738,11 +5764,11 @@
         <v>252</v>
       </c>
       <c r="E127" s="13"/>
-      <c r="G127" s="65" t="s">
+      <c r="G127" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="65"/>
-      <c r="I127" s="65"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="70"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -5812,13 +5838,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="62" t="s">
+      <c r="A132" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -5846,7 +5872,7 @@
       <c r="B135" t="s">
         <v>252</v>
       </c>
-      <c r="E135" s="68" t="s">
+      <c r="E135" s="67" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5857,7 +5883,7 @@
       <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="E136" s="68"/>
+      <c r="E136" s="67"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -5868,16 +5894,16 @@
       </c>
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
-      <c r="E137" s="68"/>
+      <c r="E137" s="67"/>
     </row>
     <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B140" s="62"/>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="64"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -5925,13 +5951,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="62" t="s">
+      <c r="A148" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="64"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -5977,13 +6003,13 @@
       <c r="E153" s="63"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="62" t="s">
+      <c r="A156" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="B156" s="62"/>
-      <c r="C156" s="62"/>
-      <c r="D156" s="62"/>
-      <c r="E156" s="62"/>
+      <c r="B156" s="64"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="64"/>
     </row>
     <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -6055,13 +6081,13 @@
       <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="62" t="s">
+      <c r="A164" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="B164" s="62"/>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
+      <c r="B164" s="64"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="64"/>
+      <c r="E164" s="64"/>
     </row>
     <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -6125,13 +6151,13 @@
       <c r="E170" s="9"/>
     </row>
     <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A172" s="62" t="s">
+      <c r="A172" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="B172" s="62"/>
-      <c r="C172" s="62"/>
-      <c r="D172" s="62"/>
-      <c r="E172" s="62"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="64"/>
     </row>
     <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -6189,13 +6215,13 @@
       <c r="E177" s="63"/>
     </row>
     <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="62" t="s">
+      <c r="A180" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="B180" s="62"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="64"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="64"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -6234,20 +6260,20 @@
       <c r="A185" t="s">
         <v>249</v>
       </c>
-      <c r="B185" s="65" t="s">
+      <c r="B185" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="65"/>
-      <c r="D185" s="65"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="70"/>
     </row>
     <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="62" t="s">
+      <c r="A188" s="64" t="s">
         <v>319</v>
       </c>
-      <c r="B188" s="62"/>
-      <c r="C188" s="62"/>
-      <c r="D188" s="62"/>
-      <c r="E188" s="62"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="64"/>
+      <c r="E188" s="64"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
@@ -6286,11 +6312,11 @@
       <c r="A193" t="s">
         <v>249</v>
       </c>
-      <c r="B193" s="65" t="s">
+      <c r="B193" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="C193" s="65"/>
-      <c r="D193" s="65"/>
+      <c r="C193" s="70"/>
+      <c r="D193" s="70"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B194" s="9"/>
@@ -6298,13 +6324,13 @@
       <c r="D194" s="9"/>
     </row>
     <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="62" t="s">
+      <c r="A196" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="B196" s="62"/>
-      <c r="C196" s="62"/>
-      <c r="D196" s="62"/>
-      <c r="E196" s="62"/>
+      <c r="B196" s="64"/>
+      <c r="C196" s="64"/>
+      <c r="D196" s="64"/>
+      <c r="E196" s="64"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -6357,13 +6383,13 @@
       <c r="G201" s="63"/>
     </row>
     <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="62" t="s">
+      <c r="A204" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="B204" s="62"/>
-      <c r="C204" s="62"/>
-      <c r="D204" s="62"/>
-      <c r="E204" s="62"/>
+      <c r="B204" s="64"/>
+      <c r="C204" s="64"/>
+      <c r="D204" s="64"/>
+      <c r="E204" s="64"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -6408,13 +6434,13 @@
       <c r="D209" s="63"/>
     </row>
     <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="62" t="s">
+      <c r="A212" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="B212" s="62"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="62"/>
-      <c r="E212" s="62"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="64"/>
+      <c r="D212" s="64"/>
+      <c r="E212" s="64"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
@@ -6457,13 +6483,13 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="62" t="s">
+      <c r="A220" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="B220" s="62"/>
-      <c r="C220" s="62"/>
-      <c r="D220" s="62"/>
-      <c r="E220" s="62"/>
+      <c r="B220" s="64"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="64"/>
+      <c r="E220" s="64"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -6506,24 +6532,24 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
-      <c r="L227" s="65"/>
-      <c r="M227" s="65"/>
-      <c r="N227" s="65"/>
-      <c r="O227" s="65"/>
-      <c r="P227" s="65"/>
+      <c r="H227" s="70"/>
+      <c r="I227" s="70"/>
+      <c r="J227" s="70"/>
+      <c r="K227" s="70"/>
+      <c r="L227" s="70"/>
+      <c r="M227" s="70"/>
+      <c r="N227" s="70"/>
+      <c r="O227" s="70"/>
+      <c r="P227" s="70"/>
     </row>
     <row r="228" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="62" t="s">
+      <c r="A228" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="B228" s="62"/>
-      <c r="C228" s="62"/>
-      <c r="D228" s="62"/>
-      <c r="E228" s="62"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="64"/>
+      <c r="D228" s="64"/>
+      <c r="E228" s="64"/>
       <c r="F228" s="16"/>
       <c r="G228" s="11"/>
     </row>
@@ -6579,13 +6605,13 @@
       <c r="G234" s="11"/>
     </row>
     <row r="235" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A235" s="62" t="s">
+      <c r="A235" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="B235" s="62"/>
-      <c r="C235" s="62"/>
-      <c r="D235" s="62"/>
-      <c r="E235" s="62"/>
+      <c r="B235" s="64"/>
+      <c r="C235" s="64"/>
+      <c r="D235" s="64"/>
+      <c r="E235" s="64"/>
       <c r="F235" s="16"/>
       <c r="G235" s="11"/>
     </row>
@@ -6645,13 +6671,13 @@
       <c r="G242" s="11"/>
     </row>
     <row r="243" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A243" s="62" t="s">
+      <c r="A243" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="B243" s="62"/>
-      <c r="C243" s="62"/>
-      <c r="D243" s="62"/>
-      <c r="E243" s="62"/>
+      <c r="B243" s="64"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="64"/>
       <c r="F243" s="17"/>
       <c r="G243" s="22"/>
     </row>
@@ -6705,10 +6731,10 @@
       <c r="A248" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="70" t="s">
+      <c r="B248" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="C248" s="70"/>
+      <c r="C248" s="68"/>
       <c r="F248" s="17"/>
       <c r="G248" s="22"/>
     </row>
@@ -6721,13 +6747,13 @@
       <c r="G250" s="22"/>
     </row>
     <row r="251" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A251" s="62" t="s">
+      <c r="A251" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
-      <c r="D251" s="62"/>
-      <c r="E251" s="62"/>
+      <c r="B251" s="64"/>
+      <c r="C251" s="64"/>
+      <c r="D251" s="64"/>
+      <c r="E251" s="64"/>
       <c r="F251" s="17"/>
       <c r="G251" s="22"/>
     </row>
@@ -6792,13 +6818,13 @@
       <c r="G258" s="22"/>
     </row>
     <row r="259" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="62" t="s">
+      <c r="A259" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="B259" s="62"/>
-      <c r="C259" s="62"/>
-      <c r="D259" s="62"/>
-      <c r="E259" s="62"/>
+      <c r="B259" s="64"/>
+      <c r="C259" s="64"/>
+      <c r="D259" s="64"/>
+      <c r="E259" s="64"/>
       <c r="F259" s="17"/>
       <c r="G259" s="22"/>
     </row>
@@ -6862,13 +6888,13 @@
       <c r="G265" s="22"/>
     </row>
     <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A266" s="62" t="s">
+      <c r="A266" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="B266" s="62"/>
-      <c r="C266" s="62"/>
-      <c r="D266" s="62"/>
-      <c r="E266" s="62"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="64"/>
+      <c r="D266" s="64"/>
+      <c r="E266" s="64"/>
       <c r="F266" s="17"/>
       <c r="G266" s="22"/>
     </row>
@@ -6932,13 +6958,13 @@
       <c r="G272" s="11"/>
     </row>
     <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="62" t="s">
+      <c r="A273" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="B273" s="62"/>
-      <c r="C273" s="62"/>
-      <c r="D273" s="62"/>
-      <c r="E273" s="62"/>
+      <c r="B273" s="64"/>
+      <c r="C273" s="64"/>
+      <c r="D273" s="64"/>
+      <c r="E273" s="64"/>
       <c r="F273" s="16"/>
       <c r="G273" s="11"/>
     </row>
@@ -7030,13 +7056,13 @@
       <c r="J280" s="13"/>
     </row>
     <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="62" t="s">
+      <c r="A281" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="B281" s="62"/>
-      <c r="C281" s="62"/>
-      <c r="D281" s="62"/>
-      <c r="E281" s="62"/>
+      <c r="B281" s="64"/>
+      <c r="C281" s="64"/>
+      <c r="D281" s="64"/>
+      <c r="E281" s="64"/>
       <c r="F281" s="27"/>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
@@ -7096,20 +7122,20 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A289" s="62" t="s">
+      <c r="A289" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="B289" s="62"/>
-      <c r="C289" s="62"/>
-      <c r="D289" s="62"/>
-      <c r="E289" s="62"/>
+      <c r="B289" s="64"/>
+      <c r="C289" s="64"/>
+      <c r="D289" s="64"/>
+      <c r="E289" s="64"/>
       <c r="F289" s="17"/>
       <c r="G289" s="22"/>
-      <c r="H289" s="71" t="s">
+      <c r="H289" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="I289" s="71"/>
-      <c r="J289" s="71"/>
+      <c r="I289" s="65"/>
+      <c r="J289" s="65"/>
     </row>
     <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="s">
@@ -7143,19 +7169,19 @@
       <c r="C291" s="19"/>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
-      <c r="F291" s="72" t="s">
+      <c r="F291" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="G291" s="68" t="s">
+      <c r="G291" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="H291" s="68" t="s">
+      <c r="H291" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="I291" s="68" t="s">
+      <c r="I291" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="J291" s="68" t="s">
+      <c r="J291" s="67" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7167,11 +7193,11 @@
         <v>252</v>
       </c>
       <c r="C292" s="20"/>
-      <c r="F292" s="72"/>
-      <c r="G292" s="68"/>
-      <c r="H292" s="68"/>
-      <c r="I292" s="68"/>
-      <c r="J292" s="68"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="67"/>
+      <c r="H292" s="67"/>
+      <c r="I292" s="67"/>
+      <c r="J292" s="67"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="20" t="s">
@@ -7181,17 +7207,17 @@
         <v>272</v>
       </c>
       <c r="C293" s="20"/>
-      <c r="F293" s="72"/>
-      <c r="G293" s="68">
+      <c r="F293" s="66"/>
+      <c r="G293" s="67">
         <v>0</v>
       </c>
-      <c r="H293" s="68" t="s">
+      <c r="H293" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="I293" s="68">
+      <c r="I293" s="67">
         <v>1</v>
       </c>
-      <c r="J293" s="68">
+      <c r="J293" s="67">
         <v>1</v>
       </c>
     </row>
@@ -7203,42 +7229,42 @@
         <v>355</v>
       </c>
       <c r="C294" s="20"/>
-      <c r="F294" s="72"/>
-      <c r="G294" s="68"/>
-      <c r="H294" s="68"/>
-      <c r="I294" s="68"/>
-      <c r="J294" s="68"/>
+      <c r="F294" s="66"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F295" s="72"/>
-      <c r="G295" s="68">
+      <c r="F295" s="66"/>
+      <c r="G295" s="67">
         <v>1</v>
       </c>
-      <c r="H295" s="68" t="s">
+      <c r="H295" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="I295" s="68">
+      <c r="I295" s="67">
         <v>1</v>
       </c>
-      <c r="J295" s="68">
+      <c r="J295" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F296" s="72"/>
-      <c r="G296" s="68"/>
-      <c r="H296" s="68"/>
-      <c r="I296" s="68"/>
-      <c r="J296" s="68"/>
+      <c r="F296" s="66"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
     </row>
     <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A297" s="62" t="s">
+      <c r="A297" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="B297" s="62"/>
-      <c r="C297" s="62"/>
-      <c r="D297" s="62"/>
-      <c r="E297" s="62"/>
+      <c r="B297" s="64"/>
+      <c r="C297" s="64"/>
+      <c r="D297" s="64"/>
+      <c r="E297" s="64"/>
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
@@ -7332,13 +7358,13 @@
       <c r="J304" s="29"/>
     </row>
     <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A305" s="62" t="s">
+      <c r="A305" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="B305" s="62"/>
-      <c r="C305" s="62"/>
-      <c r="D305" s="62"/>
-      <c r="E305" s="62"/>
+      <c r="B305" s="64"/>
+      <c r="C305" s="64"/>
+      <c r="D305" s="64"/>
+      <c r="E305" s="64"/>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
@@ -7433,13 +7459,13 @@
       <c r="J312" s="29"/>
     </row>
     <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A313" s="62" t="s">
+      <c r="A313" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="B313" s="62"/>
-      <c r="C313" s="62"/>
-      <c r="D313" s="62"/>
-      <c r="E313" s="62"/>
+      <c r="B313" s="64"/>
+      <c r="C313" s="64"/>
+      <c r="D313" s="64"/>
+      <c r="E313" s="64"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
       <c r="H313" s="29"/>
@@ -7530,13 +7556,13 @@
       <c r="J320" s="29"/>
     </row>
     <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A321" s="62" t="s">
+      <c r="A321" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="B321" s="62"/>
-      <c r="C321" s="62"/>
-      <c r="D321" s="62"/>
-      <c r="E321" s="62"/>
+      <c r="B321" s="64"/>
+      <c r="C321" s="64"/>
+      <c r="D321" s="64"/>
+      <c r="E321" s="64"/>
       <c r="F321" s="46"/>
       <c r="G321" s="45"/>
       <c r="H321" s="45"/>
@@ -7628,13 +7654,13 @@
       <c r="J328" s="45"/>
     </row>
     <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="62" t="s">
+      <c r="A329" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="B329" s="62"/>
-      <c r="C329" s="62"/>
-      <c r="D329" s="62"/>
-      <c r="E329" s="62"/>
+      <c r="B329" s="64"/>
+      <c r="C329" s="64"/>
+      <c r="D329" s="64"/>
+      <c r="E329" s="64"/>
       <c r="F329" s="48"/>
       <c r="G329" s="49"/>
       <c r="H329" s="49"/>
@@ -7725,13 +7751,13 @@
       <c r="J336" s="49"/>
     </row>
     <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A337" s="62" t="s">
+      <c r="A337" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="B337" s="62"/>
-      <c r="C337" s="62"/>
-      <c r="D337" s="62"/>
-      <c r="E337" s="62"/>
+      <c r="B337" s="64"/>
+      <c r="C337" s="64"/>
+      <c r="D337" s="64"/>
+      <c r="E337" s="64"/>
       <c r="F337" s="48"/>
       <c r="G337" s="49"/>
       <c r="H337" s="49"/>
@@ -7822,13 +7848,13 @@
       <c r="J344" s="49"/>
     </row>
     <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A345" s="62" t="s">
+      <c r="A345" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="B345" s="62"/>
-      <c r="C345" s="62"/>
-      <c r="D345" s="62"/>
-      <c r="E345" s="62"/>
+      <c r="B345" s="64"/>
+      <c r="C345" s="64"/>
+      <c r="D345" s="64"/>
+      <c r="E345" s="64"/>
       <c r="F345" s="48"/>
       <c r="G345" s="49"/>
       <c r="H345" s="49"/>
@@ -7922,13 +7948,13 @@
       <c r="J352" s="49"/>
     </row>
     <row r="353" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="62" t="s">
+      <c r="A353" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="B353" s="62"/>
-      <c r="C353" s="62"/>
-      <c r="D353" s="62"/>
-      <c r="E353" s="62"/>
+      <c r="B353" s="64"/>
+      <c r="C353" s="64"/>
+      <c r="D353" s="64"/>
+      <c r="E353" s="64"/>
       <c r="F353" s="48"/>
       <c r="G353" s="49"/>
       <c r="H353" s="49"/>
@@ -8026,13 +8052,13 @@
       <c r="J360" s="49"/>
     </row>
     <row r="361" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A361" s="62" t="s">
+      <c r="A361" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="B361" s="62"/>
-      <c r="C361" s="62"/>
-      <c r="D361" s="62"/>
-      <c r="E361" s="62"/>
+      <c r="B361" s="64"/>
+      <c r="C361" s="64"/>
+      <c r="D361" s="64"/>
+      <c r="E361" s="64"/>
       <c r="F361" s="48"/>
       <c r="G361" s="49"/>
       <c r="H361" s="49"/>
@@ -8122,13 +8148,13 @@
       <c r="J368" s="49"/>
     </row>
     <row r="369" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A369" s="62" t="s">
+      <c r="A369" s="64" t="s">
         <v>500</v>
       </c>
-      <c r="B369" s="62"/>
-      <c r="C369" s="62"/>
-      <c r="D369" s="62"/>
-      <c r="E369" s="62"/>
+      <c r="B369" s="64"/>
+      <c r="C369" s="64"/>
+      <c r="D369" s="64"/>
+      <c r="E369" s="64"/>
       <c r="F369" s="48"/>
       <c r="G369" s="49"/>
       <c r="H369" s="49"/>
@@ -8218,13 +8244,13 @@
       <c r="J376" s="49"/>
     </row>
     <row r="377" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A377" s="62" t="s">
+      <c r="A377" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="B377" s="62"/>
-      <c r="C377" s="62"/>
-      <c r="D377" s="62"/>
-      <c r="E377" s="62"/>
+      <c r="B377" s="64"/>
+      <c r="C377" s="64"/>
+      <c r="D377" s="64"/>
+      <c r="E377" s="64"/>
       <c r="F377" s="48"/>
       <c r="G377" s="49"/>
       <c r="H377" s="49"/>
@@ -8314,13 +8340,13 @@
       <c r="J384" s="49"/>
     </row>
     <row r="385" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A385" s="62" t="s">
+      <c r="A385" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="B385" s="62"/>
-      <c r="C385" s="62"/>
-      <c r="D385" s="62"/>
-      <c r="E385" s="62"/>
+      <c r="B385" s="64"/>
+      <c r="C385" s="64"/>
+      <c r="D385" s="64"/>
+      <c r="E385" s="64"/>
       <c r="F385" s="48"/>
       <c r="G385" s="49"/>
       <c r="H385" s="49"/>
@@ -8410,13 +8436,13 @@
       <c r="J392" s="49"/>
     </row>
     <row r="393" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A393" s="62" t="s">
+      <c r="A393" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="B393" s="62"/>
-      <c r="C393" s="62"/>
-      <c r="D393" s="62"/>
-      <c r="E393" s="62"/>
+      <c r="B393" s="64"/>
+      <c r="C393" s="64"/>
+      <c r="D393" s="64"/>
+      <c r="E393" s="64"/>
       <c r="F393" s="48"/>
       <c r="G393" s="49"/>
       <c r="H393" s="49"/>
@@ -8506,13 +8532,13 @@
       <c r="J400" s="49"/>
     </row>
     <row r="401" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="62" t="s">
+      <c r="A401" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="B401" s="62"/>
-      <c r="C401" s="62"/>
-      <c r="D401" s="62"/>
-      <c r="E401" s="62"/>
+      <c r="B401" s="64"/>
+      <c r="C401" s="64"/>
+      <c r="D401" s="64"/>
+      <c r="E401" s="64"/>
       <c r="F401" s="51"/>
       <c r="G401" s="50"/>
       <c r="H401" s="50"/>
@@ -8602,13 +8628,13 @@
       <c r="J408" s="50"/>
     </row>
     <row r="409" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A409" s="62" t="s">
+      <c r="A409" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="B409" s="62"/>
-      <c r="C409" s="62"/>
-      <c r="D409" s="62"/>
-      <c r="E409" s="62"/>
+      <c r="B409" s="64"/>
+      <c r="C409" s="64"/>
+      <c r="D409" s="64"/>
+      <c r="E409" s="64"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
@@ -8651,13 +8677,13 @@
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="62" t="s">
+      <c r="A417" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="B417" s="62"/>
-      <c r="C417" s="62"/>
-      <c r="D417" s="62"/>
-      <c r="E417" s="62"/>
+      <c r="B417" s="64"/>
+      <c r="C417" s="64"/>
+      <c r="D417" s="64"/>
+      <c r="E417" s="64"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
@@ -8701,55 +8727,54 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="A361:E361"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="A369:E369"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="A385:E385"/>
-    <mergeCell ref="A345:E345"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="F291:F296"/>
-    <mergeCell ref="G291:G292"/>
-    <mergeCell ref="H291:H292"/>
-    <mergeCell ref="I291:I292"/>
-    <mergeCell ref="J291:J292"/>
-    <mergeCell ref="G293:G294"/>
-    <mergeCell ref="H293:H294"/>
-    <mergeCell ref="I293:I294"/>
-    <mergeCell ref="J293:J294"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="H295:H296"/>
-    <mergeCell ref="I295:I296"/>
-    <mergeCell ref="J295:J296"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A337:E337"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="A259:E259"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A305:E305"/>
+    <mergeCell ref="A313:E313"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B302:E302"/>
+    <mergeCell ref="B306:I306"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="H227:P227"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A417:E417"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="A156:E156"/>
@@ -8774,54 +8799,55 @@
     <mergeCell ref="B193:D193"/>
     <mergeCell ref="A289:E289"/>
     <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="B406:C406"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A305:E305"/>
-    <mergeCell ref="A313:E313"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B306:I306"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="H227:P227"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A337:E337"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="A345:E345"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="F291:F296"/>
+    <mergeCell ref="G291:G292"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="I291:I292"/>
+    <mergeCell ref="J291:J292"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="I293:I294"/>
+    <mergeCell ref="J293:J294"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="H295:H296"/>
+    <mergeCell ref="I295:I296"/>
+    <mergeCell ref="J295:J296"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="A361:E361"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="A369:E369"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="A385:E385"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>

--- a/ADD Health/Variable Dictionary.xlsx
+++ b/ADD Health/Variable Dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2137" documentId="8_{FCAF3341-BDDC-4A0C-8D73-96E96B24F734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F854B125-8E10-43CF-99B3-1E118AA20AC6}"/>
   <bookViews>
-    <workbookView xWindow="20652" yWindow="2508" windowWidth="2388" windowHeight="564" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0389E965-0FD1-446B-BFBB-6412F7A2EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -1922,26 +1922,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,7 +1941,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF783D4C-CAEC-4023-A64C-1756038AD71D}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4843,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AD724-736B-43C8-A196-A61D125547F6}">
   <dimension ref="A1:P422"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4857,27 +4857,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4924,23 +4924,23 @@
       <c r="A10" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4978,20 +4978,20 @@
       <c r="A18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5000,10 +5000,10 @@
       <c r="B22" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5033,21 +5033,21 @@
       <c r="A26" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5056,10 +5056,10 @@
       <c r="B30" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="64"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5089,28 +5089,28 @@
       <c r="A34" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -5151,20 +5151,20 @@
       <c r="B42" t="s">
         <v>313</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -5205,20 +5205,20 @@
       <c r="B49" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -5259,20 +5259,20 @@
       <c r="B57" t="s">
         <v>355</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -5315,23 +5315,23 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>248</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -5366,13 +5366,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -5386,10 +5386,10 @@
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="63"/>
+      <c r="C78" s="64"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -5416,13 +5416,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -5445,12 +5445,12 @@
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -5475,20 +5475,20 @@
       <c r="B89" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+      <c r="A92" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -5528,13 +5528,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="64" t="s">
+      <c r="A100" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="64"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -5574,13 +5574,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -5618,20 +5618,20 @@
       <c r="A113" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="63" t="s">
+      <c r="B113" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
     </row>
     <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="64" t="s">
+      <c r="A116" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -5648,11 +5648,11 @@
       <c r="B118" t="s">
         <v>278</v>
       </c>
-      <c r="G118" s="70" t="s">
+      <c r="G118" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -5726,13 +5726,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="64" t="s">
+      <c r="A124" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="64"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -5764,11 +5764,11 @@
         <v>252</v>
       </c>
       <c r="E127" s="13"/>
-      <c r="G127" s="70" t="s">
+      <c r="G127" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="70"/>
-      <c r="I127" s="70"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -5838,13 +5838,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="64" t="s">
+      <c r="A132" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="64"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -5872,7 +5872,7 @@
       <c r="B135" t="s">
         <v>252</v>
       </c>
-      <c r="E135" s="67" t="s">
+      <c r="E135" s="69" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5883,27 +5883,27 @@
       <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="E136" s="67"/>
+      <c r="E136" s="69"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>249</v>
       </c>
-      <c r="B137" s="63" t="s">
+      <c r="B137" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="67"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="69"/>
     </row>
     <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="64" t="s">
+      <c r="A140" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="64"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -5951,13 +5951,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="64" t="s">
+      <c r="A148" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="64"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="64"/>
-      <c r="E148" s="64"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="63"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="63"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -5995,21 +5995,21 @@
       <c r="A153" t="s">
         <v>249</v>
       </c>
-      <c r="B153" s="63" t="s">
+      <c r="B153" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C153" s="63"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="63"/>
+      <c r="C153" s="64"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="64"/>
     </row>
     <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="64" t="s">
+      <c r="A156" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="B156" s="64"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="64"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="63"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="63"/>
     </row>
     <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -6059,11 +6059,11 @@
       <c r="A161" t="s">
         <v>249</v>
       </c>
-      <c r="B161" s="69" t="s">
+      <c r="B161" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="C161" s="69"/>
-      <c r="D161" s="69"/>
+      <c r="C161" s="70"/>
+      <c r="D161" s="70"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6081,13 +6081,13 @@
       <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="64" t="s">
+      <c r="A164" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="B164" s="64"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="64"/>
-      <c r="E164" s="64"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="63"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
     </row>
     <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -6137,12 +6137,12 @@
       <c r="A169" t="s">
         <v>249</v>
       </c>
-      <c r="B169" s="63" t="s">
+      <c r="B169" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="C169" s="63"/>
-      <c r="D169" s="63"/>
-      <c r="E169" s="63"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
@@ -6151,13 +6151,13 @@
       <c r="E170" s="9"/>
     </row>
     <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A172" s="64" t="s">
+      <c r="A172" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="B172" s="64"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="64"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="63"/>
     </row>
     <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -6207,30 +6207,30 @@
       <c r="A177" t="s">
         <v>249</v>
       </c>
-      <c r="B177" s="63" t="s">
+      <c r="B177" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="C177" s="63"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="63"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
     </row>
     <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="64" t="s">
+      <c r="A180" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="B180" s="64"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="64"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="63" t="s">
+      <c r="B181" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="C181" s="63"/>
+      <c r="C181" s="64"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -6260,29 +6260,29 @@
       <c r="A185" t="s">
         <v>249</v>
       </c>
-      <c r="B185" s="70" t="s">
+      <c r="B185" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="70"/>
-      <c r="D185" s="70"/>
+      <c r="C185" s="66"/>
+      <c r="D185" s="66"/>
     </row>
     <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="64" t="s">
+      <c r="A188" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="B188" s="64"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="64"/>
-      <c r="E188" s="64"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="63"/>
+      <c r="D188" s="63"/>
+      <c r="E188" s="63"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>248</v>
       </c>
-      <c r="B189" s="63" t="s">
+      <c r="B189" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="C189" s="63"/>
+      <c r="C189" s="64"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -6312,11 +6312,11 @@
       <c r="A193" t="s">
         <v>249</v>
       </c>
-      <c r="B193" s="70" t="s">
+      <c r="B193" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="C193" s="70"/>
-      <c r="D193" s="70"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="66"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B194" s="9"/>
@@ -6324,13 +6324,13 @@
       <c r="D194" s="9"/>
     </row>
     <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="64" t="s">
+      <c r="A196" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="B196" s="64"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="64"/>
+      <c r="B196" s="63"/>
+      <c r="C196" s="63"/>
+      <c r="D196" s="63"/>
+      <c r="E196" s="63"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -6371,25 +6371,25 @@
       <c r="A201" t="s">
         <v>249</v>
       </c>
-      <c r="B201" s="63" t="s">
+      <c r="B201" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="C201" s="63"/>
-      <c r="D201" s="63"/>
-      <c r="E201" s="63" t="s">
+      <c r="C201" s="64"/>
+      <c r="D201" s="64"/>
+      <c r="E201" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="F201" s="63"/>
-      <c r="G201" s="63"/>
+      <c r="F201" s="64"/>
+      <c r="G201" s="64"/>
     </row>
     <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="64" t="s">
+      <c r="A204" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
+      <c r="B204" s="63"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -6427,20 +6427,20 @@
       <c r="A209" t="s">
         <v>249</v>
       </c>
-      <c r="B209" s="63" t="s">
+      <c r="B209" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="C209" s="63"/>
-      <c r="D209" s="63"/>
+      <c r="C209" s="64"/>
+      <c r="D209" s="64"/>
     </row>
     <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="64" t="s">
+      <c r="A212" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="B212" s="64"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
@@ -6483,13 +6483,13 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="64" t="s">
+      <c r="A220" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
+      <c r="B220" s="63"/>
+      <c r="C220" s="63"/>
+      <c r="D220" s="63"/>
+      <c r="E220" s="63"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -6532,24 +6532,24 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H227" s="70"/>
-      <c r="I227" s="70"/>
-      <c r="J227" s="70"/>
-      <c r="K227" s="70"/>
-      <c r="L227" s="70"/>
-      <c r="M227" s="70"/>
-      <c r="N227" s="70"/>
-      <c r="O227" s="70"/>
-      <c r="P227" s="70"/>
+      <c r="H227" s="66"/>
+      <c r="I227" s="66"/>
+      <c r="J227" s="66"/>
+      <c r="K227" s="66"/>
+      <c r="L227" s="66"/>
+      <c r="M227" s="66"/>
+      <c r="N227" s="66"/>
+      <c r="O227" s="66"/>
+      <c r="P227" s="66"/>
     </row>
     <row r="228" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="64" t="s">
+      <c r="A228" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
+      <c r="B228" s="63"/>
+      <c r="C228" s="63"/>
+      <c r="D228" s="63"/>
+      <c r="E228" s="63"/>
       <c r="F228" s="16"/>
       <c r="G228" s="11"/>
     </row>
@@ -6605,13 +6605,13 @@
       <c r="G234" s="11"/>
     </row>
     <row r="235" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A235" s="64" t="s">
+      <c r="A235" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="B235" s="64"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="64"/>
+      <c r="B235" s="63"/>
+      <c r="C235" s="63"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
       <c r="F235" s="16"/>
       <c r="G235" s="11"/>
     </row>
@@ -6671,13 +6671,13 @@
       <c r="G242" s="11"/>
     </row>
     <row r="243" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A243" s="64" t="s">
+      <c r="A243" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="B243" s="64"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
+      <c r="B243" s="63"/>
+      <c r="C243" s="63"/>
+      <c r="D243" s="63"/>
+      <c r="E243" s="63"/>
       <c r="F243" s="17"/>
       <c r="G243" s="22"/>
     </row>
@@ -6731,10 +6731,10 @@
       <c r="A248" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="68" t="s">
+      <c r="B248" s="71" t="s">
         <v>419</v>
       </c>
-      <c r="C248" s="68"/>
+      <c r="C248" s="71"/>
       <c r="F248" s="17"/>
       <c r="G248" s="22"/>
     </row>
@@ -6747,13 +6747,13 @@
       <c r="G250" s="22"/>
     </row>
     <row r="251" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A251" s="64" t="s">
+      <c r="A251" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="64"/>
-      <c r="E251" s="64"/>
+      <c r="B251" s="63"/>
+      <c r="C251" s="63"/>
+      <c r="D251" s="63"/>
+      <c r="E251" s="63"/>
       <c r="F251" s="17"/>
       <c r="G251" s="22"/>
     </row>
@@ -6801,11 +6801,11 @@
       <c r="A256" t="s">
         <v>249</v>
       </c>
-      <c r="B256" s="63" t="s">
+      <c r="B256" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C256" s="63"/>
-      <c r="D256" s="63"/>
+      <c r="C256" s="64"/>
+      <c r="D256" s="64"/>
       <c r="F256" s="17"/>
       <c r="G256" s="22"/>
     </row>
@@ -6818,13 +6818,13 @@
       <c r="G258" s="22"/>
     </row>
     <row r="259" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="64" t="s">
+      <c r="A259" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="B259" s="64"/>
-      <c r="C259" s="64"/>
-      <c r="D259" s="64"/>
-      <c r="E259" s="64"/>
+      <c r="B259" s="63"/>
+      <c r="C259" s="63"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="63"/>
       <c r="F259" s="17"/>
       <c r="G259" s="22"/>
     </row>
@@ -6875,11 +6875,11 @@
       <c r="A264" t="s">
         <v>249</v>
       </c>
-      <c r="B264" s="63" t="s">
+      <c r="B264" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C264" s="63"/>
-      <c r="D264" s="63"/>
+      <c r="C264" s="64"/>
+      <c r="D264" s="64"/>
       <c r="F264" s="17"/>
       <c r="G264" s="22"/>
     </row>
@@ -6888,13 +6888,13 @@
       <c r="G265" s="22"/>
     </row>
     <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A266" s="64" t="s">
+      <c r="A266" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="B266" s="64"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="64"/>
-      <c r="E266" s="64"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="63"/>
+      <c r="D266" s="63"/>
+      <c r="E266" s="63"/>
       <c r="F266" s="17"/>
       <c r="G266" s="22"/>
     </row>
@@ -6945,11 +6945,11 @@
       <c r="A271" t="s">
         <v>249</v>
       </c>
-      <c r="B271" s="63" t="s">
+      <c r="B271" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C271" s="63"/>
-      <c r="D271" s="63"/>
+      <c r="C271" s="64"/>
+      <c r="D271" s="64"/>
       <c r="F271" s="16"/>
       <c r="G271" s="11"/>
     </row>
@@ -6958,13 +6958,13 @@
       <c r="G272" s="11"/>
     </row>
     <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="64" t="s">
+      <c r="A273" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="B273" s="64"/>
-      <c r="C273" s="64"/>
-      <c r="D273" s="64"/>
-      <c r="E273" s="64"/>
+      <c r="B273" s="63"/>
+      <c r="C273" s="63"/>
+      <c r="D273" s="63"/>
+      <c r="E273" s="63"/>
       <c r="F273" s="16"/>
       <c r="G273" s="11"/>
     </row>
@@ -7024,11 +7024,11 @@
       <c r="A278" t="s">
         <v>249</v>
       </c>
-      <c r="B278" s="63" t="s">
+      <c r="B278" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C278" s="63"/>
-      <c r="D278" s="63"/>
+      <c r="C278" s="64"/>
+      <c r="D278" s="64"/>
       <c r="F278" s="27"/>
       <c r="G278" s="13"/>
       <c r="H278" s="13"/>
@@ -7056,13 +7056,13 @@
       <c r="J280" s="13"/>
     </row>
     <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="64" t="s">
+      <c r="A281" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="B281" s="64"/>
-      <c r="C281" s="64"/>
-      <c r="D281" s="64"/>
-      <c r="E281" s="64"/>
+      <c r="B281" s="63"/>
+      <c r="C281" s="63"/>
+      <c r="D281" s="63"/>
+      <c r="E281" s="63"/>
       <c r="F281" s="27"/>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
@@ -7122,20 +7122,20 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A289" s="64" t="s">
+      <c r="A289" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="B289" s="64"/>
-      <c r="C289" s="64"/>
-      <c r="D289" s="64"/>
-      <c r="E289" s="64"/>
+      <c r="B289" s="63"/>
+      <c r="C289" s="63"/>
+      <c r="D289" s="63"/>
+      <c r="E289" s="63"/>
       <c r="F289" s="17"/>
       <c r="G289" s="22"/>
-      <c r="H289" s="65" t="s">
+      <c r="H289" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="I289" s="65"/>
-      <c r="J289" s="65"/>
+      <c r="I289" s="72"/>
+      <c r="J289" s="72"/>
     </row>
     <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="s">
@@ -7169,19 +7169,19 @@
       <c r="C291" s="19"/>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
-      <c r="F291" s="66" t="s">
+      <c r="F291" s="73" t="s">
         <v>353</v>
       </c>
-      <c r="G291" s="67" t="s">
+      <c r="G291" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="H291" s="67" t="s">
+      <c r="H291" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="I291" s="67" t="s">
+      <c r="I291" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="J291" s="67" t="s">
+      <c r="J291" s="69" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7193,11 +7193,11 @@
         <v>252</v>
       </c>
       <c r="C292" s="20"/>
-      <c r="F292" s="66"/>
-      <c r="G292" s="67"/>
-      <c r="H292" s="67"/>
-      <c r="I292" s="67"/>
-      <c r="J292" s="67"/>
+      <c r="F292" s="73"/>
+      <c r="G292" s="69"/>
+      <c r="H292" s="69"/>
+      <c r="I292" s="69"/>
+      <c r="J292" s="69"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="20" t="s">
@@ -7207,17 +7207,17 @@
         <v>272</v>
       </c>
       <c r="C293" s="20"/>
-      <c r="F293" s="66"/>
-      <c r="G293" s="67">
+      <c r="F293" s="73"/>
+      <c r="G293" s="69">
         <v>0</v>
       </c>
-      <c r="H293" s="67" t="s">
+      <c r="H293" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="I293" s="67">
+      <c r="I293" s="69">
         <v>1</v>
       </c>
-      <c r="J293" s="67">
+      <c r="J293" s="69">
         <v>1</v>
       </c>
     </row>
@@ -7229,42 +7229,42 @@
         <v>355</v>
       </c>
       <c r="C294" s="20"/>
-      <c r="F294" s="66"/>
-      <c r="G294" s="67"/>
-      <c r="H294" s="67"/>
-      <c r="I294" s="67"/>
-      <c r="J294" s="67"/>
+      <c r="F294" s="73"/>
+      <c r="G294" s="69"/>
+      <c r="H294" s="69"/>
+      <c r="I294" s="69"/>
+      <c r="J294" s="69"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F295" s="66"/>
-      <c r="G295" s="67">
+      <c r="F295" s="73"/>
+      <c r="G295" s="69">
         <v>1</v>
       </c>
-      <c r="H295" s="67" t="s">
+      <c r="H295" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="I295" s="67">
+      <c r="I295" s="69">
         <v>1</v>
       </c>
-      <c r="J295" s="67">
+      <c r="J295" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F296" s="66"/>
-      <c r="G296" s="67"/>
-      <c r="H296" s="67"/>
-      <c r="I296" s="67"/>
-      <c r="J296" s="67"/>
+      <c r="F296" s="73"/>
+      <c r="G296" s="69"/>
+      <c r="H296" s="69"/>
+      <c r="I296" s="69"/>
+      <c r="J296" s="69"/>
     </row>
     <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A297" s="64" t="s">
+      <c r="A297" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="B297" s="64"/>
-      <c r="C297" s="64"/>
-      <c r="D297" s="64"/>
-      <c r="E297" s="64"/>
+      <c r="B297" s="63"/>
+      <c r="C297" s="63"/>
+      <c r="D297" s="63"/>
+      <c r="E297" s="63"/>
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
@@ -7275,13 +7275,13 @@
       <c r="A298" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B298" s="63" t="s">
+      <c r="B298" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="C298" s="63"/>
-      <c r="D298" s="63"/>
-      <c r="E298" s="63"/>
-      <c r="F298" s="63"/>
+      <c r="C298" s="64"/>
+      <c r="D298" s="64"/>
+      <c r="E298" s="64"/>
+      <c r="F298" s="64"/>
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
       <c r="I298" s="29"/>
@@ -7330,12 +7330,12 @@
       <c r="A302" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B302" s="63" t="s">
+      <c r="B302" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="C302" s="63"/>
-      <c r="D302" s="63"/>
-      <c r="E302" s="63"/>
+      <c r="C302" s="64"/>
+      <c r="D302" s="64"/>
+      <c r="E302" s="64"/>
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
       <c r="H302" s="29"/>
@@ -7358,13 +7358,13 @@
       <c r="J304" s="29"/>
     </row>
     <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A305" s="64" t="s">
+      <c r="A305" s="63" t="s">
         <v>457</v>
       </c>
-      <c r="B305" s="64"/>
-      <c r="C305" s="64"/>
-      <c r="D305" s="64"/>
-      <c r="E305" s="64"/>
+      <c r="B305" s="63"/>
+      <c r="C305" s="63"/>
+      <c r="D305" s="63"/>
+      <c r="E305" s="63"/>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
@@ -7375,16 +7375,16 @@
       <c r="A306" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B306" s="63" t="s">
+      <c r="B306" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="C306" s="63"/>
-      <c r="D306" s="63"/>
-      <c r="E306" s="63"/>
-      <c r="F306" s="63"/>
-      <c r="G306" s="63"/>
-      <c r="H306" s="63"/>
-      <c r="I306" s="63"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="64"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
       <c r="J306" s="29"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -7430,12 +7430,12 @@
       <c r="A310" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B310" s="63" t="s">
+      <c r="B310" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="C310" s="63"/>
-      <c r="D310" s="63"/>
-      <c r="E310" s="63"/>
+      <c r="C310" s="64"/>
+      <c r="D310" s="64"/>
+      <c r="E310" s="64"/>
       <c r="F310" s="31"/>
       <c r="G310" s="29"/>
       <c r="H310" s="29"/>
@@ -7459,13 +7459,13 @@
       <c r="J312" s="29"/>
     </row>
     <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A313" s="64" t="s">
+      <c r="A313" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="B313" s="64"/>
-      <c r="C313" s="64"/>
-      <c r="D313" s="64"/>
-      <c r="E313" s="64"/>
+      <c r="B313" s="63"/>
+      <c r="C313" s="63"/>
+      <c r="D313" s="63"/>
+      <c r="E313" s="63"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
       <c r="H313" s="29"/>
@@ -7528,11 +7528,11 @@
       <c r="A318" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B318" s="63" t="s">
+      <c r="B318" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="C318" s="63"/>
-      <c r="D318" s="63"/>
+      <c r="C318" s="64"/>
+      <c r="D318" s="64"/>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
       <c r="H318" s="29"/>
@@ -7556,13 +7556,13 @@
       <c r="J320" s="29"/>
     </row>
     <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A321" s="64" t="s">
+      <c r="A321" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="B321" s="64"/>
-      <c r="C321" s="64"/>
-      <c r="D321" s="64"/>
-      <c r="E321" s="64"/>
+      <c r="B321" s="63"/>
+      <c r="C321" s="63"/>
+      <c r="D321" s="63"/>
+      <c r="E321" s="63"/>
       <c r="F321" s="46"/>
       <c r="G321" s="45"/>
       <c r="H321" s="45"/>
@@ -7625,12 +7625,12 @@
       <c r="A326" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B326" s="63" t="s">
+      <c r="B326" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="C326" s="63"/>
-      <c r="D326" s="63"/>
-      <c r="E326" s="63"/>
+      <c r="C326" s="64"/>
+      <c r="D326" s="64"/>
+      <c r="E326" s="64"/>
       <c r="F326" s="46"/>
       <c r="G326" s="45"/>
       <c r="H326" s="45"/>
@@ -7654,13 +7654,13 @@
       <c r="J328" s="45"/>
     </row>
     <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="64" t="s">
+      <c r="A329" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="B329" s="64"/>
-      <c r="C329" s="64"/>
-      <c r="D329" s="64"/>
-      <c r="E329" s="64"/>
+      <c r="B329" s="63"/>
+      <c r="C329" s="63"/>
+      <c r="D329" s="63"/>
+      <c r="E329" s="63"/>
       <c r="F329" s="48"/>
       <c r="G329" s="49"/>
       <c r="H329" s="49"/>
@@ -7723,10 +7723,10 @@
       <c r="A334" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B334" s="63" t="s">
+      <c r="B334" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C334" s="63"/>
+      <c r="C334" s="64"/>
       <c r="D334" s="10"/>
       <c r="F334" s="48"/>
       <c r="G334" s="49"/>
@@ -7751,13 +7751,13 @@
       <c r="J336" s="49"/>
     </row>
     <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A337" s="64" t="s">
+      <c r="A337" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="B337" s="64"/>
-      <c r="C337" s="64"/>
-      <c r="D337" s="64"/>
-      <c r="E337" s="64"/>
+      <c r="B337" s="63"/>
+      <c r="C337" s="63"/>
+      <c r="D337" s="63"/>
+      <c r="E337" s="63"/>
       <c r="F337" s="48"/>
       <c r="G337" s="49"/>
       <c r="H337" s="49"/>
@@ -7820,10 +7820,10 @@
       <c r="A342" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B342" s="63" t="s">
+      <c r="B342" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C342" s="63"/>
+      <c r="C342" s="64"/>
       <c r="D342" s="10"/>
       <c r="F342" s="48"/>
       <c r="G342" s="49"/>
@@ -7848,13 +7848,13 @@
       <c r="J344" s="49"/>
     </row>
     <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A345" s="64" t="s">
+      <c r="A345" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="B345" s="64"/>
-      <c r="C345" s="64"/>
-      <c r="D345" s="64"/>
-      <c r="E345" s="64"/>
+      <c r="B345" s="63"/>
+      <c r="C345" s="63"/>
+      <c r="D345" s="63"/>
+      <c r="E345" s="63"/>
       <c r="F345" s="48"/>
       <c r="G345" s="49"/>
       <c r="H345" s="49"/>
@@ -7917,10 +7917,10 @@
       <c r="A350" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B350" s="63" t="s">
+      <c r="B350" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C350" s="63"/>
+      <c r="C350" s="64"/>
       <c r="F350" s="48"/>
       <c r="G350" s="49"/>
       <c r="H350" s="49"/>
@@ -7948,13 +7948,13 @@
       <c r="J352" s="49"/>
     </row>
     <row r="353" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="64" t="s">
+      <c r="A353" s="63" t="s">
         <v>497</v>
       </c>
-      <c r="B353" s="64"/>
-      <c r="C353" s="64"/>
-      <c r="D353" s="64"/>
-      <c r="E353" s="64"/>
+      <c r="B353" s="63"/>
+      <c r="C353" s="63"/>
+      <c r="D353" s="63"/>
+      <c r="E353" s="63"/>
       <c r="F353" s="48"/>
       <c r="G353" s="49"/>
       <c r="H353" s="49"/>
@@ -8021,10 +8021,10 @@
       <c r="A358" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B358" s="63" t="s">
+      <c r="B358" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C358" s="63"/>
+      <c r="C358" s="64"/>
       <c r="F358" s="48"/>
       <c r="G358" s="49"/>
       <c r="H358" s="49"/>
@@ -8052,13 +8052,13 @@
       <c r="J360" s="49"/>
     </row>
     <row r="361" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A361" s="64" t="s">
+      <c r="A361" s="63" t="s">
         <v>498</v>
       </c>
-      <c r="B361" s="64"/>
-      <c r="C361" s="64"/>
-      <c r="D361" s="64"/>
-      <c r="E361" s="64"/>
+      <c r="B361" s="63"/>
+      <c r="C361" s="63"/>
+      <c r="D361" s="63"/>
+      <c r="E361" s="63"/>
       <c r="F361" s="48"/>
       <c r="G361" s="49"/>
       <c r="H361" s="49"/>
@@ -8121,10 +8121,10 @@
       <c r="A366" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B366" s="63" t="s">
+      <c r="B366" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C366" s="63"/>
+      <c r="C366" s="64"/>
       <c r="F366" s="48"/>
       <c r="G366" s="49"/>
       <c r="H366" s="49"/>
@@ -8148,13 +8148,13 @@
       <c r="J368" s="49"/>
     </row>
     <row r="369" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A369" s="64" t="s">
+      <c r="A369" s="63" t="s">
         <v>500</v>
       </c>
-      <c r="B369" s="64"/>
-      <c r="C369" s="64"/>
-      <c r="D369" s="64"/>
-      <c r="E369" s="64"/>
+      <c r="B369" s="63"/>
+      <c r="C369" s="63"/>
+      <c r="D369" s="63"/>
+      <c r="E369" s="63"/>
       <c r="F369" s="48"/>
       <c r="G369" s="49"/>
       <c r="H369" s="49"/>
@@ -8217,10 +8217,10 @@
       <c r="A374" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B374" s="63" t="s">
+      <c r="B374" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C374" s="63"/>
+      <c r="C374" s="64"/>
       <c r="F374" s="48"/>
       <c r="G374" s="49"/>
       <c r="H374" s="49"/>
@@ -8244,13 +8244,13 @@
       <c r="J376" s="49"/>
     </row>
     <row r="377" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A377" s="64" t="s">
+      <c r="A377" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="B377" s="64"/>
-      <c r="C377" s="64"/>
-      <c r="D377" s="64"/>
-      <c r="E377" s="64"/>
+      <c r="B377" s="63"/>
+      <c r="C377" s="63"/>
+      <c r="D377" s="63"/>
+      <c r="E377" s="63"/>
       <c r="F377" s="48"/>
       <c r="G377" s="49"/>
       <c r="H377" s="49"/>
@@ -8313,10 +8313,10 @@
       <c r="A382" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B382" s="63" t="s">
+      <c r="B382" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C382" s="63"/>
+      <c r="C382" s="64"/>
       <c r="F382" s="48"/>
       <c r="G382" s="49"/>
       <c r="H382" s="49"/>
@@ -8340,13 +8340,13 @@
       <c r="J384" s="49"/>
     </row>
     <row r="385" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A385" s="64" t="s">
+      <c r="A385" s="63" t="s">
         <v>502</v>
       </c>
-      <c r="B385" s="64"/>
-      <c r="C385" s="64"/>
-      <c r="D385" s="64"/>
-      <c r="E385" s="64"/>
+      <c r="B385" s="63"/>
+      <c r="C385" s="63"/>
+      <c r="D385" s="63"/>
+      <c r="E385" s="63"/>
       <c r="F385" s="48"/>
       <c r="G385" s="49"/>
       <c r="H385" s="49"/>
@@ -8409,10 +8409,10 @@
       <c r="A390" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B390" s="63" t="s">
+      <c r="B390" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="C390" s="63"/>
+      <c r="C390" s="64"/>
       <c r="F390" s="48"/>
       <c r="G390" s="49"/>
       <c r="H390" s="49"/>
@@ -8436,13 +8436,13 @@
       <c r="J392" s="49"/>
     </row>
     <row r="393" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A393" s="64" t="s">
+      <c r="A393" s="63" t="s">
         <v>504</v>
       </c>
-      <c r="B393" s="64"/>
-      <c r="C393" s="64"/>
-      <c r="D393" s="64"/>
-      <c r="E393" s="64"/>
+      <c r="B393" s="63"/>
+      <c r="C393" s="63"/>
+      <c r="D393" s="63"/>
+      <c r="E393" s="63"/>
       <c r="F393" s="48"/>
       <c r="G393" s="49"/>
       <c r="H393" s="49"/>
@@ -8505,10 +8505,10 @@
       <c r="A398" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B398" s="63" t="s">
+      <c r="B398" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="C398" s="63"/>
+      <c r="C398" s="64"/>
       <c r="F398" s="48"/>
       <c r="G398" s="49"/>
       <c r="H398" s="49"/>
@@ -8532,13 +8532,13 @@
       <c r="J400" s="49"/>
     </row>
     <row r="401" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="64" t="s">
+      <c r="A401" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="B401" s="64"/>
-      <c r="C401" s="64"/>
-      <c r="D401" s="64"/>
-      <c r="E401" s="64"/>
+      <c r="B401" s="63"/>
+      <c r="C401" s="63"/>
+      <c r="D401" s="63"/>
+      <c r="E401" s="63"/>
       <c r="F401" s="51"/>
       <c r="G401" s="50"/>
       <c r="H401" s="50"/>
@@ -8601,10 +8601,10 @@
       <c r="A406" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B406" s="63" t="s">
+      <c r="B406" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="C406" s="63"/>
+      <c r="C406" s="64"/>
       <c r="F406" s="51"/>
       <c r="G406" s="50"/>
       <c r="H406" s="50"/>
@@ -8628,13 +8628,13 @@
       <c r="J408" s="50"/>
     </row>
     <row r="409" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A409" s="64" t="s">
+      <c r="A409" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="B409" s="64"/>
-      <c r="C409" s="64"/>
-      <c r="D409" s="64"/>
-      <c r="E409" s="64"/>
+      <c r="B409" s="63"/>
+      <c r="C409" s="63"/>
+      <c r="D409" s="63"/>
+      <c r="E409" s="63"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
@@ -8677,13 +8677,13 @@
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="64" t="s">
+      <c r="A417" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="B417" s="64"/>
-      <c r="C417" s="64"/>
-      <c r="D417" s="64"/>
-      <c r="E417" s="64"/>
+      <c r="B417" s="63"/>
+      <c r="C417" s="63"/>
+      <c r="D417" s="63"/>
+      <c r="E417" s="63"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
@@ -8727,6 +8727,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="A361:E361"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="A369:E369"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="A385:E385"/>
+    <mergeCell ref="A345:E345"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="F291:F296"/>
+    <mergeCell ref="G291:G292"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="I291:I292"/>
+    <mergeCell ref="J291:J292"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="I293:I294"/>
+    <mergeCell ref="J293:J294"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="H295:H296"/>
+    <mergeCell ref="I295:I296"/>
+    <mergeCell ref="J295:J296"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A337:E337"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A417:E417"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="A281:E281"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="A289:E289"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="A401:E401"/>
     <mergeCell ref="B406:C406"/>
     <mergeCell ref="A84:E84"/>
@@ -8751,103 +8848,6 @@
     <mergeCell ref="H227:P227"/>
     <mergeCell ref="B201:D201"/>
     <mergeCell ref="E201:G201"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A417:E417"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="A281:E281"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A228:E228"/>
-    <mergeCell ref="A235:E235"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="A289:E289"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="A259:E259"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A337:E337"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="A345:E345"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="F291:F296"/>
-    <mergeCell ref="G291:G292"/>
-    <mergeCell ref="H291:H292"/>
-    <mergeCell ref="I291:I292"/>
-    <mergeCell ref="J291:J292"/>
-    <mergeCell ref="G293:G294"/>
-    <mergeCell ref="H293:H294"/>
-    <mergeCell ref="I293:I294"/>
-    <mergeCell ref="J293:J294"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="H295:H296"/>
-    <mergeCell ref="I295:I296"/>
-    <mergeCell ref="J295:J296"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="A361:E361"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="A369:E369"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="A385:E385"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" location="what-is-the-best" xr:uid="{232E7306-4B0A-42D2-A1F9-1538B357461D}"/>
